--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597D1D32-42C3-4DB2-BC97-FD7C9F7608F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD0C71-6706-4E2B-8197-CAE9CF56CD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1080" windowWidth="25200" windowHeight="15030" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4680" windowWidth="38400" windowHeight="10575" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
@@ -15,22 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'default-configurationプロパティ定義一覧'!$A$2:$T$336</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'default-configurationプロパティ定義一覧'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6036" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6044" uniqueCount="1482">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -6285,7 +6275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6487,9 +6477,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6536,7 +6523,127 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="427">
+  <dxfs count="437">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -12206,14 +12313,14 @@
       <c r="B1" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="77" t="s">
         <v>795</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="4" t="s">
         <v>790</v>
       </c>
@@ -32622,7 +32729,7 @@
         <f t="shared" si="6"/>
         <v>363</v>
       </c>
-      <c r="B365" s="68" t="s">
+      <c r="B365" s="67" t="s">
         <v>791</v>
       </c>
       <c r="C365" s="36" t="s">
@@ -32680,7 +32787,7 @@
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
-      <c r="B366" s="69"/>
+      <c r="B366" s="68"/>
       <c r="C366" s="36" t="s">
         <v>899</v>
       </c>
@@ -32699,7 +32806,9 @@
       <c r="H366" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I366" s="67"/>
+      <c r="I366" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J366" s="2" t="s">
         <v>1436</v>
       </c>
@@ -32727,12 +32836,12 @@
       </c>
       <c r="S366" s="33"/>
     </row>
-    <row r="367" spans="1:19" ht="54" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="2">
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
-      <c r="B367" s="69"/>
+      <c r="B367" s="68"/>
       <c r="C367" s="36" t="s">
         <v>899</v>
       </c>
@@ -32751,7 +32860,9 @@
       <c r="H367" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I367" s="2"/>
+      <c r="I367" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J367" s="2" t="s">
         <v>1441</v>
       </c>
@@ -32784,7 +32895,7 @@
         <f t="shared" si="6"/>
         <v>366</v>
       </c>
-      <c r="B368" s="69"/>
+      <c r="B368" s="68"/>
       <c r="C368" s="36" t="s">
         <v>899</v>
       </c>
@@ -32803,7 +32914,9 @@
       <c r="H368" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I368" s="2"/>
+      <c r="I368" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J368" s="2" t="s">
         <v>1447</v>
       </c>
@@ -32836,7 +32949,7 @@
         <f t="shared" si="6"/>
         <v>367</v>
       </c>
-      <c r="B369" s="69"/>
+      <c r="B369" s="68"/>
       <c r="C369" s="36" t="s">
         <v>899</v>
       </c>
@@ -32855,7 +32968,9 @@
       <c r="H369" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I369" s="2"/>
+      <c r="I369" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J369" s="2" t="s">
         <v>1454</v>
       </c>
@@ -32890,7 +33005,7 @@
         <f t="shared" si="6"/>
         <v>368</v>
       </c>
-      <c r="B370" s="69"/>
+      <c r="B370" s="68"/>
       <c r="C370" s="36" t="s">
         <v>899</v>
       </c>
@@ -32909,7 +33024,9 @@
       <c r="H370" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I370" s="2"/>
+      <c r="I370" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J370" s="2" t="s">
         <v>317</v>
       </c>
@@ -32942,7 +33059,7 @@
         <f t="shared" si="6"/>
         <v>369</v>
       </c>
-      <c r="B371" s="69"/>
+      <c r="B371" s="68"/>
       <c r="C371" s="36" t="s">
         <v>899</v>
       </c>
@@ -32961,7 +33078,9 @@
       <c r="H371" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I371" s="2"/>
+      <c r="I371" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J371" s="2" t="s">
         <v>323</v>
       </c>
@@ -32994,7 +33113,7 @@
         <f t="shared" si="6"/>
         <v>370</v>
       </c>
-      <c r="B372" s="69"/>
+      <c r="B372" s="68"/>
       <c r="C372" s="36" t="s">
         <v>899</v>
       </c>
@@ -33013,7 +33132,9 @@
       <c r="H372" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I372" s="2"/>
+      <c r="I372" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J372" s="2" t="s">
         <v>323</v>
       </c>
@@ -33046,7 +33167,7 @@
         <f t="shared" si="6"/>
         <v>371</v>
       </c>
-      <c r="B373" s="70"/>
+      <c r="B373" s="69"/>
       <c r="C373" s="36" t="s">
         <v>899</v>
       </c>
@@ -33065,7 +33186,9 @@
       <c r="H373" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="I373" s="2"/>
+      <c r="I373" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="J373" s="2" t="s">
         <v>323</v>
       </c>
@@ -33093,119 +33216,119 @@
       </c>
       <c r="S373" s="33"/>
     </row>
-    <row r="374" spans="1:19" s="76" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="71">
+    <row r="374" spans="1:19" s="75" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="70">
         <f t="shared" si="6"/>
         <v>372</v>
       </c>
-      <c r="B374" s="72" t="s">
+      <c r="B374" s="71" t="s">
         <v>1461</v>
       </c>
-      <c r="C374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="D374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="E374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="F374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="G374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="H374" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="I374" s="71" t="s">
+      <c r="C374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="D374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="E374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="F374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="G374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="H374" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="I374" s="70" t="s">
         <v>1462</v>
       </c>
-      <c r="J374" s="71" t="s">
+      <c r="J374" s="70" t="s">
         <v>1463</v>
       </c>
-      <c r="K374" s="71" t="s">
+      <c r="K374" s="70" t="s">
         <v>1464</v>
       </c>
-      <c r="L374" s="71" t="s">
+      <c r="L374" s="70" t="s">
         <v>1465</v>
       </c>
-      <c r="M374" s="71" t="s">
+      <c r="M374" s="70" t="s">
         <v>1466</v>
       </c>
-      <c r="N374" s="73" t="s">
+      <c r="N374" s="72" t="s">
         <v>1015</v>
       </c>
-      <c r="O374" s="73" t="s">
+      <c r="O374" s="72" t="s">
         <v>1467</v>
       </c>
-      <c r="P374" s="73" t="s">
+      <c r="P374" s="72" t="s">
         <v>1016</v>
       </c>
-      <c r="Q374" s="73" t="s">
+      <c r="Q374" s="72" t="s">
         <v>1468</v>
       </c>
-      <c r="R374" s="74" t="s">
+      <c r="R374" s="73" t="s">
         <v>1204</v>
       </c>
-      <c r="S374" s="75"/>
-    </row>
-    <row r="375" spans="1:19" s="76" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A375" s="71">
+      <c r="S374" s="74"/>
+    </row>
+    <row r="375" spans="1:19" s="75" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="70">
         <f t="shared" si="6"/>
         <v>373</v>
       </c>
-      <c r="B375" s="77"/>
-      <c r="C375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="D375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="E375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="F375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="G375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="H375" s="73" t="s">
-        <v>899</v>
-      </c>
-      <c r="I375" s="71" t="s">
+      <c r="B375" s="76"/>
+      <c r="C375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="D375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="E375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="F375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="G375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="H375" s="72" t="s">
+        <v>899</v>
+      </c>
+      <c r="I375" s="70" t="s">
         <v>1462</v>
       </c>
-      <c r="J375" s="71" t="s">
+      <c r="J375" s="70" t="s">
         <v>1463</v>
       </c>
-      <c r="K375" s="71" t="s">
+      <c r="K375" s="70" t="s">
         <v>1464</v>
       </c>
-      <c r="L375" s="71" t="s">
+      <c r="L375" s="70" t="s">
         <v>1465</v>
       </c>
-      <c r="M375" s="71" t="s">
+      <c r="M375" s="70" t="s">
         <v>1466</v>
       </c>
-      <c r="N375" s="73" t="s">
+      <c r="N375" s="72" t="s">
         <v>1469</v>
       </c>
-      <c r="O375" s="73" t="s">
+      <c r="O375" s="72" t="s">
         <v>1470</v>
       </c>
-      <c r="P375" s="73" t="s">
+      <c r="P375" s="72" t="s">
         <v>1471</v>
       </c>
-      <c r="Q375" s="73" t="s">
+      <c r="Q375" s="72" t="s">
         <v>1468</v>
       </c>
-      <c r="R375" s="74" t="s">
+      <c r="R375" s="73" t="s">
         <v>1472</v>
       </c>
-      <c r="S375" s="75"/>
+      <c r="S375" s="74"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:T336" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -33214,2138 +33337,2168 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I191:I195 B191:B195 I244:I248 B244:B248 I123:I140 B123:B140 I250:I259 I85:I88 B250:B259 I142:I144 B142:B144 I261:I264 B261:B264 I333:I336 I309:I314 I268:I297 I17:I31 B4:B10 B17:B31 I4:I10 B33:B74 I33:I74 B148 I148 I90:I103 I106:I121 B106:B121 I186:I187 B186:B187 I173:I179 B173:B179 I158:I171 B158:B171 B153:B155 I151:I155 I181:I184 B181:B184 B85:B103 I197:I217 B197:B217 I77:I82 B77:B83 I220:I236 I239:I242 B220:B236 B239:B242">
-    <cfRule type="cellIs" dxfId="426" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="610" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J191:J195 J244:J248 J123:J140 J250:J259 J142:J144 J261:J264 J333:J336 J309:J314 J4:J10 J17:J31 J267:J297 J33:J74 J146:J148 J97:J103 J106:J121 J186:J187 J173:J179 J158:J171 J151:J155 J181:J184 J85:J95 J197:J217 J77:J82 J220:J236 J239:J242">
-    <cfRule type="cellIs" dxfId="425" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="609" operator="equal">
       <formula>$J3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J190">
-    <cfRule type="cellIs" dxfId="424" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="612" operator="equal">
       <formula>$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L191:L195 L244:L248 L123:L140 L250:L259 L142:L144 L261:L264 L333:L336 L309:L314 L17:L31 L4:L10 L267:L297 L33:L74 L147:L148 L97:L103 L106:L121 L186:L187 L173:L179 L158:L171 L151:L155 L181:L184 L85:L95 L197:L217 L77:L82 L220:L236 L239:L242">
-    <cfRule type="cellIs" dxfId="423" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="607" operator="equal">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M191:M195 M244:M248 M123:M140 M250:M259 M142:M144 M261:M264 M333:M336 M309:M314 M4:M10 M17:M31 M267:M297 M33:M74 M147:M148 M97:M103 M106:M121 M186:M187 M173:M179 M158:M171 M151:M155 M181:M184 M85:M95 M197:M217 M77:M82 M220:M236 M239:M242">
-    <cfRule type="cellIs" dxfId="422" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="606" operator="equal">
       <formula>$M3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122 B122">
-    <cfRule type="cellIs" dxfId="421" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="618" operator="equal">
       <formula>$I95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J122">
-    <cfRule type="cellIs" dxfId="420" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="621" operator="equal">
       <formula>$J95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L122">
-    <cfRule type="cellIs" dxfId="419" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="624" operator="equal">
       <formula>$L95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M122">
-    <cfRule type="cellIs" dxfId="418" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="627" operator="equal">
       <formula>$M95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141 B141">
-    <cfRule type="cellIs" dxfId="417" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="636" operator="equal">
       <formula>$I121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96">
-    <cfRule type="cellIs" dxfId="416" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="639" operator="equal">
       <formula>$J140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141">
-    <cfRule type="cellIs" dxfId="415" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="640" operator="equal">
       <formula>$J121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L96">
-    <cfRule type="cellIs" dxfId="414" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="643" operator="equal">
       <formula>$L140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L141">
-    <cfRule type="cellIs" dxfId="413" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="644" operator="equal">
       <formula>$L121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96">
-    <cfRule type="cellIs" dxfId="412" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="647" operator="equal">
       <formula>$M140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M141">
-    <cfRule type="cellIs" dxfId="411" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="648" operator="equal">
       <formula>$M121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="410" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="600" operator="equal">
       <formula>$I133</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I260 B260">
-    <cfRule type="cellIs" dxfId="409" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="654" operator="equal">
       <formula>$I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J260">
-    <cfRule type="cellIs" dxfId="408" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="660" operator="equal">
       <formula>$J31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L260">
-    <cfRule type="cellIs" dxfId="407" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="664" operator="equal">
       <formula>$L31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M260">
-    <cfRule type="cellIs" dxfId="406" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="667" operator="equal">
       <formula>$M31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L190">
-    <cfRule type="cellIs" dxfId="405" priority="671" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="681" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M190">
-    <cfRule type="cellIs" dxfId="404" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="685" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="403" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="692" operator="equal">
       <formula>$I242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J196">
-    <cfRule type="cellIs" dxfId="402" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="698" operator="equal">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L196">
-    <cfRule type="cellIs" dxfId="401" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="702" operator="equal">
       <formula>$L74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M196">
-    <cfRule type="cellIs" dxfId="400" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="705" operator="equal">
       <formula>$M74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 B3">
-    <cfRule type="cellIs" dxfId="399" priority="724" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="734" operator="equal">
       <formula>$I195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="398" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="736" operator="equal">
       <formula>$J195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="397" priority="727" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="737" operator="equal">
       <formula>$L195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="396" priority="728" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="738" operator="equal">
       <formula>$M195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="395" priority="731" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="741" operator="equal">
       <formula>$I242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="394" priority="737" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="747" operator="equal">
       <formula>$J242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="cellIs" dxfId="393" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="751" operator="equal">
       <formula>$L242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="392" priority="744" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="754" operator="equal">
       <formula>$M242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196 I196">
-    <cfRule type="cellIs" dxfId="391" priority="787" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="797" operator="equal">
       <formula>$I74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I243 B243">
-    <cfRule type="cellIs" dxfId="390" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="800" operator="equal">
       <formula>$I82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J243">
-    <cfRule type="cellIs" dxfId="389" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="806" operator="equal">
       <formula>$J82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L243">
-    <cfRule type="cellIs" dxfId="388" priority="799" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="809" operator="equal">
       <formula>$L82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M243">
-    <cfRule type="cellIs" dxfId="387" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="812" operator="equal">
       <formula>$M82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156 B156">
-    <cfRule type="cellIs" dxfId="386" priority="807" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="817" operator="equal">
       <formula>$I75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="385" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="819" operator="equal">
       <formula>$J75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L156">
-    <cfRule type="cellIs" dxfId="384" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="820" operator="equal">
       <formula>$L75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156">
-    <cfRule type="cellIs" dxfId="383" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="821" operator="equal">
       <formula>$M75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265 B265">
-    <cfRule type="cellIs" dxfId="382" priority="814" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="824" operator="equal">
       <formula>$I248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J265">
-    <cfRule type="cellIs" dxfId="381" priority="820" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="830" operator="equal">
       <formula>$J248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L265">
-    <cfRule type="cellIs" dxfId="380" priority="823" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="833" operator="equal">
       <formula>$L248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="cellIs" dxfId="379" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="836" operator="equal">
       <formula>$M248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84 B84">
-    <cfRule type="cellIs" dxfId="378" priority="859" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="869" operator="equal">
       <formula>$I259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="cellIs" dxfId="377" priority="869" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="879" operator="equal">
       <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L84">
-    <cfRule type="cellIs" dxfId="376" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="885" operator="equal">
       <formula>$L259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84">
-    <cfRule type="cellIs" dxfId="375" priority="881" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="891" operator="equal">
       <formula>$M259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I157 B157">
-    <cfRule type="cellIs" dxfId="374" priority="907" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="917" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157">
-    <cfRule type="cellIs" dxfId="373" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="919" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L157">
-    <cfRule type="cellIs" dxfId="372" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="920" operator="equal">
       <formula>$L144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="cellIs" dxfId="371" priority="911" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="921" operator="equal">
       <formula>$M144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32 B32">
-    <cfRule type="cellIs" dxfId="370" priority="920" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="930" operator="equal">
       <formula>$I264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="369" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="932" operator="equal">
       <formula>$J264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="368" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="933" operator="equal">
       <formula>$L264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="cellIs" dxfId="367" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="934" operator="equal">
       <formula>$M264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I249 B249">
-    <cfRule type="cellIs" dxfId="366" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="937" operator="equal">
       <formula>$I265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249">
-    <cfRule type="cellIs" dxfId="365" priority="929" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="939" operator="equal">
       <formula>$J265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L249">
-    <cfRule type="cellIs" dxfId="364" priority="930" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="940" operator="equal">
       <formula>$L265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M249">
-    <cfRule type="cellIs" dxfId="363" priority="931" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="941" operator="equal">
       <formula>$M265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I188:I189 B188:B189">
-    <cfRule type="cellIs" dxfId="362" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="962" operator="equal">
       <formula>$I179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I180 B180">
-    <cfRule type="cellIs" dxfId="361" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="963" operator="equal">
       <formula>$I188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188:J189">
-    <cfRule type="cellIs" dxfId="360" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="968" operator="equal">
       <formula>$J179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J180">
-    <cfRule type="cellIs" dxfId="359" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="969" operator="equal">
       <formula>$J188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L188:L189">
-    <cfRule type="cellIs" dxfId="358" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="971" operator="equal">
       <formula>$L179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L180">
-    <cfRule type="cellIs" dxfId="357" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="972" operator="equal">
       <formula>$L188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M188:M189">
-    <cfRule type="cellIs" dxfId="356" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="974" operator="equal">
       <formula>$M179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M180">
-    <cfRule type="cellIs" dxfId="355" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="975" operator="equal">
       <formula>$M188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:K195 K244:K248 K123:K140 K250:K259 K142:K144 K261:K264 K333:K336 K309:K314 K4:K10 K17:K31 K267:K297 K33:K74 K147:K148 K97:K103 K106:K121 K186:K187 K173:K179 K158:K171 K151:K155 K181:K184 K85:K95 K197:K217 K77:K82 K220:K236 K239:K242">
-    <cfRule type="cellIs" dxfId="354" priority="969" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="979" operator="equal">
       <formula>$K3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K122">
-    <cfRule type="cellIs" dxfId="353" priority="984" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="994" operator="equal">
       <formula>$K95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K96">
-    <cfRule type="cellIs" dxfId="352" priority="985" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="995" operator="equal">
       <formula>$K140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K141">
-    <cfRule type="cellIs" dxfId="351" priority="986" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="996" operator="equal">
       <formula>$K121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260">
-    <cfRule type="cellIs" dxfId="350" priority="987" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="997" operator="equal">
       <formula>$K31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="cellIs" dxfId="349" priority="988" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="998" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="cellIs" dxfId="348" priority="989" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="999" operator="equal">
       <formula>$K74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="347" priority="990" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="1000" operator="equal">
       <formula>$K195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="346" priority="991" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="1001" operator="equal">
       <formula>$K242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K243">
-    <cfRule type="cellIs" dxfId="345" priority="992" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="1002" operator="equal">
       <formula>$K82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156">
-    <cfRule type="cellIs" dxfId="344" priority="993" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="1003" operator="equal">
       <formula>$K75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="cellIs" dxfId="343" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="1004" operator="equal">
       <formula>$K248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K84">
-    <cfRule type="cellIs" dxfId="342" priority="996" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="1006" operator="equal">
       <formula>$K259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="341" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="1008" operator="equal">
       <formula>$K264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K249">
-    <cfRule type="cellIs" dxfId="340" priority="999" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="1009" operator="equal">
       <formula>$K265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K188:K189">
-    <cfRule type="cellIs" dxfId="339" priority="1001" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="1011" operator="equal">
       <formula>$K179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K180">
-    <cfRule type="cellIs" dxfId="338" priority="1002" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="1012" operator="equal">
       <formula>$K188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:S74 S4:S10 S148 S106:S144 S186:S189 S157:S171 S153:S155 S173:S184 S85:S104 S191:S217 S77:S83 S220:S236 S239:S265">
-    <cfRule type="cellIs" dxfId="337" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="599" operator="equal">
       <formula>$S3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="cellIs" dxfId="336" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="598" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I267">
-    <cfRule type="cellIs" dxfId="335" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="597" operator="equal">
       <formula>$I266</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I315">
-    <cfRule type="cellIs" dxfId="334" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="590" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J315">
-    <cfRule type="cellIs" dxfId="333" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="589" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L315">
-    <cfRule type="cellIs" dxfId="332" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="588" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M315">
-    <cfRule type="cellIs" dxfId="331" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="587" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315">
-    <cfRule type="cellIs" dxfId="330" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="591" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I332">
-    <cfRule type="cellIs" dxfId="329" priority="1003" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="1013" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J332">
-    <cfRule type="cellIs" dxfId="328" priority="1004" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="1014" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L332">
-    <cfRule type="cellIs" dxfId="327" priority="1005" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="1015" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M332">
-    <cfRule type="cellIs" dxfId="326" priority="1006" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="1016" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K332">
-    <cfRule type="cellIs" dxfId="325" priority="1007" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="1017" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I316">
+    <cfRule type="cellIs" dxfId="334" priority="585" operator="equal">
+      <formula>$I315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J316">
+    <cfRule type="cellIs" dxfId="333" priority="584" operator="equal">
+      <formula>$J315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L316">
+    <cfRule type="cellIs" dxfId="332" priority="583" operator="equal">
+      <formula>$L315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M316">
+    <cfRule type="cellIs" dxfId="331" priority="582" operator="equal">
+      <formula>$M315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K316">
+    <cfRule type="cellIs" dxfId="330" priority="586" operator="equal">
+      <formula>$K315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I326">
+    <cfRule type="cellIs" dxfId="329" priority="580" operator="equal">
+      <formula>$I316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J326">
+    <cfRule type="cellIs" dxfId="328" priority="579" operator="equal">
+      <formula>$J316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L326">
+    <cfRule type="cellIs" dxfId="327" priority="578" operator="equal">
+      <formula>$L316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M326">
+    <cfRule type="cellIs" dxfId="326" priority="577" operator="equal">
+      <formula>$M316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K326">
+    <cfRule type="cellIs" dxfId="325" priority="581" operator="equal">
+      <formula>$K316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I317 I105 I185 B185 B152 I219 B104:B105 B218:B219 I238 B238">
     <cfRule type="cellIs" dxfId="324" priority="575" operator="equal">
-      <formula>$I315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J316">
+      <formula>$I102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J317 J105 J185 J219 J238">
     <cfRule type="cellIs" dxfId="323" priority="574" operator="equal">
-      <formula>$J315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L316">
+      <formula>$J103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L317 L105 L185 L219 L238">
     <cfRule type="cellIs" dxfId="322" priority="573" operator="equal">
-      <formula>$L315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M316">
+      <formula>$L103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M317 M105 M185 M219 M238">
     <cfRule type="cellIs" dxfId="321" priority="572" operator="equal">
-      <formula>$M315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K316">
+      <formula>$M103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K317 K105 K185 K219 K238">
     <cfRule type="cellIs" dxfId="320" priority="576" operator="equal">
-      <formula>$K315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I326">
+      <formula>$K103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I323 I16 B16">
     <cfRule type="cellIs" dxfId="319" priority="570" operator="equal">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J323 J16">
+    <cfRule type="cellIs" dxfId="318" priority="569" operator="equal">
+      <formula>$J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L323 L16">
+    <cfRule type="cellIs" dxfId="317" priority="568" operator="equal">
+      <formula>$L10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M323 M16">
+    <cfRule type="cellIs" dxfId="316" priority="567" operator="equal">
+      <formula>$M10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K323 K16">
+    <cfRule type="cellIs" dxfId="315" priority="571" operator="equal">
+      <formula>$K10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I324">
+    <cfRule type="cellIs" dxfId="314" priority="565" operator="equal">
+      <formula>$I323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J324">
+    <cfRule type="cellIs" dxfId="313" priority="564" operator="equal">
+      <formula>$J323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L324">
+    <cfRule type="cellIs" dxfId="312" priority="563" operator="equal">
+      <formula>$L323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M324">
+    <cfRule type="cellIs" dxfId="311" priority="562" operator="equal">
+      <formula>$M323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K324">
+    <cfRule type="cellIs" dxfId="310" priority="566" operator="equal">
+      <formula>$K323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I325">
+    <cfRule type="cellIs" dxfId="309" priority="560" operator="equal">
+      <formula>$I323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J325">
+    <cfRule type="cellIs" dxfId="308" priority="559" operator="equal">
+      <formula>$J323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L325">
+    <cfRule type="cellIs" dxfId="307" priority="558" operator="equal">
+      <formula>$L323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M325">
+    <cfRule type="cellIs" dxfId="306" priority="557" operator="equal">
+      <formula>$M323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K325">
+    <cfRule type="cellIs" dxfId="305" priority="561" operator="equal">
+      <formula>$K323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I318">
+    <cfRule type="cellIs" dxfId="304" priority="555" operator="equal">
+      <formula>$I314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J318">
+    <cfRule type="cellIs" dxfId="303" priority="554" operator="equal">
+      <formula>$J314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L318">
+    <cfRule type="cellIs" dxfId="302" priority="553" operator="equal">
+      <formula>$L314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M318">
+    <cfRule type="cellIs" dxfId="301" priority="552" operator="equal">
+      <formula>$M314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K318">
+    <cfRule type="cellIs" dxfId="300" priority="556" operator="equal">
+      <formula>$K314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I319">
+    <cfRule type="cellIs" dxfId="299" priority="550" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J319">
+    <cfRule type="cellIs" dxfId="298" priority="549" operator="equal">
+      <formula>$J318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L319">
+    <cfRule type="cellIs" dxfId="297" priority="548" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M319">
+    <cfRule type="cellIs" dxfId="296" priority="547" operator="equal">
+      <formula>$M318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K319">
+    <cfRule type="cellIs" dxfId="295" priority="551" operator="equal">
+      <formula>$K318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I320">
+    <cfRule type="cellIs" dxfId="294" priority="545" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J320">
+    <cfRule type="cellIs" dxfId="293" priority="544" operator="equal">
+      <formula>$J318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L320">
+    <cfRule type="cellIs" dxfId="292" priority="543" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M320">
+    <cfRule type="cellIs" dxfId="291" priority="542" operator="equal">
+      <formula>$M318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K320">
+    <cfRule type="cellIs" dxfId="290" priority="546" operator="equal">
+      <formula>$K318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I321">
+    <cfRule type="cellIs" dxfId="289" priority="540" operator="equal">
+      <formula>$I320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J321">
+    <cfRule type="cellIs" dxfId="288" priority="539" operator="equal">
+      <formula>$J320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L321">
+    <cfRule type="cellIs" dxfId="287" priority="538" operator="equal">
+      <formula>$L320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M321">
+    <cfRule type="cellIs" dxfId="286" priority="537" operator="equal">
+      <formula>$M320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K321">
+    <cfRule type="cellIs" dxfId="285" priority="541" operator="equal">
+      <formula>$K320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I322">
+    <cfRule type="cellIs" dxfId="284" priority="535" operator="equal">
+      <formula>$I320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J322">
+    <cfRule type="cellIs" dxfId="283" priority="534" operator="equal">
+      <formula>$J320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L322">
+    <cfRule type="cellIs" dxfId="282" priority="533" operator="equal">
+      <formula>$L320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M322">
+    <cfRule type="cellIs" dxfId="281" priority="532" operator="equal">
+      <formula>$M320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K322">
+    <cfRule type="cellIs" dxfId="280" priority="536" operator="equal">
+      <formula>$K320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I327">
+    <cfRule type="cellIs" dxfId="279" priority="530" operator="equal">
+      <formula>$I317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J327">
+    <cfRule type="cellIs" dxfId="278" priority="529" operator="equal">
+      <formula>$J317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L327">
+    <cfRule type="cellIs" dxfId="277" priority="528" operator="equal">
+      <formula>$L317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M327">
+    <cfRule type="cellIs" dxfId="276" priority="527" operator="equal">
+      <formula>$M317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K327">
+    <cfRule type="cellIs" dxfId="275" priority="531" operator="equal">
+      <formula>$K317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I330">
+    <cfRule type="cellIs" dxfId="274" priority="525" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J330">
+    <cfRule type="cellIs" dxfId="273" priority="524" operator="equal">
+      <formula>$J318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L330">
+    <cfRule type="cellIs" dxfId="272" priority="523" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M330">
+    <cfRule type="cellIs" dxfId="271" priority="522" operator="equal">
+      <formula>$M318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K330">
+    <cfRule type="cellIs" dxfId="270" priority="526" operator="equal">
+      <formula>$K318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I331">
+    <cfRule type="cellIs" dxfId="269" priority="520" operator="equal">
+      <formula>$I319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J331">
+    <cfRule type="cellIs" dxfId="268" priority="519" operator="equal">
+      <formula>$J319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L331">
+    <cfRule type="cellIs" dxfId="267" priority="518" operator="equal">
+      <formula>$L319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M331">
+    <cfRule type="cellIs" dxfId="266" priority="517" operator="equal">
+      <formula>$M319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K331">
+    <cfRule type="cellIs" dxfId="265" priority="521" operator="equal">
+      <formula>$K319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I328">
+    <cfRule type="cellIs" dxfId="264" priority="515" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J326">
-    <cfRule type="cellIs" dxfId="318" priority="569" operator="equal">
+  <conditionalFormatting sqref="J328">
+    <cfRule type="cellIs" dxfId="263" priority="514" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L326">
-    <cfRule type="cellIs" dxfId="317" priority="568" operator="equal">
+  <conditionalFormatting sqref="L328">
+    <cfRule type="cellIs" dxfId="262" priority="513" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M326">
-    <cfRule type="cellIs" dxfId="316" priority="567" operator="equal">
+  <conditionalFormatting sqref="M328">
+    <cfRule type="cellIs" dxfId="261" priority="512" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K326">
-    <cfRule type="cellIs" dxfId="315" priority="571" operator="equal">
+  <conditionalFormatting sqref="K328">
+    <cfRule type="cellIs" dxfId="260" priority="516" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I317 I105 I185 B185 B152 I219 B104:B105 B218:B219 I238 B238">
-    <cfRule type="cellIs" dxfId="314" priority="565" operator="equal">
-      <formula>$I102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J317 J105 J185 J219 J238">
-    <cfRule type="cellIs" dxfId="313" priority="564" operator="equal">
-      <formula>$J103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L317 L105 L185 L219 L238">
-    <cfRule type="cellIs" dxfId="312" priority="563" operator="equal">
-      <formula>$L103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M317 M105 M185 M219 M238">
-    <cfRule type="cellIs" dxfId="311" priority="562" operator="equal">
-      <formula>$M103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K317 K105 K185 K219 K238">
-    <cfRule type="cellIs" dxfId="310" priority="566" operator="equal">
-      <formula>$K103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I323 I16 B16">
-    <cfRule type="cellIs" dxfId="309" priority="560" operator="equal">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J323 J16">
-    <cfRule type="cellIs" dxfId="308" priority="559" operator="equal">
-      <formula>$J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L323 L16">
-    <cfRule type="cellIs" dxfId="307" priority="558" operator="equal">
-      <formula>$L10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M323 M16">
-    <cfRule type="cellIs" dxfId="306" priority="557" operator="equal">
-      <formula>$M10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K323 K16">
-    <cfRule type="cellIs" dxfId="305" priority="561" operator="equal">
-      <formula>$K10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I324">
-    <cfRule type="cellIs" dxfId="304" priority="555" operator="equal">
-      <formula>$I323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J324">
-    <cfRule type="cellIs" dxfId="303" priority="554" operator="equal">
-      <formula>$J323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L324">
-    <cfRule type="cellIs" dxfId="302" priority="553" operator="equal">
-      <formula>$L323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M324">
-    <cfRule type="cellIs" dxfId="301" priority="552" operator="equal">
-      <formula>$M323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K324">
-    <cfRule type="cellIs" dxfId="300" priority="556" operator="equal">
-      <formula>$K323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I325">
-    <cfRule type="cellIs" dxfId="299" priority="550" operator="equal">
-      <formula>$I323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J325">
-    <cfRule type="cellIs" dxfId="298" priority="549" operator="equal">
-      <formula>$J323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L325">
-    <cfRule type="cellIs" dxfId="297" priority="548" operator="equal">
-      <formula>$L323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M325">
-    <cfRule type="cellIs" dxfId="296" priority="547" operator="equal">
-      <formula>$M323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K325">
-    <cfRule type="cellIs" dxfId="295" priority="551" operator="equal">
-      <formula>$K323</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I318">
-    <cfRule type="cellIs" dxfId="294" priority="545" operator="equal">
-      <formula>$I314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J318">
-    <cfRule type="cellIs" dxfId="293" priority="544" operator="equal">
-      <formula>$J314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L318">
-    <cfRule type="cellIs" dxfId="292" priority="543" operator="equal">
-      <formula>$L314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M318">
-    <cfRule type="cellIs" dxfId="291" priority="542" operator="equal">
-      <formula>$M314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K318">
-    <cfRule type="cellIs" dxfId="290" priority="546" operator="equal">
-      <formula>$K314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I319">
-    <cfRule type="cellIs" dxfId="289" priority="540" operator="equal">
-      <formula>$I318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J319">
-    <cfRule type="cellIs" dxfId="288" priority="539" operator="equal">
-      <formula>$J318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L319">
-    <cfRule type="cellIs" dxfId="287" priority="538" operator="equal">
-      <formula>$L318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M319">
-    <cfRule type="cellIs" dxfId="286" priority="537" operator="equal">
-      <formula>$M318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K319">
-    <cfRule type="cellIs" dxfId="285" priority="541" operator="equal">
-      <formula>$K318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I320">
-    <cfRule type="cellIs" dxfId="284" priority="535" operator="equal">
-      <formula>$I318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J320">
-    <cfRule type="cellIs" dxfId="283" priority="534" operator="equal">
-      <formula>$J318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L320">
-    <cfRule type="cellIs" dxfId="282" priority="533" operator="equal">
-      <formula>$L318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M320">
-    <cfRule type="cellIs" dxfId="281" priority="532" operator="equal">
-      <formula>$M318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K320">
-    <cfRule type="cellIs" dxfId="280" priority="536" operator="equal">
-      <formula>$K318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I321">
-    <cfRule type="cellIs" dxfId="279" priority="530" operator="equal">
-      <formula>$I320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J321">
-    <cfRule type="cellIs" dxfId="278" priority="529" operator="equal">
-      <formula>$J320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L321">
-    <cfRule type="cellIs" dxfId="277" priority="528" operator="equal">
-      <formula>$L320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M321">
-    <cfRule type="cellIs" dxfId="276" priority="527" operator="equal">
-      <formula>$M320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K321">
-    <cfRule type="cellIs" dxfId="275" priority="531" operator="equal">
-      <formula>$K320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I322">
-    <cfRule type="cellIs" dxfId="274" priority="525" operator="equal">
-      <formula>$I320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J322">
-    <cfRule type="cellIs" dxfId="273" priority="524" operator="equal">
-      <formula>$J320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L322">
-    <cfRule type="cellIs" dxfId="272" priority="523" operator="equal">
-      <formula>$L320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M322">
-    <cfRule type="cellIs" dxfId="271" priority="522" operator="equal">
-      <formula>$M320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K322">
-    <cfRule type="cellIs" dxfId="270" priority="526" operator="equal">
-      <formula>$K320</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I327">
-    <cfRule type="cellIs" dxfId="269" priority="520" operator="equal">
+  <conditionalFormatting sqref="I329">
+    <cfRule type="cellIs" dxfId="259" priority="510" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J327">
-    <cfRule type="cellIs" dxfId="268" priority="519" operator="equal">
+  <conditionalFormatting sqref="J329">
+    <cfRule type="cellIs" dxfId="258" priority="509" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L327">
-    <cfRule type="cellIs" dxfId="267" priority="518" operator="equal">
+  <conditionalFormatting sqref="L329">
+    <cfRule type="cellIs" dxfId="257" priority="508" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M327">
-    <cfRule type="cellIs" dxfId="266" priority="517" operator="equal">
+  <conditionalFormatting sqref="M329">
+    <cfRule type="cellIs" dxfId="256" priority="507" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K327">
-    <cfRule type="cellIs" dxfId="265" priority="521" operator="equal">
+  <conditionalFormatting sqref="K329">
+    <cfRule type="cellIs" dxfId="255" priority="511" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I330">
-    <cfRule type="cellIs" dxfId="264" priority="515" operator="equal">
-      <formula>$I318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J330">
-    <cfRule type="cellIs" dxfId="263" priority="514" operator="equal">
-      <formula>$J318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L330">
-    <cfRule type="cellIs" dxfId="262" priority="513" operator="equal">
-      <formula>$L318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M330">
-    <cfRule type="cellIs" dxfId="261" priority="512" operator="equal">
-      <formula>$M318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K330">
-    <cfRule type="cellIs" dxfId="260" priority="516" operator="equal">
-      <formula>$K318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I331">
-    <cfRule type="cellIs" dxfId="259" priority="510" operator="equal">
-      <formula>$I319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J331">
-    <cfRule type="cellIs" dxfId="258" priority="509" operator="equal">
-      <formula>$J319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L331">
-    <cfRule type="cellIs" dxfId="257" priority="508" operator="equal">
-      <formula>$L319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M331">
-    <cfRule type="cellIs" dxfId="256" priority="507" operator="equal">
-      <formula>$M319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K331">
-    <cfRule type="cellIs" dxfId="255" priority="511" operator="equal">
-      <formula>$K319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I328">
-    <cfRule type="cellIs" dxfId="254" priority="505" operator="equal">
-      <formula>$I316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J328">
-    <cfRule type="cellIs" dxfId="253" priority="504" operator="equal">
-      <formula>$J316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L328">
-    <cfRule type="cellIs" dxfId="252" priority="503" operator="equal">
-      <formula>$L316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M328">
-    <cfRule type="cellIs" dxfId="251" priority="502" operator="equal">
-      <formula>$M316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K328">
+  <conditionalFormatting sqref="I307:I308">
+    <cfRule type="cellIs" dxfId="254" priority="502" operator="equal">
+      <formula>$I296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J307:J308">
+    <cfRule type="cellIs" dxfId="253" priority="503" operator="equal">
+      <formula>$J296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L307:L308">
+    <cfRule type="cellIs" dxfId="252" priority="504" operator="equal">
+      <formula>$L296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M307:M308">
+    <cfRule type="cellIs" dxfId="251" priority="505" operator="equal">
+      <formula>$M296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K307:K308">
     <cfRule type="cellIs" dxfId="250" priority="506" operator="equal">
-      <formula>$K316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I329">
+      <formula>$K296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I306">
     <cfRule type="cellIs" dxfId="249" priority="500" operator="equal">
-      <formula>$I317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J329">
+      <formula>$I295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J306">
     <cfRule type="cellIs" dxfId="248" priority="499" operator="equal">
-      <formula>$J317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L329">
+      <formula>$J295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L306">
     <cfRule type="cellIs" dxfId="247" priority="498" operator="equal">
-      <formula>$L317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M329">
+      <formula>$L295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M306">
     <cfRule type="cellIs" dxfId="246" priority="497" operator="equal">
-      <formula>$M317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K329">
+      <formula>$M295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K306">
     <cfRule type="cellIs" dxfId="245" priority="501" operator="equal">
-      <formula>$K317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I307:I308">
+      <formula>$K295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I305">
     <cfRule type="cellIs" dxfId="244" priority="492" operator="equal">
+      <formula>$I294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J305">
+    <cfRule type="cellIs" dxfId="243" priority="493" operator="equal">
+      <formula>$J294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L305">
+    <cfRule type="cellIs" dxfId="242" priority="494" operator="equal">
+      <formula>$L294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M305">
+    <cfRule type="cellIs" dxfId="241" priority="495" operator="equal">
+      <formula>$M294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K305">
+    <cfRule type="cellIs" dxfId="240" priority="496" operator="equal">
+      <formula>$K294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I299">
+    <cfRule type="cellIs" dxfId="239" priority="490" operator="equal">
+      <formula>$I293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J299">
+    <cfRule type="cellIs" dxfId="238" priority="489" operator="equal">
+      <formula>$J293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L299">
+    <cfRule type="cellIs" dxfId="237" priority="488" operator="equal">
+      <formula>$L293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M299">
+    <cfRule type="cellIs" dxfId="236" priority="487" operator="equal">
+      <formula>$M293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K299">
+    <cfRule type="cellIs" dxfId="235" priority="491" operator="equal">
+      <formula>$K293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K300">
+    <cfRule type="cellIs" dxfId="234" priority="481" operator="equal">
+      <formula>$K294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I300">
+    <cfRule type="cellIs" dxfId="233" priority="480" operator="equal">
+      <formula>$I294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J300">
+    <cfRule type="cellIs" dxfId="232" priority="479" operator="equal">
+      <formula>$J294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L300">
+    <cfRule type="cellIs" dxfId="231" priority="478" operator="equal">
+      <formula>$L294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M300">
+    <cfRule type="cellIs" dxfId="230" priority="477" operator="equal">
+      <formula>$M294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I301">
+    <cfRule type="cellIs" dxfId="229" priority="475" operator="equal">
+      <formula>$I295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J301">
+    <cfRule type="cellIs" dxfId="228" priority="474" operator="equal">
+      <formula>$J295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L301">
+    <cfRule type="cellIs" dxfId="227" priority="473" operator="equal">
+      <formula>$L295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M301">
+    <cfRule type="cellIs" dxfId="226" priority="472" operator="equal">
+      <formula>$M295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K301">
+    <cfRule type="cellIs" dxfId="225" priority="476" operator="equal">
+      <formula>$K295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I302">
+    <cfRule type="cellIs" dxfId="224" priority="470" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J307:J308">
-    <cfRule type="cellIs" dxfId="243" priority="493" operator="equal">
+  <conditionalFormatting sqref="J302">
+    <cfRule type="cellIs" dxfId="223" priority="469" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L307:L308">
-    <cfRule type="cellIs" dxfId="242" priority="494" operator="equal">
+  <conditionalFormatting sqref="L302">
+    <cfRule type="cellIs" dxfId="222" priority="468" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M307:M308">
-    <cfRule type="cellIs" dxfId="241" priority="495" operator="equal">
+  <conditionalFormatting sqref="M302">
+    <cfRule type="cellIs" dxfId="221" priority="467" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K307:K308">
-    <cfRule type="cellIs" dxfId="240" priority="496" operator="equal">
+  <conditionalFormatting sqref="K302">
+    <cfRule type="cellIs" dxfId="220" priority="471" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I306">
-    <cfRule type="cellIs" dxfId="239" priority="490" operator="equal">
-      <formula>$I295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J306">
-    <cfRule type="cellIs" dxfId="238" priority="489" operator="equal">
-      <formula>$J295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L306">
-    <cfRule type="cellIs" dxfId="237" priority="488" operator="equal">
-      <formula>$L295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M306">
-    <cfRule type="cellIs" dxfId="236" priority="487" operator="equal">
-      <formula>$M295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K306">
-    <cfRule type="cellIs" dxfId="235" priority="491" operator="equal">
-      <formula>$K295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I305">
-    <cfRule type="cellIs" dxfId="234" priority="482" operator="equal">
-      <formula>$I294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J305">
-    <cfRule type="cellIs" dxfId="233" priority="483" operator="equal">
-      <formula>$J294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L305">
-    <cfRule type="cellIs" dxfId="232" priority="484" operator="equal">
-      <formula>$L294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M305">
-    <cfRule type="cellIs" dxfId="231" priority="485" operator="equal">
-      <formula>$M294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K305">
-    <cfRule type="cellIs" dxfId="230" priority="486" operator="equal">
-      <formula>$K294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I299">
-    <cfRule type="cellIs" dxfId="229" priority="480" operator="equal">
-      <formula>$I293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J299">
-    <cfRule type="cellIs" dxfId="228" priority="479" operator="equal">
-      <formula>$J293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L299">
-    <cfRule type="cellIs" dxfId="227" priority="478" operator="equal">
-      <formula>$L293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M299">
-    <cfRule type="cellIs" dxfId="226" priority="477" operator="equal">
-      <formula>$M293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K299">
-    <cfRule type="cellIs" dxfId="225" priority="481" operator="equal">
-      <formula>$K293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K300">
-    <cfRule type="cellIs" dxfId="224" priority="471" operator="equal">
-      <formula>$K294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I300">
-    <cfRule type="cellIs" dxfId="223" priority="470" operator="equal">
-      <formula>$I294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J300">
-    <cfRule type="cellIs" dxfId="222" priority="469" operator="equal">
-      <formula>$J294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L300">
-    <cfRule type="cellIs" dxfId="221" priority="468" operator="equal">
-      <formula>$L294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M300">
-    <cfRule type="cellIs" dxfId="220" priority="467" operator="equal">
-      <formula>$M294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I301">
+  <conditionalFormatting sqref="I304">
     <cfRule type="cellIs" dxfId="219" priority="465" operator="equal">
-      <formula>$I295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J301">
+      <formula>$I297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J304">
     <cfRule type="cellIs" dxfId="218" priority="464" operator="equal">
-      <formula>$J295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L301">
+      <formula>$J297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L304">
     <cfRule type="cellIs" dxfId="217" priority="463" operator="equal">
-      <formula>$L295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M301">
+      <formula>$L297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M304">
     <cfRule type="cellIs" dxfId="216" priority="462" operator="equal">
-      <formula>$M295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K301">
+      <formula>$M297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K304">
     <cfRule type="cellIs" dxfId="215" priority="466" operator="equal">
-      <formula>$K295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I302">
+      <formula>$K297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I303">
     <cfRule type="cellIs" dxfId="214" priority="460" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J302">
+  <conditionalFormatting sqref="J303">
     <cfRule type="cellIs" dxfId="213" priority="459" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L302">
+  <conditionalFormatting sqref="L303">
     <cfRule type="cellIs" dxfId="212" priority="458" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M302">
+  <conditionalFormatting sqref="M303">
     <cfRule type="cellIs" dxfId="211" priority="457" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K302">
+  <conditionalFormatting sqref="K303">
     <cfRule type="cellIs" dxfId="210" priority="461" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I304">
-    <cfRule type="cellIs" dxfId="209" priority="455" operator="equal">
+  <conditionalFormatting sqref="K298">
+    <cfRule type="cellIs" dxfId="209" priority="456" operator="equal">
+      <formula>$K297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L298">
+    <cfRule type="cellIs" dxfId="208" priority="455" operator="equal">
+      <formula>$L297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M298">
+    <cfRule type="cellIs" dxfId="207" priority="454" operator="equal">
+      <formula>$M297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J298">
+    <cfRule type="cellIs" dxfId="206" priority="453" operator="equal">
+      <formula>$J297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I298">
+    <cfRule type="cellIs" dxfId="205" priority="452" operator="equal">
       <formula>$I297</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J304">
-    <cfRule type="cellIs" dxfId="208" priority="454" operator="equal">
-      <formula>$J297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L304">
-    <cfRule type="cellIs" dxfId="207" priority="453" operator="equal">
-      <formula>$L297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M304">
-    <cfRule type="cellIs" dxfId="206" priority="452" operator="equal">
-      <formula>$M297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K304">
-    <cfRule type="cellIs" dxfId="205" priority="456" operator="equal">
-      <formula>$K297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I303">
-    <cfRule type="cellIs" dxfId="204" priority="450" operator="equal">
-      <formula>$I296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J303">
-    <cfRule type="cellIs" dxfId="203" priority="449" operator="equal">
-      <formula>$J296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L303">
-    <cfRule type="cellIs" dxfId="202" priority="448" operator="equal">
-      <formula>$L296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M303">
-    <cfRule type="cellIs" dxfId="201" priority="447" operator="equal">
-      <formula>$M296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K303">
-    <cfRule type="cellIs" dxfId="200" priority="451" operator="equal">
-      <formula>$K296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K298">
-    <cfRule type="cellIs" dxfId="199" priority="446" operator="equal">
-      <formula>$K297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L298">
-    <cfRule type="cellIs" dxfId="198" priority="445" operator="equal">
-      <formula>$L297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M298">
-    <cfRule type="cellIs" dxfId="197" priority="444" operator="equal">
-      <formula>$M297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J298">
-    <cfRule type="cellIs" dxfId="196" priority="443" operator="equal">
-      <formula>$J297</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I298">
-    <cfRule type="cellIs" dxfId="195" priority="442" operator="equal">
-      <formula>$I297</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S172">
-    <cfRule type="cellIs" dxfId="194" priority="1029" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="1039" operator="equal">
       <formula>$S167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I172 B172 B15">
-    <cfRule type="cellIs" dxfId="193" priority="1032" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="1042" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J172">
-    <cfRule type="cellIs" dxfId="192" priority="1034" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="1044" operator="equal">
       <formula>$J167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L172">
-    <cfRule type="cellIs" dxfId="191" priority="1035" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="1045" operator="equal">
       <formula>$L167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M172">
-    <cfRule type="cellIs" dxfId="190" priority="1036" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="1046" operator="equal">
       <formula>$M167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K172">
-    <cfRule type="cellIs" dxfId="189" priority="1037" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="1047" operator="equal">
       <formula>$K167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="188" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="444" operator="equal">
       <formula>$K9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="187" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="419" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="196" priority="415" operator="equal">
+      <formula>$M12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="cellIs" dxfId="195" priority="414" operator="equal">
+      <formula>$M13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="194" priority="413" operator="equal">
+      <formula>$M14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12">
+    <cfRule type="cellIs" dxfId="193" priority="412" operator="equal">
+      <formula>$S10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13">
+    <cfRule type="cellIs" dxfId="192" priority="411" operator="equal">
+      <formula>$S12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14">
+    <cfRule type="cellIs" dxfId="191" priority="410" operator="equal">
+      <formula>$S13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15">
+    <cfRule type="cellIs" dxfId="190" priority="409" operator="equal">
+      <formula>$S14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="189" priority="408" operator="equal">
+      <formula>$K12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="188" priority="407" operator="equal">
+      <formula>$K13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="187" priority="406" operator="equal">
+      <formula>$K14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
     <cfRule type="cellIs" dxfId="186" priority="405" operator="equal">
-      <formula>$M12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+      <formula>$L10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
     <cfRule type="cellIs" dxfId="185" priority="404" operator="equal">
-      <formula>$M13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
+      <formula>$L12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
     <cfRule type="cellIs" dxfId="184" priority="403" operator="equal">
-      <formula>$M14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
+      <formula>$L13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
     <cfRule type="cellIs" dxfId="183" priority="402" operator="equal">
+      <formula>$L14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="182" priority="401" operator="equal">
+      <formula>$J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="181" priority="400" operator="equal">
+      <formula>$J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="180" priority="399" operator="equal">
+      <formula>$J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="179" priority="398" operator="equal">
+      <formula>$J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="178" priority="395" operator="equal">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="177" priority="394" operator="equal">
+      <formula>$I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="176" priority="393" operator="equal">
+      <formula>$I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="175" priority="392" operator="equal">
+      <formula>$I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="174" priority="391" operator="equal">
+      <formula>$I6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="173" priority="390" operator="equal">
+      <formula>$I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="172" priority="389" operator="equal">
+      <formula>$I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J266">
+    <cfRule type="cellIs" dxfId="171" priority="1052" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L266">
+    <cfRule type="cellIs" dxfId="170" priority="1055" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M266">
+    <cfRule type="cellIs" dxfId="169" priority="1057" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K266">
+    <cfRule type="cellIs" dxfId="168" priority="1059" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K157">
+    <cfRule type="cellIs" dxfId="167" priority="1069" operator="equal">
+      <formula>$K144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S190">
+    <cfRule type="cellIs" dxfId="166" priority="1071" operator="equal">
+      <formula>$S144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S105 S185 S152 S219 S238">
+    <cfRule type="cellIs" dxfId="165" priority="1083" operator="equal">
+      <formula>$S103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B147">
+    <cfRule type="cellIs" dxfId="164" priority="342" operator="equal">
+      <formula>$I145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I145">
+    <cfRule type="cellIs" dxfId="163" priority="340" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
+    <cfRule type="cellIs" dxfId="162" priority="339" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K145">
+    <cfRule type="cellIs" dxfId="161" priority="341" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S145">
+    <cfRule type="cellIs" dxfId="160" priority="349" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S147">
+    <cfRule type="cellIs" dxfId="159" priority="350" operator="equal">
+      <formula>$S145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S146">
+    <cfRule type="cellIs" dxfId="158" priority="337" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:L148">
+    <cfRule type="cellIs" dxfId="157" priority="335" operator="equal">
+      <formula>$L144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M145:M148">
+    <cfRule type="cellIs" dxfId="156" priority="334" operator="equal">
+      <formula>$M144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K145:K148">
+    <cfRule type="cellIs" dxfId="155" priority="336" operator="equal">
+      <formula>$K144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J147">
+    <cfRule type="cellIs" dxfId="154" priority="325" operator="equal">
+      <formula>$J146</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I146:I147">
+    <cfRule type="cellIs" dxfId="153" priority="333" operator="equal">
+      <formula>$I145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J146:J147">
+    <cfRule type="cellIs" dxfId="152" priority="332" operator="equal">
+      <formula>$J145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:L148">
+    <cfRule type="cellIs" dxfId="151" priority="331" operator="equal">
+      <formula>$L144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M145:M148">
+    <cfRule type="cellIs" dxfId="150" priority="330" operator="equal">
+      <formula>$M144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:L146">
+    <cfRule type="cellIs" dxfId="149" priority="329" operator="equal">
+      <formula>$L144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M145:M146">
+    <cfRule type="cellIs" dxfId="148" priority="328" operator="equal">
+      <formula>$M144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:L146">
+    <cfRule type="cellIs" dxfId="147" priority="327" operator="equal">
+      <formula>$L144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M145:M146">
+    <cfRule type="cellIs" dxfId="146" priority="326" operator="equal">
+      <formula>$M144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
+    <cfRule type="cellIs" dxfId="145" priority="324" operator="equal">
+      <formula>$J144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
+    <cfRule type="cellIs" dxfId="144" priority="323" operator="equal">
+      <formula>$J144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S156">
+    <cfRule type="cellIs" dxfId="143" priority="1087" operator="equal">
+      <formula>$S265</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B146">
+    <cfRule type="cellIs" dxfId="142" priority="1094" operator="equal">
+      <formula>$I3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I150">
+    <cfRule type="cellIs" dxfId="141" priority="253" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J150">
+    <cfRule type="cellIs" dxfId="140" priority="252" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K150">
+    <cfRule type="cellIs" dxfId="139" priority="254" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B150:B151">
+    <cfRule type="cellIs" dxfId="138" priority="251" operator="equal">
+      <formula>$I63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S150">
+    <cfRule type="cellIs" dxfId="137" priority="262" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S151">
+    <cfRule type="cellIs" dxfId="136" priority="250" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J150">
+    <cfRule type="cellIs" dxfId="135" priority="246" operator="equal">
+      <formula>$J259</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J150">
+    <cfRule type="cellIs" dxfId="134" priority="245" operator="equal">
+      <formula>$J259</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L150">
+    <cfRule type="cellIs" dxfId="133" priority="264" operator="equal">
+      <formula>$L259</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M150">
+    <cfRule type="cellIs" dxfId="132" priority="265" operator="equal">
+      <formula>$M259</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K150">
+    <cfRule type="cellIs" dxfId="131" priority="266" operator="equal">
+      <formula>$K259</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S75">
+    <cfRule type="cellIs" dxfId="130" priority="1100" operator="equal">
+      <formula>$S74</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S84">
+    <cfRule type="cellIs" dxfId="129" priority="1122" operator="equal">
+      <formula>$S82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="cellIs" dxfId="128" priority="184" operator="equal">
+      <formula>$I82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="cellIs" dxfId="127" priority="183" operator="equal">
+      <formula>$J82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L83">
+    <cfRule type="cellIs" dxfId="126" priority="182" operator="equal">
+      <formula>$L82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M83">
+    <cfRule type="cellIs" dxfId="125" priority="181" operator="equal">
+      <formula>$M82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K83">
+    <cfRule type="cellIs" dxfId="124" priority="185" operator="equal">
+      <formula>$K82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="cellIs" dxfId="123" priority="1123" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B145">
+    <cfRule type="cellIs" dxfId="122" priority="1125" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2 B2">
+    <cfRule type="cellIs" dxfId="121" priority="158" operator="equal">
+      <formula>$I277</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B149">
+    <cfRule type="cellIs" dxfId="120" priority="1136" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S149">
+    <cfRule type="cellIs" dxfId="119" priority="1154" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I104">
+    <cfRule type="cellIs" dxfId="118" priority="156" operator="equal">
+      <formula>$I102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104">
+    <cfRule type="cellIs" dxfId="117" priority="155" operator="equal">
+      <formula>$J102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L104">
+    <cfRule type="cellIs" dxfId="116" priority="154" operator="equal">
+      <formula>$L102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M104">
+    <cfRule type="cellIs" dxfId="115" priority="153" operator="equal">
+      <formula>$M102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K104">
+    <cfRule type="cellIs" dxfId="114" priority="157" operator="equal">
+      <formula>$K102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="cellIs" dxfId="113" priority="141" operator="equal">
+      <formula>$L148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="cellIs" dxfId="112" priority="140" operator="equal">
+      <formula>$L148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="cellIs" dxfId="111" priority="139" operator="equal">
+      <formula>$L148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
+    <cfRule type="cellIs" dxfId="110" priority="136" operator="equal">
+      <formula>$K148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
+    <cfRule type="cellIs" dxfId="109" priority="135" operator="equal">
+      <formula>$K148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
+    <cfRule type="cellIs" dxfId="108" priority="133" operator="equal">
+      <formula>$J148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I149">
+    <cfRule type="cellIs" dxfId="107" priority="132" operator="equal">
+      <formula>$I148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I218">
+    <cfRule type="cellIs" dxfId="106" priority="127" operator="equal">
+      <formula>$I216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J218">
+    <cfRule type="cellIs" dxfId="105" priority="126" operator="equal">
+      <formula>$J216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L218">
+    <cfRule type="cellIs" dxfId="104" priority="125" operator="equal">
+      <formula>$L216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M218">
+    <cfRule type="cellIs" dxfId="103" priority="124" operator="equal">
+      <formula>$M216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K218">
+    <cfRule type="cellIs" dxfId="102" priority="128" operator="equal">
+      <formula>$K216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S218">
+    <cfRule type="cellIs" dxfId="101" priority="129" operator="equal">
+      <formula>$S216</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="cellIs" dxfId="100" priority="123" operator="equal">
+      <formula>$I157</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="cellIs" dxfId="99" priority="1214" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76">
+    <cfRule type="cellIs" dxfId="98" priority="1216" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L76">
+    <cfRule type="cellIs" dxfId="97" priority="1218" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M76">
+    <cfRule type="cellIs" dxfId="96" priority="1220" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K76">
+    <cfRule type="cellIs" dxfId="95" priority="1227" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S76">
+    <cfRule type="cellIs" dxfId="94" priority="1229" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M147">
+    <cfRule type="cellIs" dxfId="93" priority="122" operator="equal">
+      <formula>$M146</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M147">
+    <cfRule type="cellIs" dxfId="92" priority="121" operator="equal">
+      <formula>$M146</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="91" priority="120" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="cellIs" dxfId="90" priority="119" operator="equal">
+      <formula>$M147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="cellIs" dxfId="89" priority="118" operator="equal">
+      <formula>$M148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="cellIs" dxfId="88" priority="117" operator="equal">
+      <formula>$M148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="cellIs" dxfId="87" priority="116" operator="equal">
+      <formula>$M148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="cellIs" dxfId="86" priority="115" operator="equal">
+      <formula>$M148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I237 B237">
+    <cfRule type="cellIs" dxfId="85" priority="109" operator="equal">
+      <formula>$I236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J237">
+    <cfRule type="cellIs" dxfId="84" priority="108" operator="equal">
+      <formula>$J236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L237">
+    <cfRule type="cellIs" dxfId="83" priority="107" operator="equal">
+      <formula>$L236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M237">
+    <cfRule type="cellIs" dxfId="82" priority="106" operator="equal">
+      <formula>$M236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K237">
+    <cfRule type="cellIs" dxfId="81" priority="110" operator="equal">
+      <formula>$K236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S237">
+    <cfRule type="cellIs" dxfId="80" priority="105" operator="equal">
+      <formula>$S236</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M340:M359">
+    <cfRule type="cellIs" dxfId="79" priority="70" operator="equal">
+      <formula>$M339</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I337">
+    <cfRule type="cellIs" dxfId="78" priority="93" operator="equal">
+      <formula>$I336</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J337">
+    <cfRule type="cellIs" dxfId="77" priority="92" operator="equal">
+      <formula>$J336</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L337">
+    <cfRule type="cellIs" dxfId="76" priority="91" operator="equal">
+      <formula>$L336</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M337">
+    <cfRule type="cellIs" dxfId="75" priority="90" operator="equal">
+      <formula>$M336</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K337">
+    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
+      <formula>$K336</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L338">
+    <cfRule type="cellIs" dxfId="73" priority="84" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M338">
+    <cfRule type="cellIs" dxfId="72" priority="83" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L340:L359">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+      <formula>$L339</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K340:K359">
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+      <formula>$K339</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I338">
+    <cfRule type="cellIs" dxfId="69" priority="86" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K338">
+    <cfRule type="cellIs" dxfId="68" priority="85" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I339">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J339">
+    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L339">
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M339">
+    <cfRule type="cellIs" dxfId="64" priority="78" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K339">
+    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J340:J359">
+    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
+      <formula>$J339</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M360">
+    <cfRule type="cellIs" dxfId="61" priority="66" operator="equal">
+      <formula>$M359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L360">
+    <cfRule type="cellIs" dxfId="60" priority="67" operator="equal">
+      <formula>$L359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K360">
+    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
+      <formula>$K359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J360">
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
+      <formula>$J359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I364">
+    <cfRule type="cellIs" dxfId="57" priority="100" operator="equal">
+      <formula>$I359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J364">
+    <cfRule type="cellIs" dxfId="56" priority="101" operator="equal">
+      <formula>$J359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L364">
+    <cfRule type="cellIs" dxfId="55" priority="102" operator="equal">
+      <formula>$L359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M364">
+    <cfRule type="cellIs" dxfId="54" priority="103" operator="equal">
+      <formula>$M359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K364">
+    <cfRule type="cellIs" dxfId="53" priority="104" operator="equal">
+      <formula>$K359</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M361">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
+      <formula>$M360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L361">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
+      <formula>$L360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K361">
+    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
+      <formula>$K360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J361">
+    <cfRule type="cellIs" dxfId="49" priority="64" operator="equal">
+      <formula>$J360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M363">
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
+      <formula>$M361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L363">
+    <cfRule type="cellIs" dxfId="47" priority="59" operator="equal">
+      <formula>$L361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K363">
+    <cfRule type="cellIs" dxfId="46" priority="61" operator="equal">
+      <formula>$K361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J363">
+    <cfRule type="cellIs" dxfId="45" priority="60" operator="equal">
+      <formula>$J361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M362">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+      <formula>$M360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L362">
+    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+      <formula>$L360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K362">
+    <cfRule type="cellIs" dxfId="42" priority="57" operator="equal">
+      <formula>$K360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J362">
+    <cfRule type="cellIs" dxfId="41" priority="56" operator="equal">
+      <formula>$J360</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I340:I363">
+    <cfRule type="cellIs" dxfId="40" priority="53" operator="equal">
+      <formula>$I339</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J338">
+    <cfRule type="cellIs" dxfId="39" priority="1230" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J370">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+      <formula>$J377</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L370">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
+      <formula>$L377</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K370">
+    <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
+      <formula>$K377</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S370">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+      <formula>$S369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J372:J373">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+      <formula>$J371</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L372:L373">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>$L371</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M372:M373">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+      <formula>$M371</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K372:K373">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
+      <formula>$K371</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J371">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>$J369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L371">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+      <formula>$L369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K371">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+      <formula>$K369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M366:M367">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>$M365</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M368">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+      <formula>$M367</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I365">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I374:I375">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>$I373</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J374:J375">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>$J373</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L374:L375">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>$L373</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M374:M375">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>$M373</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K374:K375">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+      <formula>$K373</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M370:M371">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>$M369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16">
+    <cfRule type="cellIs" dxfId="16" priority="1233" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="182" priority="401" operator="equal">
-      <formula>$S12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="181" priority="400" operator="equal">
-      <formula>$S13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="180" priority="399" operator="equal">
-      <formula>$S14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="179" priority="398" operator="equal">
-      <formula>$K12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="178" priority="397" operator="equal">
-      <formula>$K13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="177" priority="396" operator="equal">
-      <formula>$K14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="176" priority="395" operator="equal">
+  <conditionalFormatting sqref="B11 I11">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>$J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="175" priority="394" operator="equal">
-      <formula>$L12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="174" priority="393" operator="equal">
-      <formula>$L13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="173" priority="392" operator="equal">
-      <formula>$L14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="172" priority="391" operator="equal">
-      <formula>$J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="171" priority="390" operator="equal">
-      <formula>$J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="170" priority="389" operator="equal">
-      <formula>$J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="169" priority="388" operator="equal">
-      <formula>$J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="168" priority="385" operator="equal">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="167" priority="384" operator="equal">
-      <formula>$I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="166" priority="383" operator="equal">
-      <formula>$I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="165" priority="382" operator="equal">
-      <formula>$I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="164" priority="381" operator="equal">
-      <formula>$I6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="163" priority="380" operator="equal">
-      <formula>$I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="162" priority="379" operator="equal">
-      <formula>$I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J266">
-    <cfRule type="cellIs" dxfId="161" priority="1042" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L266">
-    <cfRule type="cellIs" dxfId="160" priority="1045" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M266">
-    <cfRule type="cellIs" dxfId="159" priority="1047" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K266">
-    <cfRule type="cellIs" dxfId="158" priority="1049" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K157">
-    <cfRule type="cellIs" dxfId="157" priority="1059" operator="equal">
-      <formula>$K144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S190">
-    <cfRule type="cellIs" dxfId="156" priority="1061" operator="equal">
-      <formula>$S144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S105 S185 S152 S219 S238">
-    <cfRule type="cellIs" dxfId="155" priority="1073" operator="equal">
-      <formula>$S103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B147">
-    <cfRule type="cellIs" dxfId="154" priority="332" operator="equal">
-      <formula>$I145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I145">
-    <cfRule type="cellIs" dxfId="153" priority="330" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="152" priority="329" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K145">
-    <cfRule type="cellIs" dxfId="151" priority="331" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S145">
-    <cfRule type="cellIs" dxfId="150" priority="339" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S147">
-    <cfRule type="cellIs" dxfId="149" priority="340" operator="equal">
-      <formula>$S145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S146">
-    <cfRule type="cellIs" dxfId="148" priority="327" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L145:L148">
-    <cfRule type="cellIs" dxfId="147" priority="325" operator="equal">
-      <formula>$L144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M145:M148">
-    <cfRule type="cellIs" dxfId="146" priority="324" operator="equal">
-      <formula>$M144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K145:K148">
-    <cfRule type="cellIs" dxfId="145" priority="326" operator="equal">
-      <formula>$K144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J147">
-    <cfRule type="cellIs" dxfId="144" priority="315" operator="equal">
-      <formula>$J146</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I146:I147">
-    <cfRule type="cellIs" dxfId="143" priority="323" operator="equal">
-      <formula>$I145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J146:J147">
-    <cfRule type="cellIs" dxfId="142" priority="322" operator="equal">
-      <formula>$J145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L145:L148">
-    <cfRule type="cellIs" dxfId="141" priority="321" operator="equal">
-      <formula>$L144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M145:M148">
-    <cfRule type="cellIs" dxfId="140" priority="320" operator="equal">
-      <formula>$M144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L145:L146">
-    <cfRule type="cellIs" dxfId="139" priority="319" operator="equal">
-      <formula>$L144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M145:M146">
-    <cfRule type="cellIs" dxfId="138" priority="318" operator="equal">
-      <formula>$M144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L145:L146">
-    <cfRule type="cellIs" dxfId="137" priority="317" operator="equal">
-      <formula>$L144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M145:M146">
-    <cfRule type="cellIs" dxfId="136" priority="316" operator="equal">
-      <formula>$M144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="135" priority="314" operator="equal">
-      <formula>$J144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="134" priority="313" operator="equal">
-      <formula>$J144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S156">
-    <cfRule type="cellIs" dxfId="133" priority="1077" operator="equal">
-      <formula>$S265</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="132" priority="1084" operator="equal">
-      <formula>$I3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I150">
-    <cfRule type="cellIs" dxfId="131" priority="243" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="130" priority="242" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K150">
-    <cfRule type="cellIs" dxfId="129" priority="244" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B150:B151">
-    <cfRule type="cellIs" dxfId="128" priority="241" operator="equal">
-      <formula>$I63</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S150">
-    <cfRule type="cellIs" dxfId="127" priority="252" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S151">
-    <cfRule type="cellIs" dxfId="126" priority="240" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="125" priority="236" operator="equal">
-      <formula>$J259</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="124" priority="235" operator="equal">
-      <formula>$J259</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L150">
-    <cfRule type="cellIs" dxfId="123" priority="254" operator="equal">
-      <formula>$L259</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M150">
-    <cfRule type="cellIs" dxfId="122" priority="255" operator="equal">
-      <formula>$M259</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K150">
-    <cfRule type="cellIs" dxfId="121" priority="256" operator="equal">
-      <formula>$K259</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S75">
-    <cfRule type="cellIs" dxfId="120" priority="1090" operator="equal">
-      <formula>$S74</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S84">
-    <cfRule type="cellIs" dxfId="119" priority="1112" operator="equal">
-      <formula>$S82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="118" priority="174" operator="equal">
-      <formula>$I82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="117" priority="173" operator="equal">
-      <formula>$J82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L83">
-    <cfRule type="cellIs" dxfId="116" priority="172" operator="equal">
-      <formula>$L82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="115" priority="171" operator="equal">
-      <formula>$M82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K83">
-    <cfRule type="cellIs" dxfId="114" priority="175" operator="equal">
-      <formula>$K82</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="113" priority="1113" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="112" priority="1115" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2 B2">
-    <cfRule type="cellIs" dxfId="111" priority="148" operator="equal">
-      <formula>$I277</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B149">
-    <cfRule type="cellIs" dxfId="110" priority="1126" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S149">
-    <cfRule type="cellIs" dxfId="109" priority="1144" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="108" priority="146" operator="equal">
-      <formula>$I102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J104">
-    <cfRule type="cellIs" dxfId="107" priority="145" operator="equal">
-      <formula>$J102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L104">
-    <cfRule type="cellIs" dxfId="106" priority="144" operator="equal">
-      <formula>$L102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M104">
-    <cfRule type="cellIs" dxfId="105" priority="143" operator="equal">
-      <formula>$M102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K104">
-    <cfRule type="cellIs" dxfId="104" priority="147" operator="equal">
-      <formula>$K102</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="103" priority="131" operator="equal">
-      <formula>$L148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="102" priority="130" operator="equal">
-      <formula>$L148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="101" priority="129" operator="equal">
-      <formula>$L148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="100" priority="126" operator="equal">
-      <formula>$K148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="99" priority="125" operator="equal">
-      <formula>$K148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="98" priority="123" operator="equal">
-      <formula>$J148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I149">
-    <cfRule type="cellIs" dxfId="97" priority="122" operator="equal">
-      <formula>$I148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I218">
-    <cfRule type="cellIs" dxfId="96" priority="117" operator="equal">
-      <formula>$I216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J218">
-    <cfRule type="cellIs" dxfId="95" priority="116" operator="equal">
-      <formula>$J216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L218">
-    <cfRule type="cellIs" dxfId="94" priority="115" operator="equal">
-      <formula>$L216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M218">
-    <cfRule type="cellIs" dxfId="93" priority="114" operator="equal">
-      <formula>$M216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K218">
-    <cfRule type="cellIs" dxfId="92" priority="118" operator="equal">
-      <formula>$K216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S218">
-    <cfRule type="cellIs" dxfId="91" priority="119" operator="equal">
-      <formula>$S216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="90" priority="113" operator="equal">
-      <formula>$I157</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="89" priority="1204" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76">
-    <cfRule type="cellIs" dxfId="88" priority="1206" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L76">
-    <cfRule type="cellIs" dxfId="87" priority="1208" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M76">
-    <cfRule type="cellIs" dxfId="86" priority="1210" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K76">
-    <cfRule type="cellIs" dxfId="85" priority="1217" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S76">
-    <cfRule type="cellIs" dxfId="84" priority="1219" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="83" priority="112" operator="equal">
-      <formula>$M146</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="82" priority="111" operator="equal">
-      <formula>$M146</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="81" priority="110" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="80" priority="109" operator="equal">
-      <formula>$M147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="79" priority="108" operator="equal">
-      <formula>$M148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="78" priority="107" operator="equal">
-      <formula>$M148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="77" priority="106" operator="equal">
-      <formula>$M148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="76" priority="105" operator="equal">
-      <formula>$M148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I237 B237">
-    <cfRule type="cellIs" dxfId="75" priority="99" operator="equal">
-      <formula>$I236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J237">
-    <cfRule type="cellIs" dxfId="74" priority="98" operator="equal">
-      <formula>$J236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L237">
-    <cfRule type="cellIs" dxfId="73" priority="97" operator="equal">
-      <formula>$L236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M237">
-    <cfRule type="cellIs" dxfId="72" priority="96" operator="equal">
-      <formula>$M236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K237">
-    <cfRule type="cellIs" dxfId="71" priority="100" operator="equal">
-      <formula>$K236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S237">
-    <cfRule type="cellIs" dxfId="70" priority="95" operator="equal">
-      <formula>$S236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M340:M359">
-    <cfRule type="cellIs" dxfId="69" priority="60" operator="equal">
-      <formula>$M339</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I337">
-    <cfRule type="cellIs" dxfId="68" priority="83" operator="equal">
-      <formula>$I336</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J337">
-    <cfRule type="cellIs" dxfId="67" priority="82" operator="equal">
-      <formula>$J336</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L337">
-    <cfRule type="cellIs" dxfId="66" priority="81" operator="equal">
-      <formula>$L336</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M337">
-    <cfRule type="cellIs" dxfId="65" priority="80" operator="equal">
-      <formula>$M336</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K337">
-    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
-      <formula>$K336</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L338">
-    <cfRule type="cellIs" dxfId="63" priority="74" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M338">
-    <cfRule type="cellIs" dxfId="62" priority="73" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L340:L359">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
-      <formula>$L339</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K340:K359">
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
-      <formula>$K339</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I338">
-    <cfRule type="cellIs" dxfId="59" priority="76" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K338">
-    <cfRule type="cellIs" dxfId="58" priority="75" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I339">
-    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J339">
-    <cfRule type="cellIs" dxfId="56" priority="70" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L339">
-    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M339">
-    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K339">
-    <cfRule type="cellIs" dxfId="53" priority="72" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J340:J359">
-    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
-      <formula>$J339</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M360">
-    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
-      <formula>$M359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L360">
-    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
-      <formula>$L359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K360">
-    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
-      <formula>$K359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J360">
-    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
-      <formula>$J359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I364">
-    <cfRule type="cellIs" dxfId="47" priority="90" operator="equal">
-      <formula>$I359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J364">
-    <cfRule type="cellIs" dxfId="46" priority="91" operator="equal">
-      <formula>$J359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L364">
-    <cfRule type="cellIs" dxfId="45" priority="92" operator="equal">
-      <formula>$L359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M364">
-    <cfRule type="cellIs" dxfId="44" priority="93" operator="equal">
-      <formula>$M359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K364">
-    <cfRule type="cellIs" dxfId="43" priority="94" operator="equal">
-      <formula>$K359</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M361">
-    <cfRule type="cellIs" dxfId="42" priority="52" operator="equal">
-      <formula>$M360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L361">
-    <cfRule type="cellIs" dxfId="41" priority="53" operator="equal">
-      <formula>$L360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K361">
-    <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
-      <formula>$K360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J361">
-    <cfRule type="cellIs" dxfId="39" priority="54" operator="equal">
-      <formula>$J360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M363">
-    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
-      <formula>$M361</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L363">
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
-      <formula>$L361</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K363">
-    <cfRule type="cellIs" dxfId="36" priority="51" operator="equal">
-      <formula>$K361</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J363">
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
-      <formula>$J361</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M362">
-    <cfRule type="cellIs" dxfId="34" priority="44" operator="equal">
-      <formula>$M360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L362">
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
-      <formula>$L360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K362">
-    <cfRule type="cellIs" dxfId="32" priority="47" operator="equal">
-      <formula>$K360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J362">
-    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
-      <formula>$J360</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I340:I363">
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
-      <formula>$I339</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J338">
-    <cfRule type="cellIs" dxfId="29" priority="1220" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J370">
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
-      <formula>$J377</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L370">
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
-      <formula>$L377</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K370">
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
-      <formula>$K377</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S370">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
-      <formula>$S369</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J372:J373">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
-      <formula>$J371</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L372:L373">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
-      <formula>$L371</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M372:M373">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
-      <formula>$M371</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K372:K373">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
-      <formula>$K371</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J371">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
-      <formula>$J369</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L371">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
-      <formula>$L369</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K371">
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
-      <formula>$K369</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M366:M367">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
-      <formula>$M365</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M368">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>$M367</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I367:I373">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>$M366</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I365">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>#REF!</formula>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>$M10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+      <formula>$K10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I366">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>$I365</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I374:I375">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>$I373</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J374:J375">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>$J373</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L374:L375">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>$L373</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M374:M375">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>$M373</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K374:K375">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
-      <formula>$K373</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M370:M371">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>$M369</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S16">
-    <cfRule type="cellIs" dxfId="6" priority="1223" operator="equal">
-      <formula>$S10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11 I11">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>$J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>$L10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>$M10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>$K10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11">
+  <conditionalFormatting sqref="I367">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>$I366</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I368">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>$I367</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I369">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>$I368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I370">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>$I369</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I371">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$I370</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I372">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$I371</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I373">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$S10</formula>
+      <formula>$I372</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD0C71-6706-4E2B-8197-CAE9CF56CD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E75D4D8-66A4-48F7-9E41-84B3A8C2AD15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4680" windowWidth="38400" windowHeight="10575" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
@@ -15,12 +15,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'default-configurationプロパティ定義一覧'!$A$2:$T$336</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'default-configurationプロパティ定義一覧'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6044" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6044" uniqueCount="1477">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -4792,12 +4802,6 @@
     <t>1970-01-01 09:00:00.0</t>
   </si>
   <si>
-    <t>Nablarchバッチプロジェクト/env.config</t>
-  </si>
-  <si>
-    <t>Nablarchバッチプロジェクト/common.config</t>
-  </si>
-  <si>
     <t>コードの初期ロード設定
 （一括ロード要否。無指定＝ロードしない）</t>
     <rPh sb="21" eb="24">
@@ -4969,14 +4973,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Nablarchバッチプロジェクト/common.config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nablarchバッチプロジェクト/common.config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mail.sendSuccess</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5066,20 +5062,6 @@
   <si>
     <t>nablarch.exclusiveControlManager.optimisticLockErrorMessageId</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/common.config
-Nablarchバッチプロジェクト/common.config</t>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/common.config</t>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/env.config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウェブプロジェクト/env.config
-</t>
   </si>
   <si>
     <t>nablarch.lengthValidator.maxAndMinMessageId</t>
@@ -5215,58 +5197,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウェブプロジェクト/env.config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プロジェクトのベースパッケージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JSR352に準拠したバッチプロジェクト/env.config
-Nablarchバッチプロジェクト/env.config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト(開発環境)/env.config
-RESTfulウェブサービスプロジェクト/env.config
-JSR352に準拠したバッチプロジェクト/env.config
-Nablarchバッチプロジェクト/env.config</t>
-    <rPh sb="10" eb="12">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/common.config
-RESTfulウェブサービスプロジェクト/common.config
-JSR352に準拠したバッチプロジェクト/common.config
-Nablarchバッチプロジェクト/common.confi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/common.config
-RESTfulウェブサービスプロジェクト/common.config
-JSR352に準拠したバッチプロジェクト/common.config
-Nablarchバッチプロジェクト/common.config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/common.config
-RESTfulウェブサービスプロジェクト/common.config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">JSR352に準拠したバッチプロジェクト/common.config
-Nablarchバッチプロジェクト/common.config
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5291,35 +5226,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(プロジェクト種別)プロジェクト/common.config</t>
-    <rPh sb="7" eb="9">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(プロジェクト種別)プロジェクト/env.config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/common.config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/env.config
-RESTfulウェブサービスプロジェクト/env.config
-JSR352に準拠したバッチプロジェクト/env.config
-Nablarchバッチプロジェクト/env.config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/env.config
-RESTfulウェブサービスプロジェクト/env.config
-JSR352に準拠したバッチプロジェクト/env.config
-Nablarchバッチプロジェクト/env.config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(ブランクプロジェクト作成時に指定したパッケージ)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5606,10 +5512,6 @@
   </si>
   <si>
     <t>guest</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RESTfulウェブサービスプロジェクト/common.config</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5969,6 +5871,83 @@
   <si>
     <t>nablarch.dataformat.flushEachRecordInWriting</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(プロジェクト種別)プロジェクト/common.properties</t>
+    <rPh sb="7" eb="9">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(プロジェクト種別)プロジェクト/env.properties</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/common.properties
+RESTfulウェブサービスプロジェクト/common.properties</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/common.properties
+RESTfulウェブサービスプロジェクト/common.properties
+JSR352に準拠したバッチプロジェクト/common.properties
+Nablarchバッチプロジェクト/common.properties</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/common.properties
+RESTfulウェブサービスプロジェクト/common.properties
+JSR352に準拠したバッチプロジェクト/common.properties
+Nablarchバッチプロジェクト/common.confi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSR352に準拠したバッチプロジェクト/common.properties
+Nablarchバッチプロジェクト/common.properties
+</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/common.properties</t>
+  </si>
+  <si>
+    <t>RESTfulウェブサービスプロジェクト/common.properties</t>
+  </si>
+  <si>
+    <t>Nablarchバッチプロジェクト/common.properties</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/common.properties
+Nablarchバッチプロジェクト/common.properties</t>
+  </si>
+  <si>
+    <t>JSR352に準拠したバッチプロジェクト/env.properties
+Nablarchバッチプロジェクト/env.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウェブプロジェクト/env.properties
+</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト(開発環境)/env.properties
+RESTfulウェブサービスプロジェクト/env.properties
+JSR352に準拠したバッチプロジェクト/env.properties
+Nablarchバッチプロジェクト/env.properties</t>
+    <rPh sb="10" eb="12">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/env.properties
+RESTfulウェブサービスプロジェクト/env.properties
+JSR352に準拠したバッチプロジェクト/env.properties
+Nablarchバッチプロジェクト/env.properties</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/env.properties</t>
+  </si>
+  <si>
+    <t>Nablarchバッチプロジェクト/env.properties</t>
   </si>
 </sst>
 </file>
@@ -6523,31 +6502,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="437">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="433">
     <dxf>
       <font>
         <color theme="0"/>
@@ -6795,30 +6750,6 @@
       <border>
         <top style="thin">
           <color rgb="FFFFFFFF"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
         </top>
         <vertical/>
         <horizontal/>
@@ -12109,7 +12040,9 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12182,7 +12115,7 @@
         <v>1178</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1335</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -12190,7 +12123,7 @@
         <v>1178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1336</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -12214,7 +12147,7 @@
         <v>1178</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1335</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.15">
@@ -12222,7 +12155,7 @@
         <v>1178</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1336</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.15">
@@ -12246,7 +12179,7 @@
         <v>1178</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1335</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.15">
@@ -12254,7 +12187,7 @@
         <v>1178</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1336</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.15">
@@ -12279,11 +12212,11 @@
   </sheetPr>
   <dimension ref="A1:S375"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -12362,7 +12295,7 @@
         <v>1158</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1347</v>
+        <v>1327</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1159</v>
@@ -12439,7 +12372,7 @@
         <v>908</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>1326</v>
+        <v>1471</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>682</v>
@@ -12497,7 +12430,7 @@
         <v>371</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>1326</v>
+        <v>1471</v>
       </c>
       <c r="R4" s="25" t="s">
         <v>683</v>
@@ -12555,7 +12488,7 @@
         <v>398</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>1326</v>
+        <v>1471</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>712</v>
@@ -12657,7 +12590,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>1477</v>
+        <v>1456</v>
       </c>
       <c r="N7" s="24" t="s">
         <v>932</v>
@@ -12669,7 +12602,7 @@
         <v>370</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>1291</v>
+        <v>1472</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>682</v>
@@ -12727,7 +12660,7 @@
         <v>371</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>1291</v>
+        <v>1472</v>
       </c>
       <c r="R8" s="25" t="s">
         <v>683</v>
@@ -12785,7 +12718,7 @@
         <v>387</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>1291</v>
+        <v>1472</v>
       </c>
       <c r="R9" s="25" t="s">
         <v>702</v>
@@ -12878,25 +12811,25 @@
         <v>820</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1475</v>
+        <v>1454</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1476</v>
+        <v>1455</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1478</v>
+        <v>1457</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>1479</v>
+        <v>1458</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>1480</v>
+        <v>1459</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>1481</v>
+        <v>1460</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="25"/>
@@ -13171,7 +13104,7 @@
         <v>413</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="R16" s="25" t="s">
         <v>517</v>
@@ -13229,7 +13162,7 @@
         <v>414</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="R17" s="25" t="s">
         <v>518</v>
@@ -13287,7 +13220,7 @@
         <v>415</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="R18" s="25" t="s">
         <v>519</v>
@@ -13725,7 +13658,7 @@
         <v>28</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>1425</v>
+        <v>1404</v>
       </c>
       <c r="N26" s="24" t="s">
         <v>778</v>
@@ -13781,7 +13714,7 @@
         <v>28</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="N27" s="24" t="s">
         <v>328</v>
@@ -13793,10 +13726,10 @@
         <v>380</v>
       </c>
       <c r="Q27" s="34" t="s">
-        <v>1330</v>
+        <v>1463</v>
       </c>
       <c r="R27" s="35" t="s">
-        <v>1416</v>
+        <v>1396</v>
       </c>
       <c r="S27" s="26" t="s">
         <v>327</v>
@@ -13839,7 +13772,7 @@
         <v>28</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="N28" s="24" t="s">
         <v>30</v>
@@ -13851,10 +13784,10 @@
         <v>381</v>
       </c>
       <c r="Q28" s="34" t="s">
-        <v>1330</v>
+        <v>1463</v>
       </c>
       <c r="R28" s="35" t="s">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="S28" s="26" t="s">
         <v>915</v>
@@ -13897,7 +13830,7 @@
         <v>28</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="N29" s="24" t="s">
         <v>329</v>
@@ -13909,10 +13842,10 @@
         <v>382</v>
       </c>
       <c r="Q29" s="34" t="s">
-        <v>1330</v>
+        <v>1463</v>
       </c>
       <c r="R29" s="35" t="s">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="S29" s="26" t="s">
         <v>915</v>
@@ -13955,7 +13888,7 @@
         <v>28</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="N30" s="24" t="s">
         <v>330</v>
@@ -13967,10 +13900,10 @@
         <v>383</v>
       </c>
       <c r="Q30" s="34" t="s">
-        <v>1330</v>
+        <v>1463</v>
       </c>
       <c r="R30" s="35" t="s">
-        <v>1419</v>
+        <v>1398</v>
       </c>
       <c r="S30" s="26" t="s">
         <v>915</v>
@@ -14013,7 +13946,7 @@
         <v>28</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="N31" s="24" t="s">
         <v>331</v>
@@ -14025,7 +13958,7 @@
         <v>384</v>
       </c>
       <c r="Q31" s="34" t="s">
-        <v>1330</v>
+        <v>1463</v>
       </c>
       <c r="R31" s="35"/>
       <c r="S31" s="26" t="s">
@@ -14777,7 +14710,7 @@
         <v>426</v>
       </c>
       <c r="Q44" s="23" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="R44" s="25" t="s">
         <v>531</v>
@@ -14831,13 +14764,13 @@
         <v>1157</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="P45" s="24" t="s">
         <v>832</v>
       </c>
       <c r="Q45" s="23" t="s">
-        <v>1327</v>
+        <v>1473</v>
       </c>
       <c r="R45" s="25" t="s">
         <v>679</v>
@@ -14876,7 +14809,7 @@
         <v>850</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>899</v>
@@ -14894,7 +14827,7 @@
         <v>335</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="Q46" s="34"/>
       <c r="R46" s="35"/>
@@ -16633,7 +16566,7 @@
         <v>373</v>
       </c>
       <c r="Q76" s="23" t="s">
-        <v>1329</v>
+        <v>1464</v>
       </c>
       <c r="R76" s="25" t="s">
         <v>685</v>
@@ -16691,7 +16624,7 @@
         <v>1164</v>
       </c>
       <c r="Q77" s="23" t="s">
-        <v>1328</v>
+        <v>1465</v>
       </c>
       <c r="R77" s="25" t="s">
         <v>678</v>
@@ -16747,7 +16680,7 @@
         <v>1165</v>
       </c>
       <c r="Q78" s="23" t="s">
-        <v>1329</v>
+        <v>1464</v>
       </c>
       <c r="R78" s="25" t="s">
         <v>686</v>
@@ -16803,7 +16736,7 @@
         <v>356</v>
       </c>
       <c r="Q79" s="23" t="s">
-        <v>1329</v>
+        <v>1464</v>
       </c>
       <c r="R79" s="25" t="s">
         <v>688</v>
@@ -16912,10 +16845,10 @@
         <v>627</v>
       </c>
       <c r="P81" s="24" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="Q81" s="23" t="s">
-        <v>1329</v>
+        <v>1464</v>
       </c>
       <c r="R81" s="25" t="s">
         <v>687</v>
@@ -16971,7 +16904,7 @@
         <v>1147</v>
       </c>
       <c r="Q82" s="23" t="s">
-        <v>1330</v>
+        <v>1463</v>
       </c>
       <c r="R82" s="25" t="s">
         <v>684</v>
@@ -17027,7 +16960,7 @@
         <v>1147</v>
       </c>
       <c r="Q83" s="23" t="s">
-        <v>1331</v>
+        <v>1466</v>
       </c>
       <c r="R83" s="25" t="s">
         <v>1148</v>
@@ -17313,7 +17246,7 @@
         <v>1154</v>
       </c>
       <c r="O88" s="23" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="P88" s="24" t="s">
         <v>1155</v>
@@ -17372,7 +17305,7 @@
         <v>600</v>
       </c>
       <c r="P89" s="24" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="Q89" s="34"/>
       <c r="R89" s="35"/>
@@ -17426,7 +17359,7 @@
         <v>601</v>
       </c>
       <c r="P90" s="24" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="Q90" s="34"/>
       <c r="R90" s="35"/>
@@ -17753,10 +17686,10 @@
         <v>337</v>
       </c>
       <c r="Q96" s="34" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="R96" s="35" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="S96" s="26"/>
     </row>
@@ -17809,10 +17742,10 @@
         <v>338</v>
       </c>
       <c r="Q97" s="34" t="s">
+        <v>1226</v>
+      </c>
+      <c r="R97" s="35" t="s">
         <v>1228</v>
-      </c>
-      <c r="R97" s="35" t="s">
-        <v>1230</v>
       </c>
       <c r="S97" s="26"/>
     </row>
@@ -17865,10 +17798,10 @@
         <v>339</v>
       </c>
       <c r="Q98" s="34" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="R98" s="35" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="S98" s="26"/>
     </row>
@@ -18085,10 +18018,10 @@
         <v>1182</v>
       </c>
       <c r="Q102" s="34" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="R102" s="35" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="S102" s="26"/>
     </row>
@@ -18197,10 +18130,10 @@
         <v>1181</v>
       </c>
       <c r="Q104" s="34" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="R104" s="35" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="S104" s="33"/>
     </row>
@@ -19204,7 +19137,7 @@
         <v>607</v>
       </c>
       <c r="P122" s="24" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="Q122" s="34"/>
       <c r="R122" s="35"/>
@@ -19260,7 +19193,7 @@
         <v>608</v>
       </c>
       <c r="P123" s="24" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="Q123" s="34"/>
       <c r="R123" s="35"/>
@@ -19319,7 +19252,7 @@
         <v>833</v>
       </c>
       <c r="Q124" s="31" t="s">
-        <v>1334</v>
+        <v>1319</v>
       </c>
       <c r="R124" s="25"/>
       <c r="S124" s="26" t="s">
@@ -19374,7 +19307,7 @@
         <v>609</v>
       </c>
       <c r="P125" s="24" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="Q125" s="34"/>
       <c r="R125" s="35"/>
@@ -20408,10 +20341,10 @@
         <v>621</v>
       </c>
       <c r="P144" s="24" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="Q144" s="23" t="s">
-        <v>1329</v>
+        <v>1464</v>
       </c>
       <c r="R144" s="25" t="s">
         <v>680</v>
@@ -20454,25 +20387,25 @@
         <v>334</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>1332</v>
+        <v>1317</v>
       </c>
       <c r="M145" s="37" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="N145" s="36" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="O145" s="36" t="s">
         <v>1112</v>
       </c>
       <c r="P145" s="36" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q145" s="23" t="s">
-        <v>1339</v>
+        <v>1474</v>
       </c>
       <c r="R145" s="38" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="S145" s="39"/>
     </row>
@@ -20510,25 +20443,25 @@
         <v>334</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="M146" s="37" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="N146" s="36" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="O146" s="36" t="s">
         <v>655</v>
       </c>
       <c r="P146" s="36" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="Q146" s="23" t="s">
-        <v>1339</v>
+        <v>1474</v>
       </c>
       <c r="R146" s="38" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="S146" s="40"/>
     </row>
@@ -20560,31 +20493,31 @@
         <v>855</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>334</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="M147" s="37" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="N147" s="36" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="O147" s="36" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="P147" s="36" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="Q147" s="23" t="s">
-        <v>1338</v>
+        <v>1474</v>
       </c>
       <c r="R147" s="38" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="S147" s="33"/>
     </row>
@@ -20622,25 +20555,25 @@
         <v>334</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="M148" s="37" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="N148" s="36" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="O148" s="36" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="P148" s="36" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="Q148" s="23" t="s">
-        <v>1339</v>
+        <v>1474</v>
       </c>
       <c r="R148" s="38" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="S148" s="33"/>
     </row>
@@ -20678,22 +20611,22 @@
         <v>334</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="M149" s="37" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="N149" s="36" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="O149" s="36" t="s">
         <v>1166</v>
       </c>
       <c r="P149" s="36" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q149" s="23" t="s">
-        <v>1338</v>
+        <v>1474</v>
       </c>
       <c r="R149" s="38" t="s">
         <v>1113</v>
@@ -20730,13 +20663,13 @@
         <v>1114</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>1115</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="M150" s="2" t="s">
         <v>1120</v>
@@ -20748,7 +20681,7 @@
         <v>1127</v>
       </c>
       <c r="P150" s="42" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="Q150" s="43"/>
       <c r="R150" s="44" t="s">
@@ -20784,13 +20717,13 @@
         <v>1116</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>1118</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="M151" s="41" t="s">
         <v>1120</v>
@@ -20802,7 +20735,7 @@
         <v>1128</v>
       </c>
       <c r="P151" s="42" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q151" s="43"/>
       <c r="R151" s="44" t="s">
@@ -20838,7 +20771,7 @@
         <v>1116</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>1118</v>
@@ -20856,7 +20789,7 @@
         <v>1129</v>
       </c>
       <c r="P152" s="42" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q152" s="43"/>
       <c r="R152" s="44" t="s">
@@ -20892,7 +20825,7 @@
         <v>1116</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>1118</v>
@@ -20910,7 +20843,7 @@
         <v>1130</v>
       </c>
       <c r="P153" s="42" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q153" s="43"/>
       <c r="R153" s="44" t="s">
@@ -20946,7 +20879,7 @@
         <v>1117</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>1118</v>
@@ -20964,7 +20897,7 @@
         <v>1131</v>
       </c>
       <c r="P154" s="42" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q154" s="43"/>
       <c r="R154" s="44" t="s">
@@ -21000,7 +20933,7 @@
         <v>1116</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>1118</v>
@@ -21018,7 +20951,7 @@
         <v>1132</v>
       </c>
       <c r="P155" s="42" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q155" s="43"/>
       <c r="R155" s="44" t="s">
@@ -21077,7 +21010,7 @@
         <v>367</v>
       </c>
       <c r="Q156" s="23" t="s">
-        <v>1323</v>
+        <v>1475</v>
       </c>
       <c r="R156" s="25" t="s">
         <v>1156</v>
@@ -21135,10 +21068,10 @@
         <v>385</v>
       </c>
       <c r="Q157" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R157" s="25" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="S157" s="26"/>
     </row>
@@ -21191,7 +21124,7 @@
         <v>386</v>
       </c>
       <c r="Q158" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R158" s="25" t="s">
         <v>701</v>
@@ -21240,16 +21173,16 @@
         <v>891</v>
       </c>
       <c r="N159" s="24" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="O159" s="23" t="s">
         <v>635</v>
       </c>
       <c r="P159" s="24" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="Q159" s="23" t="s">
-        <v>1290</v>
+        <v>1475</v>
       </c>
       <c r="R159" s="25" t="s">
         <v>679</v>
@@ -21307,7 +21240,7 @@
         <v>375</v>
       </c>
       <c r="Q160" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R160" s="25" t="s">
         <v>695</v>
@@ -21367,7 +21300,7 @@
         <v>822</v>
       </c>
       <c r="Q161" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R161" s="25" t="s">
         <v>696</v>
@@ -21423,7 +21356,7 @@
         <v>376</v>
       </c>
       <c r="Q162" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R162" s="25" t="s">
         <v>697</v>
@@ -21481,7 +21414,7 @@
         <v>377</v>
       </c>
       <c r="Q163" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R163" s="25" t="s">
         <v>698</v>
@@ -21537,7 +21470,7 @@
         <v>374</v>
       </c>
       <c r="Q164" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R164" s="25" t="s">
         <v>679</v>
@@ -21593,7 +21526,7 @@
         <v>378</v>
       </c>
       <c r="Q165" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R165" s="25" t="s">
         <v>699</v>
@@ -21628,13 +21561,13 @@
         <v>823</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>295</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="M166" s="2" t="s">
         <v>892</v>
@@ -21649,7 +21582,7 @@
         <v>379</v>
       </c>
       <c r="Q166" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R166" s="25" t="s">
         <v>700</v>
@@ -21693,7 +21626,7 @@
         <v>294</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="N167" s="24" t="s">
         <v>299</v>
@@ -21702,10 +21635,10 @@
         <v>643</v>
       </c>
       <c r="P167" s="24" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q167" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R167" s="25" t="s">
         <v>681</v>
@@ -21729,32 +21662,32 @@
       <c r="G168" s="36"/>
       <c r="H168" s="36"/>
       <c r="I168" s="2" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="J168" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L168" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="K168" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="L168" s="2" t="s">
-        <v>1313</v>
-      </c>
       <c r="M168" s="2" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="N168" s="36" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="O168" s="36" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="P168" s="14" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="Q168" s="14"/>
       <c r="R168" s="45" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="S168" s="33"/>
     </row>
@@ -21775,28 +21708,28 @@
       <c r="G169" s="36"/>
       <c r="H169" s="36"/>
       <c r="I169" s="2" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="J169" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L169" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="K169" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="L169" s="2" t="s">
-        <v>1313</v>
-      </c>
       <c r="M169" s="2" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="N169" s="36" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="O169" s="36" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="P169" s="14" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="Q169" s="14"/>
       <c r="R169" s="45"/>
@@ -21819,34 +21752,34 @@
       <c r="G170" s="36"/>
       <c r="H170" s="36"/>
       <c r="I170" s="2" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="J170" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L170" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="K170" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="L170" s="2" t="s">
+      <c r="M170" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="N170" s="36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="O170" s="36" t="s">
+        <v>1314</v>
+      </c>
+      <c r="P170" s="36" t="s">
         <v>1313</v>
       </c>
-      <c r="M170" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="N170" s="36" t="s">
-        <v>1319</v>
-      </c>
-      <c r="O170" s="36" t="s">
-        <v>1322</v>
-      </c>
-      <c r="P170" s="36" t="s">
-        <v>1321</v>
-      </c>
       <c r="Q170" s="23" t="s">
-        <v>1323</v>
+        <v>1475</v>
       </c>
       <c r="R170" s="38" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="S170" s="33"/>
     </row>
@@ -21867,34 +21800,34 @@
       <c r="G171" s="36"/>
       <c r="H171" s="36"/>
       <c r="I171" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="N171" s="36" t="s">
+        <v>1292</v>
+      </c>
+      <c r="O171" s="36" t="s">
+        <v>1316</v>
+      </c>
+      <c r="P171" s="36" t="s">
+        <v>1295</v>
+      </c>
+      <c r="Q171" s="23" t="s">
+        <v>1467</v>
+      </c>
+      <c r="R171" s="46" t="s">
         <v>1296</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="L171" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="M171" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="N171" s="36" t="s">
-        <v>1300</v>
-      </c>
-      <c r="O171" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="P171" s="36" t="s">
-        <v>1303</v>
-      </c>
-      <c r="Q171" s="23" t="s">
-        <v>1337</v>
-      </c>
-      <c r="R171" s="46" t="s">
-        <v>1304</v>
       </c>
       <c r="S171" s="33"/>
     </row>
@@ -22003,10 +21936,10 @@
         <v>835</v>
       </c>
       <c r="Q173" s="31" t="s">
-        <v>1337</v>
+        <v>1467</v>
       </c>
       <c r="R173" s="25" t="s">
-        <v>1340</v>
+        <v>1320</v>
       </c>
       <c r="S173" s="26"/>
     </row>
@@ -22055,7 +21988,7 @@
         <v>300</v>
       </c>
       <c r="O174" s="23" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="P174" s="14" t="s">
         <v>1174</v>
@@ -22375,7 +22308,7 @@
         <v>315</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>1430</v>
+        <v>1409</v>
       </c>
       <c r="N180" s="24" t="s">
         <v>314</v>
@@ -22387,7 +22320,7 @@
         <v>388</v>
       </c>
       <c r="Q180" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R180" s="25" t="s">
         <v>703</v>
@@ -22443,7 +22376,7 @@
         <v>389</v>
       </c>
       <c r="Q181" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R181" s="25" t="s">
         <v>704</v>
@@ -22501,7 +22434,7 @@
         <v>389</v>
       </c>
       <c r="Q182" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R182" s="25" t="s">
         <v>704</v>
@@ -22592,13 +22525,13 @@
         <v>827</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>899</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="M184" s="2" t="s">
         <v>895</v>
@@ -22613,7 +22546,7 @@
         <v>389</v>
       </c>
       <c r="Q184" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R184" s="25" t="s">
         <v>704</v>
@@ -22671,7 +22604,7 @@
         <v>390</v>
       </c>
       <c r="Q185" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R185" s="25" t="s">
         <v>705</v>
@@ -22727,7 +22660,7 @@
         <v>391</v>
       </c>
       <c r="Q186" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R186" s="25" t="s">
         <v>411</v>
@@ -22783,7 +22716,7 @@
         <v>392</v>
       </c>
       <c r="Q187" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R187" s="25" t="s">
         <v>679</v>
@@ -22836,7 +22769,7 @@
         <v>644</v>
       </c>
       <c r="P188" s="24" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="Q188" s="34"/>
       <c r="R188" s="35"/>
@@ -22848,7 +22781,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="32" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="C189" s="36"/>
       <c r="D189" s="23" t="s">
@@ -22859,7 +22792,7 @@
       <c r="G189" s="36"/>
       <c r="H189" s="36"/>
       <c r="I189" s="2" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>301</v>
@@ -22868,25 +22801,25 @@
         <v>303</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="N189" s="36" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="O189" s="36" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="P189" s="36" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="Q189" s="47" t="s">
-        <v>1417</v>
+        <v>1468</v>
       </c>
       <c r="R189" s="46" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="S189" s="33"/>
     </row>
@@ -22896,7 +22829,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C190" s="48" t="s">
         <v>899</v>
@@ -22941,7 +22874,7 @@
         <v>1167</v>
       </c>
       <c r="Q190" s="48" t="s">
-        <v>1263</v>
+        <v>1469</v>
       </c>
       <c r="R190" s="49" t="s">
         <v>707</v>
@@ -22956,7 +22889,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C191" s="23" t="s">
         <v>899</v>
@@ -22998,7 +22931,7 @@
         <v>583</v>
       </c>
       <c r="P191" s="24" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q191" s="61"/>
       <c r="R191" s="35"/>
@@ -23052,7 +22985,7 @@
         <v>584</v>
       </c>
       <c r="P192" s="24" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="Q192" s="34"/>
       <c r="R192" s="35"/>
@@ -23174,7 +23107,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="32" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C195" s="23" t="s">
         <v>899</v>
@@ -23216,10 +23149,10 @@
         <v>582</v>
       </c>
       <c r="P195" s="24" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="Q195" s="48" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R195" s="25" t="s">
         <v>706</v>
@@ -23234,7 +23167,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C196" s="23" t="s">
         <v>899</v>
@@ -23276,10 +23209,10 @@
         <v>591</v>
       </c>
       <c r="P196" s="24" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q196" s="23" t="s">
-        <v>1263</v>
+        <v>1469</v>
       </c>
       <c r="R196" s="25" t="s">
         <v>694</v>
@@ -23673,10 +23606,10 @@
         <v>361</v>
       </c>
       <c r="Q203" s="23" t="s">
-        <v>1264</v>
+        <v>1469</v>
       </c>
       <c r="R203" s="25" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="S203" s="26" t="s">
         <v>899</v>
@@ -23731,10 +23664,10 @@
         <v>362</v>
       </c>
       <c r="Q204" s="23" t="s">
-        <v>1264</v>
+        <v>1469</v>
       </c>
       <c r="R204" s="25" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="S204" s="26" t="s">
         <v>899</v>
@@ -23789,10 +23722,10 @@
         <v>363</v>
       </c>
       <c r="Q205" s="23" t="s">
-        <v>1264</v>
+        <v>1469</v>
       </c>
       <c r="R205" s="25" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="S205" s="26" t="s">
         <v>899</v>
@@ -24590,19 +24523,19 @@
         <v>874</v>
       </c>
       <c r="N219" s="24" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O219" s="23" t="s">
-        <v>1346</v>
+        <v>1326</v>
       </c>
       <c r="P219" s="24" t="s">
-        <v>1343</v>
+        <v>1323</v>
       </c>
       <c r="Q219" s="23" t="s">
         <v>559</v>
       </c>
       <c r="R219" s="25" t="s">
-        <v>1344</v>
+        <v>1324</v>
       </c>
       <c r="S219" s="26" t="s">
         <v>899</v>
@@ -25622,29 +25555,29 @@
         <v>798</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="L237" s="2" t="s">
-        <v>1351</v>
+        <v>1331</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>1353</v>
+        <v>1333</v>
       </c>
       <c r="N237" s="24" t="s">
-        <v>1354</v>
+        <v>1334</v>
       </c>
       <c r="O237" s="23" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="P237" s="14" t="s">
         <v>1174</v>
       </c>
       <c r="Q237" s="28"/>
       <c r="R237" s="63" t="s">
-        <v>1356</v>
+        <v>1336</v>
       </c>
       <c r="S237" s="26" t="s">
         <v>899</v>
@@ -25687,7 +25620,7 @@
         <v>139</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>1352</v>
+        <v>1332</v>
       </c>
       <c r="N238" s="24" t="s">
         <v>137</v>
@@ -25699,7 +25632,7 @@
         <v>1169</v>
       </c>
       <c r="Q238" s="23" t="s">
-        <v>1288</v>
+        <v>1470</v>
       </c>
       <c r="R238" s="25" t="s">
         <v>689</v>
@@ -25757,7 +25690,7 @@
         <v>357</v>
       </c>
       <c r="Q239" s="23" t="s">
-        <v>1288</v>
+        <v>1470</v>
       </c>
       <c r="R239" s="25" t="s">
         <v>690</v>
@@ -25815,7 +25748,7 @@
         <v>358</v>
       </c>
       <c r="Q240" s="23" t="s">
-        <v>1288</v>
+        <v>1470</v>
       </c>
       <c r="R240" s="25" t="s">
         <v>691</v>
@@ -25873,7 +25806,7 @@
         <v>359</v>
       </c>
       <c r="Q241" s="23" t="s">
-        <v>1288</v>
+        <v>1470</v>
       </c>
       <c r="R241" s="25" t="s">
         <v>692</v>
@@ -25931,7 +25864,7 @@
         <v>360</v>
       </c>
       <c r="Q242" s="23" t="s">
-        <v>1288</v>
+        <v>1470</v>
       </c>
       <c r="R242" s="25" t="s">
         <v>693</v>
@@ -25946,7 +25879,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="32" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C243" s="23" t="s">
         <v>899</v>
@@ -25991,7 +25924,7 @@
         <v>1170</v>
       </c>
       <c r="Q243" s="23" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R243" s="25" t="s">
         <v>708</v>
@@ -26006,7 +25939,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="22" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C244" s="23" t="s">
         <v>899</v>
@@ -26238,7 +26171,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="32" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C248" s="23" t="s">
         <v>899</v>
@@ -26280,10 +26213,10 @@
         <v>598</v>
       </c>
       <c r="P248" s="24" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="Q248" s="23" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R248" s="25" t="s">
         <v>706</v>
@@ -26298,7 +26231,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="32" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C249" s="23" t="s">
         <v>899</v>
@@ -26337,13 +26270,13 @@
         <v>847</v>
       </c>
       <c r="O249" s="23" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="P249" s="24" t="s">
         <v>1171</v>
       </c>
       <c r="Q249" s="23" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R249" s="25" t="s">
         <v>706</v>
@@ -26358,7 +26291,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="22" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C250" s="23" t="s">
         <v>899</v>
@@ -26403,7 +26336,7 @@
         <v>1172</v>
       </c>
       <c r="Q250" s="23" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R250" s="25" t="s">
         <v>692</v>
@@ -26704,7 +26637,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C256" s="23" t="s">
         <v>899</v>
@@ -26746,10 +26679,10 @@
         <v>364</v>
       </c>
       <c r="P256" s="24" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q256" s="23" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R256" s="25" t="s">
         <v>709</v>
@@ -26807,7 +26740,7 @@
         <v>395</v>
       </c>
       <c r="Q257" s="23" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R257" s="25" t="s">
         <v>710</v>
@@ -26865,7 +26798,7 @@
         <v>396</v>
       </c>
       <c r="Q258" s="23" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R258" s="25" t="s">
         <v>711</v>
@@ -26923,7 +26856,7 @@
         <v>397</v>
       </c>
       <c r="Q259" s="23" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R259" s="25" t="s">
         <v>681</v>
@@ -26977,13 +26910,13 @@
         <v>33</v>
       </c>
       <c r="O260" s="23" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="P260" s="24" t="s">
         <v>399</v>
       </c>
       <c r="Q260" s="23" t="s">
-        <v>1219</v>
+        <v>1476</v>
       </c>
       <c r="R260" s="25" t="s">
         <v>713</v>
@@ -27035,13 +26968,13 @@
         <v>37</v>
       </c>
       <c r="O261" s="23" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="P261" s="24" t="s">
         <v>401</v>
       </c>
       <c r="Q261" s="23" t="s">
-        <v>1219</v>
+        <v>1476</v>
       </c>
       <c r="R261" s="25" t="s">
         <v>713</v>
@@ -27099,7 +27032,7 @@
         <v>400</v>
       </c>
       <c r="Q262" s="23" t="s">
-        <v>1219</v>
+        <v>1476</v>
       </c>
       <c r="R262" s="25" t="s">
         <v>714</v>
@@ -27157,7 +27090,7 @@
         <v>1173</v>
       </c>
       <c r="Q263" s="23" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R263" s="25" t="s">
         <v>715</v>
@@ -27215,7 +27148,7 @@
         <v>402</v>
       </c>
       <c r="Q264" s="23" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R264" s="25" t="s">
         <v>715</v>
@@ -27269,16 +27202,16 @@
         <v>173</v>
       </c>
       <c r="O265" s="23" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="P265" s="24" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="Q265" s="23" t="s">
-        <v>1220</v>
+        <v>1469</v>
       </c>
       <c r="R265" s="25" t="s">
-        <v>1415</v>
+        <v>1395</v>
       </c>
       <c r="S265" s="26" t="s">
         <v>899</v>
@@ -27388,7 +27321,7 @@
         <v>1080</v>
       </c>
       <c r="P267" s="36" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="Q267" s="34"/>
       <c r="R267" s="62"/>
@@ -28525,7 +28458,7 @@
         <v>1001</v>
       </c>
       <c r="M288" s="2" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="N288" s="36" t="s">
         <v>200</v>
@@ -28534,7 +28467,7 @@
         <v>1005</v>
       </c>
       <c r="P288" s="36" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="Q288" s="34"/>
       <c r="R288" s="62"/>
@@ -28586,7 +28519,7 @@
         <v>1006</v>
       </c>
       <c r="P289" s="36" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="Q289" s="34"/>
       <c r="R289" s="62"/>
@@ -28690,7 +28623,7 @@
         <v>1008</v>
       </c>
       <c r="P291" s="36" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="Q291" s="34"/>
       <c r="R291" s="62"/>
@@ -30988,13 +30921,13 @@
         <v>1069</v>
       </c>
       <c r="P333" s="36" t="s">
-        <v>1341</v>
+        <v>1321</v>
       </c>
       <c r="Q333" s="23" t="s">
-        <v>1338</v>
+        <v>1474</v>
       </c>
       <c r="R333" s="25" t="s">
-        <v>1342</v>
+        <v>1322</v>
       </c>
       <c r="S333" s="33"/>
     </row>
@@ -31047,10 +30980,10 @@
         <v>368</v>
       </c>
       <c r="Q334" s="23" t="s">
-        <v>1338</v>
+        <v>1474</v>
       </c>
       <c r="R334" s="25" t="s">
-        <v>1342</v>
+        <v>1322</v>
       </c>
       <c r="S334" s="33"/>
     </row>
@@ -31171,25 +31104,25 @@
         <v>800</v>
       </c>
       <c r="C337" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D337" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E337" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F337" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G337" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H337" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>1358</v>
+        <v>1338</v>
       </c>
       <c r="J337" s="2" t="s">
         <v>1149</v>
@@ -31204,7 +31137,7 @@
         <v>1149</v>
       </c>
       <c r="N337" s="14" t="s">
-        <v>1422</v>
+        <v>1401</v>
       </c>
       <c r="O337" s="64" t="s">
         <v>1149</v>
@@ -31213,10 +31146,10 @@
         <v>1174</v>
       </c>
       <c r="Q337" s="14" t="s">
-        <v>1359</v>
+        <v>1339</v>
       </c>
       <c r="R337" s="14" t="s">
-        <v>1420</v>
+        <v>1399</v>
       </c>
       <c r="S337" s="33"/>
     </row>
@@ -31227,25 +31160,25 @@
       </c>
       <c r="B338" s="27"/>
       <c r="C338" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D338" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E338" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F338" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G338" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H338" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="J338" s="2" t="s">
         <v>1149</v>
@@ -31260,7 +31193,7 @@
         <v>1149</v>
       </c>
       <c r="N338" s="14" t="s">
-        <v>1423</v>
+        <v>1402</v>
       </c>
       <c r="O338" s="64" t="s">
         <v>1149</v>
@@ -31269,10 +31202,10 @@
         <v>1174</v>
       </c>
       <c r="Q338" s="14" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="R338" s="14" t="s">
-        <v>1420</v>
+        <v>1399</v>
       </c>
       <c r="S338" s="33"/>
     </row>
@@ -31283,7 +31216,7 @@
       </c>
       <c r="B339" s="27"/>
       <c r="C339" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D339" s="36" t="s">
         <v>899</v>
@@ -31301,7 +31234,7 @@
         <v>899</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J339" s="2" t="s">
         <v>1149</v>
@@ -31316,7 +31249,7 @@
         <v>1149</v>
       </c>
       <c r="N339" s="36" t="s">
-        <v>1362</v>
+        <v>1342</v>
       </c>
       <c r="O339" s="54" t="s">
         <v>1149</v>
@@ -31325,10 +31258,10 @@
         <v>1174</v>
       </c>
       <c r="Q339" s="14" t="s">
-        <v>1363</v>
+        <v>1343</v>
       </c>
       <c r="R339" s="14" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="S339" s="33"/>
     </row>
@@ -31339,25 +31272,25 @@
       </c>
       <c r="B340" s="27"/>
       <c r="C340" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D340" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E340" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F340" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G340" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H340" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J340" s="2" t="s">
         <v>1149</v>
@@ -31372,7 +31305,7 @@
         <v>1149</v>
       </c>
       <c r="N340" s="36" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="O340" s="54" t="s">
         <v>1149</v>
@@ -31381,10 +31314,10 @@
         <v>1174</v>
       </c>
       <c r="Q340" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R340" s="14" t="s">
-        <v>1367</v>
+        <v>1347</v>
       </c>
       <c r="S340" s="33"/>
     </row>
@@ -31395,25 +31328,25 @@
       </c>
       <c r="B341" s="27"/>
       <c r="C341" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D341" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E341" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F341" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G341" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H341" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J341" s="2" t="s">
         <v>1149</v>
@@ -31428,7 +31361,7 @@
         <v>1149</v>
       </c>
       <c r="N341" s="36" t="s">
-        <v>1368</v>
+        <v>1348</v>
       </c>
       <c r="O341" s="54" t="s">
         <v>1149</v>
@@ -31437,10 +31370,10 @@
         <v>1174</v>
       </c>
       <c r="Q341" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R341" s="14" t="s">
-        <v>1369</v>
+        <v>1349</v>
       </c>
       <c r="S341" s="33"/>
     </row>
@@ -31451,25 +31384,25 @@
       </c>
       <c r="B342" s="27"/>
       <c r="C342" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D342" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E342" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F342" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G342" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H342" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J342" s="2" t="s">
         <v>1149</v>
@@ -31484,7 +31417,7 @@
         <v>1149</v>
       </c>
       <c r="N342" s="36" t="s">
-        <v>1370</v>
+        <v>1350</v>
       </c>
       <c r="O342" s="54" t="s">
         <v>1149</v>
@@ -31493,10 +31426,10 @@
         <v>1174</v>
       </c>
       <c r="Q342" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R342" s="14" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="S342" s="33"/>
     </row>
@@ -31507,25 +31440,25 @@
       </c>
       <c r="B343" s="27"/>
       <c r="C343" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D343" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E343" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F343" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G343" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H343" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J343" s="2" t="s">
         <v>1149</v>
@@ -31540,7 +31473,7 @@
         <v>1149</v>
       </c>
       <c r="N343" s="36" t="s">
-        <v>1372</v>
+        <v>1352</v>
       </c>
       <c r="O343" s="54" t="s">
         <v>1149</v>
@@ -31549,10 +31482,10 @@
         <v>1174</v>
       </c>
       <c r="Q343" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R343" s="14" t="s">
-        <v>1373</v>
+        <v>1353</v>
       </c>
       <c r="S343" s="33"/>
     </row>
@@ -31563,25 +31496,25 @@
       </c>
       <c r="B344" s="27"/>
       <c r="C344" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D344" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E344" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F344" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G344" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H344" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J344" s="2" t="s">
         <v>1149</v>
@@ -31596,7 +31529,7 @@
         <v>1149</v>
       </c>
       <c r="N344" s="36" t="s">
-        <v>1374</v>
+        <v>1354</v>
       </c>
       <c r="O344" s="54" t="s">
         <v>1149</v>
@@ -31605,10 +31538,10 @@
         <v>1174</v>
       </c>
       <c r="Q344" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R344" s="14" t="s">
-        <v>1375</v>
+        <v>1355</v>
       </c>
       <c r="S344" s="33"/>
     </row>
@@ -31619,25 +31552,25 @@
       </c>
       <c r="B345" s="27"/>
       <c r="C345" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D345" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E345" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F345" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G345" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H345" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J345" s="2" t="s">
         <v>1149</v>
@@ -31652,7 +31585,7 @@
         <v>1149</v>
       </c>
       <c r="N345" s="36" t="s">
-        <v>1376</v>
+        <v>1356</v>
       </c>
       <c r="O345" s="54" t="s">
         <v>1149</v>
@@ -31661,10 +31594,10 @@
         <v>1174</v>
       </c>
       <c r="Q345" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R345" s="14" t="s">
-        <v>1377</v>
+        <v>1357</v>
       </c>
       <c r="S345" s="33"/>
     </row>
@@ -31675,25 +31608,25 @@
       </c>
       <c r="B346" s="27"/>
       <c r="C346" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D346" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E346" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F346" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G346" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H346" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J346" s="2" t="s">
         <v>1149</v>
@@ -31708,7 +31641,7 @@
         <v>1149</v>
       </c>
       <c r="N346" s="36" t="s">
-        <v>1378</v>
+        <v>1358</v>
       </c>
       <c r="O346" s="54" t="s">
         <v>1149</v>
@@ -31717,10 +31650,10 @@
         <v>1174</v>
       </c>
       <c r="Q346" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R346" s="14" t="s">
-        <v>1379</v>
+        <v>1359</v>
       </c>
       <c r="S346" s="33"/>
     </row>
@@ -31731,25 +31664,25 @@
       </c>
       <c r="B347" s="27"/>
       <c r="C347" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D347" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E347" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F347" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G347" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H347" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J347" s="2" t="s">
         <v>1149</v>
@@ -31764,7 +31697,7 @@
         <v>1149</v>
       </c>
       <c r="N347" s="36" t="s">
-        <v>1380</v>
+        <v>1360</v>
       </c>
       <c r="O347" s="54" t="s">
         <v>1149</v>
@@ -31773,10 +31706,10 @@
         <v>1174</v>
       </c>
       <c r="Q347" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R347" s="14" t="s">
-        <v>1379</v>
+        <v>1359</v>
       </c>
       <c r="S347" s="33"/>
     </row>
@@ -31787,25 +31720,25 @@
       </c>
       <c r="B348" s="27"/>
       <c r="C348" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D348" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E348" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F348" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G348" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H348" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J348" s="2" t="s">
         <v>1149</v>
@@ -31820,7 +31753,7 @@
         <v>1149</v>
       </c>
       <c r="N348" s="36" t="s">
-        <v>1381</v>
+        <v>1361</v>
       </c>
       <c r="O348" s="54" t="s">
         <v>1149</v>
@@ -31829,10 +31762,10 @@
         <v>1174</v>
       </c>
       <c r="Q348" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R348" s="14" t="s">
-        <v>1379</v>
+        <v>1359</v>
       </c>
       <c r="S348" s="33"/>
     </row>
@@ -31843,25 +31776,25 @@
       </c>
       <c r="B349" s="27"/>
       <c r="C349" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D349" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E349" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F349" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G349" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H349" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J349" s="2" t="s">
         <v>1149</v>
@@ -31876,7 +31809,7 @@
         <v>1149</v>
       </c>
       <c r="N349" s="36" t="s">
-        <v>1382</v>
+        <v>1362</v>
       </c>
       <c r="O349" s="54" t="s">
         <v>1149</v>
@@ -31885,10 +31818,10 @@
         <v>1174</v>
       </c>
       <c r="Q349" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R349" s="14" t="s">
-        <v>1383</v>
+        <v>1363</v>
       </c>
       <c r="S349" s="33"/>
     </row>
@@ -31899,25 +31832,25 @@
       </c>
       <c r="B350" s="27"/>
       <c r="C350" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D350" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E350" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F350" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G350" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H350" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J350" s="2" t="s">
         <v>1149</v>
@@ -31932,7 +31865,7 @@
         <v>1149</v>
       </c>
       <c r="N350" s="36" t="s">
-        <v>1384</v>
+        <v>1364</v>
       </c>
       <c r="O350" s="54" t="s">
         <v>1149</v>
@@ -31941,10 +31874,10 @@
         <v>1174</v>
       </c>
       <c r="Q350" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R350" s="14" t="s">
-        <v>1385</v>
+        <v>1365</v>
       </c>
       <c r="S350" s="33"/>
     </row>
@@ -31955,25 +31888,25 @@
       </c>
       <c r="B351" s="27"/>
       <c r="C351" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D351" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E351" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F351" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G351" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H351" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J351" s="2" t="s">
         <v>1149</v>
@@ -31988,7 +31921,7 @@
         <v>1149</v>
       </c>
       <c r="N351" s="36" t="s">
-        <v>1386</v>
+        <v>1366</v>
       </c>
       <c r="O351" s="54" t="s">
         <v>1149</v>
@@ -31997,10 +31930,10 @@
         <v>1174</v>
       </c>
       <c r="Q351" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R351" s="14" t="s">
-        <v>1387</v>
+        <v>1367</v>
       </c>
       <c r="S351" s="33"/>
     </row>
@@ -32011,25 +31944,25 @@
       </c>
       <c r="B352" s="27"/>
       <c r="C352" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D352" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E352" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F352" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G352" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H352" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J352" s="2" t="s">
         <v>1149</v>
@@ -32044,7 +31977,7 @@
         <v>1149</v>
       </c>
       <c r="N352" s="36" t="s">
-        <v>1388</v>
+        <v>1368</v>
       </c>
       <c r="O352" s="54" t="s">
         <v>1149</v>
@@ -32053,10 +31986,10 @@
         <v>1174</v>
       </c>
       <c r="Q352" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R352" s="14" t="s">
-        <v>1389</v>
+        <v>1369</v>
       </c>
       <c r="S352" s="33"/>
     </row>
@@ -32067,25 +32000,25 @@
       </c>
       <c r="B353" s="27"/>
       <c r="C353" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D353" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E353" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F353" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G353" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H353" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J353" s="2" t="s">
         <v>1149</v>
@@ -32100,7 +32033,7 @@
         <v>1149</v>
       </c>
       <c r="N353" s="36" t="s">
-        <v>1390</v>
+        <v>1370</v>
       </c>
       <c r="O353" s="54" t="s">
         <v>1149</v>
@@ -32109,10 +32042,10 @@
         <v>1174</v>
       </c>
       <c r="Q353" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R353" s="14" t="s">
-        <v>1373</v>
+        <v>1353</v>
       </c>
       <c r="S353" s="33"/>
     </row>
@@ -32123,25 +32056,25 @@
       </c>
       <c r="B354" s="27"/>
       <c r="C354" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D354" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E354" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F354" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G354" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H354" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J354" s="2" t="s">
         <v>1149</v>
@@ -32156,7 +32089,7 @@
         <v>1149</v>
       </c>
       <c r="N354" s="36" t="s">
-        <v>1391</v>
+        <v>1371</v>
       </c>
       <c r="O354" s="54" t="s">
         <v>1149</v>
@@ -32165,10 +32098,10 @@
         <v>1174</v>
       </c>
       <c r="Q354" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R354" s="14" t="s">
-        <v>1375</v>
+        <v>1355</v>
       </c>
       <c r="S354" s="33"/>
     </row>
@@ -32179,25 +32112,25 @@
       </c>
       <c r="B355" s="27"/>
       <c r="C355" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D355" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E355" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F355" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G355" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H355" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J355" s="2" t="s">
         <v>1149</v>
@@ -32212,7 +32145,7 @@
         <v>1149</v>
       </c>
       <c r="N355" s="36" t="s">
-        <v>1392</v>
+        <v>1372</v>
       </c>
       <c r="O355" s="54" t="s">
         <v>1149</v>
@@ -32221,10 +32154,10 @@
         <v>1174</v>
       </c>
       <c r="Q355" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R355" s="14" t="s">
-        <v>1377</v>
+        <v>1357</v>
       </c>
       <c r="S355" s="33"/>
     </row>
@@ -32235,25 +32168,25 @@
       </c>
       <c r="B356" s="27"/>
       <c r="C356" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D356" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E356" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F356" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G356" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H356" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J356" s="2" t="s">
         <v>1149</v>
@@ -32268,7 +32201,7 @@
         <v>1149</v>
       </c>
       <c r="N356" s="36" t="s">
-        <v>1393</v>
+        <v>1373</v>
       </c>
       <c r="O356" s="54" t="s">
         <v>1149</v>
@@ -32277,10 +32210,10 @@
         <v>1174</v>
       </c>
       <c r="Q356" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R356" s="14" t="s">
-        <v>1394</v>
+        <v>1374</v>
       </c>
       <c r="S356" s="33"/>
     </row>
@@ -32291,25 +32224,25 @@
       </c>
       <c r="B357" s="27"/>
       <c r="C357" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D357" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E357" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F357" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G357" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H357" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J357" s="2" t="s">
         <v>1149</v>
@@ -32324,7 +32257,7 @@
         <v>1149</v>
       </c>
       <c r="N357" s="36" t="s">
-        <v>1395</v>
+        <v>1375</v>
       </c>
       <c r="O357" s="54" t="s">
         <v>1149</v>
@@ -32333,10 +32266,10 @@
         <v>1174</v>
       </c>
       <c r="Q357" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R357" s="14" t="s">
-        <v>1396</v>
+        <v>1376</v>
       </c>
       <c r="S357" s="33"/>
     </row>
@@ -32347,25 +32280,25 @@
       </c>
       <c r="B358" s="27"/>
       <c r="C358" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D358" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E358" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F358" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G358" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H358" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J358" s="2" t="s">
         <v>1149</v>
@@ -32380,7 +32313,7 @@
         <v>1149</v>
       </c>
       <c r="N358" s="36" t="s">
-        <v>1397</v>
+        <v>1377</v>
       </c>
       <c r="O358" s="54" t="s">
         <v>1149</v>
@@ -32389,10 +32322,10 @@
         <v>1174</v>
       </c>
       <c r="Q358" s="14" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="R358" s="14" t="s">
-        <v>1398</v>
+        <v>1378</v>
       </c>
       <c r="S358" s="33"/>
     </row>
@@ -32403,25 +32336,25 @@
       </c>
       <c r="B359" s="27"/>
       <c r="C359" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D359" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E359" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F359" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G359" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H359" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J359" s="2" t="s">
         <v>1149</v>
@@ -32436,7 +32369,7 @@
         <v>1149</v>
       </c>
       <c r="N359" s="36" t="s">
-        <v>1399</v>
+        <v>1379</v>
       </c>
       <c r="O359" s="54" t="s">
         <v>1149</v>
@@ -32445,10 +32378,10 @@
         <v>1174</v>
       </c>
       <c r="Q359" s="14" t="s">
-        <v>1413</v>
+        <v>1393</v>
       </c>
       <c r="R359" s="14" t="s">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="S359" s="33"/>
     </row>
@@ -32465,19 +32398,19 @@
         <v>899</v>
       </c>
       <c r="E360" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F360" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G360" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H360" s="36" t="s">
         <v>899</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J360" s="2" t="s">
         <v>1149</v>
@@ -32492,7 +32425,7 @@
         <v>1149</v>
       </c>
       <c r="N360" s="36" t="s">
-        <v>1401</v>
+        <v>1381</v>
       </c>
       <c r="O360" s="54" t="s">
         <v>1149</v>
@@ -32501,10 +32434,10 @@
         <v>1174</v>
       </c>
       <c r="Q360" s="14" t="s">
-        <v>1402</v>
+        <v>1382</v>
       </c>
       <c r="R360" s="14" t="s">
-        <v>1403</v>
+        <v>1383</v>
       </c>
       <c r="S360" s="33"/>
     </row>
@@ -32521,19 +32454,19 @@
         <v>899</v>
       </c>
       <c r="E361" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F361" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G361" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H361" s="36" t="s">
         <v>899</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J361" s="2" t="s">
         <v>1149</v>
@@ -32548,7 +32481,7 @@
         <v>1149</v>
       </c>
       <c r="N361" s="36" t="s">
-        <v>1401</v>
+        <v>1381</v>
       </c>
       <c r="O361" s="54" t="s">
         <v>1149</v>
@@ -32557,10 +32490,10 @@
         <v>1174</v>
       </c>
       <c r="Q361" s="14" t="s">
-        <v>1402</v>
+        <v>1382</v>
       </c>
       <c r="R361" s="14" t="s">
-        <v>1404</v>
+        <v>1384</v>
       </c>
       <c r="S361" s="33"/>
     </row>
@@ -32577,19 +32510,19 @@
         <v>899</v>
       </c>
       <c r="E362" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F362" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G362" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H362" s="36" t="s">
         <v>899</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J362" s="2" t="s">
         <v>1149</v>
@@ -32604,7 +32537,7 @@
         <v>1149</v>
       </c>
       <c r="N362" s="36" t="s">
-        <v>1405</v>
+        <v>1385</v>
       </c>
       <c r="O362" s="54" t="s">
         <v>1149</v>
@@ -32613,10 +32546,10 @@
         <v>1174</v>
       </c>
       <c r="Q362" s="14" t="s">
-        <v>1402</v>
+        <v>1382</v>
       </c>
       <c r="R362" s="14" t="s">
-        <v>1406</v>
+        <v>1386</v>
       </c>
       <c r="S362" s="33"/>
     </row>
@@ -32633,19 +32566,19 @@
         <v>899</v>
       </c>
       <c r="E363" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="F363" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="G363" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="H363" s="36" t="s">
         <v>899</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="J363" s="2" t="s">
         <v>1149</v>
@@ -32660,7 +32593,7 @@
         <v>1149</v>
       </c>
       <c r="N363" s="36" t="s">
-        <v>1407</v>
+        <v>1387</v>
       </c>
       <c r="O363" s="54" t="s">
         <v>1149</v>
@@ -32669,10 +32602,10 @@
         <v>1174</v>
       </c>
       <c r="Q363" s="14" t="s">
-        <v>1402</v>
+        <v>1382</v>
       </c>
       <c r="R363" s="14" t="s">
-        <v>1408</v>
+        <v>1388</v>
       </c>
       <c r="S363" s="33"/>
     </row>
@@ -32683,10 +32616,10 @@
       </c>
       <c r="B364" s="30"/>
       <c r="C364" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="D364" s="36" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="E364" s="36" t="s">
         <v>899</v>
@@ -32701,26 +32634,26 @@
         <v>899</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>1409</v>
+        <v>1389</v>
       </c>
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
       <c r="M364" s="2"/>
       <c r="N364" s="36" t="s">
-        <v>1410</v>
+        <v>1390</v>
       </c>
       <c r="O364" s="2" t="s">
-        <v>1411</v>
+        <v>1391</v>
       </c>
       <c r="P364" s="14" t="s">
         <v>1174</v>
       </c>
       <c r="Q364" s="14" t="s">
-        <v>1414</v>
+        <v>1394</v>
       </c>
       <c r="R364" s="14" t="s">
-        <v>1412</v>
+        <v>1392</v>
       </c>
       <c r="S364" s="33"/>
     </row>
@@ -32751,34 +32684,34 @@
         <v>899</v>
       </c>
       <c r="I365" s="66" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="J365" s="2" t="s">
-        <v>1427</v>
+        <v>1406</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>1428</v>
+        <v>1407</v>
       </c>
       <c r="L365" s="2" t="s">
-        <v>1429</v>
+        <v>1408</v>
       </c>
       <c r="M365" s="66" t="s">
-        <v>1473</v>
+        <v>1452</v>
       </c>
       <c r="N365" s="36" t="s">
-        <v>1432</v>
+        <v>1411</v>
       </c>
       <c r="O365" s="36" t="s">
-        <v>1460</v>
+        <v>1439</v>
       </c>
       <c r="P365" s="36" t="s">
-        <v>1433</v>
+        <v>1412</v>
       </c>
       <c r="Q365" s="36" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="R365" s="52" t="s">
-        <v>1435</v>
+        <v>1414</v>
       </c>
       <c r="S365" s="33"/>
     </row>
@@ -32807,32 +32740,32 @@
         <v>899</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="J366" s="2" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="K366" s="2" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="L366" s="2" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="M366" s="41"/>
       <c r="N366" s="36" t="s">
-        <v>1432</v>
+        <v>1411</v>
       </c>
       <c r="O366" s="36" t="s">
-        <v>1458</v>
+        <v>1437</v>
       </c>
       <c r="P366" s="36" t="s">
-        <v>1439</v>
+        <v>1418</v>
       </c>
       <c r="Q366" s="36" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="R366" s="52" t="s">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="S366" s="33"/>
     </row>
@@ -32861,32 +32794,32 @@
         <v>899</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="J367" s="2" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>1442</v>
+        <v>1421</v>
       </c>
       <c r="L367" s="2" t="s">
-        <v>1443</v>
+        <v>1422</v>
       </c>
       <c r="M367" s="2"/>
       <c r="N367" s="36" t="s">
-        <v>1444</v>
+        <v>1423</v>
       </c>
       <c r="O367" s="36" t="s">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="P367" s="36" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="Q367" s="36" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="R367" s="52" t="s">
-        <v>1446</v>
+        <v>1425</v>
       </c>
       <c r="S367" s="33"/>
     </row>
@@ -32915,32 +32848,32 @@
         <v>899</v>
       </c>
       <c r="I368" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J368" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="J368" s="2" t="s">
-        <v>1447</v>
-      </c>
       <c r="K368" s="2" t="s">
-        <v>1449</v>
+        <v>1428</v>
       </c>
       <c r="L368" s="2" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
       <c r="M368" s="2"/>
       <c r="N368" s="36" t="s">
-        <v>1450</v>
+        <v>1429</v>
       </c>
       <c r="O368" s="36" t="s">
-        <v>1451</v>
+        <v>1430</v>
       </c>
       <c r="P368" s="36" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
       <c r="Q368" s="36" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="R368" s="52" t="s">
-        <v>1453</v>
+        <v>1432</v>
       </c>
       <c r="S368" s="33"/>
     </row>
@@ -32969,22 +32902,22 @@
         <v>899</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="J369" s="2" t="s">
-        <v>1454</v>
+        <v>1433</v>
       </c>
       <c r="K369" s="2" t="s">
-        <v>1456</v>
+        <v>1435</v>
       </c>
       <c r="L369" s="2" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
       <c r="M369" s="66" t="s">
-        <v>1431</v>
+        <v>1410</v>
       </c>
       <c r="N369" s="36" t="s">
-        <v>1457</v>
+        <v>1436</v>
       </c>
       <c r="O369" s="36" t="s">
         <v>646</v>
@@ -32993,7 +32926,7 @@
         <v>389</v>
       </c>
       <c r="Q369" s="36" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R369" s="38" t="s">
         <v>704</v>
@@ -33025,7 +32958,7 @@
         <v>899</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="J370" s="2" t="s">
         <v>317</v>
@@ -33047,7 +32980,7 @@
         <v>388</v>
       </c>
       <c r="Q370" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R370" s="65" t="s">
         <v>703</v>
@@ -33079,7 +33012,7 @@
         <v>899</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="J371" s="2" t="s">
         <v>323</v>
@@ -33101,7 +33034,7 @@
         <v>390</v>
       </c>
       <c r="Q371" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R371" s="65" t="s">
         <v>705</v>
@@ -33133,7 +33066,7 @@
         <v>899</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="J372" s="2" t="s">
         <v>323</v>
@@ -33155,7 +33088,7 @@
         <v>391</v>
       </c>
       <c r="Q372" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R372" s="65" t="s">
         <v>411</v>
@@ -33187,7 +33120,7 @@
         <v>899</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="J373" s="2" t="s">
         <v>323</v>
@@ -33209,7 +33142,7 @@
         <v>392</v>
       </c>
       <c r="Q373" s="23" t="s">
-        <v>1289</v>
+        <v>1467</v>
       </c>
       <c r="R373" s="65" t="s">
         <v>679</v>
@@ -33222,7 +33155,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="71" t="s">
-        <v>1461</v>
+        <v>1440</v>
       </c>
       <c r="C374" s="72" t="s">
         <v>899</v>
@@ -33243,31 +33176,31 @@
         <v>899</v>
       </c>
       <c r="I374" s="70" t="s">
-        <v>1462</v>
+        <v>1441</v>
       </c>
       <c r="J374" s="70" t="s">
-        <v>1463</v>
+        <v>1442</v>
       </c>
       <c r="K374" s="70" t="s">
-        <v>1464</v>
+        <v>1443</v>
       </c>
       <c r="L374" s="70" t="s">
-        <v>1465</v>
+        <v>1444</v>
       </c>
       <c r="M374" s="70" t="s">
-        <v>1466</v>
+        <v>1445</v>
       </c>
       <c r="N374" s="72" t="s">
         <v>1015</v>
       </c>
       <c r="O374" s="72" t="s">
-        <v>1467</v>
+        <v>1446</v>
       </c>
       <c r="P374" s="72" t="s">
         <v>1016</v>
       </c>
       <c r="Q374" s="72" t="s">
-        <v>1468</v>
+        <v>1447</v>
       </c>
       <c r="R374" s="73" t="s">
         <v>1204</v>
@@ -33299,34 +33232,34 @@
         <v>899</v>
       </c>
       <c r="I375" s="70" t="s">
-        <v>1462</v>
+        <v>1441</v>
       </c>
       <c r="J375" s="70" t="s">
-        <v>1463</v>
+        <v>1442</v>
       </c>
       <c r="K375" s="70" t="s">
-        <v>1464</v>
+        <v>1443</v>
       </c>
       <c r="L375" s="70" t="s">
-        <v>1465</v>
+        <v>1444</v>
       </c>
       <c r="M375" s="70" t="s">
-        <v>1466</v>
+        <v>1445</v>
       </c>
       <c r="N375" s="72" t="s">
-        <v>1469</v>
+        <v>1448</v>
       </c>
       <c r="O375" s="72" t="s">
-        <v>1470</v>
+        <v>1449</v>
       </c>
       <c r="P375" s="72" t="s">
-        <v>1471</v>
+        <v>1450</v>
       </c>
       <c r="Q375" s="72" t="s">
-        <v>1468</v>
+        <v>1447</v>
       </c>
       <c r="R375" s="73" t="s">
-        <v>1472</v>
+        <v>1451</v>
       </c>
       <c r="S375" s="74"/>
     </row>
@@ -33337,2152 +33270,2152 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I191:I195 B191:B195 I244:I248 B244:B248 I123:I140 B123:B140 I250:I259 I85:I88 B250:B259 I142:I144 B142:B144 I261:I264 B261:B264 I333:I336 I309:I314 I268:I297 I17:I31 B4:B10 B17:B31 I4:I10 B33:B74 I33:I74 B148 I148 I90:I103 I106:I121 B106:B121 I186:I187 B186:B187 I173:I179 B173:B179 I158:I171 B158:B171 B153:B155 I151:I155 I181:I184 B181:B184 B85:B103 I197:I217 B197:B217 I77:I82 B77:B83 I220:I236 I239:I242 B220:B236 B239:B242">
-    <cfRule type="cellIs" dxfId="436" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="610" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J191:J195 J244:J248 J123:J140 J250:J259 J142:J144 J261:J264 J333:J336 J309:J314 J4:J10 J17:J31 J267:J297 J33:J74 J146:J148 J97:J103 J106:J121 J186:J187 J173:J179 J158:J171 J151:J155 J181:J184 J85:J95 J197:J217 J77:J82 J220:J236 J239:J242">
-    <cfRule type="cellIs" dxfId="435" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="609" operator="equal">
       <formula>$J3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J190">
-    <cfRule type="cellIs" dxfId="434" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="612" operator="equal">
       <formula>$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L191:L195 L244:L248 L123:L140 L250:L259 L142:L144 L261:L264 L333:L336 L309:L314 L17:L31 L4:L10 L267:L297 L33:L74 L147:L148 L97:L103 L106:L121 L186:L187 L173:L179 L158:L171 L151:L155 L181:L184 L85:L95 L197:L217 L77:L82 L220:L236 L239:L242">
-    <cfRule type="cellIs" dxfId="433" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="607" operator="equal">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M191:M195 M244:M248 M123:M140 M250:M259 M142:M144 M261:M264 M333:M336 M309:M314 M4:M10 M17:M31 M267:M297 M33:M74 M147:M148 M97:M103 M106:M121 M186:M187 M173:M179 M158:M171 M151:M155 M181:M184 M85:M95 M197:M217 M77:M82 M220:M236 M239:M242">
-    <cfRule type="cellIs" dxfId="432" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="606" operator="equal">
       <formula>$M3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122 B122">
-    <cfRule type="cellIs" dxfId="431" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="618" operator="equal">
       <formula>$I95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J122">
-    <cfRule type="cellIs" dxfId="430" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="621" operator="equal">
       <formula>$J95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L122">
-    <cfRule type="cellIs" dxfId="429" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="624" operator="equal">
       <formula>$L95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M122">
-    <cfRule type="cellIs" dxfId="428" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="627" operator="equal">
       <formula>$M95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141 B141">
-    <cfRule type="cellIs" dxfId="427" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="636" operator="equal">
       <formula>$I121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96">
-    <cfRule type="cellIs" dxfId="426" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="639" operator="equal">
       <formula>$J140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141">
-    <cfRule type="cellIs" dxfId="425" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="640" operator="equal">
       <formula>$J121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L96">
-    <cfRule type="cellIs" dxfId="424" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="643" operator="equal">
       <formula>$L140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L141">
-    <cfRule type="cellIs" dxfId="423" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="644" operator="equal">
       <formula>$L121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96">
-    <cfRule type="cellIs" dxfId="422" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="647" operator="equal">
       <formula>$M140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M141">
-    <cfRule type="cellIs" dxfId="421" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="648" operator="equal">
       <formula>$M121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="420" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="600" operator="equal">
       <formula>$I133</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I260 B260">
-    <cfRule type="cellIs" dxfId="419" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="654" operator="equal">
       <formula>$I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J260">
-    <cfRule type="cellIs" dxfId="418" priority="660" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="660" operator="equal">
       <formula>$J31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L260">
-    <cfRule type="cellIs" dxfId="417" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="664" operator="equal">
       <formula>$L31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M260">
-    <cfRule type="cellIs" dxfId="416" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="667" operator="equal">
       <formula>$M31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L190">
-    <cfRule type="cellIs" dxfId="415" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="681" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M190">
-    <cfRule type="cellIs" dxfId="414" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="685" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="413" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="692" operator="equal">
       <formula>$I242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J196">
-    <cfRule type="cellIs" dxfId="412" priority="698" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="698" operator="equal">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L196">
-    <cfRule type="cellIs" dxfId="411" priority="702" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="702" operator="equal">
       <formula>$L74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M196">
-    <cfRule type="cellIs" dxfId="410" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="705" operator="equal">
       <formula>$M74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 B3">
-    <cfRule type="cellIs" dxfId="409" priority="734" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="734" operator="equal">
       <formula>$I195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="408" priority="736" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="736" operator="equal">
       <formula>$J195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="407" priority="737" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="737" operator="equal">
       <formula>$L195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="406" priority="738" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="738" operator="equal">
       <formula>$M195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="405" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="741" operator="equal">
       <formula>$I242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="404" priority="747" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="747" operator="equal">
       <formula>$J242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="cellIs" dxfId="403" priority="751" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="751" operator="equal">
       <formula>$L242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="402" priority="754" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="754" operator="equal">
       <formula>$M242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196 I196">
-    <cfRule type="cellIs" dxfId="401" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="797" operator="equal">
       <formula>$I74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I243 B243">
-    <cfRule type="cellIs" dxfId="400" priority="800" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="800" operator="equal">
       <formula>$I82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J243">
-    <cfRule type="cellIs" dxfId="399" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="806" operator="equal">
       <formula>$J82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L243">
-    <cfRule type="cellIs" dxfId="398" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="809" operator="equal">
       <formula>$L82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M243">
-    <cfRule type="cellIs" dxfId="397" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="812" operator="equal">
       <formula>$M82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156 B156">
-    <cfRule type="cellIs" dxfId="396" priority="817" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="817" operator="equal">
       <formula>$I75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="395" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="819" operator="equal">
       <formula>$J75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L156">
-    <cfRule type="cellIs" dxfId="394" priority="820" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="820" operator="equal">
       <formula>$L75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156">
-    <cfRule type="cellIs" dxfId="393" priority="821" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="821" operator="equal">
       <formula>$M75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265 B265">
-    <cfRule type="cellIs" dxfId="392" priority="824" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="824" operator="equal">
       <formula>$I248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J265">
-    <cfRule type="cellIs" dxfId="391" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="830" operator="equal">
       <formula>$J248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L265">
-    <cfRule type="cellIs" dxfId="390" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="833" operator="equal">
       <formula>$L248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="cellIs" dxfId="389" priority="836" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="836" operator="equal">
       <formula>$M248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84 B84">
-    <cfRule type="cellIs" dxfId="388" priority="869" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="869" operator="equal">
       <formula>$I259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="cellIs" dxfId="387" priority="879" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="879" operator="equal">
       <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L84">
-    <cfRule type="cellIs" dxfId="386" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="885" operator="equal">
       <formula>$L259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84">
-    <cfRule type="cellIs" dxfId="385" priority="891" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="891" operator="equal">
       <formula>$M259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I157 B157">
-    <cfRule type="cellIs" dxfId="384" priority="917" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="917" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157">
-    <cfRule type="cellIs" dxfId="383" priority="919" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="919" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L157">
-    <cfRule type="cellIs" dxfId="382" priority="920" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="920" operator="equal">
       <formula>$L144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="cellIs" dxfId="381" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="921" operator="equal">
       <formula>$M144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32 B32">
-    <cfRule type="cellIs" dxfId="380" priority="930" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="930" operator="equal">
       <formula>$I264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="379" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="932" operator="equal">
       <formula>$J264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="378" priority="933" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="933" operator="equal">
       <formula>$L264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="cellIs" dxfId="377" priority="934" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="934" operator="equal">
       <formula>$M264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I249 B249">
-    <cfRule type="cellIs" dxfId="376" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="937" operator="equal">
       <formula>$I265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249">
-    <cfRule type="cellIs" dxfId="375" priority="939" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="939" operator="equal">
       <formula>$J265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L249">
-    <cfRule type="cellIs" dxfId="374" priority="940" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="940" operator="equal">
       <formula>$L265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M249">
-    <cfRule type="cellIs" dxfId="373" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="941" operator="equal">
       <formula>$M265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I188:I189 B188:B189">
-    <cfRule type="cellIs" dxfId="372" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="962" operator="equal">
       <formula>$I179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I180 B180">
-    <cfRule type="cellIs" dxfId="371" priority="963" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="963" operator="equal">
       <formula>$I188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188:J189">
-    <cfRule type="cellIs" dxfId="370" priority="968" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="968" operator="equal">
       <formula>$J179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J180">
-    <cfRule type="cellIs" dxfId="369" priority="969" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="969" operator="equal">
       <formula>$J188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L188:L189">
-    <cfRule type="cellIs" dxfId="368" priority="971" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="971" operator="equal">
       <formula>$L179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L180">
-    <cfRule type="cellIs" dxfId="367" priority="972" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="972" operator="equal">
       <formula>$L188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M188:M189">
-    <cfRule type="cellIs" dxfId="366" priority="974" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="974" operator="equal">
       <formula>$M179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M180">
-    <cfRule type="cellIs" dxfId="365" priority="975" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="975" operator="equal">
       <formula>$M188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:K195 K244:K248 K123:K140 K250:K259 K142:K144 K261:K264 K333:K336 K309:K314 K4:K10 K17:K31 K267:K297 K33:K74 K147:K148 K97:K103 K106:K121 K186:K187 K173:K179 K158:K171 K151:K155 K181:K184 K85:K95 K197:K217 K77:K82 K220:K236 K239:K242">
-    <cfRule type="cellIs" dxfId="364" priority="979" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="979" operator="equal">
       <formula>$K3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K122">
-    <cfRule type="cellIs" dxfId="363" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="994" operator="equal">
       <formula>$K95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K96">
-    <cfRule type="cellIs" dxfId="362" priority="995" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="995" operator="equal">
       <formula>$K140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K141">
-    <cfRule type="cellIs" dxfId="361" priority="996" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="996" operator="equal">
       <formula>$K121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260">
-    <cfRule type="cellIs" dxfId="360" priority="997" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="997" operator="equal">
       <formula>$K31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="cellIs" dxfId="359" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="998" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="cellIs" dxfId="358" priority="999" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="999" operator="equal">
       <formula>$K74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="357" priority="1000" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="1000" operator="equal">
       <formula>$K195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="356" priority="1001" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="1001" operator="equal">
       <formula>$K242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K243">
-    <cfRule type="cellIs" dxfId="355" priority="1002" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="1002" operator="equal">
       <formula>$K82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156">
-    <cfRule type="cellIs" dxfId="354" priority="1003" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="1003" operator="equal">
       <formula>$K75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="cellIs" dxfId="353" priority="1004" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="1004" operator="equal">
       <formula>$K248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K84">
-    <cfRule type="cellIs" dxfId="352" priority="1006" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="1006" operator="equal">
       <formula>$K259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="351" priority="1008" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="1008" operator="equal">
       <formula>$K264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K249">
-    <cfRule type="cellIs" dxfId="350" priority="1009" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="1009" operator="equal">
       <formula>$K265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K188:K189">
-    <cfRule type="cellIs" dxfId="349" priority="1011" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="1011" operator="equal">
       <formula>$K179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K180">
-    <cfRule type="cellIs" dxfId="348" priority="1012" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="1012" operator="equal">
       <formula>$K188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:S74 S4:S10 S148 S106:S144 S186:S189 S157:S171 S153:S155 S173:S184 S85:S104 S191:S217 S77:S83 S220:S236 S239:S265">
-    <cfRule type="cellIs" dxfId="347" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="599" operator="equal">
       <formula>$S3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="cellIs" dxfId="346" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="598" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I267">
-    <cfRule type="cellIs" dxfId="345" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="597" operator="equal">
       <formula>$I266</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I315">
-    <cfRule type="cellIs" dxfId="344" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="590" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J315">
-    <cfRule type="cellIs" dxfId="343" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="589" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L315">
-    <cfRule type="cellIs" dxfId="342" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="588" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M315">
-    <cfRule type="cellIs" dxfId="341" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="587" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315">
-    <cfRule type="cellIs" dxfId="340" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="591" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I332">
-    <cfRule type="cellIs" dxfId="339" priority="1013" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="1013" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J332">
-    <cfRule type="cellIs" dxfId="338" priority="1014" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="1014" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L332">
-    <cfRule type="cellIs" dxfId="337" priority="1015" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="1015" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M332">
-    <cfRule type="cellIs" dxfId="336" priority="1016" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="1016" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K332">
-    <cfRule type="cellIs" dxfId="335" priority="1017" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="1017" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I316">
-    <cfRule type="cellIs" dxfId="334" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="585" operator="equal">
       <formula>$I315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J316">
-    <cfRule type="cellIs" dxfId="333" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="584" operator="equal">
       <formula>$J315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L316">
-    <cfRule type="cellIs" dxfId="332" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="583" operator="equal">
       <formula>$L315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M316">
-    <cfRule type="cellIs" dxfId="331" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="582" operator="equal">
       <formula>$M315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K316">
-    <cfRule type="cellIs" dxfId="330" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="586" operator="equal">
       <formula>$K315</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I326">
-    <cfRule type="cellIs" dxfId="329" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="580" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J326">
-    <cfRule type="cellIs" dxfId="328" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="579" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L326">
-    <cfRule type="cellIs" dxfId="327" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="578" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M326">
-    <cfRule type="cellIs" dxfId="326" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="577" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K326">
-    <cfRule type="cellIs" dxfId="325" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="581" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I317 I105 I185 B185 B152 I219 B104:B105 B218:B219 I238 B238">
-    <cfRule type="cellIs" dxfId="324" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="575" operator="equal">
       <formula>$I102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J317 J105 J185 J219 J238">
-    <cfRule type="cellIs" dxfId="323" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="574" operator="equal">
       <formula>$J103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L317 L105 L185 L219 L238">
-    <cfRule type="cellIs" dxfId="322" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="573" operator="equal">
       <formula>$L103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M317 M105 M185 M219 M238">
-    <cfRule type="cellIs" dxfId="321" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="572" operator="equal">
       <formula>$M103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K317 K105 K185 K219 K238">
-    <cfRule type="cellIs" dxfId="320" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="576" operator="equal">
       <formula>$K103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I323 I16 B16">
-    <cfRule type="cellIs" dxfId="319" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="570" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J323 J16">
-    <cfRule type="cellIs" dxfId="318" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="569" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L323 L16">
-    <cfRule type="cellIs" dxfId="317" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="568" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M323 M16">
-    <cfRule type="cellIs" dxfId="316" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="567" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K323 K16">
-    <cfRule type="cellIs" dxfId="315" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="571" operator="equal">
       <formula>$K10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I324">
-    <cfRule type="cellIs" dxfId="314" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="565" operator="equal">
       <formula>$I323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J324">
-    <cfRule type="cellIs" dxfId="313" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="564" operator="equal">
       <formula>$J323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L324">
-    <cfRule type="cellIs" dxfId="312" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="563" operator="equal">
       <formula>$L323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M324">
-    <cfRule type="cellIs" dxfId="311" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="562" operator="equal">
       <formula>$M323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K324">
-    <cfRule type="cellIs" dxfId="310" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="566" operator="equal">
       <formula>$K323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I325">
-    <cfRule type="cellIs" dxfId="309" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="560" operator="equal">
       <formula>$I323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J325">
-    <cfRule type="cellIs" dxfId="308" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="559" operator="equal">
       <formula>$J323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L325">
-    <cfRule type="cellIs" dxfId="307" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="558" operator="equal">
       <formula>$L323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M325">
-    <cfRule type="cellIs" dxfId="306" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="557" operator="equal">
       <formula>$M323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K325">
-    <cfRule type="cellIs" dxfId="305" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="561" operator="equal">
       <formula>$K323</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I318">
-    <cfRule type="cellIs" dxfId="304" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="555" operator="equal">
       <formula>$I314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J318">
-    <cfRule type="cellIs" dxfId="303" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="554" operator="equal">
       <formula>$J314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L318">
-    <cfRule type="cellIs" dxfId="302" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="553" operator="equal">
       <formula>$L314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M318">
-    <cfRule type="cellIs" dxfId="301" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="552" operator="equal">
       <formula>$M314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K318">
-    <cfRule type="cellIs" dxfId="300" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="556" operator="equal">
       <formula>$K314</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I319">
-    <cfRule type="cellIs" dxfId="299" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="550" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J319">
-    <cfRule type="cellIs" dxfId="298" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="549" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L319">
-    <cfRule type="cellIs" dxfId="297" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="548" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M319">
-    <cfRule type="cellIs" dxfId="296" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="547" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K319">
-    <cfRule type="cellIs" dxfId="295" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="551" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I320">
-    <cfRule type="cellIs" dxfId="294" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="545" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J320">
-    <cfRule type="cellIs" dxfId="293" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="544" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L320">
-    <cfRule type="cellIs" dxfId="292" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="543" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M320">
-    <cfRule type="cellIs" dxfId="291" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="542" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K320">
-    <cfRule type="cellIs" dxfId="290" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="546" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I321">
-    <cfRule type="cellIs" dxfId="289" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="540" operator="equal">
       <formula>$I320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J321">
-    <cfRule type="cellIs" dxfId="288" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="539" operator="equal">
       <formula>$J320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L321">
-    <cfRule type="cellIs" dxfId="287" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="538" operator="equal">
       <formula>$L320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M321">
-    <cfRule type="cellIs" dxfId="286" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="537" operator="equal">
       <formula>$M320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K321">
-    <cfRule type="cellIs" dxfId="285" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="541" operator="equal">
       <formula>$K320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I322">
-    <cfRule type="cellIs" dxfId="284" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="535" operator="equal">
       <formula>$I320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J322">
-    <cfRule type="cellIs" dxfId="283" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="534" operator="equal">
       <formula>$J320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L322">
-    <cfRule type="cellIs" dxfId="282" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="533" operator="equal">
       <formula>$L320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M322">
-    <cfRule type="cellIs" dxfId="281" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="532" operator="equal">
       <formula>$M320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K322">
-    <cfRule type="cellIs" dxfId="280" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="536" operator="equal">
       <formula>$K320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I327">
-    <cfRule type="cellIs" dxfId="279" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="530" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J327">
-    <cfRule type="cellIs" dxfId="278" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="529" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L327">
-    <cfRule type="cellIs" dxfId="277" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="528" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M327">
-    <cfRule type="cellIs" dxfId="276" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="527" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K327">
-    <cfRule type="cellIs" dxfId="275" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="531" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I330">
-    <cfRule type="cellIs" dxfId="274" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="525" operator="equal">
       <formula>$I318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J330">
-    <cfRule type="cellIs" dxfId="273" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="524" operator="equal">
       <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L330">
-    <cfRule type="cellIs" dxfId="272" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="523" operator="equal">
       <formula>$L318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M330">
-    <cfRule type="cellIs" dxfId="271" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="522" operator="equal">
       <formula>$M318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K330">
-    <cfRule type="cellIs" dxfId="270" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="526" operator="equal">
       <formula>$K318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I331">
-    <cfRule type="cellIs" dxfId="269" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="520" operator="equal">
       <formula>$I319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J331">
-    <cfRule type="cellIs" dxfId="268" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="519" operator="equal">
       <formula>$J319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L331">
-    <cfRule type="cellIs" dxfId="267" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="518" operator="equal">
       <formula>$L319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M331">
-    <cfRule type="cellIs" dxfId="266" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="517" operator="equal">
       <formula>$M319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K331">
-    <cfRule type="cellIs" dxfId="265" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="521" operator="equal">
       <formula>$K319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I328">
-    <cfRule type="cellIs" dxfId="264" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="515" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J328">
-    <cfRule type="cellIs" dxfId="263" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="514" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L328">
-    <cfRule type="cellIs" dxfId="262" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="513" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M328">
-    <cfRule type="cellIs" dxfId="261" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="512" operator="equal">
       <formula>$M316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K328">
-    <cfRule type="cellIs" dxfId="260" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="516" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I329">
-    <cfRule type="cellIs" dxfId="259" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="510" operator="equal">
       <formula>$I317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J329">
-    <cfRule type="cellIs" dxfId="258" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="509" operator="equal">
       <formula>$J317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L329">
-    <cfRule type="cellIs" dxfId="257" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="508" operator="equal">
       <formula>$L317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M329">
-    <cfRule type="cellIs" dxfId="256" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="507" operator="equal">
       <formula>$M317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K329">
-    <cfRule type="cellIs" dxfId="255" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="511" operator="equal">
       <formula>$K317</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I307:I308">
-    <cfRule type="cellIs" dxfId="254" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="502" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J307:J308">
-    <cfRule type="cellIs" dxfId="253" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="503" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L307:L308">
-    <cfRule type="cellIs" dxfId="252" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="504" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M307:M308">
-    <cfRule type="cellIs" dxfId="251" priority="505" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="505" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K307:K308">
-    <cfRule type="cellIs" dxfId="250" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="506" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I306">
-    <cfRule type="cellIs" dxfId="249" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="500" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J306">
-    <cfRule type="cellIs" dxfId="248" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="499" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L306">
-    <cfRule type="cellIs" dxfId="247" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="498" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M306">
-    <cfRule type="cellIs" dxfId="246" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="497" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K306">
-    <cfRule type="cellIs" dxfId="245" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="501" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I305">
-    <cfRule type="cellIs" dxfId="244" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="492" operator="equal">
       <formula>$I294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J305">
-    <cfRule type="cellIs" dxfId="243" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="493" operator="equal">
       <formula>$J294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L305">
-    <cfRule type="cellIs" dxfId="242" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="494" operator="equal">
       <formula>$L294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M305">
-    <cfRule type="cellIs" dxfId="241" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="495" operator="equal">
       <formula>$M294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K305">
-    <cfRule type="cellIs" dxfId="240" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="496" operator="equal">
       <formula>$K294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I299">
-    <cfRule type="cellIs" dxfId="239" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="490" operator="equal">
       <formula>$I293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J299">
-    <cfRule type="cellIs" dxfId="238" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="489" operator="equal">
       <formula>$J293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L299">
-    <cfRule type="cellIs" dxfId="237" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="488" operator="equal">
       <formula>$L293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M299">
-    <cfRule type="cellIs" dxfId="236" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="487" operator="equal">
       <formula>$M293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K299">
-    <cfRule type="cellIs" dxfId="235" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="491" operator="equal">
       <formula>$K293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K300">
-    <cfRule type="cellIs" dxfId="234" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="481" operator="equal">
       <formula>$K294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I300">
-    <cfRule type="cellIs" dxfId="233" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="480" operator="equal">
       <formula>$I294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J300">
-    <cfRule type="cellIs" dxfId="232" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="479" operator="equal">
       <formula>$J294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L300">
-    <cfRule type="cellIs" dxfId="231" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="478" operator="equal">
       <formula>$L294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M300">
-    <cfRule type="cellIs" dxfId="230" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="477" operator="equal">
       <formula>$M294</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I301">
-    <cfRule type="cellIs" dxfId="229" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="475" operator="equal">
       <formula>$I295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J301">
-    <cfRule type="cellIs" dxfId="228" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="474" operator="equal">
       <formula>$J295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L301">
-    <cfRule type="cellIs" dxfId="227" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="473" operator="equal">
       <formula>$L295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M301">
-    <cfRule type="cellIs" dxfId="226" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="472" operator="equal">
       <formula>$M295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K301">
-    <cfRule type="cellIs" dxfId="225" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="476" operator="equal">
       <formula>$K295</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I302">
-    <cfRule type="cellIs" dxfId="224" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="470" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J302">
-    <cfRule type="cellIs" dxfId="223" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="469" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L302">
-    <cfRule type="cellIs" dxfId="222" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="468" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M302">
-    <cfRule type="cellIs" dxfId="221" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="467" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K302">
-    <cfRule type="cellIs" dxfId="220" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="471" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I304">
-    <cfRule type="cellIs" dxfId="219" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="465" operator="equal">
       <formula>$I297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J304">
-    <cfRule type="cellIs" dxfId="218" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="464" operator="equal">
       <formula>$J297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L304">
-    <cfRule type="cellIs" dxfId="217" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="463" operator="equal">
       <formula>$L297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M304">
-    <cfRule type="cellIs" dxfId="216" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="462" operator="equal">
       <formula>$M297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K304">
-    <cfRule type="cellIs" dxfId="215" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="466" operator="equal">
       <formula>$K297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I303">
-    <cfRule type="cellIs" dxfId="214" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="460" operator="equal">
       <formula>$I296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J303">
-    <cfRule type="cellIs" dxfId="213" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="459" operator="equal">
       <formula>$J296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L303">
-    <cfRule type="cellIs" dxfId="212" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="458" operator="equal">
       <formula>$L296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M303">
-    <cfRule type="cellIs" dxfId="211" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="457" operator="equal">
       <formula>$M296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K303">
-    <cfRule type="cellIs" dxfId="210" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="461" operator="equal">
       <formula>$K296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K298">
-    <cfRule type="cellIs" dxfId="209" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="456" operator="equal">
       <formula>$K297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L298">
-    <cfRule type="cellIs" dxfId="208" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="455" operator="equal">
       <formula>$L297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M298">
-    <cfRule type="cellIs" dxfId="207" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="454" operator="equal">
       <formula>$M297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J298">
-    <cfRule type="cellIs" dxfId="206" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="453" operator="equal">
       <formula>$J297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I298">
-    <cfRule type="cellIs" dxfId="205" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="452" operator="equal">
       <formula>$I297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S172">
-    <cfRule type="cellIs" dxfId="204" priority="1039" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="1039" operator="equal">
       <formula>$S167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I172 B172 B15">
-    <cfRule type="cellIs" dxfId="203" priority="1042" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="1042" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J172">
-    <cfRule type="cellIs" dxfId="202" priority="1044" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="1044" operator="equal">
       <formula>$J167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L172">
-    <cfRule type="cellIs" dxfId="201" priority="1045" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="1045" operator="equal">
       <formula>$L167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M172">
-    <cfRule type="cellIs" dxfId="200" priority="1046" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="1046" operator="equal">
       <formula>$M167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K172">
-    <cfRule type="cellIs" dxfId="199" priority="1047" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="1047" operator="equal">
       <formula>$K167</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="198" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="444" operator="equal">
       <formula>$K9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="197" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="419" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="196" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="415" operator="equal">
       <formula>$M12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="195" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="414" operator="equal">
       <formula>$M13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="194" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="413" operator="equal">
       <formula>$M14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="cellIs" dxfId="193" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="412" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="192" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="411" operator="equal">
       <formula>$S12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="191" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="410" operator="equal">
       <formula>$S13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="190" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="409" operator="equal">
       <formula>$S14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="189" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="408" operator="equal">
       <formula>$K12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="188" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="407" operator="equal">
       <formula>$K13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="187" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="406" operator="equal">
       <formula>$K14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="186" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="405" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="185" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="404" operator="equal">
       <formula>$L12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="184" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="403" operator="equal">
       <formula>$L13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="183" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="402" operator="equal">
       <formula>$L14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="182" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="401" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="181" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="400" operator="equal">
       <formula>$J12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="180" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="399" operator="equal">
       <formula>$J13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="179" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="398" operator="equal">
       <formula>$J14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="178" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="395" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="177" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="394" operator="equal">
       <formula>$I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="176" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="393" operator="equal">
       <formula>$I13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="175" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="392" operator="equal">
       <formula>$I14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="174" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="391" operator="equal">
       <formula>$I6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="173" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="390" operator="equal">
       <formula>$I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="172" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="389" operator="equal">
       <formula>$I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J266">
-    <cfRule type="cellIs" dxfId="171" priority="1052" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="1052" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L266">
-    <cfRule type="cellIs" dxfId="170" priority="1055" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="1055" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M266">
-    <cfRule type="cellIs" dxfId="169" priority="1057" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="1057" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K266">
-    <cfRule type="cellIs" dxfId="168" priority="1059" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="1059" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K157">
-    <cfRule type="cellIs" dxfId="167" priority="1069" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="1069" operator="equal">
       <formula>$K144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S190">
-    <cfRule type="cellIs" dxfId="166" priority="1071" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="1071" operator="equal">
       <formula>$S144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S105 S185 S152 S219 S238">
-    <cfRule type="cellIs" dxfId="165" priority="1083" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="1083" operator="equal">
       <formula>$S103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147">
-    <cfRule type="cellIs" dxfId="164" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="342" operator="equal">
       <formula>$I145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145">
-    <cfRule type="cellIs" dxfId="163" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="340" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="162" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="339" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K145">
-    <cfRule type="cellIs" dxfId="161" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="341" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S145">
-    <cfRule type="cellIs" dxfId="160" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="349" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147">
-    <cfRule type="cellIs" dxfId="159" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="350" operator="equal">
       <formula>$S145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S146">
-    <cfRule type="cellIs" dxfId="158" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="337" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L145:L148">
-    <cfRule type="cellIs" dxfId="157" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="335" operator="equal">
       <formula>$L144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M145:M148">
-    <cfRule type="cellIs" dxfId="156" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="334" operator="equal">
       <formula>$M144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K145:K148">
-    <cfRule type="cellIs" dxfId="155" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="336" operator="equal">
       <formula>$K144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J147">
-    <cfRule type="cellIs" dxfId="154" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="325" operator="equal">
       <formula>$J146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I146:I147">
-    <cfRule type="cellIs" dxfId="153" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="333" operator="equal">
       <formula>$I145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146:J147">
-    <cfRule type="cellIs" dxfId="152" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="332" operator="equal">
       <formula>$J145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L145:L148">
-    <cfRule type="cellIs" dxfId="151" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="331" operator="equal">
       <formula>$L144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M145:M148">
-    <cfRule type="cellIs" dxfId="150" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="330" operator="equal">
       <formula>$M144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L145:L146">
-    <cfRule type="cellIs" dxfId="149" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="329" operator="equal">
       <formula>$L144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M145:M146">
-    <cfRule type="cellIs" dxfId="148" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="328" operator="equal">
       <formula>$M144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L145:L146">
-    <cfRule type="cellIs" dxfId="147" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="327" operator="equal">
       <formula>$L144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M145:M146">
-    <cfRule type="cellIs" dxfId="146" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="326" operator="equal">
       <formula>$M144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="145" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="324" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="144" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="323" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S156">
-    <cfRule type="cellIs" dxfId="143" priority="1087" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="1087" operator="equal">
       <formula>$S265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="142" priority="1094" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="1094" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I150">
-    <cfRule type="cellIs" dxfId="141" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="253" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="140" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="252" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K150">
-    <cfRule type="cellIs" dxfId="139" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="254" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B150:B151">
-    <cfRule type="cellIs" dxfId="138" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="251" operator="equal">
       <formula>$I63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S150">
-    <cfRule type="cellIs" dxfId="137" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="262" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S151">
-    <cfRule type="cellIs" dxfId="136" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="250" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="135" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="246" operator="equal">
       <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="134" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="245" operator="equal">
       <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L150">
-    <cfRule type="cellIs" dxfId="133" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="264" operator="equal">
       <formula>$L259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M150">
-    <cfRule type="cellIs" dxfId="132" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="265" operator="equal">
       <formula>$M259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K150">
-    <cfRule type="cellIs" dxfId="131" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="266" operator="equal">
       <formula>$K259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S75">
-    <cfRule type="cellIs" dxfId="130" priority="1100" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="1100" operator="equal">
       <formula>$S74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S84">
-    <cfRule type="cellIs" dxfId="129" priority="1122" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="1122" operator="equal">
       <formula>$S82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="128" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="184" operator="equal">
       <formula>$I82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="127" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="183" operator="equal">
       <formula>$J82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="cellIs" dxfId="126" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="182" operator="equal">
       <formula>$L82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="125" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="181" operator="equal">
       <formula>$M82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83">
-    <cfRule type="cellIs" dxfId="124" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="185" operator="equal">
       <formula>$K82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="123" priority="1123" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="1123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="122" priority="1125" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="1125" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2 B2">
-    <cfRule type="cellIs" dxfId="121" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="158" operator="equal">
       <formula>$I277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149">
-    <cfRule type="cellIs" dxfId="120" priority="1136" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="1136" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S149">
-    <cfRule type="cellIs" dxfId="119" priority="1154" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="1154" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="118" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="156" operator="equal">
       <formula>$I102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104">
-    <cfRule type="cellIs" dxfId="117" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="155" operator="equal">
       <formula>$J102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L104">
-    <cfRule type="cellIs" dxfId="116" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="154" operator="equal">
       <formula>$L102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M104">
-    <cfRule type="cellIs" dxfId="115" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="153" operator="equal">
       <formula>$M102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K104">
-    <cfRule type="cellIs" dxfId="114" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="157" operator="equal">
       <formula>$K102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="113" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="141" operator="equal">
       <formula>$L148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="112" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="140" operator="equal">
       <formula>$L148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="111" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="139" operator="equal">
       <formula>$L148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="110" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="136" operator="equal">
       <formula>$K148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="109" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="135" operator="equal">
       <formula>$K148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="108" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="133" operator="equal">
       <formula>$J148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149">
-    <cfRule type="cellIs" dxfId="107" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="132" operator="equal">
       <formula>$I148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I218">
-    <cfRule type="cellIs" dxfId="106" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="127" operator="equal">
       <formula>$I216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J218">
-    <cfRule type="cellIs" dxfId="105" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="126" operator="equal">
       <formula>$J216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L218">
-    <cfRule type="cellIs" dxfId="104" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="125" operator="equal">
       <formula>$L216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M218">
-    <cfRule type="cellIs" dxfId="103" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="124" operator="equal">
       <formula>$M216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K218">
-    <cfRule type="cellIs" dxfId="102" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="128" operator="equal">
       <formula>$K216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S218">
-    <cfRule type="cellIs" dxfId="101" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="129" operator="equal">
       <formula>$S216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="100" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="123" operator="equal">
       <formula>$I157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="99" priority="1214" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="1214" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76">
-    <cfRule type="cellIs" dxfId="98" priority="1216" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="1216" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L76">
-    <cfRule type="cellIs" dxfId="97" priority="1218" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="1218" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76">
-    <cfRule type="cellIs" dxfId="96" priority="1220" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="1220" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76">
-    <cfRule type="cellIs" dxfId="95" priority="1227" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="1227" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S76">
-    <cfRule type="cellIs" dxfId="94" priority="1229" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="1229" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="93" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="122" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="92" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="121" operator="equal">
       <formula>$M146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="91" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="120" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="cellIs" dxfId="90" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="119" operator="equal">
       <formula>$M147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="89" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="118" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="88" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="117" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="87" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="116" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149">
-    <cfRule type="cellIs" dxfId="86" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="115" operator="equal">
       <formula>$M148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I237 B237">
-    <cfRule type="cellIs" dxfId="85" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="109" operator="equal">
       <formula>$I236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J237">
-    <cfRule type="cellIs" dxfId="84" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="108" operator="equal">
       <formula>$J236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L237">
-    <cfRule type="cellIs" dxfId="83" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="107" operator="equal">
       <formula>$L236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M237">
-    <cfRule type="cellIs" dxfId="82" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="106" operator="equal">
       <formula>$M236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K237">
-    <cfRule type="cellIs" dxfId="81" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="110" operator="equal">
       <formula>$K236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S237">
-    <cfRule type="cellIs" dxfId="80" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="105" operator="equal">
       <formula>$S236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340:M359">
-    <cfRule type="cellIs" dxfId="79" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="70" operator="equal">
       <formula>$M339</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I337">
-    <cfRule type="cellIs" dxfId="78" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="93" operator="equal">
       <formula>$I336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J337">
-    <cfRule type="cellIs" dxfId="77" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="92" operator="equal">
       <formula>$J336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L337">
-    <cfRule type="cellIs" dxfId="76" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="91" operator="equal">
       <formula>$L336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M337">
-    <cfRule type="cellIs" dxfId="75" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="90" operator="equal">
       <formula>$M336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K337">
-    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="94" operator="equal">
       <formula>$K336</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L338">
-    <cfRule type="cellIs" dxfId="73" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M338">
-    <cfRule type="cellIs" dxfId="72" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340:L359">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
       <formula>$L339</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340:K359">
-    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="73" operator="equal">
       <formula>$K339</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I338">
-    <cfRule type="cellIs" dxfId="69" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K338">
-    <cfRule type="cellIs" dxfId="68" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I339">
-    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J339">
-    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L339">
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M339">
-    <cfRule type="cellIs" dxfId="64" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K339">
-    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340:J359">
-    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
       <formula>$J339</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M360">
-    <cfRule type="cellIs" dxfId="61" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="66" operator="equal">
       <formula>$M359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L360">
-    <cfRule type="cellIs" dxfId="60" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="67" operator="equal">
       <formula>$L359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K360">
-    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
       <formula>$K359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J360">
-    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
       <formula>$J359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I364">
-    <cfRule type="cellIs" dxfId="57" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="100" operator="equal">
       <formula>$I359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J364">
-    <cfRule type="cellIs" dxfId="56" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="101" operator="equal">
       <formula>$J359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L364">
-    <cfRule type="cellIs" dxfId="55" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="102" operator="equal">
       <formula>$L359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M364">
-    <cfRule type="cellIs" dxfId="54" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="103" operator="equal">
       <formula>$M359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K364">
-    <cfRule type="cellIs" dxfId="53" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="104" operator="equal">
       <formula>$K359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M361">
-    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
       <formula>$M360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L361">
-    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="63" operator="equal">
       <formula>$L360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K361">
-    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="65" operator="equal">
       <formula>$K360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J361">
-    <cfRule type="cellIs" dxfId="49" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
       <formula>$J360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M363">
-    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="58" operator="equal">
       <formula>$M361</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L363">
-    <cfRule type="cellIs" dxfId="47" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
       <formula>$L361</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K363">
-    <cfRule type="cellIs" dxfId="46" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="61" operator="equal">
       <formula>$K361</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J363">
-    <cfRule type="cellIs" dxfId="45" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
       <formula>$J361</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M362">
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="54" operator="equal">
       <formula>$M360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L362">
-    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="55" operator="equal">
       <formula>$L360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K362">
-    <cfRule type="cellIs" dxfId="42" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="57" operator="equal">
       <formula>$K360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J362">
-    <cfRule type="cellIs" dxfId="41" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="56" operator="equal">
       <formula>$J360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340:I363">
-    <cfRule type="cellIs" dxfId="40" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="53" operator="equal">
       <formula>$I339</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J338">
-    <cfRule type="cellIs" dxfId="39" priority="1230" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1230" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J370">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
       <formula>$J377</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L370">
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
       <formula>$L377</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K370">
-    <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="47" operator="equal">
       <formula>$K377</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S370">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
       <formula>$S369</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J372:J373">
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
       <formula>$J371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L372:L373">
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
       <formula>$L371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M372:M373">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>$M371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K372:K373">
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>$K371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J371">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
       <formula>$J369</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L371">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
       <formula>$L369</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K371">
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
       <formula>$K369</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M366:M367">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
       <formula>$M365</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M368">
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>$M367</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I365">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I374:I375">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>$I373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J374:J375">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>$J373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L374:L375">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>$L373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M374:M375">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>$M373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K374:K375">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>$K373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M370:M371">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>$M369</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="cellIs" dxfId="16" priority="1233" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1233" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11 I11">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>$I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>$J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>$L10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>$M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>$K10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>$S10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I366">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>$I365</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I367">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>$I366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I368">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>$I367</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I369">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>$I368</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I370">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>$I369</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157CA06D-E330-4651-8B7E-61660D6E3353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F446EF2-3384-4E7A-9F1C-F044C9571DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8238" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8237" uniqueCount="1536">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -7184,6 +7184,18 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <border>
@@ -7297,18 +7309,6 @@
       <border>
         <top style="thin">
           <color rgb="FFFFFFFF"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
         </top>
         <vertical/>
         <horizontal/>
@@ -24415,9 +24415,7 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B152" s="22" t="s">
-        <v>797</v>
-      </c>
+      <c r="B152" s="27"/>
       <c r="C152" s="23" t="s">
         <v>1143</v>
       </c>
@@ -41389,2288 +41387,2288 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N203:N207 B203:B207 N256:N260 B256:B260 N125:N142 B125:B142 N262:N271 B262:B271 N144:N146 B144:B146 N273:N276 B273:B276 N345:N348 N321:N326 N280:N309 N17:N31 B4:B10 B17:B31 B33:B74 N33:N74 N92:N105 N108:N123 B108:B123 N198:N199 B198:B199 N185:N191 B185:B191 N170:N183 B170:B183 B166:B168 N164:N168 N193:N196 B193:B196 N209:N229 B209:B229 N77:N82 B77:B83 N232:N248 N251:N254 B251:B254 B92:B105 N85:N88 B85:B89 B232:B249 N4:N11 B150:B151 N150:N151">
-    <cfRule type="cellIs" dxfId="513" priority="727" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="728" operator="equal">
       <formula>$N3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O203:O207 O256:O260 O125:O142 O262:O271 O144:O146 O273:O276 O345:O348 O321:O326 O4:O10 O17:O31 O279:O309 O33:O74 O99:O105 O108:O123 O198:O199 O185:O191 O170:O183 O164:O168 O193:O196 O209:O229 O77:O82 O232:O248 O251:O254 O92:O97 O85:O89 O148:O150">
-    <cfRule type="cellIs" dxfId="512" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="727" operator="equal">
       <formula>$O3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O202">
-    <cfRule type="cellIs" dxfId="511" priority="729" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="730" operator="equal">
       <formula>$O2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q203:Q207 Q256:Q260 Q125:Q142 Q262:Q271 Q273:Q276 Q345:Q348 Q321:Q326 Q17:Q31 Q4:Q10 Q279:Q309 Q33:Q74 Q99:Q105 Q108:Q123 Q198:Q199 Q185:Q191 Q170:Q183 Q164:Q168 Q193:Q196 Q209:Q229 Q77:Q82 Q232:Q248 Q251:Q254 Q92:Q97 Q85:Q88 Q144:Q150 Q153:Q156">
-    <cfRule type="cellIs" dxfId="510" priority="724" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="725" operator="equal">
       <formula>$Q3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R203:R207 R256:R260 R125:R142 R262:R271 R273:R276 R345:R348 R321:R326 R4:R10 R17:R31 R279:R309 R33:R74 R99:R105 R108:R123 R198:R199 R185:R191 R170:R183 R164:R168 R193:R196 R209:R229 R77:R82 R232:R248 R251:R254 R92:R97 R85:R88 R153:R156 R144:R150">
-    <cfRule type="cellIs" dxfId="509" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="724" operator="equal">
       <formula>$R3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N124 B124">
-    <cfRule type="cellIs" dxfId="508" priority="735" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="736" operator="equal">
       <formula>$N97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O124">
-    <cfRule type="cellIs" dxfId="507" priority="738" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="739" operator="equal">
       <formula>$O97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q124">
-    <cfRule type="cellIs" dxfId="506" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="742" operator="equal">
       <formula>$Q97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R124">
-    <cfRule type="cellIs" dxfId="505" priority="744" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="745" operator="equal">
       <formula>$R97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N143 B143">
-    <cfRule type="cellIs" dxfId="504" priority="753" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="754" operator="equal">
       <formula>$N123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O98">
-    <cfRule type="cellIs" dxfId="503" priority="756" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="757" operator="equal">
       <formula>$O142</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O143">
-    <cfRule type="cellIs" dxfId="502" priority="757" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="758" operator="equal">
       <formula>$O123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q98">
-    <cfRule type="cellIs" dxfId="501" priority="760" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="761" operator="equal">
       <formula>$Q142</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q143">
-    <cfRule type="cellIs" dxfId="500" priority="761" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="762" operator="equal">
       <formula>$Q123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R98">
-    <cfRule type="cellIs" dxfId="499" priority="764" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="765" operator="equal">
       <formula>$R142</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R143">
-    <cfRule type="cellIs" dxfId="498" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="766" operator="equal">
       <formula>$R123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91">
-    <cfRule type="cellIs" dxfId="497" priority="717" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="718" operator="equal">
       <formula>$N135</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N272 B272">
-    <cfRule type="cellIs" dxfId="496" priority="771" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="772" operator="equal">
       <formula>$N31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O272">
-    <cfRule type="cellIs" dxfId="495" priority="777" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="778" operator="equal">
       <formula>$O31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q272">
-    <cfRule type="cellIs" dxfId="494" priority="781" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="782" operator="equal">
       <formula>$Q31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R272">
-    <cfRule type="cellIs" dxfId="493" priority="784" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="785" operator="equal">
       <formula>$R31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q202">
-    <cfRule type="cellIs" dxfId="492" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="799" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R202">
-    <cfRule type="cellIs" dxfId="491" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="803" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="490" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="810" operator="equal">
       <formula>$N254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O208">
-    <cfRule type="cellIs" dxfId="489" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="816" operator="equal">
       <formula>$O74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q208">
-    <cfRule type="cellIs" dxfId="488" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="820" operator="equal">
       <formula>$Q74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R208">
-    <cfRule type="cellIs" dxfId="487" priority="822" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="823" operator="equal">
       <formula>$R74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3 B3">
-    <cfRule type="cellIs" dxfId="486" priority="851" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="852" operator="equal">
       <formula>$N207</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="485" priority="853" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="854" operator="equal">
       <formula>$O207</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="484" priority="854" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="855" operator="equal">
       <formula>$Q207</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="483" priority="855" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="856" operator="equal">
       <formula>$R207</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="cellIs" dxfId="482" priority="858" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="859" operator="equal">
       <formula>$N254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O75">
-    <cfRule type="cellIs" dxfId="481" priority="864" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="865" operator="equal">
       <formula>$O254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q75">
-    <cfRule type="cellIs" dxfId="480" priority="868" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="869" operator="equal">
       <formula>$Q254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R75">
-    <cfRule type="cellIs" dxfId="479" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="872" operator="equal">
       <formula>$R254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208 N208">
-    <cfRule type="cellIs" dxfId="478" priority="914" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="915" operator="equal">
       <formula>$N74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N255 B255">
-    <cfRule type="cellIs" dxfId="477" priority="917" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="918" operator="equal">
       <formula>$N82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O255">
-    <cfRule type="cellIs" dxfId="476" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="924" operator="equal">
       <formula>$O82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q255">
-    <cfRule type="cellIs" dxfId="475" priority="926" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="927" operator="equal">
       <formula>$Q82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R255">
-    <cfRule type="cellIs" dxfId="474" priority="929" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="930" operator="equal">
       <formula>$R82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N162 B162">
-    <cfRule type="cellIs" dxfId="473" priority="934" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="935" operator="equal">
       <formula>$N75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O162">
-    <cfRule type="cellIs" dxfId="472" priority="936" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="937" operator="equal">
       <formula>$O75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q162">
-    <cfRule type="cellIs" dxfId="471" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="938" operator="equal">
       <formula>$Q75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R162">
-    <cfRule type="cellIs" dxfId="470" priority="938" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="939" operator="equal">
       <formula>$R75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N277 B277">
-    <cfRule type="cellIs" dxfId="469" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="942" operator="equal">
       <formula>$N260</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O277">
-    <cfRule type="cellIs" dxfId="468" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="948" operator="equal">
       <formula>$O260</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q277">
-    <cfRule type="cellIs" dxfId="467" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="951" operator="equal">
       <formula>$Q260</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R277">
-    <cfRule type="cellIs" dxfId="466" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="954" operator="equal">
       <formula>$R260</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N84 B84">
-    <cfRule type="cellIs" dxfId="465" priority="986" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="987" operator="equal">
       <formula>$N271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O84">
-    <cfRule type="cellIs" dxfId="464" priority="996" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="997" operator="equal">
       <formula>$O271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q84">
-    <cfRule type="cellIs" dxfId="463" priority="1002" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="1003" operator="equal">
       <formula>$Q271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R84">
-    <cfRule type="cellIs" dxfId="462" priority="1008" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="1009" operator="equal">
       <formula>$R271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N169 B169">
-    <cfRule type="cellIs" dxfId="461" priority="1034" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="1035" operator="equal">
       <formula>$N146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O169">
-    <cfRule type="cellIs" dxfId="460" priority="1036" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="1037" operator="equal">
       <formula>$O146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q169">
-    <cfRule type="cellIs" dxfId="459" priority="1037" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="1038" operator="equal">
       <formula>$Q146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R169">
-    <cfRule type="cellIs" dxfId="458" priority="1038" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="1039" operator="equal">
       <formula>$R146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32 B32">
-    <cfRule type="cellIs" dxfId="457" priority="1047" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="1048" operator="equal">
       <formula>$N276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="cellIs" dxfId="456" priority="1049" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="1050" operator="equal">
       <formula>$O276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="cellIs" dxfId="455" priority="1050" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="1051" operator="equal">
       <formula>$Q276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="454" priority="1051" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="1052" operator="equal">
       <formula>$R276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N261 B261">
-    <cfRule type="cellIs" dxfId="453" priority="1054" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="1055" operator="equal">
       <formula>$N277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O261">
-    <cfRule type="cellIs" dxfId="452" priority="1056" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="1057" operator="equal">
       <formula>$O277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q261">
-    <cfRule type="cellIs" dxfId="451" priority="1057" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="1058" operator="equal">
       <formula>$Q277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R261">
-    <cfRule type="cellIs" dxfId="450" priority="1058" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="1059" operator="equal">
       <formula>$R277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N200:N201 B200:B201">
-    <cfRule type="cellIs" dxfId="449" priority="1079" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="1080" operator="equal">
       <formula>$N191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N192 B192">
-    <cfRule type="cellIs" dxfId="448" priority="1080" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="1081" operator="equal">
       <formula>$N200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O200:O201">
-    <cfRule type="cellIs" dxfId="447" priority="1085" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="1086" operator="equal">
       <formula>$O191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O192">
-    <cfRule type="cellIs" dxfId="446" priority="1086" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="1087" operator="equal">
       <formula>$O200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q200:Q201">
-    <cfRule type="cellIs" dxfId="445" priority="1088" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="1089" operator="equal">
       <formula>$Q191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q192">
-    <cfRule type="cellIs" dxfId="444" priority="1089" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="1090" operator="equal">
       <formula>$Q200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R200:R201">
-    <cfRule type="cellIs" dxfId="443" priority="1091" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="1092" operator="equal">
       <formula>$R191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R192">
-    <cfRule type="cellIs" dxfId="442" priority="1092" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="1093" operator="equal">
       <formula>$R200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P203:P207 P256:P260 P125:P142 P262:P271 P273:P276 P345:P348 P321:P326 P4:P10 P17:P31 P279:P309 P33:P74 P99:P105 P108:P123 P198:P199 P185:P191 P170:P183 P164:P168 P193:P196 P209:P229 P77:P82 P232:P248 P251:P254 P92:P97 P85:P88 P144:P150 P153:P156">
-    <cfRule type="cellIs" dxfId="441" priority="1096" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="1097" operator="equal">
       <formula>$P3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P124">
-    <cfRule type="cellIs" dxfId="440" priority="1111" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="1112" operator="equal">
       <formula>$P97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P98">
-    <cfRule type="cellIs" dxfId="439" priority="1112" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="1113" operator="equal">
       <formula>$P142</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P143">
-    <cfRule type="cellIs" dxfId="438" priority="1113" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="1114" operator="equal">
       <formula>$P123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P272">
-    <cfRule type="cellIs" dxfId="437" priority="1114" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="1115" operator="equal">
       <formula>$P31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P202">
-    <cfRule type="cellIs" dxfId="436" priority="1115" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="1116" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P208">
-    <cfRule type="cellIs" dxfId="435" priority="1116" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="1117" operator="equal">
       <formula>$P74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="434" priority="1117" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="1118" operator="equal">
       <formula>$P207</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75">
-    <cfRule type="cellIs" dxfId="433" priority="1118" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="1119" operator="equal">
       <formula>$P254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P255">
-    <cfRule type="cellIs" dxfId="432" priority="1119" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="1120" operator="equal">
       <formula>$P82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P162">
-    <cfRule type="cellIs" dxfId="431" priority="1120" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="1121" operator="equal">
       <formula>$P75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P277">
-    <cfRule type="cellIs" dxfId="430" priority="1121" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="1122" operator="equal">
       <formula>$P260</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P84">
-    <cfRule type="cellIs" dxfId="429" priority="1123" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="1124" operator="equal">
       <formula>$P271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32">
-    <cfRule type="cellIs" dxfId="428" priority="1125" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="1126" operator="equal">
       <formula>$P276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P261">
-    <cfRule type="cellIs" dxfId="427" priority="1126" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="1127" operator="equal">
       <formula>$P277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P200:P201">
-    <cfRule type="cellIs" dxfId="426" priority="1128" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="1129" operator="equal">
       <formula>$P191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P192">
-    <cfRule type="cellIs" dxfId="425" priority="1129" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="1130" operator="equal">
       <formula>$P200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X44 X4:X10 X108:X146 X198:X201 X166:X168 X185:X196 X203:X229 X77:X83 X232:X248 X251:X277 X92:X106 X85:X87 X46:X74 X150:X151 X170:X183">
-    <cfRule type="cellIs" dxfId="424" priority="716" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="717" operator="equal">
       <formula>$X3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N278">
-    <cfRule type="cellIs" dxfId="423" priority="715" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="716" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N279">
-    <cfRule type="cellIs" dxfId="422" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="715" operator="equal">
       <formula>$N278</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N327">
-    <cfRule type="cellIs" dxfId="421" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="708" operator="equal">
       <formula>$N326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O327">
-    <cfRule type="cellIs" dxfId="420" priority="706" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="707" operator="equal">
       <formula>$O326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q327">
-    <cfRule type="cellIs" dxfId="419" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="706" operator="equal">
       <formula>$Q326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R327">
-    <cfRule type="cellIs" dxfId="418" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="705" operator="equal">
       <formula>$R326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P327">
-    <cfRule type="cellIs" dxfId="417" priority="708" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="709" operator="equal">
       <formula>$P326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N344">
-    <cfRule type="cellIs" dxfId="416" priority="1130" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="1131" operator="equal">
       <formula>$N326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O344">
-    <cfRule type="cellIs" dxfId="415" priority="1131" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="1132" operator="equal">
       <formula>$O326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q344">
-    <cfRule type="cellIs" dxfId="414" priority="1132" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="1133" operator="equal">
       <formula>$Q326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R344">
-    <cfRule type="cellIs" dxfId="413" priority="1133" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="1134" operator="equal">
       <formula>$R326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P344">
-    <cfRule type="cellIs" dxfId="412" priority="1134" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="1135" operator="equal">
       <formula>$P326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N328">
-    <cfRule type="cellIs" dxfId="411" priority="702" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="703" operator="equal">
       <formula>$N327</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O328">
-    <cfRule type="cellIs" dxfId="410" priority="701" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="702" operator="equal">
       <formula>$O327</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q328">
-    <cfRule type="cellIs" dxfId="409" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="701" operator="equal">
       <formula>$Q327</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R328">
-    <cfRule type="cellIs" dxfId="408" priority="699" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="700" operator="equal">
       <formula>$R327</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P328">
-    <cfRule type="cellIs" dxfId="407" priority="703" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="704" operator="equal">
       <formula>$P327</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N338">
-    <cfRule type="cellIs" dxfId="406" priority="697" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="698" operator="equal">
       <formula>$N328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O338">
-    <cfRule type="cellIs" dxfId="405" priority="696" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="697" operator="equal">
       <formula>$O328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q338">
-    <cfRule type="cellIs" dxfId="404" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="696" operator="equal">
       <formula>$Q328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R338">
-    <cfRule type="cellIs" dxfId="403" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="695" operator="equal">
       <formula>$R328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P338">
-    <cfRule type="cellIs" dxfId="402" priority="698" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="699" operator="equal">
       <formula>$P328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N329 N107 N197 B197 B165 N231 B106:B107 B230:B231 N250 B250">
-    <cfRule type="cellIs" dxfId="401" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="693" operator="equal">
       <formula>$N104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O329 O107 O197 O231 O250">
-    <cfRule type="cellIs" dxfId="400" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="692" operator="equal">
       <formula>$O105</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q329 Q107 Q197 Q231 Q250">
-    <cfRule type="cellIs" dxfId="399" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="691" operator="equal">
       <formula>$Q105</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R329 R107 R197 R231 R250 R90">
-    <cfRule type="cellIs" dxfId="398" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="690" operator="equal">
       <formula>$R88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P329 P107 P197 P231 P250">
-    <cfRule type="cellIs" dxfId="397" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="694" operator="equal">
       <formula>$P105</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N335 N16 B16">
-    <cfRule type="cellIs" dxfId="396" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="688" operator="equal">
       <formula>$N10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O335 O16">
-    <cfRule type="cellIs" dxfId="395" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="687" operator="equal">
       <formula>$O10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q335 Q16">
-    <cfRule type="cellIs" dxfId="394" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="686" operator="equal">
       <formula>$Q10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R335 R16">
-    <cfRule type="cellIs" dxfId="393" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="685" operator="equal">
       <formula>$R10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P335 P16">
-    <cfRule type="cellIs" dxfId="392" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="689" operator="equal">
       <formula>$P10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N336">
-    <cfRule type="cellIs" dxfId="391" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="683" operator="equal">
       <formula>$N335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O336">
-    <cfRule type="cellIs" dxfId="390" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="682" operator="equal">
       <formula>$O335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q336">
-    <cfRule type="cellIs" dxfId="389" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="681" operator="equal">
       <formula>$Q335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R336">
-    <cfRule type="cellIs" dxfId="388" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="680" operator="equal">
       <formula>$R335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P336">
-    <cfRule type="cellIs" dxfId="387" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="684" operator="equal">
       <formula>$P335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N337">
-    <cfRule type="cellIs" dxfId="386" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="678" operator="equal">
       <formula>$N335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O337">
-    <cfRule type="cellIs" dxfId="385" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="677" operator="equal">
       <formula>$O335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q337">
-    <cfRule type="cellIs" dxfId="384" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="676" operator="equal">
       <formula>$Q335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R337">
-    <cfRule type="cellIs" dxfId="383" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="675" operator="equal">
       <formula>$R335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P337">
-    <cfRule type="cellIs" dxfId="382" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="679" operator="equal">
       <formula>$P335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N330">
-    <cfRule type="cellIs" dxfId="381" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="673" operator="equal">
       <formula>$N326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O330">
-    <cfRule type="cellIs" dxfId="380" priority="671" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="672" operator="equal">
       <formula>$O326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q330">
-    <cfRule type="cellIs" dxfId="379" priority="670" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="671" operator="equal">
       <formula>$Q326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R330">
-    <cfRule type="cellIs" dxfId="378" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="670" operator="equal">
       <formula>$R326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P330">
-    <cfRule type="cellIs" dxfId="377" priority="673" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="674" operator="equal">
       <formula>$P326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N331">
-    <cfRule type="cellIs" dxfId="376" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="668" operator="equal">
       <formula>$N330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O331">
-    <cfRule type="cellIs" dxfId="375" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="667" operator="equal">
       <formula>$O330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q331">
-    <cfRule type="cellIs" dxfId="374" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="666" operator="equal">
       <formula>$Q330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R331">
-    <cfRule type="cellIs" dxfId="373" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="665" operator="equal">
       <formula>$R330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P331">
-    <cfRule type="cellIs" dxfId="372" priority="668" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="669" operator="equal">
       <formula>$P330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N332">
-    <cfRule type="cellIs" dxfId="371" priority="662" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="663" operator="equal">
       <formula>$N330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O332">
-    <cfRule type="cellIs" dxfId="370" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="662" operator="equal">
       <formula>$O330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q332">
-    <cfRule type="cellIs" dxfId="369" priority="660" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="661" operator="equal">
       <formula>$Q330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R332">
-    <cfRule type="cellIs" dxfId="368" priority="659" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="660" operator="equal">
       <formula>$R330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P332">
-    <cfRule type="cellIs" dxfId="367" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="664" operator="equal">
       <formula>$P330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N333">
-    <cfRule type="cellIs" dxfId="366" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="658" operator="equal">
       <formula>$N332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O333">
-    <cfRule type="cellIs" dxfId="365" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="657" operator="equal">
       <formula>$O332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q333">
-    <cfRule type="cellIs" dxfId="364" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="656" operator="equal">
       <formula>$Q332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R333">
-    <cfRule type="cellIs" dxfId="363" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="655" operator="equal">
       <formula>$R332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P333">
-    <cfRule type="cellIs" dxfId="362" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="659" operator="equal">
       <formula>$P332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N334">
-    <cfRule type="cellIs" dxfId="361" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="653" operator="equal">
       <formula>$N332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O334">
-    <cfRule type="cellIs" dxfId="360" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="652" operator="equal">
       <formula>$O332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q334">
-    <cfRule type="cellIs" dxfId="359" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="651" operator="equal">
       <formula>$Q332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R334">
-    <cfRule type="cellIs" dxfId="358" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="650" operator="equal">
       <formula>$R332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P334">
-    <cfRule type="cellIs" dxfId="357" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="654" operator="equal">
       <formula>$P332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N339">
-    <cfRule type="cellIs" dxfId="356" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="648" operator="equal">
       <formula>$N329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O339">
-    <cfRule type="cellIs" dxfId="355" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="647" operator="equal">
       <formula>$O329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q339">
-    <cfRule type="cellIs" dxfId="354" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="646" operator="equal">
       <formula>$Q329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R339">
-    <cfRule type="cellIs" dxfId="353" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="645" operator="equal">
       <formula>$R329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P339">
-    <cfRule type="cellIs" dxfId="352" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="649" operator="equal">
       <formula>$P329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342">
-    <cfRule type="cellIs" dxfId="351" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="643" operator="equal">
       <formula>$N330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O342">
-    <cfRule type="cellIs" dxfId="350" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="642" operator="equal">
       <formula>$O330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q342">
-    <cfRule type="cellIs" dxfId="349" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="641" operator="equal">
       <formula>$Q330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R342">
-    <cfRule type="cellIs" dxfId="348" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="640" operator="equal">
       <formula>$R330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342">
-    <cfRule type="cellIs" dxfId="347" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="644" operator="equal">
       <formula>$P330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="cellIs" dxfId="346" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="638" operator="equal">
       <formula>$N331</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O343">
-    <cfRule type="cellIs" dxfId="345" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="637" operator="equal">
       <formula>$O331</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q343">
-    <cfRule type="cellIs" dxfId="344" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="636" operator="equal">
       <formula>$Q331</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R343">
-    <cfRule type="cellIs" dxfId="343" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="635" operator="equal">
       <formula>$R331</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P343">
-    <cfRule type="cellIs" dxfId="342" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="639" operator="equal">
       <formula>$P331</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="cellIs" dxfId="341" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="633" operator="equal">
       <formula>$N328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O340">
-    <cfRule type="cellIs" dxfId="340" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="632" operator="equal">
       <formula>$O328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q340">
-    <cfRule type="cellIs" dxfId="339" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="631" operator="equal">
       <formula>$Q328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R340">
-    <cfRule type="cellIs" dxfId="338" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="630" operator="equal">
       <formula>$R328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P340">
-    <cfRule type="cellIs" dxfId="337" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="634" operator="equal">
       <formula>$P328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="cellIs" dxfId="336" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="628" operator="equal">
       <formula>$N329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O341">
-    <cfRule type="cellIs" dxfId="335" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="627" operator="equal">
       <formula>$O329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q341">
-    <cfRule type="cellIs" dxfId="334" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="626" operator="equal">
       <formula>$Q329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R341">
-    <cfRule type="cellIs" dxfId="333" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="625" operator="equal">
       <formula>$R329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P341">
-    <cfRule type="cellIs" dxfId="332" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="629" operator="equal">
       <formula>$P329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N319:N320">
-    <cfRule type="cellIs" dxfId="331" priority="619" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="620" operator="equal">
       <formula>$N308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O319:O320">
-    <cfRule type="cellIs" dxfId="330" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="621" operator="equal">
       <formula>$O308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q319:Q320">
-    <cfRule type="cellIs" dxfId="329" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="622" operator="equal">
       <formula>$Q308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R319:R320">
-    <cfRule type="cellIs" dxfId="328" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="623" operator="equal">
       <formula>$R308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P319:P320">
-    <cfRule type="cellIs" dxfId="327" priority="623" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="624" operator="equal">
       <formula>$P308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N318">
-    <cfRule type="cellIs" dxfId="326" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="618" operator="equal">
       <formula>$N307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O318">
-    <cfRule type="cellIs" dxfId="325" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="617" operator="equal">
       <formula>$O307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q318">
-    <cfRule type="cellIs" dxfId="324" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="616" operator="equal">
       <formula>$Q307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R318">
-    <cfRule type="cellIs" dxfId="323" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="615" operator="equal">
       <formula>$R307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P318">
-    <cfRule type="cellIs" dxfId="322" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="619" operator="equal">
       <formula>$P307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N317">
-    <cfRule type="cellIs" dxfId="321" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="610" operator="equal">
       <formula>$N306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O317">
-    <cfRule type="cellIs" dxfId="320" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="611" operator="equal">
       <formula>$O306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q317">
-    <cfRule type="cellIs" dxfId="319" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="612" operator="equal">
       <formula>$Q306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R317">
-    <cfRule type="cellIs" dxfId="318" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="613" operator="equal">
       <formula>$R306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P317">
-    <cfRule type="cellIs" dxfId="317" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="614" operator="equal">
       <formula>$P306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N311">
-    <cfRule type="cellIs" dxfId="316" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="608" operator="equal">
       <formula>$N305</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O311">
-    <cfRule type="cellIs" dxfId="315" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="607" operator="equal">
       <formula>$O305</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q311">
-    <cfRule type="cellIs" dxfId="314" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="606" operator="equal">
       <formula>$Q305</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R311">
-    <cfRule type="cellIs" dxfId="313" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="605" operator="equal">
       <formula>$R305</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P311">
-    <cfRule type="cellIs" dxfId="312" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="609" operator="equal">
       <formula>$P305</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P312">
-    <cfRule type="cellIs" dxfId="311" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="599" operator="equal">
       <formula>$P306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N312">
-    <cfRule type="cellIs" dxfId="310" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="598" operator="equal">
       <formula>$N306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O312">
-    <cfRule type="cellIs" dxfId="309" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="597" operator="equal">
       <formula>$O306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q312">
-    <cfRule type="cellIs" dxfId="308" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="596" operator="equal">
       <formula>$Q306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R312">
-    <cfRule type="cellIs" dxfId="307" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="595" operator="equal">
       <formula>$R306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N313">
-    <cfRule type="cellIs" dxfId="306" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="593" operator="equal">
       <formula>$N307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O313">
-    <cfRule type="cellIs" dxfId="305" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="592" operator="equal">
       <formula>$O307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q313">
-    <cfRule type="cellIs" dxfId="304" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="591" operator="equal">
       <formula>$Q307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R313">
-    <cfRule type="cellIs" dxfId="303" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="590" operator="equal">
       <formula>$R307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P313">
-    <cfRule type="cellIs" dxfId="302" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="594" operator="equal">
       <formula>$P307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N314">
-    <cfRule type="cellIs" dxfId="301" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="588" operator="equal">
       <formula>$N308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O314">
-    <cfRule type="cellIs" dxfId="300" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="587" operator="equal">
       <formula>$O308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q314">
-    <cfRule type="cellIs" dxfId="299" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="586" operator="equal">
       <formula>$Q308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R314">
-    <cfRule type="cellIs" dxfId="298" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="585" operator="equal">
       <formula>$R308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P314">
-    <cfRule type="cellIs" dxfId="297" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="589" operator="equal">
       <formula>$P308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N316">
-    <cfRule type="cellIs" dxfId="296" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="583" operator="equal">
       <formula>$N309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O316">
-    <cfRule type="cellIs" dxfId="295" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="582" operator="equal">
       <formula>$O309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q316">
-    <cfRule type="cellIs" dxfId="294" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="581" operator="equal">
       <formula>$Q309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R316">
-    <cfRule type="cellIs" dxfId="293" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="580" operator="equal">
       <formula>$R309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P316">
-    <cfRule type="cellIs" dxfId="292" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="584" operator="equal">
       <formula>$P309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N315">
-    <cfRule type="cellIs" dxfId="291" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="578" operator="equal">
       <formula>$N308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O315">
-    <cfRule type="cellIs" dxfId="290" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="577" operator="equal">
       <formula>$O308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q315">
-    <cfRule type="cellIs" dxfId="289" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="576" operator="equal">
       <formula>$Q308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R315">
-    <cfRule type="cellIs" dxfId="288" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="575" operator="equal">
       <formula>$R308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P315">
-    <cfRule type="cellIs" dxfId="287" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="579" operator="equal">
       <formula>$P308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P310">
-    <cfRule type="cellIs" dxfId="286" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="574" operator="equal">
       <formula>$P309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q310">
-    <cfRule type="cellIs" dxfId="285" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="573" operator="equal">
       <formula>$Q309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R310">
-    <cfRule type="cellIs" dxfId="284" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="572" operator="equal">
       <formula>$R309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O310">
-    <cfRule type="cellIs" dxfId="283" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="571" operator="equal">
       <formula>$O309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N310">
-    <cfRule type="cellIs" dxfId="282" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="570" operator="equal">
       <formula>$N309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X184">
-    <cfRule type="cellIs" dxfId="281" priority="1156" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="1157" operator="equal">
       <formula>$X179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N184 B184 B15">
-    <cfRule type="cellIs" dxfId="280" priority="1159" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="1160" operator="equal">
       <formula>$N10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O184">
-    <cfRule type="cellIs" dxfId="279" priority="1161" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="1162" operator="equal">
       <formula>$O179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q184">
-    <cfRule type="cellIs" dxfId="278" priority="1162" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="1163" operator="equal">
       <formula>$Q179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R184">
-    <cfRule type="cellIs" dxfId="277" priority="1163" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="1164" operator="equal">
       <formula>$R179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P184">
-    <cfRule type="cellIs" dxfId="276" priority="1164" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="1165" operator="equal">
       <formula>$P179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12 P91">
-    <cfRule type="cellIs" dxfId="275" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="562" operator="equal">
       <formula>$P9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="274" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="537" operator="equal">
       <formula>$R10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="273" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="533" operator="equal">
       <formula>$R12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="272" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="532" operator="equal">
       <formula>$R13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="271" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="531" operator="equal">
       <formula>$R14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12 X197 X165 X231 X250">
-    <cfRule type="cellIs" dxfId="270" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="530" operator="equal">
       <formula>$X10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13">
-    <cfRule type="cellIs" dxfId="269" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="529" operator="equal">
       <formula>$X12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="268" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="528" operator="equal">
       <formula>$X13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="267" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="527" operator="equal">
       <formula>$X14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="266" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="526" operator="equal">
       <formula>$P12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="265" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="525" operator="equal">
       <formula>$P13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="264" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="524" operator="equal">
       <formula>$P14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="263" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="523" operator="equal">
       <formula>$Q10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="262" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="522" operator="equal">
       <formula>$Q12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="261" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="521" operator="equal">
       <formula>$Q13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="260" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="520" operator="equal">
       <formula>$Q14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="cellIs" dxfId="259" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="519" operator="equal">
       <formula>$O10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="258" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="518" operator="equal">
       <formula>$O12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="257" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="517" operator="equal">
       <formula>$O13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="256" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="516" operator="equal">
       <formula>$O14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="255" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="513" operator="equal">
       <formula>$N10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="254" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="512" operator="equal">
       <formula>$N12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="253" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="511" operator="equal">
       <formula>$N13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="252" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="510" operator="equal">
       <formula>$N14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="251" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="509" operator="equal">
       <formula>$N6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="250" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="508" operator="equal">
       <formula>$N7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="249" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="507" operator="equal">
       <formula>$N8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O278">
-    <cfRule type="cellIs" dxfId="248" priority="1169" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="1170" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q278">
-    <cfRule type="cellIs" dxfId="247" priority="1172" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="1173" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R278">
-    <cfRule type="cellIs" dxfId="246" priority="1174" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="1175" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P278">
-    <cfRule type="cellIs" dxfId="245" priority="1176" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="1177" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P169">
-    <cfRule type="cellIs" dxfId="244" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="1187" operator="equal">
       <formula>$P146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X202">
-    <cfRule type="cellIs" dxfId="243" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="1189" operator="equal">
       <formula>$X146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X107">
-    <cfRule type="cellIs" dxfId="242" priority="1200" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="1201" operator="equal">
       <formula>$X105</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149">
-    <cfRule type="cellIs" dxfId="241" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="460" operator="equal">
       <formula>$N147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N147">
-    <cfRule type="cellIs" dxfId="240" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="458" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O147">
-    <cfRule type="cellIs" dxfId="239" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="457" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P147">
-    <cfRule type="cellIs" dxfId="238" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="459" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X147">
-    <cfRule type="cellIs" dxfId="237" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="467" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X149">
-    <cfRule type="cellIs" dxfId="236" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="468" operator="equal">
       <formula>$X147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O149">
-    <cfRule type="cellIs" dxfId="235" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="443" operator="equal">
       <formula>$O148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N148:N149">
-    <cfRule type="cellIs" dxfId="234" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="451" operator="equal">
       <formula>$N147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O148:O149">
-    <cfRule type="cellIs" dxfId="233" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="450" operator="equal">
       <formula>$O147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q147:Q148">
-    <cfRule type="cellIs" dxfId="232" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="447" operator="equal">
       <formula>$Q146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R147:R148">
-    <cfRule type="cellIs" dxfId="231" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="446" operator="equal">
       <formula>$R146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q147:Q148">
-    <cfRule type="cellIs" dxfId="230" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="445" operator="equal">
       <formula>$Q146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R147:R148">
-    <cfRule type="cellIs" dxfId="229" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="444" operator="equal">
       <formula>$R146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O147">
-    <cfRule type="cellIs" dxfId="228" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="442" operator="equal">
       <formula>$O146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O147">
-    <cfRule type="cellIs" dxfId="227" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="441" operator="equal">
       <formula>$O146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X162">
-    <cfRule type="cellIs" dxfId="226" priority="1204" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="1205" operator="equal">
       <formula>$X277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="225" priority="1211" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="1212" operator="equal">
       <formula>$N3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N163">
-    <cfRule type="cellIs" dxfId="224" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="371" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O163">
-    <cfRule type="cellIs" dxfId="223" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="370" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P163">
-    <cfRule type="cellIs" dxfId="222" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="372" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B164">
-    <cfRule type="cellIs" dxfId="221" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="369" operator="equal">
       <formula>$N63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X163">
-    <cfRule type="cellIs" dxfId="220" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="380" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X164">
-    <cfRule type="cellIs" dxfId="219" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="368" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O163">
-    <cfRule type="cellIs" dxfId="218" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="364" operator="equal">
       <formula>$O271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O163">
-    <cfRule type="cellIs" dxfId="217" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="363" operator="equal">
       <formula>$O271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q163">
-    <cfRule type="cellIs" dxfId="216" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="382" operator="equal">
       <formula>$Q271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R163">
-    <cfRule type="cellIs" dxfId="215" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="383" operator="equal">
       <formula>$R271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P163">
-    <cfRule type="cellIs" dxfId="214" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="384" operator="equal">
       <formula>$P271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X75">
-    <cfRule type="cellIs" dxfId="213" priority="1217" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="1218" operator="equal">
       <formula>$X74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X84">
-    <cfRule type="cellIs" dxfId="212" priority="1239" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="1240" operator="equal">
       <formula>$X82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N83">
-    <cfRule type="cellIs" dxfId="211" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="302" operator="equal">
       <formula>$N82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O83">
-    <cfRule type="cellIs" dxfId="210" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="301" operator="equal">
       <formula>$O82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q83">
-    <cfRule type="cellIs" dxfId="209" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="300" operator="equal">
       <formula>$Q82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R83">
-    <cfRule type="cellIs" dxfId="208" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="299" operator="equal">
       <formula>$R82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P83">
-    <cfRule type="cellIs" dxfId="207" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="303" operator="equal">
       <formula>$P82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="cellIs" dxfId="206" priority="1240" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="1241" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147">
-    <cfRule type="cellIs" dxfId="205" priority="1242" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="1243" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2 B2">
-    <cfRule type="cellIs" dxfId="204" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="276" operator="equal">
       <formula>$N289</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N106">
-    <cfRule type="cellIs" dxfId="203" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="274" operator="equal">
       <formula>$N104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O106">
-    <cfRule type="cellIs" dxfId="202" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="273" operator="equal">
       <formula>$O104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q106">
-    <cfRule type="cellIs" dxfId="201" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="272" operator="equal">
       <formula>$Q104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R106">
-    <cfRule type="cellIs" dxfId="200" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="271" operator="equal">
       <formula>$R104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P106">
-    <cfRule type="cellIs" dxfId="199" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="275" operator="equal">
       <formula>$P104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N230">
-    <cfRule type="cellIs" dxfId="198" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="245" operator="equal">
       <formula>$N228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O230">
-    <cfRule type="cellIs" dxfId="197" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="244" operator="equal">
       <formula>$O228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q230">
-    <cfRule type="cellIs" dxfId="196" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="243" operator="equal">
       <formula>$Q228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R230">
-    <cfRule type="cellIs" dxfId="195" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="242" operator="equal">
       <formula>$R228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P230">
-    <cfRule type="cellIs" dxfId="194" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="246" operator="equal">
       <formula>$P228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X230">
-    <cfRule type="cellIs" dxfId="193" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="247" operator="equal">
       <formula>$X228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="192" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="241" operator="equal">
       <formula>$N169</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76">
-    <cfRule type="cellIs" dxfId="191" priority="1331" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="1332" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O76">
-    <cfRule type="cellIs" dxfId="190" priority="1333" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="1334" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q76">
-    <cfRule type="cellIs" dxfId="189" priority="1335" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="1336" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R76">
-    <cfRule type="cellIs" dxfId="188" priority="1337" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="1338" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76">
-    <cfRule type="cellIs" dxfId="187" priority="1344" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="1345" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X76">
-    <cfRule type="cellIs" dxfId="186" priority="1346" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="1347" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R149">
-    <cfRule type="cellIs" dxfId="185" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="240" operator="equal">
       <formula>$R148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R149">
-    <cfRule type="cellIs" dxfId="184" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="239" operator="equal">
       <formula>$R148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N249">
-    <cfRule type="cellIs" dxfId="183" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="227" operator="equal">
       <formula>$N248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O249">
-    <cfRule type="cellIs" dxfId="182" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="226" operator="equal">
       <formula>$O248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q249">
-    <cfRule type="cellIs" dxfId="181" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="225" operator="equal">
       <formula>$Q248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R249">
-    <cfRule type="cellIs" dxfId="180" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="224" operator="equal">
       <formula>$R248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P249">
-    <cfRule type="cellIs" dxfId="179" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="228" operator="equal">
       <formula>$P248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X249">
-    <cfRule type="cellIs" dxfId="178" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="223" operator="equal">
       <formula>$X248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R352:R371">
-    <cfRule type="cellIs" dxfId="177" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="188" operator="equal">
       <formula>$R351</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N349">
-    <cfRule type="cellIs" dxfId="176" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="211" operator="equal">
       <formula>$N348</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O349">
-    <cfRule type="cellIs" dxfId="175" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="210" operator="equal">
       <formula>$O348</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q349">
-    <cfRule type="cellIs" dxfId="174" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="209" operator="equal">
       <formula>$Q348</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R349">
-    <cfRule type="cellIs" dxfId="173" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="208" operator="equal">
       <formula>$R348</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P349">
-    <cfRule type="cellIs" dxfId="172" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="212" operator="equal">
       <formula>$P348</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q350">
-    <cfRule type="cellIs" dxfId="171" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="202" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R350">
-    <cfRule type="cellIs" dxfId="170" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="201" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q352:Q371">
-    <cfRule type="cellIs" dxfId="169" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="189" operator="equal">
       <formula>$Q351</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P352:P371">
-    <cfRule type="cellIs" dxfId="168" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="191" operator="equal">
       <formula>$P351</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N350">
-    <cfRule type="cellIs" dxfId="167" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="204" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P350">
-    <cfRule type="cellIs" dxfId="166" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="203" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N351">
-    <cfRule type="cellIs" dxfId="165" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="199" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O351">
-    <cfRule type="cellIs" dxfId="164" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="198" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q351">
-    <cfRule type="cellIs" dxfId="163" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="197" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R351">
-    <cfRule type="cellIs" dxfId="162" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="196" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P351">
-    <cfRule type="cellIs" dxfId="161" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="200" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O352:O371">
-    <cfRule type="cellIs" dxfId="160" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="190" operator="equal">
       <formula>$O351</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R372">
-    <cfRule type="cellIs" dxfId="159" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="184" operator="equal">
       <formula>$R371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q372">
-    <cfRule type="cellIs" dxfId="158" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="185" operator="equal">
       <formula>$Q371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P372">
-    <cfRule type="cellIs" dxfId="157" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="187" operator="equal">
       <formula>$P371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O372">
-    <cfRule type="cellIs" dxfId="156" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="186" operator="equal">
       <formula>$O371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N376">
-    <cfRule type="cellIs" dxfId="155" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="218" operator="equal">
       <formula>$N371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O376">
-    <cfRule type="cellIs" dxfId="154" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="219" operator="equal">
       <formula>$O371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q376">
-    <cfRule type="cellIs" dxfId="153" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="220" operator="equal">
       <formula>$Q371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R376">
-    <cfRule type="cellIs" dxfId="152" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="221" operator="equal">
       <formula>$R371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P376">
-    <cfRule type="cellIs" dxfId="151" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="222" operator="equal">
       <formula>$P371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R373">
-    <cfRule type="cellIs" dxfId="150" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="180" operator="equal">
       <formula>$R372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q373">
-    <cfRule type="cellIs" dxfId="149" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="181" operator="equal">
       <formula>$Q372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P373">
-    <cfRule type="cellIs" dxfId="148" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="183" operator="equal">
       <formula>$P372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O373">
-    <cfRule type="cellIs" dxfId="147" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="182" operator="equal">
       <formula>$O372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R375">
-    <cfRule type="cellIs" dxfId="146" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="176" operator="equal">
       <formula>$R373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q375">
-    <cfRule type="cellIs" dxfId="145" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="177" operator="equal">
       <formula>$Q373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P375">
-    <cfRule type="cellIs" dxfId="144" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="179" operator="equal">
       <formula>$P373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O375">
-    <cfRule type="cellIs" dxfId="143" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="178" operator="equal">
       <formula>$O373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R374">
-    <cfRule type="cellIs" dxfId="142" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="172" operator="equal">
       <formula>$R372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q374">
-    <cfRule type="cellIs" dxfId="141" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="173" operator="equal">
       <formula>$Q372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P374">
-    <cfRule type="cellIs" dxfId="140" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="175" operator="equal">
       <formula>$P372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O374">
-    <cfRule type="cellIs" dxfId="139" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="174" operator="equal">
       <formula>$O372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N352:N375">
-    <cfRule type="cellIs" dxfId="138" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="171" operator="equal">
       <formula>$N351</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O350">
-    <cfRule type="cellIs" dxfId="137" priority="1347" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="1348" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O382">
-    <cfRule type="cellIs" dxfId="136" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="161" operator="equal">
       <formula>$O391</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q382">
-    <cfRule type="cellIs" dxfId="135" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="162" operator="equal">
       <formula>$Q391</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P382">
-    <cfRule type="cellIs" dxfId="134" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="165" operator="equal">
       <formula>$P391</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X382">
-    <cfRule type="cellIs" dxfId="133" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="157" operator="equal">
       <formula>$X381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O384:O385">
-    <cfRule type="cellIs" dxfId="132" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="155" operator="equal">
       <formula>$O383</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q384:Q385">
-    <cfRule type="cellIs" dxfId="131" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="154" operator="equal">
       <formula>$Q383</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R384:R385">
-    <cfRule type="cellIs" dxfId="130" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="153" operator="equal">
       <formula>$R383</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P384:P385">
-    <cfRule type="cellIs" dxfId="129" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="156" operator="equal">
       <formula>$P383</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O383">
-    <cfRule type="cellIs" dxfId="128" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="151" operator="equal">
       <formula>$O381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q383">
-    <cfRule type="cellIs" dxfId="127" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="150" operator="equal">
       <formula>$Q381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P383">
-    <cfRule type="cellIs" dxfId="126" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="152" operator="equal">
       <formula>$P381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R378:R379">
-    <cfRule type="cellIs" dxfId="125" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="148" operator="equal">
       <formula>$R377</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R380">
-    <cfRule type="cellIs" dxfId="124" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="147" operator="equal">
       <formula>$R379</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N377">
-    <cfRule type="cellIs" dxfId="123" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="143" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N386:N389">
-    <cfRule type="cellIs" dxfId="122" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="140" operator="equal">
       <formula>$N385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O386:O389">
-    <cfRule type="cellIs" dxfId="121" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="139" operator="equal">
       <formula>$O385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q386:Q389">
-    <cfRule type="cellIs" dxfId="120" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="138" operator="equal">
       <formula>$Q385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R386:R389">
-    <cfRule type="cellIs" dxfId="119" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="137" operator="equal">
       <formula>$R385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P386:P389">
-    <cfRule type="cellIs" dxfId="118" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="141" operator="equal">
       <formula>$P385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R382:R383">
-    <cfRule type="cellIs" dxfId="117" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="135" operator="equal">
       <formula>$R381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="cellIs" dxfId="116" priority="1350" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="1351" operator="equal">
       <formula>$X10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="115" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="133" operator="equal">
       <formula>$N10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" dxfId="114" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="132" operator="equal">
       <formula>$O10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="cellIs" dxfId="113" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="131" operator="equal">
       <formula>$Q10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="cellIs" dxfId="112" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="130" operator="equal">
       <formula>$R10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="111" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="134" operator="equal">
       <formula>$P10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="cellIs" dxfId="110" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="129" operator="equal">
       <formula>$X10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N378">
-    <cfRule type="cellIs" dxfId="109" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="128" operator="equal">
       <formula>$N377</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N379">
-    <cfRule type="cellIs" dxfId="108" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="127" operator="equal">
       <formula>$N378</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N380">
-    <cfRule type="cellIs" dxfId="107" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="126" operator="equal">
       <formula>$N379</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N381">
-    <cfRule type="cellIs" dxfId="106" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="125" operator="equal">
       <formula>$N380</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N382">
-    <cfRule type="cellIs" dxfId="105" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="124" operator="equal">
       <formula>$N381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N383">
-    <cfRule type="cellIs" dxfId="104" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="121" operator="equal">
       <formula>$N382</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N384">
-    <cfRule type="cellIs" dxfId="103" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="120" operator="equal">
       <formula>$N383</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N385">
-    <cfRule type="cellIs" dxfId="102" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="119" operator="equal">
       <formula>$N384</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="101" priority="1372" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="1373" operator="equal">
       <formula>$N88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O91">
-    <cfRule type="cellIs" dxfId="100" priority="1373" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="1374" operator="equal">
       <formula>$O88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q91">
-    <cfRule type="cellIs" dxfId="99" priority="1374" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="1375" operator="equal">
       <formula>$Q88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R91">
-    <cfRule type="cellIs" dxfId="98" priority="1375" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="1376" operator="equal">
       <formula>$R88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R89">
-    <cfRule type="cellIs" dxfId="97" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="118" operator="equal">
       <formula>$R276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q89">
-    <cfRule type="cellIs" dxfId="96" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="117" operator="equal">
       <formula>$Q276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P89">
-    <cfRule type="cellIs" dxfId="95" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="116" operator="equal">
       <formula>$P276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N89">
-    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="115" operator="equal">
       <formula>$N276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q90">
-    <cfRule type="cellIs" dxfId="93" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="114" operator="equal">
       <formula>$Q89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P90">
-    <cfRule type="cellIs" dxfId="92" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="113" operator="equal">
       <formula>$P89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O90">
-    <cfRule type="cellIs" dxfId="91" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="112" operator="equal">
       <formula>$O89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N90">
-    <cfRule type="cellIs" dxfId="90" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="111" operator="equal">
       <formula>$N89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="89" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="110" operator="equal">
       <formula>$N89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X90">
-    <cfRule type="cellIs" dxfId="88" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="107" operator="equal">
       <formula>$X89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X45">
-    <cfRule type="cellIs" dxfId="87" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="106" operator="equal">
       <formula>$X44</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X88">
-    <cfRule type="cellIs" dxfId="86" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="105" operator="equal">
       <formula>$X87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:B156 N155:N156">
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
       <formula>$N154</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O153:O156">
-    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
       <formula>$O152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X155:X156">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
       <formula>$X154</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157 N157">
-    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
       <formula>$N155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O157">
-    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="80" operator="equal">
       <formula>$O155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q157">
-    <cfRule type="cellIs" dxfId="80" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>$Q155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R157">
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="78" operator="equal">
       <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P157">
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
       <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159 N159">
-    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>$N155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O159">
-    <cfRule type="cellIs" dxfId="76" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="75" operator="equal">
       <formula>$O155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q159">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="74" operator="equal">
       <formula>$Q155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R159">
-    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P159">
-    <cfRule type="cellIs" dxfId="73" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
       <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N160 B160">
-    <cfRule type="cellIs" dxfId="72" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="89" operator="equal">
       <formula>$N155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O160">
-    <cfRule type="cellIs" dxfId="71" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="90" operator="equal">
       <formula>$O155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q160">
-    <cfRule type="cellIs" dxfId="70" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="91" operator="equal">
       <formula>$Q155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R160">
-    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="92" operator="equal">
       <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P160">
-    <cfRule type="cellIs" dxfId="68" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="93" operator="equal">
       <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P158">
-    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="72" operator="equal">
       <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X157">
-    <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="71" operator="equal">
       <formula>$X155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154">
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>$N152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X152">
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X154">
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="70" operator="equal">
       <formula>$X152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O154">
-    <cfRule type="cellIs" dxfId="62" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
       <formula>$O153</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N153:N154">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>$N152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O153:O154">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>$O152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="cellIs" dxfId="59" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="94" operator="equal">
       <formula>$N13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="58" priority="94" operator="equal">
+  <conditionalFormatting sqref="B161:B162">
+    <cfRule type="cellIs" dxfId="58" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B161:B162">
-    <cfRule type="cellIs" dxfId="57" priority="95" operator="equal">
-      <formula>#REF!</formula>
+  <conditionalFormatting sqref="Q161:Q162">
+    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
+      <formula>$Q155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q161:Q162">
@@ -43683,9 +43681,9 @@
       <formula>$Q155</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q161:Q162">
+  <conditionalFormatting sqref="P161:P162">
     <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
-      <formula>$Q155</formula>
+      <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P161:P162">
@@ -43693,19 +43691,19 @@
       <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P161:P162">
+  <conditionalFormatting sqref="O161:O162">
     <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
-      <formula>$P155</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O161:O162">
+      <formula>$O155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N161:N162">
     <cfRule type="cellIs" dxfId="51" priority="48" operator="equal">
-      <formula>$O155</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N161:N162">
+      <formula>$N155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R154">
     <cfRule type="cellIs" dxfId="50" priority="47" operator="equal">
-      <formula>$N155</formula>
+      <formula>$R153</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R154">
@@ -43713,9 +43711,9 @@
       <formula>$R153</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R154">
+  <conditionalFormatting sqref="R161:R162">
     <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
-      <formula>$R153</formula>
+      <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R161:R162">
@@ -43733,134 +43731,134 @@
       <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R161:R162">
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+  <conditionalFormatting sqref="N158 B158">
+    <cfRule type="cellIs" dxfId="44" priority="98" operator="equal">
+      <formula>$N155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O158">
+    <cfRule type="cellIs" dxfId="43" priority="99" operator="equal">
+      <formula>$O155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q158">
+    <cfRule type="cellIs" dxfId="42" priority="100" operator="equal">
+      <formula>$Q155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R158">
+    <cfRule type="cellIs" dxfId="41" priority="101" operator="equal">
       <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N158 B158">
-    <cfRule type="cellIs" dxfId="43" priority="97" operator="equal">
-      <formula>$N155</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O158">
-    <cfRule type="cellIs" dxfId="42" priority="98" operator="equal">
-      <formula>$O155</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q158">
-    <cfRule type="cellIs" dxfId="41" priority="99" operator="equal">
-      <formula>$Q155</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R158">
-    <cfRule type="cellIs" dxfId="40" priority="100" operator="equal">
-      <formula>$R155</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="X159">
-    <cfRule type="cellIs" dxfId="39" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="103" operator="equal">
       <formula>$X155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X158">
-    <cfRule type="cellIs" dxfId="38" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="104" operator="equal">
       <formula>$X155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R152">
-    <cfRule type="cellIs" dxfId="37" priority="1482" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1483" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O151">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>$O150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q151">
     <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
-      <formula>$O150</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q151">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>$Q150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P151">
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
       <formula>$P150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X160">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+      <formula>$X156</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X161:X162">
     <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
-      <formula>$X156</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X161:X162">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>$X157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N391">
-    <cfRule type="cellIs" dxfId="31" priority="1486" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1487" operator="equal">
       <formula>$N388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O391">
-    <cfRule type="cellIs" dxfId="30" priority="1488" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1489" operator="equal">
       <formula>$O388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q391">
-    <cfRule type="cellIs" dxfId="29" priority="1490" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1491" operator="equal">
       <formula>$Q388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R391">
-    <cfRule type="cellIs" dxfId="28" priority="1492" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1493" operator="equal">
       <formula>$R388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P391">
-    <cfRule type="cellIs" dxfId="27" priority="1494" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1495" operator="equal">
       <formula>$P388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N390">
-    <cfRule type="cellIs" dxfId="26" priority="1496" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1497" operator="equal">
       <formula>$N388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O390">
-    <cfRule type="cellIs" dxfId="25" priority="1498" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1499" operator="equal">
       <formula>$O388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q390">
-    <cfRule type="cellIs" dxfId="24" priority="1500" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1501" operator="equal">
       <formula>$Q388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R390">
-    <cfRule type="cellIs" dxfId="23" priority="1502" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1503" operator="equal">
       <formula>$R388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P390">
-    <cfRule type="cellIs" dxfId="22" priority="1504" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1505" operator="equal">
       <formula>$P388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X169">
-    <cfRule type="cellIs" dxfId="21" priority="1507" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1508" operator="equal">
       <formula>$X162</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X148">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>$X147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X153">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>$X147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X153">
+      <formula>$X152</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R148">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>$X152</formula>
+      <formula>$R147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R148">
@@ -43868,9 +43866,9 @@
       <formula>$R147</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R148">
+  <conditionalFormatting sqref="R149">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>$R147</formula>
+      <formula>$R148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R149">
@@ -43888,9 +43886,9 @@
       <formula>$R148</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R149">
+  <conditionalFormatting sqref="R150">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>$R148</formula>
+      <formula>$R149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R150">
@@ -43908,9 +43906,9 @@
       <formula>$R149</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R150">
+  <conditionalFormatting sqref="R151">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>$R149</formula>
+      <formula>$R150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R151">
@@ -43933,29 +43931,29 @@
       <formula>$R150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R151">
+  <conditionalFormatting sqref="N152">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>$R150</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N152">
+      <formula>$N151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O152">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>$O151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P152">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$P151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q152">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$Q151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$N151</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O152">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>$O151</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P152">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$P151</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q152">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$Q151</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F446EF2-3384-4E7A-9F1C-F044C9571DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D0693-E28F-4896-B4C7-049F9827949B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8237" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8237" uniqueCount="1537">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -6117,30 +6117,7 @@
     <t>nablarch.db.validationTimeout</t>
   </si>
   <si>
-    <t>アイドル接続の最小数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>idleTimeout</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プール内の接続の最大寿命(ミリ秒)</t>
-    <rPh sb="15" eb="16">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">接続が有効であることを確認するまでプールが待機する最大時間 (ミリ秒) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>接続がプール内でアイドル状態であることを許可する最大時間 (ミリ秒)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クライアントがプールからの接続を待機する最大時間 (ミリ秒)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6332,6 +6309,30 @@
   <si>
     <t>localhost(Nablarchバッチプロジェクト)
 host.docker.internal(コンテナ用Nablarchバッチプロジェクト)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェブ、RESTfulウェブサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プールから接続を取得するときのタイムアウト時間(ミリ秒)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続のアイドルが維持される時間(ミリ秒)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プール内のコネクションの最大生存時間(ミリ秒)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続が生きていることを確認するときのタイムアウト時間(ミリ秒)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小アイドル数</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13468,7 +13469,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -13610,8 +13611,8 @@
   </sheetPr>
   <dimension ref="A1:X391"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="15" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
       <selection pane="bottomRight"/>
@@ -14098,7 +14099,7 @@
         <v>1471</v>
       </c>
       <c r="W7" s="25" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="X7" s="26" t="s">
         <v>281</v>
@@ -16841,7 +16842,7 @@
         <v>676</v>
       </c>
       <c r="X45" s="33" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19968,7 +19969,7 @@
         <v>937</v>
       </c>
       <c r="X88" s="33" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="89" spans="1:24" s="56" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
@@ -20116,7 +20117,7 @@
         <v>937</v>
       </c>
       <c r="X90" s="33" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22491,7 +22492,7 @@
         <v>811</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>199</v>
@@ -22633,7 +22634,7 @@
         <v>812</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>199</v>
@@ -23465,7 +23466,7 @@
         <v>813</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="P138" s="2" t="s">
         <v>215</v>
@@ -24095,7 +24096,7 @@
         <v>908</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>331</v>
@@ -24104,10 +24105,10 @@
         <v>332</v>
       </c>
       <c r="Q147" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="R147" s="37" t="s">
         <v>1525</v>
-      </c>
-      <c r="R147" s="37" t="s">
-        <v>1530</v>
       </c>
       <c r="S147" s="36" t="s">
         <v>1233</v>
@@ -24119,7 +24120,7 @@
         <v>1234</v>
       </c>
       <c r="V147" s="23" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="W147" s="38" t="s">
         <v>1235</v>
@@ -24166,7 +24167,7 @@
         <v>908</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>331</v>
@@ -24178,7 +24179,7 @@
         <v>1484</v>
       </c>
       <c r="R148" s="37" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="S148" s="36" t="s">
         <v>1236</v>
@@ -24190,7 +24191,7 @@
         <v>1237</v>
       </c>
       <c r="V148" s="23" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="W148" s="38" t="s">
         <v>1241</v>
@@ -24237,7 +24238,7 @@
         <v>908</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>1232</v>
@@ -24249,7 +24250,7 @@
         <v>1484</v>
       </c>
       <c r="R149" s="37" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="S149" s="36" t="s">
         <v>1245</v>
@@ -24261,7 +24262,7 @@
         <v>1238</v>
       </c>
       <c r="V149" s="23" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="W149" s="38" t="s">
         <v>1246</v>
@@ -24308,7 +24309,7 @@
         <v>908</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>331</v>
@@ -24320,7 +24321,7 @@
         <v>1484</v>
       </c>
       <c r="R150" s="37" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="S150" s="36" t="s">
         <v>1244</v>
@@ -24332,7 +24333,7 @@
         <v>1243</v>
       </c>
       <c r="V150" s="23" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="W150" s="38" t="s">
         <v>1240</v>
@@ -24379,7 +24380,7 @@
         <v>908</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>331</v>
@@ -24391,7 +24392,7 @@
         <v>1484</v>
       </c>
       <c r="R151" s="37" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="S151" s="36" t="s">
         <v>1485</v>
@@ -24403,10 +24404,10 @@
         <v>1247</v>
       </c>
       <c r="V151" s="23" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="W151" s="38" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="X151" s="33"/>
     </row>
@@ -24450,7 +24451,7 @@
         <v>895</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>331</v>
@@ -24462,7 +24463,7 @@
         <v>1484</v>
       </c>
       <c r="R152" s="37" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="S152" s="36" t="s">
         <v>1233</v>
@@ -24474,7 +24475,7 @@
         <v>1234</v>
       </c>
       <c r="V152" s="23" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="W152" s="38" t="s">
         <v>1235</v>
@@ -24521,7 +24522,7 @@
         <v>895</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O153" s="2" t="s">
         <v>331</v>
@@ -24533,7 +24534,7 @@
         <v>1484</v>
       </c>
       <c r="R153" s="37" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="S153" s="36" t="s">
         <v>1236</v>
@@ -24545,7 +24546,7 @@
         <v>1237</v>
       </c>
       <c r="V153" s="23" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="W153" s="38" t="s">
         <v>1241</v>
@@ -24592,7 +24593,7 @@
         <v>895</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>1232</v>
@@ -24604,7 +24605,7 @@
         <v>1484</v>
       </c>
       <c r="R154" s="37" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="S154" s="36" t="s">
         <v>1245</v>
@@ -24616,7 +24617,7 @@
         <v>1238</v>
       </c>
       <c r="V154" s="23" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="W154" s="38" t="s">
         <v>1246</v>
@@ -24663,7 +24664,7 @@
         <v>895</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>331</v>
@@ -24675,7 +24676,7 @@
         <v>1484</v>
       </c>
       <c r="R155" s="37" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="S155" s="36" t="s">
         <v>1244</v>
@@ -24687,7 +24688,7 @@
         <v>1243</v>
       </c>
       <c r="V155" s="23" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="W155" s="38" t="s">
         <v>1240</v>
@@ -24734,7 +24735,7 @@
         <v>895</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O156" s="2" t="s">
         <v>331</v>
@@ -24746,7 +24747,7 @@
         <v>1484</v>
       </c>
       <c r="R156" s="37" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="S156" s="36" t="s">
         <v>1485</v>
@@ -24758,7 +24759,7 @@
         <v>1247</v>
       </c>
       <c r="V156" s="36" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="W156" s="38" t="s">
         <v>1306</v>
@@ -24805,7 +24806,7 @@
         <v>895</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>331</v>
@@ -24817,19 +24818,19 @@
         <v>1484</v>
       </c>
       <c r="R157" s="37" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="S157" s="36" t="s">
         <v>1486</v>
       </c>
       <c r="T157" s="36" t="s">
-        <v>1495</v>
+        <v>1536</v>
       </c>
       <c r="U157" s="36" t="s">
         <v>1490</v>
       </c>
       <c r="V157" s="36" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="W157" s="38" t="s">
         <v>1306</v>
@@ -24876,7 +24877,7 @@
         <v>895</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O158" s="2" t="s">
         <v>331</v>
@@ -24888,22 +24889,22 @@
         <v>1484</v>
       </c>
       <c r="R158" s="37" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="S158" s="36" t="s">
         <v>1487</v>
       </c>
       <c r="T158" s="36" t="s">
-        <v>1500</v>
+        <v>1532</v>
       </c>
       <c r="U158" s="36" t="s">
         <v>1491</v>
       </c>
       <c r="V158" s="36" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="W158" s="38" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="X158" s="33"/>
     </row>
@@ -24947,7 +24948,7 @@
         <v>895</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O159" s="2" t="s">
         <v>331</v>
@@ -24959,19 +24960,19 @@
         <v>1484</v>
       </c>
       <c r="R159" s="37" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="S159" s="36" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="T159" s="36" t="s">
-        <v>1499</v>
+        <v>1533</v>
       </c>
       <c r="U159" s="36" t="s">
         <v>1492</v>
       </c>
       <c r="V159" s="36" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="W159" s="38" t="s">
         <v>1383</v>
@@ -25018,7 +25019,7 @@
         <v>895</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O160" s="2" t="s">
         <v>331</v>
@@ -25030,22 +25031,22 @@
         <v>1484</v>
       </c>
       <c r="R160" s="37" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="S160" s="36" t="s">
         <v>1488</v>
       </c>
       <c r="T160" s="36" t="s">
-        <v>1497</v>
+        <v>1534</v>
       </c>
       <c r="U160" s="36" t="s">
         <v>1493</v>
       </c>
       <c r="V160" s="36" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="W160" s="38" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="X160" s="33"/>
     </row>
@@ -25089,7 +25090,7 @@
         <v>895</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>331</v>
@@ -25101,22 +25102,22 @@
         <v>1484</v>
       </c>
       <c r="R161" s="37" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="S161" s="36" t="s">
         <v>1489</v>
       </c>
       <c r="T161" s="36" t="s">
-        <v>1498</v>
+        <v>1535</v>
       </c>
       <c r="U161" s="36" t="s">
         <v>1494</v>
       </c>
       <c r="V161" s="36" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="W161" s="38" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="X161" s="33"/>
     </row>
@@ -25126,7 +25127,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>788</v>
+        <v>1531</v>
       </c>
       <c r="C162" s="23" t="s">
         <v>908</v>
@@ -25162,7 +25163,7 @@
         <v>895</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="O162" s="2" t="s">
         <v>1139</v>
@@ -33033,7 +33034,7 @@
         <v>1467</v>
       </c>
       <c r="W272" s="25" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="X272" s="26" t="s">
         <v>895</v>
@@ -41108,70 +41109,70 @@
         <v>386</v>
       </c>
       <c r="B388" s="71" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C388" s="72" t="s">
+        <v>895</v>
+      </c>
+      <c r="D388" s="72" t="s">
+        <v>895</v>
+      </c>
+      <c r="E388" s="72" t="s">
+        <v>895</v>
+      </c>
+      <c r="F388" s="72" t="s">
+        <v>895</v>
+      </c>
+      <c r="G388" s="72" t="s">
+        <v>895</v>
+      </c>
+      <c r="H388" s="72" t="s">
+        <v>895</v>
+      </c>
+      <c r="I388" s="72" t="s">
+        <v>895</v>
+      </c>
+      <c r="J388" s="72" t="s">
+        <v>895</v>
+      </c>
+      <c r="K388" s="72" t="s">
+        <v>895</v>
+      </c>
+      <c r="L388" s="72" t="s">
+        <v>895</v>
+      </c>
+      <c r="M388" s="72" t="s">
+        <v>895</v>
+      </c>
+      <c r="N388" s="70" t="s">
+        <v>1501</v>
+      </c>
+      <c r="O388" s="70" t="s">
+        <v>895</v>
+      </c>
+      <c r="P388" s="70" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q388" s="70" t="s">
+        <v>895</v>
+      </c>
+      <c r="R388" s="70" t="s">
+        <v>895</v>
+      </c>
+      <c r="S388" s="72" t="s">
         <v>1505</v>
       </c>
-      <c r="C388" s="72" t="s">
-        <v>895</v>
-      </c>
-      <c r="D388" s="72" t="s">
-        <v>895</v>
-      </c>
-      <c r="E388" s="72" t="s">
-        <v>895</v>
-      </c>
-      <c r="F388" s="72" t="s">
-        <v>895</v>
-      </c>
-      <c r="G388" s="72" t="s">
-        <v>895</v>
-      </c>
-      <c r="H388" s="72" t="s">
-        <v>895</v>
-      </c>
-      <c r="I388" s="72" t="s">
-        <v>895</v>
-      </c>
-      <c r="J388" s="72" t="s">
-        <v>895</v>
-      </c>
-      <c r="K388" s="72" t="s">
-        <v>895</v>
-      </c>
-      <c r="L388" s="72" t="s">
-        <v>895</v>
-      </c>
-      <c r="M388" s="72" t="s">
-        <v>895</v>
-      </c>
-      <c r="N388" s="70" t="s">
-        <v>1506</v>
-      </c>
-      <c r="O388" s="70" t="s">
-        <v>895</v>
-      </c>
-      <c r="P388" s="70" t="s">
-        <v>895</v>
-      </c>
-      <c r="Q388" s="70" t="s">
-        <v>895</v>
-      </c>
-      <c r="R388" s="70" t="s">
-        <v>895</v>
-      </c>
-      <c r="S388" s="72" t="s">
-        <v>1510</v>
-      </c>
       <c r="T388" s="72" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="U388" s="72" t="s">
         <v>1262</v>
       </c>
       <c r="V388" s="72" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="W388" s="73" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="X388" s="74"/>
     </row>
@@ -41215,7 +41216,7 @@
         <v>895</v>
       </c>
       <c r="N389" s="70" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="O389" s="70" t="s">
         <v>895</v>
@@ -41230,19 +41231,19 @@
         <v>895</v>
       </c>
       <c r="S389" s="72" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="T389" s="72" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="U389" s="72" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="V389" s="72" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="W389" s="73" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="X389" s="74"/>
     </row>
@@ -41286,7 +41287,7 @@
         <v>895</v>
       </c>
       <c r="N390" s="70" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="O390" s="70" t="s">
         <v>895</v>
@@ -41301,13 +41302,13 @@
         <v>895</v>
       </c>
       <c r="S390" s="72" t="s">
+        <v>1503</v>
+      </c>
+      <c r="T390" s="72" t="s">
         <v>1508</v>
       </c>
-      <c r="T390" s="72" t="s">
-        <v>1513</v>
-      </c>
       <c r="U390" s="72" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="V390" s="72"/>
       <c r="W390" s="73"/>
@@ -41353,7 +41354,7 @@
         <v>895</v>
       </c>
       <c r="N391" s="70" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="O391" s="70" t="s">
         <v>895</v>
@@ -41368,13 +41369,13 @@
         <v>895</v>
       </c>
       <c r="S391" s="72" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="T391" s="72" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="U391" s="72" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="V391" s="72"/>
       <c r="W391" s="73"/>

--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3C575E-94A6-4219-AB27-9109AA54FCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8982E4-0E6F-4195-B748-123B85E8BE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="1830" windowWidth="34110" windowHeight="19095" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="675" windowWidth="34110" windowHeight="19095" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'default-configurationプロパティ定義一覧'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8443" uniqueCount="1630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8443" uniqueCount="1629">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -6114,10 +6113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nablarch-default-configuration\nablarch-main-default-configuration\src\main\resources\nablarch\common\+C47:T47</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>nablarch-default-configuration\nablarch-main-default-configuration\src\main\resources\nablarch\common\permission-check.xml</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6319,10 +6314,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミットログ出力機能+N260:P260</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>nablarch-default-configuration\nablarch-main-default-configuration\src\main\resources\nablarch\common\standalone\commit-log.xml</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6340,10 +6331,6 @@
   </si>
   <si>
     <t>processStopHandler</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロセス停止機能+N267:P267</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6571,9 +6558,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（ウェブプロジェクト）</t>
-  </si>
-  <si>
     <t>XXX/src/main/resources/rest-component-configuration.xml
 （RESTfullウェブサービスプロジェクト、コンテナ用RESTfulウェブサービスプロジェクト）</t>
     <rPh sb="83" eb="84">
@@ -6795,6 +6779,19 @@
     <t xml:space="preserve">ウェブプロジェクト/main/resources/net/unit8/http/router/routes.properties
 コンテナ用ウェブプロジェクト/main/resources/net/unit8/http/router/routes.properties
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードの初期ロード設定
+（一括ロード要否。無指定＝ロードしない）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミットログ出力機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス停止機能</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8694,7 +8691,7 @@
   <dimension ref="A1:X404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="15" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
       <selection pane="bottomRight"/>
@@ -9321,7 +9318,7 @@
         <v>610</v>
       </c>
       <c r="U9" s="37" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="V9" s="38" t="s">
         <v>1405</v>
@@ -9525,7 +9522,7 @@
         <v>1051</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="S12" s="37" t="s">
         <v>1463</v>
@@ -9543,7 +9540,10 @@
       <c r="X12" s="36"/>
     </row>
     <row r="13" spans="1:24" s="23" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
         <v>869</v>
@@ -9591,13 +9591,13 @@
         <v>1051</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="S13" s="49" t="s">
         <v>1463</v>
       </c>
       <c r="T13" s="49" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="U13" s="42" t="s">
         <v>1205</v>
@@ -9660,7 +9660,7 @@
         <v>1051</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="S14" s="37" t="s">
         <v>1050</v>
@@ -9729,7 +9729,7 @@
         <v>1051</v>
       </c>
       <c r="R15" s="36" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="S15" s="37" t="s">
         <v>1050</v>
@@ -9798,13 +9798,13 @@
         <v>1051</v>
       </c>
       <c r="R16" s="36" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="S16" s="37" t="s">
         <v>1050</v>
       </c>
       <c r="T16" s="38" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="U16" s="42" t="s">
         <v>1111</v>
@@ -11968,7 +11968,7 @@
         <v>1094</v>
       </c>
       <c r="T46" s="38" t="s">
-        <v>1481</v>
+        <v>1626</v>
       </c>
       <c r="U46" s="37" t="s">
         <v>803</v>
@@ -11980,7 +11980,7 @@
         <v>654</v>
       </c>
       <c r="X46" s="36" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12321,7 +12321,7 @@
         <v>63</v>
       </c>
       <c r="R51" s="36" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="S51" s="37" t="s">
         <v>61</v>
@@ -12466,7 +12466,7 @@
         <v>706</v>
       </c>
       <c r="U53" s="37" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="V53" s="38" t="s">
         <v>553</v>
@@ -14129,13 +14129,13 @@
         <v>775</v>
       </c>
       <c r="O76" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="P76" s="36" t="s">
         <v>155</v>
       </c>
       <c r="Q76" s="36" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="R76" s="36" t="s">
         <v>1083</v>
@@ -14209,7 +14209,7 @@
         <v>225</v>
       </c>
       <c r="R77" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="S77" s="37" t="s">
         <v>223</v>
@@ -14273,7 +14273,7 @@
         <v>822</v>
       </c>
       <c r="O78" s="36" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="P78" s="36" t="s">
         <v>229</v>
@@ -14282,7 +14282,7 @@
         <v>228</v>
       </c>
       <c r="R78" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="S78" s="37" t="s">
         <v>741</v>
@@ -14421,7 +14421,7 @@
         <v>234</v>
       </c>
       <c r="Q80" s="36" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="R80" s="36" t="s">
         <v>839</v>
@@ -14433,7 +14433,7 @@
         <v>602</v>
       </c>
       <c r="U80" s="37" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="V80" s="35" t="s">
         <v>1408</v>
@@ -14566,7 +14566,7 @@
         <v>237</v>
       </c>
       <c r="R82" s="36" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="S82" s="37" t="s">
         <v>235</v>
@@ -14649,10 +14649,10 @@
         <v>1086</v>
       </c>
       <c r="V83" s="51" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="W83" s="39" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="X83" s="36"/>
     </row>
@@ -14719,7 +14719,7 @@
         <v>186</v>
       </c>
       <c r="U84" s="37" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="V84" s="38" t="s">
         <v>538</v>
@@ -15014,7 +15014,7 @@
         <v>898</v>
       </c>
       <c r="X88" s="36" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="89" spans="1:24" s="23" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
@@ -15160,7 +15160,7 @@
         <v>898</v>
       </c>
       <c r="X90" s="36" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15217,10 +15217,10 @@
         <v>195</v>
       </c>
       <c r="R91" s="36" t="s">
+        <v>1492</v>
+      </c>
+      <c r="S91" s="37" t="s">
         <v>1493</v>
-      </c>
-      <c r="S91" s="37" t="s">
-        <v>1494</v>
       </c>
       <c r="T91" s="38" t="s">
         <v>576</v>
@@ -15275,7 +15275,7 @@
         <v>785</v>
       </c>
       <c r="O92" s="36" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="P92" s="36" t="s">
         <v>196</v>
@@ -15476,13 +15476,13 @@
         <v>785</v>
       </c>
       <c r="O95" s="36" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="P95" s="36" t="s">
         <v>196</v>
       </c>
       <c r="Q95" s="36" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="R95" s="36" t="s">
         <v>845</v>
@@ -15494,7 +15494,7 @@
         <v>577</v>
       </c>
       <c r="U95" s="56" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="V95" s="35"/>
       <c r="W95" s="45"/>
@@ -15543,13 +15543,13 @@
         <v>785</v>
       </c>
       <c r="O96" s="36" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="P96" s="36" t="s">
         <v>196</v>
       </c>
       <c r="Q96" s="36" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="R96" s="36" t="s">
         <v>845</v>
@@ -15561,7 +15561,7 @@
         <v>578</v>
       </c>
       <c r="U96" s="56" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="V96" s="35"/>
       <c r="W96" s="45"/>
@@ -15610,13 +15610,13 @@
         <v>785</v>
       </c>
       <c r="O97" s="36" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="P97" s="36" t="s">
         <v>196</v>
       </c>
       <c r="Q97" s="36" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="R97" s="36" t="s">
         <v>845</v>
@@ -15628,7 +15628,7 @@
         <v>579</v>
       </c>
       <c r="U97" s="56" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="V97" s="35"/>
       <c r="W97" s="45"/>
@@ -15887,7 +15887,7 @@
         <v>241</v>
       </c>
       <c r="R101" s="36" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="S101" s="37" t="s">
         <v>193</v>
@@ -15896,7 +15896,7 @@
         <v>605</v>
       </c>
       <c r="U101" s="37" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="V101" s="51" t="s">
         <v>1162</v>
@@ -15967,7 +15967,7 @@
         <v>606</v>
       </c>
       <c r="U102" s="37" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="V102" s="51" t="s">
         <v>1162</v>
@@ -16247,7 +16247,7 @@
         <v>248</v>
       </c>
       <c r="U106" s="37" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="V106" s="38" t="s">
         <v>487</v>
@@ -17673,7 +17673,7 @@
         <v>487</v>
       </c>
       <c r="W126" s="39" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="X126" s="36"/>
     </row>
@@ -17731,7 +17731,7 @@
         <v>205</v>
       </c>
       <c r="R127" s="36" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="S127" s="37" t="s">
         <v>193</v>
@@ -18984,7 +18984,7 @@
         <v>596</v>
       </c>
       <c r="U145" s="37" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="V145" s="51"/>
       <c r="W145" s="52"/>
@@ -19044,7 +19044,7 @@
         <v>220</v>
       </c>
       <c r="R146" s="36" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="S146" s="37" t="s">
         <v>12</v>
@@ -19629,7 +19629,7 @@
         <v>1448</v>
       </c>
       <c r="W154" s="58" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="X154" s="36"/>
     </row>
@@ -19685,7 +19685,7 @@
         <v>1416</v>
       </c>
       <c r="R155" s="36" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="S155" s="55" t="s">
         <v>1176</v>
@@ -19756,7 +19756,7 @@
         <v>1416</v>
       </c>
       <c r="R156" s="36" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="S156" s="55" t="s">
         <v>1179</v>
@@ -19827,7 +19827,7 @@
         <v>1416</v>
       </c>
       <c r="R157" s="36" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="S157" s="55" t="s">
         <v>1188</v>
@@ -19898,7 +19898,7 @@
         <v>1416</v>
       </c>
       <c r="R158" s="36" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="S158" s="55" t="s">
         <v>1187</v>
@@ -19969,7 +19969,7 @@
         <v>1416</v>
       </c>
       <c r="R159" s="36" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="S159" s="55" t="s">
         <v>1417</v>
@@ -20040,7 +20040,7 @@
         <v>1416</v>
       </c>
       <c r="R160" s="36" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="S160" s="55" t="s">
         <v>1418</v>
@@ -20111,7 +20111,7 @@
         <v>1416</v>
       </c>
       <c r="R161" s="36" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="S161" s="55" t="s">
         <v>1419</v>
@@ -20182,7 +20182,7 @@
         <v>1416</v>
       </c>
       <c r="R162" s="36" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="S162" s="55" t="s">
         <v>1427</v>
@@ -20253,7 +20253,7 @@
         <v>1416</v>
       </c>
       <c r="R163" s="36" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="S163" s="55" t="s">
         <v>1420</v>
@@ -20324,7 +20324,7 @@
         <v>1416</v>
       </c>
       <c r="R164" s="36" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="S164" s="55" t="s">
         <v>1421</v>
@@ -20475,7 +20475,7 @@
         <v>1066</v>
       </c>
       <c r="S166" s="55" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="T166" s="55" t="s">
         <v>1067</v>
@@ -20488,7 +20488,7 @@
         <v>1078</v>
       </c>
       <c r="X166" s="36" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
@@ -20559,7 +20559,7 @@
         <v>1073</v>
       </c>
       <c r="X167" s="36" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
@@ -20630,7 +20630,7 @@
         <v>1074</v>
       </c>
       <c r="X168" s="36" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
@@ -20701,7 +20701,7 @@
         <v>1075</v>
       </c>
       <c r="X169" s="36" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="170" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
@@ -20759,7 +20759,7 @@
         <v>1066</v>
       </c>
       <c r="S170" s="55" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="T170" s="55" t="s">
         <v>1071</v>
@@ -20772,7 +20772,7 @@
         <v>1076</v>
       </c>
       <c r="X170" s="36" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="171" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
@@ -20839,13 +20839,13 @@
         <v>1205</v>
       </c>
       <c r="V171" s="60" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="W171" s="61" t="s">
         <v>1077</v>
       </c>
       <c r="X171" s="36" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="172" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20902,7 +20902,7 @@
         <v>276</v>
       </c>
       <c r="R172" s="36" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="S172" s="37" t="s">
         <v>193</v>
@@ -21046,7 +21046,7 @@
         <v>281</v>
       </c>
       <c r="R174" s="36" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="S174" s="37" t="s">
         <v>1211</v>
@@ -21554,19 +21554,19 @@
         <v>850</v>
       </c>
       <c r="S181" s="37" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="T181" s="38" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="U181" s="37" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="V181" s="38" t="s">
         <v>1404</v>
       </c>
       <c r="W181" s="45" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="X181" s="36"/>
     </row>
@@ -21625,7 +21625,7 @@
         <v>1235</v>
       </c>
       <c r="S182" s="37" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="T182" s="38" t="s">
         <v>618</v>
@@ -21686,7 +21686,7 @@
         <v>1222</v>
       </c>
       <c r="O183" s="36" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="P183" s="36" t="s">
         <v>1227</v>
@@ -21695,7 +21695,7 @@
         <v>1233</v>
       </c>
       <c r="R183" s="36" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="S183" s="55" t="s">
         <v>1228</v>
@@ -21764,7 +21764,7 @@
         <v>1233</v>
       </c>
       <c r="R184" s="36" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="S184" s="55" t="s">
         <v>1236</v>
@@ -21831,7 +21831,7 @@
         <v>1233</v>
       </c>
       <c r="R185" s="36" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="S185" s="55" t="s">
         <v>1239</v>
@@ -21902,7 +21902,7 @@
         <v>1233</v>
       </c>
       <c r="R186" s="36" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="S186" s="55" t="s">
         <v>1223</v>
@@ -21961,36 +21961,36 @@
         <v>856</v>
       </c>
       <c r="N187" s="36" t="s">
+        <v>1573</v>
+      </c>
+      <c r="O187" s="36" t="s">
+        <v>1572</v>
+      </c>
+      <c r="P187" s="36" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Q187" s="36" t="s">
+        <v>1571</v>
+      </c>
+      <c r="R187" s="36" t="s">
+        <v>1582</v>
+      </c>
+      <c r="S187" s="49" t="s">
+        <v>1575</v>
+      </c>
+      <c r="T187" s="49" t="s">
         <v>1576</v>
-      </c>
-      <c r="O187" s="36" t="s">
-        <v>1575</v>
-      </c>
-      <c r="P187" s="36" t="s">
-        <v>1577</v>
-      </c>
-      <c r="Q187" s="36" t="s">
-        <v>1574</v>
-      </c>
-      <c r="R187" s="36" t="s">
-        <v>1586</v>
-      </c>
-      <c r="S187" s="49" t="s">
-        <v>1578</v>
-      </c>
-      <c r="T187" s="49" t="s">
-        <v>1579</v>
       </c>
       <c r="U187" s="42" t="s">
         <v>1205</v>
       </c>
       <c r="V187" s="43"/>
       <c r="W187" s="63" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="X187" s="36"/>
     </row>
-    <row r="188" spans="1:24" ht="27" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A188" s="21">
         <f t="shared" si="3"/>
         <v>186</v>
@@ -22035,16 +22035,16 @@
         <v>796</v>
       </c>
       <c r="O188" s="36" t="s">
-        <v>294</v>
+        <v>1508</v>
       </c>
       <c r="P188" s="36" t="s">
         <v>296</v>
       </c>
       <c r="Q188" s="36" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="R188" s="36" t="s">
-        <v>1582</v>
+        <v>851</v>
       </c>
       <c r="S188" s="37" t="s">
         <v>748</v>
@@ -22596,10 +22596,10 @@
         <v>310</v>
       </c>
       <c r="P196" s="36" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="Q196" s="36" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="R196" s="36" t="s">
         <v>1329</v>
@@ -22664,10 +22664,10 @@
         <v>799</v>
       </c>
       <c r="O197" s="36" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="P197" s="36" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="Q197" s="36" t="s">
         <v>312</v>
@@ -22735,13 +22735,13 @@
         <v>799</v>
       </c>
       <c r="O198" s="36" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="P198" s="36" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="Q198" s="36" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="R198" s="36" t="s">
         <v>852</v>
@@ -22807,7 +22807,7 @@
         <v>1214</v>
       </c>
       <c r="P199" s="36" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="Q199" s="36" t="s">
         <v>1215</v>
@@ -22877,7 +22877,7 @@
         <v>800</v>
       </c>
       <c r="O200" s="36" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="P200" s="36" t="s">
         <v>856</v>
@@ -22966,7 +22966,7 @@
         <v>623</v>
       </c>
       <c r="U201" s="37" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="V201" s="38" t="s">
         <v>1404</v>
@@ -23037,7 +23037,7 @@
         <v>624</v>
       </c>
       <c r="U202" s="37" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="V202" s="38" t="s">
         <v>1404</v>
@@ -23096,10 +23096,10 @@
         <v>306</v>
       </c>
       <c r="Q203" s="36" t="s">
+        <v>1513</v>
+      </c>
+      <c r="R203" s="36" t="s">
         <v>1514</v>
-      </c>
-      <c r="R203" s="36" t="s">
-        <v>1515</v>
       </c>
       <c r="S203" s="37" t="s">
         <v>304</v>
@@ -23159,16 +23159,16 @@
         <v>1222</v>
       </c>
       <c r="O204" s="36" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="P204" s="36" t="s">
         <v>1227</v>
       </c>
       <c r="Q204" s="36" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="R204" s="36" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="S204" s="49" t="s">
         <v>746</v>
@@ -23186,7 +23186,7 @@
         <v>1226</v>
       </c>
       <c r="X204" s="36" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="205" spans="1:24" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -23232,31 +23232,31 @@
         <v>1222</v>
       </c>
       <c r="O205" s="36" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="P205" s="36" t="s">
         <v>296</v>
       </c>
       <c r="Q205" s="36" t="s">
+        <v>1515</v>
+      </c>
+      <c r="R205" s="36" t="s">
+        <v>1580</v>
+      </c>
+      <c r="S205" s="49" t="s">
         <v>1516</v>
       </c>
-      <c r="R205" s="36" t="s">
-        <v>1584</v>
-      </c>
-      <c r="S205" s="49" t="s">
-        <v>1517</v>
-      </c>
       <c r="T205" s="49" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="U205" s="49" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="V205" s="49" t="s">
         <v>1403</v>
       </c>
       <c r="W205" s="58" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="X205" s="36"/>
     </row>
@@ -23300,32 +23300,32 @@
         <v>856</v>
       </c>
       <c r="N206" s="36" t="s">
+        <v>1573</v>
+      </c>
+      <c r="O206" s="36" t="s">
+        <v>1572</v>
+      </c>
+      <c r="P206" s="36" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Q206" s="36" t="s">
+        <v>1571</v>
+      </c>
+      <c r="R206" s="36" t="s">
+        <v>1580</v>
+      </c>
+      <c r="S206" s="49" t="s">
+        <v>1575</v>
+      </c>
+      <c r="T206" s="49" t="s">
         <v>1576</v>
-      </c>
-      <c r="O206" s="36" t="s">
-        <v>1575</v>
-      </c>
-      <c r="P206" s="36" t="s">
-        <v>1577</v>
-      </c>
-      <c r="Q206" s="36" t="s">
-        <v>1574</v>
-      </c>
-      <c r="R206" s="36" t="s">
-        <v>1584</v>
-      </c>
-      <c r="S206" s="49" t="s">
-        <v>1578</v>
-      </c>
-      <c r="T206" s="49" t="s">
-        <v>1579</v>
       </c>
       <c r="U206" s="42" t="s">
         <v>1205</v>
       </c>
       <c r="V206" s="43"/>
       <c r="W206" s="63" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="X206" s="36"/>
     </row>
@@ -23374,22 +23374,22 @@
         <v>1222</v>
       </c>
       <c r="O207" s="36" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="P207" s="36" t="s">
         <v>1227</v>
       </c>
       <c r="Q207" s="36" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="R207" s="36" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="S207" s="56" t="s">
         <v>746</v>
       </c>
       <c r="T207" s="35" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="U207" s="56" t="s">
         <v>806</v>
@@ -23440,22 +23440,22 @@
         <v>856</v>
       </c>
       <c r="N208" s="36" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="O208" s="36" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="P208" s="36" t="s">
         <v>296</v>
       </c>
       <c r="Q208" s="36" t="s">
+        <v>1584</v>
+      </c>
+      <c r="R208" s="36" t="s">
+        <v>1586</v>
+      </c>
+      <c r="S208" s="56" t="s">
         <v>1588</v>
-      </c>
-      <c r="R208" s="36" t="s">
-        <v>1590</v>
-      </c>
-      <c r="S208" s="56" t="s">
-        <v>1592</v>
       </c>
       <c r="T208" s="35" t="s">
         <v>560</v>
@@ -23511,32 +23511,32 @@
         <v>856</v>
       </c>
       <c r="N209" s="36" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="O209" s="36" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="P209" s="36" t="s">
         <v>296</v>
       </c>
       <c r="Q209" s="36" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="R209" s="36" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="S209" s="56" t="s">
         <v>746</v>
       </c>
       <c r="T209" s="35" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="U209" s="42" t="s">
         <v>1205</v>
       </c>
       <c r="V209" s="68"/>
       <c r="W209" s="67" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="X209" s="36"/>
     </row>
@@ -23580,22 +23580,22 @@
         <v>856</v>
       </c>
       <c r="N210" s="36" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="O210" s="36" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="P210" s="36" t="s">
         <v>296</v>
       </c>
       <c r="Q210" s="36" t="s">
+        <v>1584</v>
+      </c>
+      <c r="R210" s="36" t="s">
+        <v>1589</v>
+      </c>
+      <c r="S210" s="56" t="s">
         <v>1588</v>
-      </c>
-      <c r="R210" s="36" t="s">
-        <v>1593</v>
-      </c>
-      <c r="S210" s="56" t="s">
-        <v>1592</v>
       </c>
       <c r="T210" s="35" t="s">
         <v>560</v>
@@ -23651,25 +23651,25 @@
         <v>1263</v>
       </c>
       <c r="N211" s="36" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="O211" s="36" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="P211" s="36" t="s">
         <v>296</v>
       </c>
       <c r="Q211" s="36" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="R211" s="36" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="S211" s="56" t="s">
         <v>746</v>
       </c>
       <c r="T211" s="35" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="U211" s="56" t="s">
         <v>806</v>
@@ -23720,22 +23720,22 @@
         <v>1263</v>
       </c>
       <c r="N212" s="36" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="O212" s="36" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="P212" s="36" t="s">
         <v>296</v>
       </c>
       <c r="Q212" s="36" t="s">
+        <v>1584</v>
+      </c>
+      <c r="R212" s="36" t="s">
+        <v>1590</v>
+      </c>
+      <c r="S212" s="56" t="s">
         <v>1588</v>
-      </c>
-      <c r="R212" s="36" t="s">
-        <v>1594</v>
-      </c>
-      <c r="S212" s="56" t="s">
-        <v>1592</v>
       </c>
       <c r="T212" s="35" t="s">
         <v>560</v>
@@ -23803,7 +23803,7 @@
         <v>759</v>
       </c>
       <c r="R213" s="36" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="S213" s="69" t="s">
         <v>1</v>
@@ -23873,10 +23873,10 @@
         <v>853</v>
       </c>
       <c r="Q214" s="36" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="R214" s="36" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="S214" s="37" t="s">
         <v>12</v>
@@ -24146,7 +24146,7 @@
         <v>11</v>
       </c>
       <c r="R218" s="36" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="S218" s="37" t="s">
         <v>768</v>
@@ -24219,7 +24219,7 @@
         <v>67</v>
       </c>
       <c r="R219" s="36" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="S219" s="37" t="s">
         <v>1105</v>
@@ -24986,7 +24986,7 @@
         <v>78</v>
       </c>
       <c r="R230" s="36" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="S230" s="37" t="s">
         <v>12</v>
@@ -26681,7 +26681,7 @@
         <v>770</v>
       </c>
       <c r="O254" s="36" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="P254" s="36" t="s">
         <v>128</v>
@@ -27176,7 +27176,7 @@
         <v>770</v>
       </c>
       <c r="O261" s="36" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="P261" s="36" t="s">
         <v>858</v>
@@ -27530,10 +27530,10 @@
         <v>869</v>
       </c>
       <c r="N266" s="36" t="s">
-        <v>1530</v>
+        <v>1627</v>
       </c>
       <c r="O266" s="36" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="P266" s="36" t="s">
         <v>162</v>
@@ -27542,7 +27542,7 @@
         <v>161</v>
       </c>
       <c r="R266" s="36" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="S266" s="37" t="s">
         <v>160</v>
@@ -27615,7 +27615,7 @@
         <v>164</v>
       </c>
       <c r="R267" s="36" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="S267" s="37" t="s">
         <v>638</v>
@@ -27901,7 +27901,7 @@
         <v>168</v>
       </c>
       <c r="R271" s="36" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="S271" s="37" t="s">
         <v>166</v>
@@ -27974,7 +27974,7 @@
         <v>175</v>
       </c>
       <c r="R272" s="36" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="S272" s="37" t="s">
         <v>817</v>
@@ -28035,10 +28035,10 @@
         <v>869</v>
       </c>
       <c r="N273" s="36" t="s">
-        <v>1536</v>
+        <v>1628</v>
       </c>
       <c r="O273" s="36" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="P273" s="36" t="s">
         <v>860</v>
@@ -28047,7 +28047,7 @@
         <v>178</v>
       </c>
       <c r="R273" s="36" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="S273" s="37" t="s">
         <v>176</v>
@@ -28473,7 +28473,7 @@
         <v>181</v>
       </c>
       <c r="R279" s="36" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="S279" s="37" t="s">
         <v>179</v>
@@ -28765,7 +28765,7 @@
         <v>34</v>
       </c>
       <c r="R283" s="36" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="S283" s="37" t="s">
         <v>32</v>
@@ -29122,7 +29122,7 @@
         <v>172</v>
       </c>
       <c r="R288" s="36" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="S288" s="37" t="s">
         <v>170</v>
@@ -29195,7 +29195,7 @@
         <v>14</v>
       </c>
       <c r="R289" s="36" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="S289" s="55" t="s">
         <v>17</v>
@@ -29266,7 +29266,7 @@
         <v>899</v>
       </c>
       <c r="R290" s="36" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="S290" s="55" t="s">
         <v>901</v>
@@ -29335,7 +29335,7 @@
         <v>906</v>
       </c>
       <c r="R291" s="36" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="S291" s="55" t="s">
         <v>907</v>
@@ -29552,7 +29552,7 @@
         <v>916</v>
       </c>
       <c r="R294" s="36" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="S294" s="55" t="s">
         <v>917</v>
@@ -30718,7 +30718,7 @@
         <v>957</v>
       </c>
       <c r="O311" s="36" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="P311" s="36" t="s">
         <v>957</v>
@@ -30785,7 +30785,7 @@
         <v>957</v>
       </c>
       <c r="O312" s="36" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="P312" s="36" t="s">
         <v>957</v>
@@ -31055,7 +31055,7 @@
         <v>966</v>
       </c>
       <c r="O316" s="36" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="P316" s="36" t="s">
         <v>968</v>
@@ -31064,7 +31064,7 @@
         <v>969</v>
       </c>
       <c r="R316" s="36" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="S316" s="55" t="s">
         <v>970</v>
@@ -31209,13 +31209,13 @@
         <v>1000</v>
       </c>
       <c r="S318" s="55" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="T318" s="55" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="U318" s="55" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="V318" s="55" t="s">
         <v>1144</v>
@@ -31224,7 +31224,7 @@
         <v>1146</v>
       </c>
       <c r="X318" s="36" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="319" spans="1:24" ht="27" x14ac:dyDescent="0.15">
@@ -31282,7 +31282,7 @@
         <v>1000</v>
       </c>
       <c r="S319" s="55" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="T319" s="55" t="s">
         <v>976</v>
@@ -31297,7 +31297,7 @@
         <v>1147</v>
       </c>
       <c r="X319" s="36" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="320" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -31361,7 +31361,7 @@
         <v>979</v>
       </c>
       <c r="U320" s="55" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="V320" s="55" t="s">
         <v>1144</v>
@@ -32264,7 +32264,7 @@
         <v>987</v>
       </c>
       <c r="U333" s="55" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="V333" s="55" t="s">
         <v>1144</v>
@@ -32471,17 +32471,17 @@
         <v>1000</v>
       </c>
       <c r="S336" s="49" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="T336" s="49" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="U336" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V336" s="42"/>
       <c r="W336" s="42" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="X336" s="36"/>
     </row>
@@ -32610,7 +32610,7 @@
         <v>1004</v>
       </c>
       <c r="R338" s="36" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="S338" s="55" t="s">
         <v>1005</v>
@@ -33856,7 +33856,7 @@
         <v>1009</v>
       </c>
       <c r="R356" s="36" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="S356" s="55" t="s">
         <v>1011</v>
@@ -33920,7 +33920,7 @@
         <v>1020</v>
       </c>
       <c r="O357" s="36" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="P357" s="36" t="s">
         <v>1019</v>
@@ -33929,7 +33929,7 @@
         <v>1023</v>
       </c>
       <c r="R357" s="36" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="S357" s="55" t="s">
         <v>1017</v>
@@ -34071,7 +34071,7 @@
         <v>154</v>
       </c>
       <c r="R359" s="36" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="S359" s="55" t="s">
         <v>40</v>
@@ -34427,7 +34427,7 @@
         <v>1087</v>
       </c>
       <c r="S364" s="55" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="T364" s="76" t="s">
         <v>1087</v>
@@ -35847,7 +35847,7 @@
         <v>1087</v>
       </c>
       <c r="S384" s="55" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="T384" s="76" t="s">
         <v>1087</v>
@@ -36132,7 +36132,7 @@
         <v>1111</v>
       </c>
       <c r="V388" s="42" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="W388" s="42" t="s">
         <v>1314</v>
@@ -36543,7 +36543,7 @@
       </c>
       <c r="R394" s="36"/>
       <c r="S394" s="37" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="T394" s="38" t="s">
         <v>620</v>
@@ -36618,7 +36618,7 @@
         <v>622</v>
       </c>
       <c r="U395" s="37" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="V395" s="38" t="s">
         <v>1404</v>
@@ -36823,7 +36823,7 @@
         <v>1365</v>
       </c>
       <c r="S398" s="84" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="T398" s="84" t="s">
         <v>1366</v>
@@ -36953,29 +36953,29 @@
         <v>1361</v>
       </c>
       <c r="O400" s="36" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P400" s="36" t="s">
         <v>1562</v>
       </c>
-      <c r="P400" s="36" t="s">
-        <v>1565</v>
-      </c>
       <c r="Q400" s="36" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="R400" s="36" t="s">
         <v>1365</v>
       </c>
       <c r="S400" s="83" t="s">
+        <v>1560</v>
+      </c>
+      <c r="T400" s="83" t="s">
         <v>1563</v>
-      </c>
-      <c r="T400" s="83" t="s">
-        <v>1566</v>
       </c>
       <c r="U400" s="88" t="s">
         <v>1205</v>
       </c>
       <c r="V400" s="88"/>
       <c r="W400" s="89" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="X400" s="36"/>
     </row>
@@ -37036,7 +37036,7 @@
         <v>856</v>
       </c>
       <c r="S401" s="84" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="T401" s="84" t="s">
         <v>1435</v>
@@ -37107,7 +37107,7 @@
         <v>856</v>
       </c>
       <c r="S402" s="84" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="T402" s="84" t="s">
         <v>1444</v>
@@ -37178,7 +37178,7 @@
         <v>856</v>
       </c>
       <c r="S403" s="84" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="T403" s="84" t="s">
         <v>1436</v>
@@ -37245,7 +37245,7 @@
         <v>856</v>
       </c>
       <c r="S404" s="84" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="T404" s="84" t="s">
         <v>1437</v>

--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8982E4-0E6F-4195-B748-123B85E8BE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA48C2-7C45-4AAA-BD2D-493F705EAD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="675" windowWidth="34110" windowHeight="19095" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="34110" windowHeight="19095" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8443" uniqueCount="1629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="1630">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -6792,6 +6792,10 @@
   </si>
   <si>
     <t>プロセス停止機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threadContextHandler</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6874,7 +6878,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6921,12 +6925,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -7130,7 +7128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7323,9 +7321,6 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7417,7 +7412,67 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -8691,10 +8746,10 @@
   <dimension ref="A1:X404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="15" ySplit="2" topLeftCell="S178" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="T187" sqref="T187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -8724,19 +8779,19 @@
       <c r="B1" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="90" t="s">
         <v>767</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="4" t="s">
         <v>762</v>
       </c>
@@ -10495,7 +10550,7 @@
         <v>801</v>
       </c>
       <c r="O26" s="36" t="s">
-        <v>754</v>
+        <v>1629</v>
       </c>
       <c r="P26" s="36" t="s">
         <v>855</v>
@@ -21717,7 +21772,7 @@
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
-      <c r="B184" s="64"/>
+      <c r="B184" s="48"/>
       <c r="C184" s="35" t="s">
         <v>869</v>
       </c>
@@ -21784,7 +21839,7 @@
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
-      <c r="B185" s="64"/>
+      <c r="B185" s="79"/>
       <c r="C185" s="35" t="s">
         <v>869</v>
       </c>
@@ -21855,7 +21910,7 @@
         <f t="shared" si="3"/>
         <v>184</v>
       </c>
-      <c r="B186" s="64"/>
+      <c r="B186" s="79"/>
       <c r="C186" s="35" t="s">
         <v>869</v>
       </c>
@@ -21916,7 +21971,7 @@
       <c r="V186" s="38" t="s">
         <v>1404</v>
       </c>
-      <c r="W186" s="65" t="s">
+      <c r="W186" s="64" t="s">
         <v>1226</v>
       </c>
       <c r="X186" s="36"/>
@@ -23125,7 +23180,7 @@
       <c r="C204" s="35" t="s">
         <v>856</v>
       </c>
-      <c r="D204" s="66" t="s">
+      <c r="D204" s="65" t="s">
         <v>869</v>
       </c>
       <c r="E204" s="35" t="s">
@@ -23143,7 +23198,7 @@
       <c r="I204" s="35" t="s">
         <v>856</v>
       </c>
-      <c r="J204" s="66" t="s">
+      <c r="J204" s="65" t="s">
         <v>869</v>
       </c>
       <c r="K204" s="35" t="s">
@@ -23194,11 +23249,11 @@
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="B205" s="48"/>
+      <c r="B205" s="79"/>
       <c r="C205" s="35" t="s">
         <v>856</v>
       </c>
-      <c r="D205" s="66" t="s">
+      <c r="D205" s="65" t="s">
         <v>869</v>
       </c>
       <c r="E205" s="35" t="s">
@@ -23216,7 +23271,7 @@
       <c r="I205" s="35" t="s">
         <v>856</v>
       </c>
-      <c r="J205" s="66" t="s">
+      <c r="J205" s="65" t="s">
         <v>869</v>
       </c>
       <c r="K205" s="35" t="s">
@@ -23394,7 +23449,7 @@
       <c r="U207" s="56" t="s">
         <v>806</v>
       </c>
-      <c r="V207" s="66" t="s">
+      <c r="V207" s="65" t="s">
         <v>1400</v>
       </c>
       <c r="W207" s="45"/>
@@ -23405,7 +23460,7 @@
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="B208" s="50"/>
+      <c r="B208" s="79"/>
       <c r="C208" s="49" t="s">
         <v>856</v>
       </c>
@@ -23464,7 +23519,7 @@
         <v>1205</v>
       </c>
       <c r="V208" s="43"/>
-      <c r="W208" s="67" t="s">
+      <c r="W208" s="66" t="s">
         <v>898</v>
       </c>
       <c r="X208" s="36"/>
@@ -23474,9 +23529,7 @@
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="B209" s="47" t="s">
-        <v>1173</v>
-      </c>
+      <c r="B209" s="48"/>
       <c r="C209" s="35" t="s">
         <v>856</v>
       </c>
@@ -23534,8 +23587,8 @@
       <c r="U209" s="42" t="s">
         <v>1205</v>
       </c>
-      <c r="V209" s="68"/>
-      <c r="W209" s="67" t="s">
+      <c r="V209" s="67"/>
+      <c r="W209" s="66" t="s">
         <v>1591</v>
       </c>
       <c r="X209" s="36"/>
@@ -23545,7 +23598,7 @@
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-      <c r="B210" s="50"/>
+      <c r="B210" s="79"/>
       <c r="C210" s="49" t="s">
         <v>856</v>
       </c>
@@ -23604,7 +23657,7 @@
         <v>1205</v>
       </c>
       <c r="V210" s="43"/>
-      <c r="W210" s="67" t="s">
+      <c r="W210" s="66" t="s">
         <v>898</v>
       </c>
       <c r="X210" s="36"/>
@@ -23614,9 +23667,7 @@
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="B211" s="47" t="s">
-        <v>1173</v>
-      </c>
+      <c r="B211" s="79"/>
       <c r="C211" s="35" t="s">
         <v>856</v>
       </c>
@@ -23674,7 +23725,7 @@
       <c r="U211" s="56" t="s">
         <v>806</v>
       </c>
-      <c r="V211" s="66" t="s">
+      <c r="V211" s="65" t="s">
         <v>1400</v>
       </c>
       <c r="W211" s="45"/>
@@ -23744,7 +23795,7 @@
         <v>1205</v>
       </c>
       <c r="V212" s="43"/>
-      <c r="W212" s="67" t="s">
+      <c r="W212" s="66" t="s">
         <v>898</v>
       </c>
       <c r="X212" s="36"/>
@@ -23757,37 +23808,37 @@
       <c r="B213" s="46" t="s">
         <v>1173</v>
       </c>
-      <c r="C213" s="66" t="s">
-        <v>856</v>
-      </c>
-      <c r="D213" s="66" t="s">
-        <v>856</v>
-      </c>
-      <c r="E213" s="66" t="s">
+      <c r="C213" s="65" t="s">
+        <v>856</v>
+      </c>
+      <c r="D213" s="65" t="s">
+        <v>856</v>
+      </c>
+      <c r="E213" s="65" t="s">
         <v>1263</v>
       </c>
-      <c r="F213" s="66" t="s">
-        <v>869</v>
-      </c>
-      <c r="G213" s="66" t="s">
-        <v>869</v>
-      </c>
-      <c r="H213" s="66" t="s">
-        <v>856</v>
-      </c>
-      <c r="I213" s="66" t="s">
-        <v>856</v>
-      </c>
-      <c r="J213" s="66" t="s">
-        <v>856</v>
-      </c>
-      <c r="K213" s="66" t="s">
-        <v>869</v>
-      </c>
-      <c r="L213" s="66" t="s">
-        <v>869</v>
-      </c>
-      <c r="M213" s="66" t="s">
+      <c r="F213" s="65" t="s">
+        <v>869</v>
+      </c>
+      <c r="G213" s="65" t="s">
+        <v>869</v>
+      </c>
+      <c r="H213" s="65" t="s">
+        <v>856</v>
+      </c>
+      <c r="I213" s="65" t="s">
+        <v>856</v>
+      </c>
+      <c r="J213" s="65" t="s">
+        <v>856</v>
+      </c>
+      <c r="K213" s="65" t="s">
+        <v>869</v>
+      </c>
+      <c r="L213" s="65" t="s">
+        <v>869</v>
+      </c>
+      <c r="M213" s="65" t="s">
         <v>869</v>
       </c>
       <c r="N213" s="36" t="s">
@@ -23805,19 +23856,19 @@
       <c r="R213" s="36" t="s">
         <v>1520</v>
       </c>
-      <c r="S213" s="69" t="s">
+      <c r="S213" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="T213" s="69" t="s">
+      <c r="T213" s="68" t="s">
         <v>556</v>
       </c>
-      <c r="U213" s="69" t="s">
+      <c r="U213" s="68" t="s">
         <v>1104</v>
       </c>
-      <c r="V213" s="69" t="s">
+      <c r="V213" s="68" t="s">
         <v>1400</v>
       </c>
-      <c r="W213" s="70" t="s">
+      <c r="W213" s="69" t="s">
         <v>680</v>
       </c>
       <c r="X213" s="36"/>
@@ -23887,7 +23938,7 @@
       <c r="U214" s="37" t="s">
         <v>1191</v>
       </c>
-      <c r="V214" s="71"/>
+      <c r="V214" s="70"/>
       <c r="W214" s="52"/>
       <c r="X214" s="36"/>
     </row>
@@ -24021,7 +24072,7 @@
       <c r="U216" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="V216" s="71"/>
+      <c r="V216" s="70"/>
       <c r="W216" s="52"/>
       <c r="X216" s="36"/>
     </row>
@@ -24088,7 +24139,7 @@
       <c r="U217" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="V217" s="71"/>
+      <c r="V217" s="70"/>
       <c r="W217" s="52"/>
       <c r="X217" s="36"/>
     </row>
@@ -24157,7 +24208,7 @@
       <c r="U218" s="37" t="s">
         <v>1193</v>
       </c>
-      <c r="V218" s="69" t="s">
+      <c r="V218" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W218" s="39" t="s">
@@ -24230,7 +24281,7 @@
       <c r="U219" s="37" t="s">
         <v>1194</v>
       </c>
-      <c r="V219" s="69" t="s">
+      <c r="V219" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W219" s="39" t="s">
@@ -24715,7 +24766,7 @@
       <c r="U226" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="V226" s="69" t="s">
+      <c r="V226" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W226" s="45" t="s">
@@ -24786,7 +24837,7 @@
       <c r="U227" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="V227" s="69" t="s">
+      <c r="V227" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W227" s="39" t="s">
@@ -24857,7 +24908,7 @@
       <c r="U228" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="V228" s="69" t="s">
+      <c r="V228" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W228" s="39" t="s">
@@ -27128,7 +27179,7 @@
         <v>1111</v>
       </c>
       <c r="V260" s="43"/>
-      <c r="W260" s="67" t="s">
+      <c r="W260" s="66" t="s">
         <v>1262</v>
       </c>
       <c r="X260" s="36"/>
@@ -27553,7 +27604,7 @@
       <c r="U266" s="37" t="s">
         <v>1107</v>
       </c>
-      <c r="V266" s="69" t="s">
+      <c r="V266" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W266" s="39" t="s">
@@ -27912,7 +27963,7 @@
       <c r="U271" s="37" t="s">
         <v>1198</v>
       </c>
-      <c r="V271" s="69" t="s">
+      <c r="V271" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W271" s="39" t="s">
@@ -27985,7 +28036,7 @@
       <c r="U272" s="37" t="s">
         <v>1108</v>
       </c>
-      <c r="V272" s="69" t="s">
+      <c r="V272" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W272" s="39" t="s">
@@ -28058,7 +28109,7 @@
       <c r="U273" s="37" t="s">
         <v>1109</v>
       </c>
-      <c r="V273" s="69" t="s">
+      <c r="V273" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W273" s="39" t="s">
@@ -28484,7 +28535,7 @@
       <c r="U279" s="37" t="s">
         <v>1200</v>
       </c>
-      <c r="V279" s="69" t="s">
+      <c r="V279" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W279" s="39" t="s">
@@ -28557,7 +28608,7 @@
       <c r="U280" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="V280" s="69" t="s">
+      <c r="V280" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W280" s="39" t="s">
@@ -28630,7 +28681,7 @@
       <c r="U281" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="V281" s="69" t="s">
+      <c r="V281" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W281" s="39" t="s">
@@ -28703,7 +28754,7 @@
       <c r="U282" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="V282" s="69" t="s">
+      <c r="V282" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W282" s="39" t="s">
@@ -28989,7 +29040,7 @@
       <c r="U286" s="37" t="s">
         <v>1110</v>
       </c>
-      <c r="V286" s="69" t="s">
+      <c r="V286" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W286" s="39" t="s">
@@ -29060,7 +29111,7 @@
       <c r="U287" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="V287" s="69" t="s">
+      <c r="V287" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W287" s="39" t="s">
@@ -29133,7 +29184,7 @@
       <c r="U288" s="37" t="s">
         <v>1203</v>
       </c>
-      <c r="V288" s="69" t="s">
+      <c r="V288" s="68" t="s">
         <v>1400</v>
       </c>
       <c r="W288" s="39" t="s">
@@ -29207,7 +29258,7 @@
         <v>1111</v>
       </c>
       <c r="V289" s="42"/>
-      <c r="W289" s="72" t="s">
+      <c r="W289" s="71" t="s">
         <v>898</v>
       </c>
       <c r="X289" s="36"/>
@@ -29278,7 +29329,7 @@
         <v>1217</v>
       </c>
       <c r="V290" s="51"/>
-      <c r="W290" s="73"/>
+      <c r="W290" s="72"/>
       <c r="X290" s="36" t="s">
         <v>918</v>
       </c>
@@ -29349,7 +29400,7 @@
       <c r="V291" s="55" t="s">
         <v>1143</v>
       </c>
-      <c r="W291" s="74" t="s">
+      <c r="W291" s="73" t="s">
         <v>1138</v>
       </c>
       <c r="X291" s="36"/>
@@ -29420,7 +29471,7 @@
       <c r="V292" s="55" t="s">
         <v>1142</v>
       </c>
-      <c r="W292" s="74" t="s">
+      <c r="W292" s="73" t="s">
         <v>1140</v>
       </c>
       <c r="X292" s="36" t="s">
@@ -29493,7 +29544,7 @@
       <c r="V293" s="55" t="s">
         <v>1142</v>
       </c>
-      <c r="W293" s="74" t="s">
+      <c r="W293" s="73" t="s">
         <v>1139</v>
       </c>
       <c r="X293" s="36"/>
@@ -30739,7 +30790,7 @@
         <v>1219</v>
       </c>
       <c r="V311" s="51"/>
-      <c r="W311" s="73"/>
+      <c r="W311" s="72"/>
       <c r="X311" s="36"/>
     </row>
     <row r="312" spans="1:24" ht="27" x14ac:dyDescent="0.15">
@@ -30806,7 +30857,7 @@
         <v>1218</v>
       </c>
       <c r="V312" s="51"/>
-      <c r="W312" s="73"/>
+      <c r="W312" s="72"/>
       <c r="X312" s="36"/>
     </row>
     <row r="313" spans="1:24" ht="27" x14ac:dyDescent="0.15">
@@ -30873,7 +30924,7 @@
         <v>343</v>
       </c>
       <c r="V313" s="51"/>
-      <c r="W313" s="73"/>
+      <c r="W313" s="72"/>
       <c r="X313" s="36"/>
     </row>
     <row r="314" spans="1:24" ht="27" x14ac:dyDescent="0.15">
@@ -30940,7 +30991,7 @@
         <v>1218</v>
       </c>
       <c r="V314" s="51"/>
-      <c r="W314" s="73"/>
+      <c r="W314" s="72"/>
       <c r="X314" s="36"/>
     </row>
     <row r="315" spans="1:24" ht="27" x14ac:dyDescent="0.15">
@@ -31007,7 +31058,7 @@
         <v>338</v>
       </c>
       <c r="V315" s="51"/>
-      <c r="W315" s="73"/>
+      <c r="W315" s="72"/>
       <c r="X315" s="36"/>
     </row>
     <row r="316" spans="1:24" ht="27" x14ac:dyDescent="0.15">
@@ -31078,7 +31129,7 @@
       <c r="V316" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="W316" s="74" t="s">
+      <c r="W316" s="73" t="s">
         <v>1141</v>
       </c>
       <c r="X316" s="36"/>
@@ -31149,7 +31200,7 @@
       <c r="V317" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="W317" s="74" t="s">
+      <c r="W317" s="73" t="s">
         <v>1145</v>
       </c>
       <c r="X317" s="36"/>
@@ -31220,7 +31271,7 @@
       <c r="V318" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="W318" s="74" t="s">
+      <c r="W318" s="73" t="s">
         <v>1146</v>
       </c>
       <c r="X318" s="36" t="s">
@@ -31293,7 +31344,7 @@
       <c r="V319" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="W319" s="74" t="s">
+      <c r="W319" s="73" t="s">
         <v>1147</v>
       </c>
       <c r="X319" s="36" t="s">
@@ -31366,7 +31417,7 @@
       <c r="V320" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="W320" s="74" t="s">
+      <c r="W320" s="73" t="s">
         <v>1148</v>
       </c>
       <c r="X320" s="36"/>
@@ -32127,7 +32178,7 @@
       <c r="V331" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="W331" s="75" t="s">
+      <c r="W331" s="74" t="s">
         <v>656</v>
       </c>
       <c r="X331" s="36"/>
@@ -32189,7 +32240,7 @@
       <c r="S332" s="55" t="s">
         <v>983</v>
       </c>
-      <c r="T332" s="76" t="s">
+      <c r="T332" s="75" t="s">
         <v>984</v>
       </c>
       <c r="U332" s="55" t="s">
@@ -32198,7 +32249,7 @@
       <c r="V332" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="W332" s="74" t="s">
+      <c r="W332" s="73" t="s">
         <v>1149</v>
       </c>
       <c r="X332" s="36"/>
@@ -32260,7 +32311,7 @@
       <c r="S333" s="55" t="s">
         <v>986</v>
       </c>
-      <c r="T333" s="76" t="s">
+      <c r="T333" s="75" t="s">
         <v>987</v>
       </c>
       <c r="U333" s="55" t="s">
@@ -32269,7 +32320,7 @@
       <c r="V333" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="W333" s="75" t="s">
+      <c r="W333" s="74" t="s">
         <v>656</v>
       </c>
       <c r="X333" s="36"/>
@@ -32331,7 +32382,7 @@
       <c r="S334" s="55" t="s">
         <v>988</v>
       </c>
-      <c r="T334" s="76" t="s">
+      <c r="T334" s="75" t="s">
         <v>989</v>
       </c>
       <c r="U334" s="55" t="s">
@@ -32340,7 +32391,7 @@
       <c r="V334" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="W334" s="74" t="s">
+      <c r="W334" s="73" t="s">
         <v>1150</v>
       </c>
       <c r="X334" s="36"/>
@@ -32402,7 +32453,7 @@
       <c r="S335" s="55" t="s">
         <v>991</v>
       </c>
-      <c r="T335" s="76" t="s">
+      <c r="T335" s="75" t="s">
         <v>990</v>
       </c>
       <c r="U335" s="55" t="s">
@@ -32411,7 +32462,7 @@
       <c r="V335" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="W335" s="75" t="s">
+      <c r="W335" s="74" t="s">
         <v>654</v>
       </c>
       <c r="X335" s="36"/>
@@ -32542,7 +32593,7 @@
       <c r="S337" s="55" t="s">
         <v>994</v>
       </c>
-      <c r="T337" s="76" t="s">
+      <c r="T337" s="75" t="s">
         <v>995</v>
       </c>
       <c r="U337" s="55" t="s">
@@ -32551,7 +32602,7 @@
       <c r="V337" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="W337" s="74" t="s">
+      <c r="W337" s="73" t="s">
         <v>1151</v>
       </c>
       <c r="X337" s="36"/>
@@ -32615,7 +32666,7 @@
       <c r="S338" s="55" t="s">
         <v>1005</v>
       </c>
-      <c r="T338" s="76" t="s">
+      <c r="T338" s="75" t="s">
         <v>1007</v>
       </c>
       <c r="U338" s="55" t="s">
@@ -32624,7 +32675,7 @@
       <c r="V338" s="55" t="s">
         <v>1152</v>
       </c>
-      <c r="W338" s="74" t="s">
+      <c r="W338" s="73" t="s">
         <v>1153</v>
       </c>
       <c r="X338" s="36"/>
@@ -32686,14 +32737,14 @@
       <c r="S339" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T339" s="76" t="s">
+      <c r="T339" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U339" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V339" s="42"/>
-      <c r="W339" s="77" t="s">
+      <c r="W339" s="76" t="s">
         <v>541</v>
       </c>
       <c r="X339" s="36"/>
@@ -32755,14 +32806,14 @@
       <c r="S340" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T340" s="76" t="s">
+      <c r="T340" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U340" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V340" s="42"/>
-      <c r="W340" s="77" t="s">
+      <c r="W340" s="76" t="s">
         <v>552</v>
       </c>
       <c r="X340" s="36"/>
@@ -32824,14 +32875,14 @@
       <c r="S341" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T341" s="76" t="s">
+      <c r="T341" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U341" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V341" s="42"/>
-      <c r="W341" s="77" t="s">
+      <c r="W341" s="76" t="s">
         <v>539</v>
       </c>
       <c r="X341" s="36"/>
@@ -32893,14 +32944,14 @@
       <c r="S342" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T342" s="76" t="s">
+      <c r="T342" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U342" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V342" s="42"/>
-      <c r="W342" s="77" t="s">
+      <c r="W342" s="76" t="s">
         <v>551</v>
       </c>
       <c r="X342" s="36"/>
@@ -32962,14 +33013,14 @@
       <c r="S343" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T343" s="76" t="s">
+      <c r="T343" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U343" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V343" s="42"/>
-      <c r="W343" s="77" t="s">
+      <c r="W343" s="76" t="s">
         <v>546</v>
       </c>
       <c r="X343" s="36"/>
@@ -33031,14 +33082,14 @@
       <c r="S344" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T344" s="76" t="s">
+      <c r="T344" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U344" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V344" s="42"/>
-      <c r="W344" s="77" t="s">
+      <c r="W344" s="76" t="s">
         <v>1031</v>
       </c>
       <c r="X344" s="36"/>
@@ -33100,14 +33151,14 @@
       <c r="S345" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T345" s="76" t="s">
+      <c r="T345" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U345" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V345" s="42"/>
-      <c r="W345" s="77" t="s">
+      <c r="W345" s="76" t="s">
         <v>536</v>
       </c>
       <c r="X345" s="36"/>
@@ -33169,14 +33220,14 @@
       <c r="S346" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T346" s="76" t="s">
+      <c r="T346" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U346" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V346" s="42"/>
-      <c r="W346" s="77" t="s">
+      <c r="W346" s="76" t="s">
         <v>509</v>
       </c>
       <c r="X346" s="36"/>
@@ -33238,14 +33289,14 @@
       <c r="S347" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T347" s="76" t="s">
+      <c r="T347" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U347" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V347" s="42"/>
-      <c r="W347" s="77" t="s">
+      <c r="W347" s="76" t="s">
         <v>490</v>
       </c>
       <c r="X347" s="36"/>
@@ -33307,14 +33358,14 @@
       <c r="S348" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T348" s="76" t="s">
+      <c r="T348" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U348" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V348" s="42"/>
-      <c r="W348" s="77" t="s">
+      <c r="W348" s="76" t="s">
         <v>547</v>
       </c>
       <c r="X348" s="36"/>
@@ -33376,14 +33427,14 @@
       <c r="S349" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T349" s="76" t="s">
+      <c r="T349" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U349" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V349" s="42"/>
-      <c r="W349" s="77" t="s">
+      <c r="W349" s="76" t="s">
         <v>554</v>
       </c>
       <c r="X349" s="36"/>
@@ -33445,14 +33496,14 @@
       <c r="S350" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T350" s="76" t="s">
+      <c r="T350" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U350" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V350" s="42"/>
-      <c r="W350" s="77" t="s">
+      <c r="W350" s="76" t="s">
         <v>549</v>
       </c>
       <c r="X350" s="36"/>
@@ -33514,14 +33565,14 @@
       <c r="S351" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T351" s="76" t="s">
+      <c r="T351" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U351" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V351" s="42"/>
-      <c r="W351" s="77" t="s">
+      <c r="W351" s="76" t="s">
         <v>493</v>
       </c>
       <c r="X351" s="36"/>
@@ -33583,14 +33634,14 @@
       <c r="S352" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T352" s="76" t="s">
+      <c r="T352" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U352" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V352" s="42"/>
-      <c r="W352" s="77" t="s">
+      <c r="W352" s="76" t="s">
         <v>503</v>
       </c>
       <c r="X352" s="36"/>
@@ -33652,14 +33703,14 @@
       <c r="S353" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T353" s="76" t="s">
+      <c r="T353" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U353" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V353" s="42"/>
-      <c r="W353" s="77" t="s">
+      <c r="W353" s="76" t="s">
         <v>499</v>
       </c>
       <c r="X353" s="36"/>
@@ -33721,14 +33772,14 @@
       <c r="S354" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T354" s="76" t="s">
+      <c r="T354" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U354" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V354" s="42"/>
-      <c r="W354" s="77" t="s">
+      <c r="W354" s="76" t="s">
         <v>1032</v>
       </c>
       <c r="X354" s="36"/>
@@ -33790,14 +33841,14 @@
       <c r="S355" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="T355" s="76" t="s">
+      <c r="T355" s="75" t="s">
         <v>1045</v>
       </c>
       <c r="U355" s="42" t="s">
         <v>1111</v>
       </c>
       <c r="V355" s="42"/>
-      <c r="W355" s="77" t="s">
+      <c r="W355" s="76" t="s">
         <v>533</v>
       </c>
       <c r="X355" s="36"/>
@@ -33861,7 +33912,7 @@
       <c r="S356" s="55" t="s">
         <v>1011</v>
       </c>
-      <c r="T356" s="76" t="s">
+      <c r="T356" s="75" t="s">
         <v>1012</v>
       </c>
       <c r="U356" s="55" t="s">
@@ -33870,7 +33921,7 @@
       <c r="V356" s="55" t="s">
         <v>1154</v>
       </c>
-      <c r="W356" s="74" t="s">
+      <c r="W356" s="73" t="s">
         <v>1155</v>
       </c>
       <c r="X356" s="36"/>
@@ -33934,7 +33985,7 @@
       <c r="S357" s="55" t="s">
         <v>1017</v>
       </c>
-      <c r="T357" s="76" t="s">
+      <c r="T357" s="75" t="s">
         <v>1018</v>
       </c>
       <c r="U357" s="55" t="s">
@@ -34005,7 +34056,7 @@
       <c r="S358" s="55" t="s">
         <v>1017</v>
       </c>
-      <c r="T358" s="76" t="s">
+      <c r="T358" s="75" t="s">
         <v>1018</v>
       </c>
       <c r="U358" s="55" t="s">
@@ -34076,7 +34127,7 @@
       <c r="S359" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="T359" s="76" t="s">
+      <c r="T359" s="75" t="s">
         <v>1026</v>
       </c>
       <c r="U359" s="42" t="s">
@@ -34145,7 +34196,7 @@
       <c r="S360" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="T360" s="76" t="s">
+      <c r="T360" s="75" t="s">
         <v>1026</v>
       </c>
       <c r="U360" s="42" t="s">
@@ -34216,7 +34267,7 @@
       <c r="S361" s="42" t="s">
         <v>1321</v>
       </c>
-      <c r="T361" s="78" t="s">
+      <c r="T361" s="77" t="s">
         <v>1087</v>
       </c>
       <c r="U361" s="42" t="s">
@@ -34287,7 +34338,7 @@
       <c r="S362" s="42" t="s">
         <v>1322</v>
       </c>
-      <c r="T362" s="78" t="s">
+      <c r="T362" s="77" t="s">
         <v>1087</v>
       </c>
       <c r="U362" s="42" t="s">
@@ -34358,7 +34409,7 @@
       <c r="S363" s="55" t="s">
         <v>1267</v>
       </c>
-      <c r="T363" s="76" t="s">
+      <c r="T363" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U363" s="42" t="s">
@@ -34429,7 +34480,7 @@
       <c r="S364" s="55" t="s">
         <v>1554</v>
       </c>
-      <c r="T364" s="76" t="s">
+      <c r="T364" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U364" s="42" t="s">
@@ -34500,7 +34551,7 @@
       <c r="S365" s="55" t="s">
         <v>1271</v>
       </c>
-      <c r="T365" s="76" t="s">
+      <c r="T365" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U365" s="42" t="s">
@@ -34571,7 +34622,7 @@
       <c r="S366" s="55" t="s">
         <v>1273</v>
       </c>
-      <c r="T366" s="76" t="s">
+      <c r="T366" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U366" s="42" t="s">
@@ -34642,7 +34693,7 @@
       <c r="S367" s="55" t="s">
         <v>1275</v>
       </c>
-      <c r="T367" s="76" t="s">
+      <c r="T367" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U367" s="42" t="s">
@@ -34713,7 +34764,7 @@
       <c r="S368" s="55" t="s">
         <v>1277</v>
       </c>
-      <c r="T368" s="76" t="s">
+      <c r="T368" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U368" s="42" t="s">
@@ -34784,7 +34835,7 @@
       <c r="S369" s="55" t="s">
         <v>1279</v>
       </c>
-      <c r="T369" s="76" t="s">
+      <c r="T369" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U369" s="42" t="s">
@@ -34855,7 +34906,7 @@
       <c r="S370" s="55" t="s">
         <v>1281</v>
       </c>
-      <c r="T370" s="76" t="s">
+      <c r="T370" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U370" s="42" t="s">
@@ -34926,7 +34977,7 @@
       <c r="S371" s="55" t="s">
         <v>1283</v>
       </c>
-      <c r="T371" s="76" t="s">
+      <c r="T371" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U371" s="42" t="s">
@@ -34997,7 +35048,7 @@
       <c r="S372" s="55" t="s">
         <v>1284</v>
       </c>
-      <c r="T372" s="76" t="s">
+      <c r="T372" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U372" s="42" t="s">
@@ -35068,7 +35119,7 @@
       <c r="S373" s="55" t="s">
         <v>1285</v>
       </c>
-      <c r="T373" s="76" t="s">
+      <c r="T373" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U373" s="42" t="s">
@@ -35139,7 +35190,7 @@
       <c r="S374" s="55" t="s">
         <v>1287</v>
       </c>
-      <c r="T374" s="76" t="s">
+      <c r="T374" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U374" s="42" t="s">
@@ -35210,7 +35261,7 @@
       <c r="S375" s="55" t="s">
         <v>1289</v>
       </c>
-      <c r="T375" s="76" t="s">
+      <c r="T375" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U375" s="42" t="s">
@@ -35281,7 +35332,7 @@
       <c r="S376" s="55" t="s">
         <v>1291</v>
       </c>
-      <c r="T376" s="76" t="s">
+      <c r="T376" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U376" s="42" t="s">
@@ -35352,7 +35403,7 @@
       <c r="S377" s="55" t="s">
         <v>1293</v>
       </c>
-      <c r="T377" s="76" t="s">
+      <c r="T377" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U377" s="42" t="s">
@@ -35423,7 +35474,7 @@
       <c r="S378" s="55" t="s">
         <v>1294</v>
       </c>
-      <c r="T378" s="76" t="s">
+      <c r="T378" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U378" s="42" t="s">
@@ -35494,7 +35545,7 @@
       <c r="S379" s="55" t="s">
         <v>1295</v>
       </c>
-      <c r="T379" s="76" t="s">
+      <c r="T379" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U379" s="42" t="s">
@@ -35565,7 +35616,7 @@
       <c r="S380" s="55" t="s">
         <v>1296</v>
       </c>
-      <c r="T380" s="76" t="s">
+      <c r="T380" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U380" s="42" t="s">
@@ -35636,7 +35687,7 @@
       <c r="S381" s="55" t="s">
         <v>1298</v>
       </c>
-      <c r="T381" s="76" t="s">
+      <c r="T381" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U381" s="42" t="s">
@@ -35707,7 +35758,7 @@
       <c r="S382" s="55" t="s">
         <v>1300</v>
       </c>
-      <c r="T382" s="76" t="s">
+      <c r="T382" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U382" s="42" t="s">
@@ -35778,7 +35829,7 @@
       <c r="S383" s="55" t="s">
         <v>1302</v>
       </c>
-      <c r="T383" s="76" t="s">
+      <c r="T383" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U383" s="42" t="s">
@@ -35849,7 +35900,7 @@
       <c r="S384" s="55" t="s">
         <v>1555</v>
       </c>
-      <c r="T384" s="76" t="s">
+      <c r="T384" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U384" s="42" t="s">
@@ -35920,7 +35971,7 @@
       <c r="S385" s="55" t="s">
         <v>1304</v>
       </c>
-      <c r="T385" s="76" t="s">
+      <c r="T385" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U385" s="42" t="s">
@@ -35991,7 +36042,7 @@
       <c r="S386" s="55" t="s">
         <v>1307</v>
       </c>
-      <c r="T386" s="76" t="s">
+      <c r="T386" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U386" s="42" t="s">
@@ -36062,7 +36113,7 @@
       <c r="S387" s="55" t="s">
         <v>1309</v>
       </c>
-      <c r="T387" s="76" t="s">
+      <c r="T387" s="75" t="s">
         <v>1087</v>
       </c>
       <c r="U387" s="42" t="s">
@@ -36144,7 +36195,7 @@
         <f t="shared" si="6"/>
         <v>387</v>
       </c>
-      <c r="B389" s="79" t="s">
+      <c r="B389" s="78" t="s">
         <v>763</v>
       </c>
       <c r="C389" s="49" t="s">
@@ -36207,7 +36258,7 @@
       <c r="V389" s="55" t="s">
         <v>1333</v>
       </c>
-      <c r="W389" s="74" t="s">
+      <c r="W389" s="73" t="s">
         <v>1334</v>
       </c>
       <c r="X389" s="36"/>
@@ -36217,7 +36268,7 @@
         <f t="shared" si="6"/>
         <v>388</v>
       </c>
-      <c r="B390" s="80"/>
+      <c r="B390" s="79"/>
       <c r="C390" s="49" t="s">
         <v>856</v>
       </c>
@@ -36276,7 +36327,7 @@
       <c r="V390" s="55" t="s">
         <v>1333</v>
       </c>
-      <c r="W390" s="74" t="s">
+      <c r="W390" s="73" t="s">
         <v>1339</v>
       </c>
       <c r="X390" s="36"/>
@@ -36286,7 +36337,7 @@
         <f t="shared" si="6"/>
         <v>389</v>
       </c>
-      <c r="B391" s="80"/>
+      <c r="B391" s="79"/>
       <c r="C391" s="49" t="s">
         <v>856</v>
       </c>
@@ -36345,7 +36396,7 @@
       <c r="V391" s="55" t="s">
         <v>1333</v>
       </c>
-      <c r="W391" s="74" t="s">
+      <c r="W391" s="73" t="s">
         <v>1345</v>
       </c>
       <c r="X391" s="36"/>
@@ -36355,7 +36406,7 @@
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
-      <c r="B392" s="80"/>
+      <c r="B392" s="79"/>
       <c r="C392" s="49" t="s">
         <v>856</v>
       </c>
@@ -36414,7 +36465,7 @@
       <c r="V392" s="55" t="s">
         <v>1333</v>
       </c>
-      <c r="W392" s="74" t="s">
+      <c r="W392" s="73" t="s">
         <v>1352</v>
       </c>
       <c r="X392" s="36"/>
@@ -36424,7 +36475,7 @@
         <f t="shared" si="6"/>
         <v>391</v>
       </c>
-      <c r="B393" s="80"/>
+      <c r="B393" s="79"/>
       <c r="C393" s="49" t="s">
         <v>856</v>
       </c>
@@ -36495,7 +36546,7 @@
         <f t="shared" si="6"/>
         <v>392</v>
       </c>
-      <c r="B394" s="80"/>
+      <c r="B394" s="79"/>
       <c r="C394" s="49" t="s">
         <v>856</v>
       </c>
@@ -36554,7 +36605,7 @@
       <c r="V394" s="38" t="s">
         <v>1404</v>
       </c>
-      <c r="W394" s="81" t="s">
+      <c r="W394" s="80" t="s">
         <v>676</v>
       </c>
       <c r="X394" s="36"/>
@@ -36564,7 +36615,7 @@
         <f t="shared" si="6"/>
         <v>393</v>
       </c>
-      <c r="B395" s="80"/>
+      <c r="B395" s="79"/>
       <c r="C395" s="49" t="s">
         <v>856</v>
       </c>
@@ -36623,7 +36674,7 @@
       <c r="V395" s="38" t="s">
         <v>1404</v>
       </c>
-      <c r="W395" s="81" t="s">
+      <c r="W395" s="80" t="s">
         <v>678</v>
       </c>
       <c r="X395" s="36"/>
@@ -36633,7 +36684,7 @@
         <f t="shared" si="6"/>
         <v>394</v>
       </c>
-      <c r="B396" s="80"/>
+      <c r="B396" s="79"/>
       <c r="C396" s="49" t="s">
         <v>856</v>
       </c>
@@ -36692,7 +36743,7 @@
       <c r="V396" s="38" t="s">
         <v>1404</v>
       </c>
-      <c r="W396" s="81" t="s">
+      <c r="W396" s="80" t="s">
         <v>392</v>
       </c>
       <c r="X396" s="36"/>
@@ -36761,7 +36812,7 @@
       <c r="V397" s="38" t="s">
         <v>1404</v>
       </c>
-      <c r="W397" s="81" t="s">
+      <c r="W397" s="80" t="s">
         <v>654</v>
       </c>
       <c r="X397" s="36"/>
@@ -36771,40 +36822,40 @@
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
-      <c r="B398" s="82" t="s">
+      <c r="B398" s="81" t="s">
         <v>1360</v>
       </c>
-      <c r="C398" s="83" t="s">
+      <c r="C398" s="82" t="s">
         <v>856</v>
       </c>
       <c r="D398" s="49" t="s">
         <v>1263</v>
       </c>
-      <c r="E398" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="F398" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="G398" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="H398" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="I398" s="83" t="s">
+      <c r="E398" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="F398" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="G398" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="H398" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="I398" s="82" t="s">
         <v>856</v>
       </c>
       <c r="J398" s="49" t="s">
         <v>1263</v>
       </c>
-      <c r="K398" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="L398" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="M398" s="83" t="s">
+      <c r="K398" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="L398" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="M398" s="82" t="s">
         <v>856</v>
       </c>
       <c r="N398" s="36" t="s">
@@ -36822,19 +36873,19 @@
       <c r="R398" s="36" t="s">
         <v>1365</v>
       </c>
-      <c r="S398" s="84" t="s">
+      <c r="S398" s="83" t="s">
         <v>1558</v>
       </c>
-      <c r="T398" s="84" t="s">
+      <c r="T398" s="83" t="s">
         <v>1366</v>
       </c>
-      <c r="U398" s="84" t="s">
+      <c r="U398" s="83" t="s">
         <v>971</v>
       </c>
-      <c r="V398" s="84" t="s">
+      <c r="V398" s="83" t="s">
         <v>1367</v>
       </c>
-      <c r="W398" s="85" t="s">
+      <c r="W398" s="84" t="s">
         <v>1141</v>
       </c>
       <c r="X398" s="36"/>
@@ -36844,38 +36895,38 @@
         <f t="shared" si="6"/>
         <v>397</v>
       </c>
-      <c r="B399" s="86"/>
-      <c r="C399" s="83" t="s">
+      <c r="B399" s="85"/>
+      <c r="C399" s="82" t="s">
         <v>856</v>
       </c>
       <c r="D399" s="49" t="s">
         <v>1263</v>
       </c>
-      <c r="E399" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="F399" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="G399" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="H399" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="I399" s="83" t="s">
+      <c r="E399" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="F399" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="G399" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="H399" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="I399" s="82" t="s">
         <v>856</v>
       </c>
       <c r="J399" s="49" t="s">
         <v>1263</v>
       </c>
-      <c r="K399" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="L399" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="M399" s="83" t="s">
+      <c r="K399" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="L399" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="M399" s="82" t="s">
         <v>856</v>
       </c>
       <c r="N399" s="36" t="s">
@@ -36893,19 +36944,19 @@
       <c r="R399" s="36" t="s">
         <v>1365</v>
       </c>
-      <c r="S399" s="84" t="s">
+      <c r="S399" s="83" t="s">
         <v>1368</v>
       </c>
-      <c r="T399" s="84" t="s">
+      <c r="T399" s="83" t="s">
         <v>1369</v>
       </c>
-      <c r="U399" s="84" t="s">
+      <c r="U399" s="83" t="s">
         <v>1370</v>
       </c>
-      <c r="V399" s="84" t="s">
+      <c r="V399" s="83" t="s">
         <v>1367</v>
       </c>
-      <c r="W399" s="85" t="s">
+      <c r="W399" s="84" t="s">
         <v>1371</v>
       </c>
       <c r="X399" s="36"/>
@@ -36915,38 +36966,38 @@
         <f t="shared" si="6"/>
         <v>398</v>
       </c>
-      <c r="B400" s="87"/>
-      <c r="C400" s="83" t="s">
+      <c r="B400" s="86"/>
+      <c r="C400" s="82" t="s">
         <v>856</v>
       </c>
       <c r="D400" s="49" t="s">
         <v>1263</v>
       </c>
-      <c r="E400" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="F400" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="G400" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="H400" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="I400" s="83" t="s">
+      <c r="E400" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="F400" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="G400" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="H400" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="I400" s="82" t="s">
         <v>856</v>
       </c>
       <c r="J400" s="49" t="s">
         <v>1263</v>
       </c>
-      <c r="K400" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="L400" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="M400" s="83" t="s">
+      <c r="K400" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="L400" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="M400" s="82" t="s">
         <v>856</v>
       </c>
       <c r="N400" s="36" t="s">
@@ -36964,17 +37015,17 @@
       <c r="R400" s="36" t="s">
         <v>1365</v>
       </c>
-      <c r="S400" s="83" t="s">
+      <c r="S400" s="82" t="s">
         <v>1560</v>
       </c>
-      <c r="T400" s="83" t="s">
+      <c r="T400" s="82" t="s">
         <v>1563</v>
       </c>
-      <c r="U400" s="88" t="s">
+      <c r="U400" s="87" t="s">
         <v>1205</v>
       </c>
-      <c r="V400" s="88"/>
-      <c r="W400" s="89" t="s">
+      <c r="V400" s="87"/>
+      <c r="W400" s="88" t="s">
         <v>1564</v>
       </c>
       <c r="X400" s="36"/>
@@ -36984,40 +37035,40 @@
         <f t="shared" si="6"/>
         <v>399</v>
       </c>
-      <c r="B401" s="82" t="s">
+      <c r="B401" s="81" t="s">
         <v>1432</v>
       </c>
-      <c r="C401" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="D401" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="E401" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="F401" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="G401" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="H401" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="I401" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="J401" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="K401" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="L401" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="M401" s="83" t="s">
+      <c r="C401" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="D401" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="E401" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="F401" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="G401" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="H401" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="I401" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="J401" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="K401" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="L401" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="M401" s="82" t="s">
         <v>856</v>
       </c>
       <c r="N401" s="36" t="s">
@@ -37035,19 +37086,19 @@
       <c r="R401" s="36" t="s">
         <v>856</v>
       </c>
-      <c r="S401" s="84" t="s">
+      <c r="S401" s="83" t="s">
         <v>1565</v>
       </c>
-      <c r="T401" s="84" t="s">
+      <c r="T401" s="83" t="s">
         <v>1435</v>
       </c>
-      <c r="U401" s="88" t="s">
+      <c r="U401" s="87" t="s">
         <v>1205</v>
       </c>
-      <c r="V401" s="88" t="s">
+      <c r="V401" s="87" t="s">
         <v>1440</v>
       </c>
-      <c r="W401" s="89" t="s">
+      <c r="W401" s="88" t="s">
         <v>1441</v>
       </c>
       <c r="X401" s="36"/>
@@ -37057,38 +37108,38 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="B402" s="86"/>
-      <c r="C402" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="D402" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="E402" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="F402" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="G402" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="H402" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="I402" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="J402" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="K402" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="L402" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="M402" s="83" t="s">
+      <c r="B402" s="85"/>
+      <c r="C402" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="D402" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="E402" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="F402" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="G402" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="H402" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="I402" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="J402" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="K402" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="L402" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="M402" s="82" t="s">
         <v>856</v>
       </c>
       <c r="N402" s="36" t="s">
@@ -37106,19 +37157,19 @@
       <c r="R402" s="36" t="s">
         <v>856</v>
       </c>
-      <c r="S402" s="84" t="s">
+      <c r="S402" s="83" t="s">
         <v>1566</v>
       </c>
-      <c r="T402" s="84" t="s">
+      <c r="T402" s="83" t="s">
         <v>1444</v>
       </c>
-      <c r="U402" s="88" t="s">
+      <c r="U402" s="87" t="s">
         <v>1434</v>
       </c>
-      <c r="V402" s="88" t="s">
+      <c r="V402" s="87" t="s">
         <v>1440</v>
       </c>
-      <c r="W402" s="89" t="s">
+      <c r="W402" s="88" t="s">
         <v>1442</v>
       </c>
       <c r="X402" s="36"/>
@@ -37128,38 +37179,38 @@
         <f t="shared" si="6"/>
         <v>401</v>
       </c>
-      <c r="B403" s="86"/>
-      <c r="C403" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="D403" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="E403" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="F403" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="G403" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="H403" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="I403" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="J403" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="K403" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="L403" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="M403" s="83" t="s">
+      <c r="B403" s="85"/>
+      <c r="C403" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="D403" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="E403" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="F403" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="G403" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="H403" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="I403" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="J403" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="K403" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="L403" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="M403" s="82" t="s">
         <v>856</v>
       </c>
       <c r="N403" s="36" t="s">
@@ -37177,17 +37228,17 @@
       <c r="R403" s="36" t="s">
         <v>856</v>
       </c>
-      <c r="S403" s="84" t="s">
+      <c r="S403" s="83" t="s">
         <v>1567</v>
       </c>
-      <c r="T403" s="84" t="s">
+      <c r="T403" s="83" t="s">
         <v>1436</v>
       </c>
-      <c r="U403" s="88" t="s">
+      <c r="U403" s="87" t="s">
         <v>1434</v>
       </c>
-      <c r="V403" s="88"/>
-      <c r="W403" s="89"/>
+      <c r="V403" s="87"/>
+      <c r="W403" s="88"/>
       <c r="X403" s="36"/>
     </row>
     <row r="404" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -37195,38 +37246,38 @@
         <f t="shared" si="6"/>
         <v>402</v>
       </c>
-      <c r="B404" s="90"/>
-      <c r="C404" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="D404" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="E404" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="F404" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="G404" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="H404" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="I404" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="J404" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="K404" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="L404" s="83" t="s">
-        <v>856</v>
-      </c>
-      <c r="M404" s="83" t="s">
+      <c r="B404" s="89"/>
+      <c r="C404" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="D404" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="E404" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="F404" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="G404" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="H404" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="I404" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="J404" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="K404" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="L404" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="M404" s="82" t="s">
         <v>856</v>
       </c>
       <c r="N404" s="36" t="s">
@@ -37244,17 +37295,17 @@
       <c r="R404" s="36" t="s">
         <v>856</v>
       </c>
-      <c r="S404" s="84" t="s">
+      <c r="S404" s="83" t="s">
         <v>1568</v>
       </c>
-      <c r="T404" s="84" t="s">
+      <c r="T404" s="83" t="s">
         <v>1437</v>
       </c>
-      <c r="U404" s="88" t="s">
+      <c r="U404" s="87" t="s">
         <v>1434</v>
       </c>
-      <c r="V404" s="88"/>
-      <c r="W404" s="89"/>
+      <c r="V404" s="87"/>
+      <c r="W404" s="88"/>
       <c r="X404" s="36"/>
     </row>
   </sheetData>
@@ -37264,313 +37315,338 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N4 B4">
-    <cfRule type="cellIs" dxfId="61" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="814" operator="equal">
       <formula>$N3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="60" priority="808" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="813" operator="equal">
       <formula>O3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="cellIs" dxfId="59" priority="817" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="822" operator="equal">
       <formula>$N100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="58" priority="835" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="840" operator="equal">
       <formula>$N126</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B283">
-    <cfRule type="cellIs" dxfId="57" priority="853" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="858" operator="equal">
       <formula>$N32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="56" priority="891" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="896" operator="equal">
       <formula>$N265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3 B3">
-    <cfRule type="cellIs" dxfId="55" priority="933" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="938" operator="equal">
       <formula>$N218</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="54" priority="935" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="940" operator="equal">
       <formula>$O218</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="53" priority="936" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="941" operator="equal">
       <formula>$Q218</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="52" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="942" operator="equal">
       <formula>$R218</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B219">
-    <cfRule type="cellIs" dxfId="51" priority="996" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1001" operator="equal">
       <formula>$N75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266">
-    <cfRule type="cellIs" dxfId="50" priority="999" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1004" operator="equal">
       <formula>$N83</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="cellIs" dxfId="49" priority="1016" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1021" operator="equal">
       <formula>$N76</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288 B187">
-    <cfRule type="cellIs" dxfId="48" priority="1023" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1028" operator="equal">
       <formula>$N170</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="47" priority="1068" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1073" operator="equal">
       <formula>$N282</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172">
-    <cfRule type="cellIs" dxfId="46" priority="1116" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1121" operator="equal">
       <formula>$N149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="45" priority="1129" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1134" operator="equal">
       <formula>$N287</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B272">
-    <cfRule type="cellIs" dxfId="44" priority="1136" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1141" operator="equal">
       <formula>$N288</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B203:B205">
-    <cfRule type="cellIs" dxfId="43" priority="1161" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1166" operator="equal">
       <formula>$N195</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196">
-    <cfRule type="cellIs" dxfId="42" priority="1162" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1167" operator="equal">
       <formula>$N203</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="41" priority="1199" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1204" operator="equal">
       <formula>$P218</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200 B168 B109:B110 B241:B242 B261">
-    <cfRule type="cellIs" dxfId="40" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="779" operator="equal">
       <formula>$N107</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 B188">
-    <cfRule type="cellIs" dxfId="39" priority="769" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="774" operator="equal">
       <formula>$N10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="cellIs" dxfId="38" priority="754" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="759" operator="equal">
       <formula>$N94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="37" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="669" operator="equal">
       <formula>$N10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="cellIs" dxfId="36" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="595" operator="equal">
       <formula>$N6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="35" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="594" operator="equal">
       <formula>$N7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="34" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="593" operator="equal">
       <formula>$N8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="33" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="546" operator="equal">
       <formula>$N150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="32" priority="1293" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1298" operator="equal">
       <formula>$N3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166:B167">
-    <cfRule type="cellIs" dxfId="31" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="455" operator="equal">
       <formula>$N64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="cellIs" dxfId="30" priority="1322" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1327" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B150">
-    <cfRule type="cellIs" dxfId="29" priority="1324" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1329" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2 B2">
-    <cfRule type="cellIs" dxfId="28" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="362" operator="equal">
       <formula>$N300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="27" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="327" operator="equal">
       <formula>$N172</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="26" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="219" operator="equal">
       <formula>$N10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="25" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1459" operator="equal">
       <formula>$N88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="24" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="196" operator="equal">
       <formula>$N89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:B159">
-    <cfRule type="cellIs" dxfId="23" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="173" operator="equal">
       <formula>$N157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="22" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="167" operator="equal">
       <formula>$N158</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="21" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="162" operator="equal">
       <formula>$N158</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="20" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="175" operator="equal">
       <formula>$N158</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="19" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="154" operator="equal">
       <formula>$N155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="cellIs" dxfId="18" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="180" operator="equal">
       <formula>$N14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B165">
-    <cfRule type="cellIs" dxfId="17" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="182" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161">
-    <cfRule type="cellIs" dxfId="16" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="184" operator="equal">
       <formula>$N158</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155">
-    <cfRule type="cellIs" dxfId="15" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="87" operator="equal">
       <formula>$N154</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="14" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="85" operator="equal">
       <formula>$N18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="13" priority="1590" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1595" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B97">
-    <cfRule type="cellIs" dxfId="12" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="79" operator="equal">
       <formula>$N94</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B171">
-    <cfRule type="cellIs" dxfId="11" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="50" operator="equal">
       <formula>$N169</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206">
-    <cfRule type="cellIs" dxfId="10" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="38" operator="equal">
       <formula>$N205</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206">
-    <cfRule type="cellIs" dxfId="9" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="39" operator="equal">
       <formula>$N190</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207:B208">
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
       <formula>$N206</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B210">
-    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
       <formula>$N208</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B212">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
       <formula>$N210</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B197">
-    <cfRule type="cellIs" dxfId="5" priority="1611" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1616" operator="equal">
       <formula>$N196</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N16">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>$N4</formula>
+  <conditionalFormatting sqref="N12:N16">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>$N11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N404">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>$N16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>P3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:R404">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="O11:R404 P5:R10">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X404">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>X3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5 B5">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>$N4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6 N6">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>$N5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7 N9 N11">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$N6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8 N10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$N7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>X3</formula>
+      <formula>O4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA48C2-7C45-4AAA-BD2D-493F705EAD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A107C4EF-E32C-4469-91FE-8C032A37FC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="34110" windowHeight="19095" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8746,10 +8746,10 @@
   <dimension ref="A1:X404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="15" ySplit="2" topLeftCell="S178" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="15" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
-      <selection pane="bottomRight" activeCell="T187" sqref="T187"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>

--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69216B3E-FD61-4FE4-A067-0C47E8F59280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12083F5-982D-48CB-B2EA-7DF5A7663E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
@@ -8609,9 +8609,7 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8794,7 +8792,7 @@
   </sheetPr>
   <dimension ref="A1:Z405"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="17" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>

--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12083F5-982D-48CB-B2EA-7DF5A7663E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3C72DD-70FD-4644-9CF4-89FCE8DAA314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9270" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9270" uniqueCount="1632">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -5051,12 +5051,6 @@
     <t>画面遷移が不正です。</t>
   </si>
   <si>
-    <t>ウェブプロジェクト/main/resources/messages.properties
-RESTfulウェブサービスプロジェクト/main/resources/messages.properties
-Nablarchバッチプロジェクト/main/resources/messages.properties
-JSR352に準拠したバッチプロジェクト/main/resources/messages.properties</t>
-  </si>
-  <si>
     <t>入力してください。</t>
   </si>
   <si>
@@ -5199,13 +5193,6 @@
   </si>
   <si>
     <t>nablarch.integration.router.NablarchControllerDetector</t>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/main/resources/messages.properties
-RESTfulウェブサービスプロジェクト/main/resources/messages.properties
-Nablarchバッチプロジェクト/main/resources/messages.properties
-JSR352に準拠したバッチプロジェクト/main/resources/messages.properties</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1000</t>
@@ -5678,12 +5665,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JSR352に準拠したバッチプロジェクト/env.properties
-Nablarchバッチプロジェクト/env.properties
-コンテナ用Nablarchバッチプロジェクト/env.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Nablarchバッチプロジェクト/common.properties
 コンテナ用Nablarchバッチプロジェクト/common.properties</t>
     <phoneticPr fontId="1"/>
@@ -5718,56 +5699,6 @@
 RESTfulウェブサービスプロジェクト/common.properties
 コンテナ用ウェブプロジェクト/common.properties
 コンテナ用RESTfulウェブサービスプロジェクト/common.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/common.properties
-RESTfulウェブサービスプロジェクト/common.properties
-JSR352に準拠したバッチプロジェクト/common.properties
-Nablarchバッチプロジェクト/common.config
-コンテナ用ウェブプロジェクト/common.properties
-コンテナ用RESTfulウェブサービスプロジェクト/common.properties
-コンテナ用Nablarchバッチプロジェクト/common.config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/common.properties
-RESTfulウェブサービスプロジェクト/common.properties
-JSR352に準拠したバッチプロジェクト/common.properties
-Nablarchバッチプロジェクト/common.properties
-コンテナ用ウェブプロジェクト/common.properties
-コンテナ用RESTfulウェブサービスプロジェクト/common.properties
-コンテナ用Nablarchバッチプロジェクト/common.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/env.properties
-RESTfulウェブサービスプロジェクト/env.properties
-JSR352に準拠したバッチプロジェクト/env.properties
-Nablarchバッチプロジェクト/env.properties
-コンテナ用ウェブプロジェクト/env.properties
-コンテナ用RESTfulウェブサービスプロジェクト/env.properties
-コンテナ用Nablarchバッチプロジェクト/env.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/env/dev/resources/log.properties
-RESTfulウェブサービスプロジェクト/env/dev/resources/log.properties
-JSR352に準拠したバッチプロジェクト/main/resources/log.properties
-Nablarchバッチプロジェクト/env/dev/resources/log.properties
-コンテナ用ウェブプロジェクト/env/dev/resources/log.properties
-コンテナ用RESTfulウェブサービスプロジェクト/env/dev/resources/log.properties
-コンテナ用Nablarchバッチプロジェクト/env/dev/resources/log.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/main/resources/app-log.properties
-RESTfulウェブサービスプロジェクト/main/resources/app-log.properties
-JSR352に準拠したバッチプロジェクト/main/resources/app-log.properties
-Nablarchバッチプロジェクト/main/resources/app-log.properties
-コンテナ用ウェブプロジェクト/main/resources/app-log.properties
-コンテナ用RESTfulウェブサービスプロジェクト/main/resources/app-log.properties
-コンテナ用Nablarchバッチプロジェクト/main/resources/app-log.properties</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5801,19 +5732,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウェブプロジェクト/env.properties
-RESTfulウェブサービスプロジェクト/env.properties
-JSR352に準拠したバッチプロジェクト/common.properties
-Nablarchバッチプロジェクト/common.properties
-コンテナ用ウェブプロジェクト/env.properties
-コンテナ用RESTfulウェブサービスプロジェクト/env.properties
-コンテナ用Nablarchバッチプロジェクト/common.properties</t>
-    <rPh sb="140" eb="141">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>not_used</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5913,10 +5831,6 @@
   <si>
     <t>ETL機能を使用するための環境設定</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>JSR352に準拠したバッチプロジェクト/env.properties</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>testdata/input</t>
@@ -5971,19 +5885,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウェブプロジェクト/env.properties
-RESTfulウェブサービスプロジェクト/env.properties
-JSR352に準拠したバッチプロジェクト/env.properties
-Nablarchバッチプロジェクト/env.properties
-コンテナ用Nablarchバッチプロジェクト/env.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XXX\src\main\resources\data-source.xml(JSR352に準拠したバッチプロジェクト、Nablarchバッチプロジェクト、コンテナ用Nablarchバッチプロジェクト)
-XXX\src\env\dev\resources\db-for-webui_dev.xml(ウェブプロジェクト、RESTfulウェブサービスプロジェク)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>validationManager</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6467,27 +6368,6 @@
   </si>
   <si>
     <t>nablarch.etl.sqlLoaderOutputFileBasePath</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブプロジェクト/common.properties
-RESTfulウェブサービスプロジェクト/common.properties
-コンテナ用ウェブプロジェクト/common.properties
-コンテナ用RESTfulウェブサービスプロジェクト/common.properties
-JSR352に準拠したバッチプロジェクト/common.properties
-Nablarchバッチプロジェクト/common.properties
-コンテナ用Nablarchバッチプロジェクト/common.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">15
-（ウェブプロジェクト、RESTfulウェブサービス、コンテナ用ウェブプロジェクト、コンテナ用RESTfulウェブサービスプロジェクト）
-0
-（JSR352に準拠したバッチプロジェクト、Nablarchバッチプロジェクト、コンテナ用バッチプロジェクト）
-</t>
-    <rPh sb="117" eb="118">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6653,13 +6533,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10
-(JSR352に準拠したバッチプロジェクト、Nablarchバッチプロジェクト、コンテナ用Nablarchバッチプロジェクト)
-5
-(ウェブプロジェクト、RESTfulウェブサービスプロジェク)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>nablarch.customTagConfig.displayMethod</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6810,6 +6683,115 @@
   <si>
     <t>nablarch\test\test-data-interpreter.xml</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jakarta Batchに準拠したバッチプロジェクト/env.properties
+Nablarchバッチプロジェクト/env.properties
+コンテナ用Nablarchバッチプロジェクト/env.properties</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/env.properties
+RESTfulウェブサービスプロジェクト/env.properties
+Jakarta Batchに準拠したバッチプロジェクト/common.properties
+Nablarchバッチプロジェクト/common.properties
+コンテナ用ウェブプロジェクト/env.properties
+コンテナ用RESTfulウェブサービスプロジェクト/env.properties
+コンテナ用Nablarchバッチプロジェクト/common.properties</t>
+    <rPh sb="147" eb="148">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/common.properties
+RESTfulウェブサービスプロジェクト/common.properties
+Jakarta Batchに準拠したバッチプロジェクト/common.properties
+Nablarchバッチプロジェクト/common.properties
+コンテナ用ウェブプロジェクト/common.properties
+コンテナ用RESTfulウェブサービスプロジェクト/common.properties
+コンテナ用Nablarchバッチプロジェクト/common.properties</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/common.properties
+RESTfulウェブサービスプロジェクト/common.properties
+Jakarta Batchに準拠したバッチプロジェクト/common.properties
+Nablarchバッチプロジェクト/common.config
+コンテナ用ウェブプロジェクト/common.properties
+コンテナ用RESTfulウェブサービスプロジェクト/common.properties
+コンテナ用Nablarchバッチプロジェクト/common.config</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/common.properties
+RESTfulウェブサービスプロジェクト/common.properties
+コンテナ用ウェブプロジェクト/common.properties
+コンテナ用RESTfulウェブサービスプロジェクト/common.properties
+Jakarta Batchに準拠したバッチプロジェクト/common.properties
+Nablarchバッチプロジェクト/common.properties
+コンテナ用Nablarchバッチプロジェクト/common.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15
+（ウェブプロジェクト、RESTfulウェブサービス、コンテナ用ウェブプロジェクト、コンテナ用RESTfulウェブサービスプロジェクト）
+0
+（Jakarta Batchに準拠したバッチプロジェクト、Nablarchバッチプロジェクト、コンテナ用バッチプロジェクト）
+</t>
+    <rPh sb="124" eb="125">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXX\src\main\resources\data-source.xml(Jakarta Batchに準拠したバッチプロジェクト、Nablarchバッチプロジェクト、コンテナ用Nablarchバッチプロジェクト)
+XXX\src\env\dev\resources\db-for-webui_dev.xml(ウェブプロジェクト、RESTfulウェブサービスプロジェク)</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/env.properties
+RESTfulウェブサービスプロジェクト/env.properties
+Jakarta Batchに準拠したバッチプロジェクト/env.properties
+Nablarchバッチプロジェクト/env.properties
+コンテナ用Nablarchバッチプロジェクト/env.properties</t>
+  </si>
+  <si>
+    <t>10
+(Jakarta Batchに準拠したバッチプロジェクト、Nablarchバッチプロジェクト、コンテナ用Nablarchバッチプロジェクト)
+5
+(ウェブプロジェクト、RESTfulウェブサービスプロジェク)</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/env.properties
+RESTfulウェブサービスプロジェクト/env.properties
+Jakarta Batchに準拠したバッチプロジェクト/env.properties
+Nablarchバッチプロジェクト/env.properties
+コンテナ用ウェブプロジェクト/env.properties
+コンテナ用RESTfulウェブサービスプロジェクト/env.properties
+コンテナ用Nablarchバッチプロジェクト/env.properties</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/main/resources/app-log.properties
+RESTfulウェブサービスプロジェクト/main/resources/app-log.properties
+Jakarta Batchに準拠したバッチプロジェクト/main/resources/app-log.properties
+Nablarchバッチプロジェクト/main/resources/app-log.properties
+コンテナ用ウェブプロジェクト/main/resources/app-log.properties
+コンテナ用RESTfulウェブサービスプロジェクト/main/resources/app-log.properties
+コンテナ用Nablarchバッチプロジェクト/main/resources/app-log.properties</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/env/dev/resources/log.properties
+RESTfulウェブサービスプロジェクト/env/dev/resources/log.properties
+Jakarta Batchに準拠したバッチプロジェクト/main/resources/log.properties
+Nablarchバッチプロジェクト/env/dev/resources/log.properties
+コンテナ用ウェブプロジェクト/env/dev/resources/log.properties
+コンテナ用RESTfulウェブサービスプロジェクト/env/dev/resources/log.properties
+コンテナ用Nablarchバッチプロジェクト/env/dev/resources/log.properties</t>
+  </si>
+  <si>
+    <t>ウェブプロジェクト/main/resources/messages.properties
+RESTfulウェブサービスプロジェクト/main/resources/messages.properties
+Nablarchバッチプロジェクト/main/resources/messages.properties
+Jakarta Batchに準拠したバッチプロジェクト/main/resources/messages.properties</t>
+  </si>
+  <si>
+    <t>Jakarta Batchに準拠したバッチプロジェクト/env.properties</t>
   </si>
 </sst>
 </file>
@@ -8645,12 +8627,12 @@
         <v>1114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -8695,7 +8677,7 @@
         <v>1114</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -8703,7 +8685,7 @@
         <v>1114</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -8727,7 +8709,7 @@
         <v>1114</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.15">
@@ -8735,7 +8717,7 @@
         <v>1114</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.15">
@@ -8759,7 +8741,7 @@
         <v>1114</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.15">
@@ -8767,7 +8749,7 @@
         <v>1114</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.15">
@@ -8793,7 +8775,7 @@
   <dimension ref="A1:Z405"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="17" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="17" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
       <selection pane="bottomRight"/>
@@ -8894,28 +8876,28 @@
         <v>1097</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>1628</v>
+        <v>1613</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>1098</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>1393</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>1394</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>1395</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>1396</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>1397</v>
-      </c>
       <c r="O2" s="14" t="s">
-        <v>1631</v>
+        <v>1616</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="15"/>
@@ -8986,7 +8968,7 @@
         <v>6</v>
       </c>
       <c r="S3" s="36" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="T3" s="36" t="s">
         <v>1084</v>
@@ -9001,7 +8983,7 @@
         <v>865</v>
       </c>
       <c r="X3" s="38" t="s">
-        <v>1398</v>
+        <v>1618</v>
       </c>
       <c r="Y3" s="39" t="s">
         <v>657</v>
@@ -9080,7 +9062,7 @@
         <v>357</v>
       </c>
       <c r="X4" s="38" t="s">
-        <v>1398</v>
+        <v>1618</v>
       </c>
       <c r="Y4" s="39" t="s">
         <v>658</v>
@@ -9156,10 +9138,10 @@
         <v>7</v>
       </c>
       <c r="W5" s="37" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="X5" s="38" t="s">
-        <v>1398</v>
+        <v>1618</v>
       </c>
       <c r="Y5" s="39" t="s">
         <v>685</v>
@@ -9303,7 +9285,7 @@
         <v>5</v>
       </c>
       <c r="T7" s="36" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="U7" s="37" t="s">
         <v>889</v>
@@ -9315,10 +9297,10 @@
         <v>356</v>
       </c>
       <c r="X7" s="38" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="Y7" s="45" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="Z7" s="36" t="s">
         <v>278</v>
@@ -9394,7 +9376,7 @@
         <v>357</v>
       </c>
       <c r="X8" s="38" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="Y8" s="45" t="s">
         <v>658</v>
@@ -9470,10 +9452,10 @@
         <v>610</v>
       </c>
       <c r="W9" s="37" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
       <c r="X9" s="38" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="Y9" s="45" t="s">
         <v>675</v>
@@ -9608,25 +9590,25 @@
         <v>792</v>
       </c>
       <c r="Q11" s="36" t="s">
+        <v>1370</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>1371</v>
+      </c>
+      <c r="S11" s="36" t="s">
         <v>1372</v>
       </c>
-      <c r="R11" s="36" t="s">
-        <v>1373</v>
-      </c>
-      <c r="S11" s="36" t="s">
+      <c r="T11" s="36" t="s">
         <v>1374</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="U11" s="37" t="s">
+        <v>1375</v>
+      </c>
+      <c r="V11" s="38" t="s">
         <v>1376</v>
       </c>
-      <c r="U11" s="37" t="s">
+      <c r="W11" s="37" t="s">
         <v>1377</v>
-      </c>
-      <c r="V11" s="38" t="s">
-        <v>1378</v>
-      </c>
-      <c r="W11" s="37" t="s">
-        <v>1379</v>
       </c>
       <c r="X11" s="38"/>
       <c r="Y11" s="45"/>
@@ -9692,10 +9674,10 @@
         <v>1050</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="U12" s="37" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="V12" s="38" t="s">
         <v>1054</v>
@@ -9767,20 +9749,20 @@
         <v>1050</v>
       </c>
       <c r="T13" s="36" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="U13" s="49" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>1607</v>
+        <v>1592</v>
       </c>
       <c r="W13" s="42" t="s">
         <v>1204</v>
       </c>
       <c r="X13" s="42"/>
       <c r="Y13" s="42" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="Z13" s="36"/>
     </row>
@@ -9842,7 +9824,7 @@
         <v>1050</v>
       </c>
       <c r="T14" s="36" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="U14" s="37" t="s">
         <v>1049</v>
@@ -9917,7 +9899,7 @@
         <v>1050</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="U15" s="37" t="s">
         <v>1049</v>
@@ -9992,13 +9974,13 @@
         <v>1050</v>
       </c>
       <c r="T16" s="36" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="U16" s="37" t="s">
         <v>1049</v>
       </c>
       <c r="V16" s="38" t="s">
-        <v>1608</v>
+        <v>1593</v>
       </c>
       <c r="W16" s="42" t="s">
         <v>1110</v>
@@ -10060,7 +10042,7 @@
         <v>769</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="R17" s="36" t="s">
         <v>21</v>
@@ -10069,7 +10051,7 @@
         <v>20</v>
       </c>
       <c r="T17" s="36" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
       <c r="U17" s="37" t="s">
         <v>12</v>
@@ -10300,10 +10282,10 @@
         <v>157</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="U20" s="37" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
       <c r="V20" s="38" t="s">
         <v>572</v>
@@ -10373,7 +10355,7 @@
         <v>154</v>
       </c>
       <c r="T21" s="36" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="U21" s="37" t="s">
         <v>40</v>
@@ -10439,16 +10421,16 @@
         <v>769</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="R22" s="36" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="T22" s="36" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
       <c r="U22" s="37" t="s">
         <v>12</v>
@@ -10681,7 +10663,7 @@
         <v>27</v>
       </c>
       <c r="T25" s="36" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="U25" s="37" t="s">
         <v>751</v>
@@ -10749,7 +10731,7 @@
         <v>801</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>1627</v>
+        <v>1612</v>
       </c>
       <c r="R26" s="36" t="s">
         <v>855</v>
@@ -10835,7 +10817,7 @@
         <v>27</v>
       </c>
       <c r="T27" s="36" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="U27" s="37" t="s">
         <v>751</v>
@@ -10912,7 +10894,7 @@
         <v>27</v>
       </c>
       <c r="T28" s="36" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="U28" s="37" t="s">
         <v>320</v>
@@ -10921,13 +10903,13 @@
         <v>625</v>
       </c>
       <c r="W28" s="37" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="X28" s="51" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="Y28" s="52" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="Z28" s="36" t="s">
         <v>319</v>
@@ -10991,7 +10973,7 @@
         <v>27</v>
       </c>
       <c r="T29" s="36" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="U29" s="37" t="s">
         <v>29</v>
@@ -11003,10 +10985,10 @@
         <v>365</v>
       </c>
       <c r="X29" s="51" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="Y29" s="52" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="Z29" s="36" t="s">
         <v>872</v>
@@ -11070,7 +11052,7 @@
         <v>27</v>
       </c>
       <c r="T30" s="36" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="U30" s="37" t="s">
         <v>321</v>
@@ -11079,13 +11061,13 @@
         <v>627</v>
       </c>
       <c r="W30" s="37" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="X30" s="51" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="Y30" s="52" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="Z30" s="36" t="s">
         <v>872</v>
@@ -11149,7 +11131,7 @@
         <v>27</v>
       </c>
       <c r="T31" s="36" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="U31" s="37" t="s">
         <v>322</v>
@@ -11161,10 +11143,10 @@
         <v>366</v>
       </c>
       <c r="X31" s="51" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="Y31" s="52" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Z31" s="36" t="s">
         <v>872</v>
@@ -11228,10 +11210,10 @@
         <v>27</v>
       </c>
       <c r="T32" s="36" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="U32" s="37" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="V32" s="38" t="s">
         <v>629</v>
@@ -11240,10 +11222,10 @@
         <v>367</v>
       </c>
       <c r="X32" s="51" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="Y32" s="52" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="Z32" s="36" t="s">
         <v>873</v>
@@ -11309,7 +11291,7 @@
         <v>42</v>
       </c>
       <c r="T33" s="36" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
       <c r="U33" s="37" t="s">
         <v>641</v>
@@ -11474,7 +11456,7 @@
         <v>643</v>
       </c>
       <c r="W35" s="37" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="X35" s="38" t="s">
         <v>1157</v>
@@ -11711,7 +11693,7 @@
         <v>649</v>
       </c>
       <c r="W38" s="37" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="X38" s="38" t="s">
         <v>508</v>
@@ -12342,19 +12324,19 @@
         <v>1093</v>
       </c>
       <c r="V46" s="38" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="W46" s="37" t="s">
         <v>803</v>
       </c>
       <c r="X46" s="49" t="s">
-        <v>1413</v>
+        <v>1619</v>
       </c>
       <c r="Y46" s="39" t="s">
         <v>654</v>
       </c>
       <c r="Z46" s="36" t="s">
-        <v>1576</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12417,7 +12399,7 @@
         <v>56</v>
       </c>
       <c r="T47" s="36" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="U47" s="37" t="s">
         <v>54</v>
@@ -12492,7 +12474,7 @@
         <v>58</v>
       </c>
       <c r="T48" s="36" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="U48" s="37" t="s">
         <v>12</v>
@@ -12725,7 +12707,7 @@
         <v>63</v>
       </c>
       <c r="T51" s="36" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
       <c r="U51" s="37" t="s">
         <v>61</v>
@@ -12882,7 +12864,7 @@
         <v>706</v>
       </c>
       <c r="W53" s="37" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="X53" s="38" t="s">
         <v>553</v>
@@ -14683,13 +14665,13 @@
         <v>775</v>
       </c>
       <c r="Q76" s="36" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
       <c r="R76" s="36" t="s">
         <v>155</v>
       </c>
       <c r="S76" s="36" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="T76" s="36" t="s">
         <v>1082</v>
@@ -14769,7 +14751,7 @@
         <v>225</v>
       </c>
       <c r="T77" s="36" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
       <c r="U77" s="37" t="s">
         <v>223</v>
@@ -14781,7 +14763,7 @@
         <v>359</v>
       </c>
       <c r="X77" s="35" t="s">
-        <v>1407</v>
+        <v>1620</v>
       </c>
       <c r="Y77" s="39" t="s">
         <v>659</v>
@@ -14839,7 +14821,7 @@
         <v>822</v>
       </c>
       <c r="Q78" s="36" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="R78" s="36" t="s">
         <v>229</v>
@@ -14848,7 +14830,7 @@
         <v>228</v>
       </c>
       <c r="T78" s="36" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
       <c r="U78" s="37" t="s">
         <v>741</v>
@@ -14860,7 +14842,7 @@
         <v>1100</v>
       </c>
       <c r="X78" s="35" t="s">
-        <v>1406</v>
+        <v>1621</v>
       </c>
       <c r="Y78" s="39" t="s">
         <v>653</v>
@@ -14937,7 +14919,7 @@
         <v>1101</v>
       </c>
       <c r="X79" s="35" t="s">
-        <v>1407</v>
+        <v>1620</v>
       </c>
       <c r="Y79" s="39" t="s">
         <v>660</v>
@@ -14999,7 +14981,7 @@
         <v>234</v>
       </c>
       <c r="S80" s="36" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="T80" s="36" t="s">
         <v>839</v>
@@ -15011,10 +14993,10 @@
         <v>602</v>
       </c>
       <c r="W80" s="37" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="X80" s="35" t="s">
-        <v>1407</v>
+        <v>1620</v>
       </c>
       <c r="Y80" s="39" t="s">
         <v>662</v>
@@ -15156,7 +15138,7 @@
         <v>237</v>
       </c>
       <c r="T82" s="36" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
       <c r="U82" s="37" t="s">
         <v>235</v>
@@ -15168,7 +15150,7 @@
         <v>1158</v>
       </c>
       <c r="X82" s="38" t="s">
-        <v>1407</v>
+        <v>1620</v>
       </c>
       <c r="Y82" s="39" t="s">
         <v>661</v>
@@ -15245,10 +15227,10 @@
         <v>1085</v>
       </c>
       <c r="X83" s="51" t="s">
-        <v>1567</v>
+        <v>1622</v>
       </c>
       <c r="Y83" s="39" t="s">
-        <v>1568</v>
+        <v>1623</v>
       </c>
       <c r="Z83" s="36"/>
     </row>
@@ -15321,7 +15303,7 @@
         <v>186</v>
       </c>
       <c r="W84" s="37" t="s">
-        <v>1490</v>
+        <v>1478</v>
       </c>
       <c r="X84" s="38" t="s">
         <v>538</v>
@@ -15389,7 +15371,7 @@
         <v>188</v>
       </c>
       <c r="T85" s="36" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="U85" s="37" t="s">
         <v>44</v>
@@ -15634,13 +15616,13 @@
         <v>1092</v>
       </c>
       <c r="X88" s="49" t="s">
-        <v>1413</v>
+        <v>1619</v>
       </c>
       <c r="Y88" s="54" t="s">
         <v>898</v>
       </c>
       <c r="Z88" s="36" t="s">
-        <v>1576</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="89" spans="1:26" s="23" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
@@ -15691,34 +15673,34 @@
         <v>869</v>
       </c>
       <c r="P89" s="36" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q89" s="36" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="R89" s="36" t="s">
         <v>189</v>
       </c>
       <c r="S89" s="36" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="T89" s="36" t="s">
+        <v>1384</v>
+      </c>
+      <c r="U89" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="V89" s="49" t="s">
         <v>1386</v>
       </c>
-      <c r="U89" s="49" t="s">
+      <c r="W89" s="49" t="s">
         <v>1387</v>
       </c>
-      <c r="V89" s="49" t="s">
-        <v>1388</v>
-      </c>
-      <c r="W89" s="49" t="s">
-        <v>1389</v>
-      </c>
       <c r="X89" s="55" t="s">
-        <v>1407</v>
+        <v>1620</v>
       </c>
       <c r="Y89" s="54" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="Z89" s="36"/>
     </row>
@@ -15792,13 +15774,13 @@
         <v>1092</v>
       </c>
       <c r="X90" s="55" t="s">
-        <v>1413</v>
+        <v>1619</v>
       </c>
       <c r="Y90" s="54" t="s">
         <v>898</v>
       </c>
       <c r="Z90" s="36" t="s">
-        <v>1576</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15861,10 +15843,10 @@
         <v>195</v>
       </c>
       <c r="T91" s="36" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="U91" s="37" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
       <c r="V91" s="38" t="s">
         <v>576</v>
@@ -15925,7 +15907,7 @@
         <v>785</v>
       </c>
       <c r="Q92" s="36" t="s">
-        <v>1590</v>
+        <v>1576</v>
       </c>
       <c r="R92" s="36" t="s">
         <v>196</v>
@@ -16144,13 +16126,13 @@
         <v>785</v>
       </c>
       <c r="Q95" s="36" t="s">
-        <v>1591</v>
+        <v>1577</v>
       </c>
       <c r="R95" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S95" s="36" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="T95" s="36" t="s">
         <v>845</v>
@@ -16162,7 +16144,7 @@
         <v>577</v>
       </c>
       <c r="W95" s="56" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
       <c r="X95" s="35"/>
       <c r="Y95" s="45"/>
@@ -16217,13 +16199,13 @@
         <v>785</v>
       </c>
       <c r="Q96" s="36" t="s">
-        <v>1591</v>
+        <v>1577</v>
       </c>
       <c r="R96" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S96" s="36" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="T96" s="36" t="s">
         <v>845</v>
@@ -16235,7 +16217,7 @@
         <v>578</v>
       </c>
       <c r="W96" s="56" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
       <c r="X96" s="35"/>
       <c r="Y96" s="45"/>
@@ -16290,13 +16272,13 @@
         <v>785</v>
       </c>
       <c r="Q97" s="36" t="s">
-        <v>1591</v>
+        <v>1577</v>
       </c>
       <c r="R97" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S97" s="36" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="T97" s="36" t="s">
         <v>845</v>
@@ -16308,7 +16290,7 @@
         <v>579</v>
       </c>
       <c r="W97" s="56" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
       <c r="X97" s="35"/>
       <c r="Y97" s="45"/>
@@ -16591,7 +16573,7 @@
         <v>241</v>
       </c>
       <c r="T101" s="36" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
       <c r="U101" s="37" t="s">
         <v>193</v>
@@ -16600,7 +16582,7 @@
         <v>605</v>
       </c>
       <c r="W101" s="37" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
       <c r="X101" s="51" t="s">
         <v>1161</v>
@@ -16677,7 +16659,7 @@
         <v>606</v>
       </c>
       <c r="W102" s="37" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="X102" s="51" t="s">
         <v>1161</v>
@@ -16981,7 +16963,7 @@
         <v>248</v>
       </c>
       <c r="W106" s="37" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="X106" s="38" t="s">
         <v>487</v>
@@ -18527,7 +18509,7 @@
         <v>487</v>
       </c>
       <c r="Y126" s="39" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="Z126" s="36"/>
     </row>
@@ -18582,7 +18564,7 @@
         <v>786</v>
       </c>
       <c r="Q127" s="36" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="R127" s="36" t="s">
         <v>196</v>
@@ -18591,7 +18573,7 @@
         <v>205</v>
       </c>
       <c r="T127" s="36" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="U127" s="37" t="s">
         <v>193</v>
@@ -18732,7 +18714,7 @@
         <v>787</v>
       </c>
       <c r="Q129" s="36" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="R129" s="36" t="s">
         <v>196</v>
@@ -19636,7 +19618,7 @@
         <v>788</v>
       </c>
       <c r="Q141" s="36" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="R141" s="36" t="s">
         <v>212</v>
@@ -19952,7 +19934,7 @@
         <v>596</v>
       </c>
       <c r="W145" s="37" t="s">
-        <v>1592</v>
+        <v>1578</v>
       </c>
       <c r="X145" s="51"/>
       <c r="Y145" s="52"/>
@@ -20018,7 +20000,7 @@
         <v>220</v>
       </c>
       <c r="T146" s="36" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
       <c r="U146" s="37" t="s">
         <v>12</v>
@@ -20261,7 +20243,7 @@
         <v>1171</v>
       </c>
       <c r="X149" s="38" t="s">
-        <v>1407</v>
+        <v>1620</v>
       </c>
       <c r="Y149" s="39" t="s">
         <v>655</v>
@@ -20316,7 +20298,7 @@
         <v>856</v>
       </c>
       <c r="P150" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q150" s="36" t="s">
         <v>324</v>
@@ -20325,10 +20307,10 @@
         <v>325</v>
       </c>
       <c r="S150" s="36" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="T150" s="36" t="s">
-        <v>1448</v>
+        <v>1624</v>
       </c>
       <c r="U150" s="55" t="s">
         <v>1175</v>
@@ -20340,7 +20322,7 @@
         <v>1176</v>
       </c>
       <c r="X150" s="38" t="s">
-        <v>1447</v>
+        <v>1625</v>
       </c>
       <c r="Y150" s="54" t="s">
         <v>1177</v>
@@ -20393,7 +20375,7 @@
         <v>856</v>
       </c>
       <c r="P151" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q151" s="36" t="s">
         <v>324</v>
@@ -20402,10 +20384,10 @@
         <v>325</v>
       </c>
       <c r="S151" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T151" s="36" t="s">
-        <v>1448</v>
+        <v>1624</v>
       </c>
       <c r="U151" s="55" t="s">
         <v>1178</v>
@@ -20417,7 +20399,7 @@
         <v>1179</v>
       </c>
       <c r="X151" s="38" t="s">
-        <v>1447</v>
+        <v>1625</v>
       </c>
       <c r="Y151" s="54" t="s">
         <v>1183</v>
@@ -20470,7 +20452,7 @@
         <v>856</v>
       </c>
       <c r="P152" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q152" s="36" t="s">
         <v>1174</v>
@@ -20479,10 +20461,10 @@
         <v>325</v>
       </c>
       <c r="S152" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T152" s="36" t="s">
-        <v>1448</v>
+        <v>1624</v>
       </c>
       <c r="U152" s="55" t="s">
         <v>1187</v>
@@ -20494,7 +20476,7 @@
         <v>1180</v>
       </c>
       <c r="X152" s="38" t="s">
-        <v>1447</v>
+        <v>1625</v>
       </c>
       <c r="Y152" s="54" t="s">
         <v>1188</v>
@@ -20547,7 +20529,7 @@
         <v>856</v>
       </c>
       <c r="P153" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q153" s="36" t="s">
         <v>324</v>
@@ -20556,10 +20538,10 @@
         <v>325</v>
       </c>
       <c r="S153" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T153" s="36" t="s">
-        <v>1448</v>
+        <v>1624</v>
       </c>
       <c r="U153" s="55" t="s">
         <v>1186</v>
@@ -20571,7 +20553,7 @@
         <v>1185</v>
       </c>
       <c r="X153" s="38" t="s">
-        <v>1447</v>
+        <v>1625</v>
       </c>
       <c r="Y153" s="54" t="s">
         <v>1182</v>
@@ -20624,7 +20606,7 @@
         <v>856</v>
       </c>
       <c r="P154" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q154" s="36" t="s">
         <v>324</v>
@@ -20633,13 +20615,13 @@
         <v>325</v>
       </c>
       <c r="S154" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T154" s="36" t="s">
-        <v>1448</v>
+        <v>1624</v>
       </c>
       <c r="U154" s="55" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="V154" s="55" t="s">
         <v>1102</v>
@@ -20648,10 +20630,10 @@
         <v>1189</v>
       </c>
       <c r="X154" s="38" t="s">
-        <v>1447</v>
+        <v>1625</v>
       </c>
       <c r="Y154" s="58" t="s">
-        <v>1595</v>
+        <v>1626</v>
       </c>
       <c r="Z154" s="36"/>
     </row>
@@ -20701,7 +20683,7 @@
         <v>856</v>
       </c>
       <c r="P155" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q155" s="36" t="s">
         <v>324</v>
@@ -20710,10 +20692,10 @@
         <v>325</v>
       </c>
       <c r="S155" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T155" s="36" t="s">
-        <v>1594</v>
+        <v>1580</v>
       </c>
       <c r="U155" s="55" t="s">
         <v>1175</v>
@@ -20725,7 +20707,7 @@
         <v>1176</v>
       </c>
       <c r="X155" s="38" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="Y155" s="54" t="s">
         <v>1177</v>
@@ -20778,7 +20760,7 @@
         <v>856</v>
       </c>
       <c r="P156" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q156" s="36" t="s">
         <v>324</v>
@@ -20787,10 +20769,10 @@
         <v>325</v>
       </c>
       <c r="S156" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T156" s="36" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="U156" s="55" t="s">
         <v>1178</v>
@@ -20802,7 +20784,7 @@
         <v>1179</v>
       </c>
       <c r="X156" s="38" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="Y156" s="54" t="s">
         <v>1183</v>
@@ -20855,7 +20837,7 @@
         <v>856</v>
       </c>
       <c r="P157" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q157" s="36" t="s">
         <v>1174</v>
@@ -20864,10 +20846,10 @@
         <v>325</v>
       </c>
       <c r="S157" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T157" s="36" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="U157" s="55" t="s">
         <v>1187</v>
@@ -20879,7 +20861,7 @@
         <v>1180</v>
       </c>
       <c r="X157" s="38" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="Y157" s="54" t="s">
         <v>1188</v>
@@ -20932,7 +20914,7 @@
         <v>856</v>
       </c>
       <c r="P158" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q158" s="36" t="s">
         <v>324</v>
@@ -20941,10 +20923,10 @@
         <v>325</v>
       </c>
       <c r="S158" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T158" s="36" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="U158" s="55" t="s">
         <v>1186</v>
@@ -20956,7 +20938,7 @@
         <v>1185</v>
       </c>
       <c r="X158" s="38" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="Y158" s="54" t="s">
         <v>1182</v>
@@ -21009,7 +20991,7 @@
         <v>856</v>
       </c>
       <c r="P159" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q159" s="36" t="s">
         <v>324</v>
@@ -21018,13 +21000,13 @@
         <v>325</v>
       </c>
       <c r="S159" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T159" s="36" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="U159" s="55" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="V159" s="55" t="s">
         <v>1102</v>
@@ -21033,7 +21015,7 @@
         <v>1189</v>
       </c>
       <c r="X159" s="55" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="Y159" s="54" t="s">
         <v>1242</v>
@@ -21086,7 +21068,7 @@
         <v>856</v>
       </c>
       <c r="P160" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q160" s="36" t="s">
         <v>324</v>
@@ -21095,22 +21077,22 @@
         <v>325</v>
       </c>
       <c r="S160" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T160" s="36" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="U160" s="55" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="V160" s="55" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="W160" s="55" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="X160" s="55" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="Y160" s="54" t="s">
         <v>1242</v>
@@ -21163,7 +21145,7 @@
         <v>856</v>
       </c>
       <c r="P161" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q161" s="36" t="s">
         <v>324</v>
@@ -21172,25 +21154,25 @@
         <v>325</v>
       </c>
       <c r="S161" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T161" s="36" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="U161" s="55" t="s">
+        <v>1409</v>
+      </c>
+      <c r="V161" s="55" t="s">
+        <v>1443</v>
+      </c>
+      <c r="W161" s="55" t="s">
+        <v>1413</v>
+      </c>
+      <c r="X161" s="55" t="s">
         <v>1418</v>
       </c>
-      <c r="V161" s="55" t="s">
-        <v>1455</v>
-      </c>
-      <c r="W161" s="55" t="s">
-        <v>1422</v>
-      </c>
-      <c r="X161" s="55" t="s">
-        <v>1427</v>
-      </c>
       <c r="Y161" s="54" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="Z161" s="36"/>
     </row>
@@ -21240,7 +21222,7 @@
         <v>856</v>
       </c>
       <c r="P162" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q162" s="36" t="s">
         <v>324</v>
@@ -21249,25 +21231,25 @@
         <v>325</v>
       </c>
       <c r="S162" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T162" s="36" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="U162" s="55" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="V162" s="55" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="W162" s="55" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="X162" s="55" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="Y162" s="54" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Z162" s="36"/>
     </row>
@@ -21317,7 +21299,7 @@
         <v>856</v>
       </c>
       <c r="P163" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q163" s="36" t="s">
         <v>324</v>
@@ -21326,25 +21308,25 @@
         <v>325</v>
       </c>
       <c r="S163" s="36" t="s">
+        <v>1406</v>
+      </c>
+      <c r="T163" s="36" t="s">
+        <v>1579</v>
+      </c>
+      <c r="U163" s="55" t="s">
+        <v>1410</v>
+      </c>
+      <c r="V163" s="55" t="s">
+        <v>1445</v>
+      </c>
+      <c r="W163" s="55" t="s">
         <v>1415</v>
       </c>
-      <c r="T163" s="36" t="s">
-        <v>1593</v>
-      </c>
-      <c r="U163" s="55" t="s">
+      <c r="X163" s="55" t="s">
+        <v>1418</v>
+      </c>
+      <c r="Y163" s="54" t="s">
         <v>1419</v>
-      </c>
-      <c r="V163" s="55" t="s">
-        <v>1457</v>
-      </c>
-      <c r="W163" s="55" t="s">
-        <v>1424</v>
-      </c>
-      <c r="X163" s="55" t="s">
-        <v>1427</v>
-      </c>
-      <c r="Y163" s="54" t="s">
-        <v>1428</v>
       </c>
       <c r="Z163" s="36"/>
     </row>
@@ -21394,7 +21376,7 @@
         <v>856</v>
       </c>
       <c r="P164" s="36" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="Q164" s="36" t="s">
         <v>324</v>
@@ -21403,25 +21385,25 @@
         <v>325</v>
       </c>
       <c r="S164" s="36" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="T164" s="36" t="s">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="U164" s="55" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="V164" s="55" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
       <c r="W164" s="55" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="X164" s="55" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="Y164" s="54" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="Z164" s="36"/>
     </row>
@@ -21431,7 +21413,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="C165" s="35" t="s">
         <v>869</v>
@@ -21473,7 +21455,7 @@
         <v>856</v>
       </c>
       <c r="P165" s="36" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="Q165" s="36" t="s">
         <v>1083</v>
@@ -21494,16 +21476,16 @@
         <v>598</v>
       </c>
       <c r="W165" s="37" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="X165" s="38" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="Y165" s="54" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="Z165" s="36" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21569,7 +21551,7 @@
         <v>1065</v>
       </c>
       <c r="U166" s="55" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="V166" s="55" t="s">
         <v>1066</v>
@@ -21582,7 +21564,7 @@
         <v>1077</v>
       </c>
       <c r="Z166" s="36" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21659,7 +21641,7 @@
         <v>1072</v>
       </c>
       <c r="Z167" s="36" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21736,7 +21718,7 @@
         <v>1073</v>
       </c>
       <c r="Z168" s="36" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21813,7 +21795,7 @@
         <v>1074</v>
       </c>
       <c r="Z169" s="36" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="170" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21877,7 +21859,7 @@
         <v>1065</v>
       </c>
       <c r="U170" s="55" t="s">
-        <v>1616</v>
+        <v>1601</v>
       </c>
       <c r="V170" s="55" t="s">
         <v>1070</v>
@@ -21890,7 +21872,7 @@
         <v>1075</v>
       </c>
       <c r="Z170" s="36" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21963,13 +21945,13 @@
         <v>1204</v>
       </c>
       <c r="X171" s="60" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
       <c r="Y171" s="61" t="s">
         <v>1076</v>
       </c>
       <c r="Z171" s="36" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="172" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -22032,7 +22014,7 @@
         <v>276</v>
       </c>
       <c r="T172" s="36" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
       <c r="U172" s="37" t="s">
         <v>193</v>
@@ -22044,7 +22026,7 @@
         <v>368</v>
       </c>
       <c r="X172" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y172" s="39" t="s">
         <v>1209</v>
@@ -22121,7 +22103,7 @@
         <v>369</v>
       </c>
       <c r="X173" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y173" s="39" t="s">
         <v>674</v>
@@ -22188,7 +22170,7 @@
         <v>281</v>
       </c>
       <c r="T174" s="36" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="U174" s="37" t="s">
         <v>1210</v>
@@ -22200,7 +22182,7 @@
         <v>1211</v>
       </c>
       <c r="X174" s="38" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="Y174" s="45" t="s">
         <v>654</v>
@@ -22279,7 +22261,7 @@
         <v>361</v>
       </c>
       <c r="X175" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y175" s="39" t="s">
         <v>669</v>
@@ -22360,7 +22342,7 @@
         <v>794</v>
       </c>
       <c r="X176" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y176" s="39" t="s">
         <v>670</v>
@@ -22437,7 +22419,7 @@
         <v>362</v>
       </c>
       <c r="X177" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y177" s="39" t="s">
         <v>671</v>
@@ -22516,7 +22498,7 @@
         <v>363</v>
       </c>
       <c r="X178" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y178" s="39" t="s">
         <v>672</v>
@@ -22593,7 +22575,7 @@
         <v>360</v>
       </c>
       <c r="X179" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y179" s="39" t="s">
         <v>654</v>
@@ -22670,7 +22652,7 @@
         <v>364</v>
       </c>
       <c r="X180" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y180" s="39" t="s">
         <v>673</v>
@@ -22738,19 +22720,19 @@
         <v>850</v>
       </c>
       <c r="U181" s="37" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="V181" s="38" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
       <c r="W181" s="37" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="X181" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y181" s="45" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="Z181" s="36"/>
     </row>
@@ -22815,7 +22797,7 @@
         <v>1234</v>
       </c>
       <c r="U182" s="37" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="V182" s="38" t="s">
         <v>618</v>
@@ -22824,7 +22806,7 @@
         <v>1212</v>
       </c>
       <c r="X182" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y182" s="39" t="s">
         <v>656</v>
@@ -22882,7 +22864,7 @@
         <v>1221</v>
       </c>
       <c r="Q183" s="36" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="R183" s="36" t="s">
         <v>1226</v>
@@ -22891,7 +22873,7 @@
         <v>1232</v>
       </c>
       <c r="T183" s="36" t="s">
-        <v>1579</v>
+        <v>1565</v>
       </c>
       <c r="U183" s="55" t="s">
         <v>1227</v>
@@ -22966,7 +22948,7 @@
         <v>1232</v>
       </c>
       <c r="T184" s="36" t="s">
-        <v>1580</v>
+        <v>1566</v>
       </c>
       <c r="U184" s="55" t="s">
         <v>1235</v>
@@ -23039,7 +23021,7 @@
         <v>1232</v>
       </c>
       <c r="T185" s="36" t="s">
-        <v>1581</v>
+        <v>1567</v>
       </c>
       <c r="U185" s="55" t="s">
         <v>1238</v>
@@ -23051,7 +23033,7 @@
         <v>1240</v>
       </c>
       <c r="X185" s="38" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="Y185" s="58" t="s">
         <v>1242</v>
@@ -23116,7 +23098,7 @@
         <v>1232</v>
       </c>
       <c r="T186" s="36" t="s">
-        <v>1580</v>
+        <v>1566</v>
       </c>
       <c r="U186" s="55" t="s">
         <v>1222</v>
@@ -23128,7 +23110,7 @@
         <v>806</v>
       </c>
       <c r="X186" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y186" s="64" t="s">
         <v>1225</v>
@@ -23181,32 +23163,32 @@
         <v>856</v>
       </c>
       <c r="P187" s="36" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="Q187" s="36" t="s">
-        <v>1570</v>
+        <v>1556</v>
       </c>
       <c r="R187" s="36" t="s">
-        <v>1572</v>
+        <v>1558</v>
       </c>
       <c r="S187" s="36" t="s">
-        <v>1569</v>
+        <v>1555</v>
       </c>
       <c r="T187" s="36" t="s">
-        <v>1580</v>
+        <v>1566</v>
       </c>
       <c r="U187" s="49" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
       <c r="V187" s="49" t="s">
-        <v>1574</v>
+        <v>1560</v>
       </c>
       <c r="W187" s="42" t="s">
         <v>1204</v>
       </c>
       <c r="X187" s="43"/>
       <c r="Y187" s="63" t="s">
-        <v>1575</v>
+        <v>1561</v>
       </c>
       <c r="Z187" s="36"/>
     </row>
@@ -23261,13 +23243,13 @@
         <v>796</v>
       </c>
       <c r="Q188" s="36" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="R188" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S188" s="36" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="T188" s="36" t="s">
         <v>851</v>
@@ -23357,7 +23339,7 @@
         <v>806</v>
       </c>
       <c r="X189" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y189" s="39" t="s">
         <v>1246</v>
@@ -23870,13 +23852,13 @@
         <v>310</v>
       </c>
       <c r="R196" s="36" t="s">
-        <v>1603</v>
+        <v>1588</v>
       </c>
       <c r="S196" s="36" t="s">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="T196" s="36" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="U196" s="37" t="s">
         <v>307</v>
@@ -23888,7 +23870,7 @@
         <v>370</v>
       </c>
       <c r="X196" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y196" s="39" t="s">
         <v>676</v>
@@ -23944,10 +23926,10 @@
         <v>799</v>
       </c>
       <c r="Q197" s="36" t="s">
-        <v>1601</v>
+        <v>1586</v>
       </c>
       <c r="R197" s="36" t="s">
-        <v>1604</v>
+        <v>1589</v>
       </c>
       <c r="S197" s="36" t="s">
         <v>312</v>
@@ -23965,7 +23947,7 @@
         <v>371</v>
       </c>
       <c r="X197" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y197" s="39" t="s">
         <v>677</v>
@@ -24021,13 +24003,13 @@
         <v>799</v>
       </c>
       <c r="Q198" s="36" t="s">
-        <v>1602</v>
+        <v>1587</v>
       </c>
       <c r="R198" s="36" t="s">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="S198" s="36" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="T198" s="36" t="s">
         <v>852</v>
@@ -24099,7 +24081,7 @@
         <v>1213</v>
       </c>
       <c r="R199" s="36" t="s">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="S199" s="36" t="s">
         <v>1214</v>
@@ -24117,7 +24099,7 @@
         <v>371</v>
       </c>
       <c r="X199" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y199" s="39" t="s">
         <v>677</v>
@@ -24175,7 +24157,7 @@
         <v>800</v>
       </c>
       <c r="Q200" s="36" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
       <c r="R200" s="36" t="s">
         <v>856</v>
@@ -24196,7 +24178,7 @@
         <v>372</v>
       </c>
       <c r="X200" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y200" s="39" t="s">
         <v>678</v>
@@ -24270,10 +24252,10 @@
         <v>623</v>
       </c>
       <c r="W201" s="37" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
       <c r="X201" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y201" s="39" t="s">
         <v>392</v>
@@ -24347,10 +24329,10 @@
         <v>624</v>
       </c>
       <c r="W202" s="37" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
       <c r="X202" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y202" s="39" t="s">
         <v>654</v>
@@ -24412,10 +24394,10 @@
         <v>306</v>
       </c>
       <c r="S203" s="36" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
       <c r="T203" s="36" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="U203" s="37" t="s">
         <v>304</v>
@@ -24481,16 +24463,16 @@
         <v>1221</v>
       </c>
       <c r="Q204" s="36" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="R204" s="36" t="s">
         <v>1226</v>
       </c>
       <c r="S204" s="36" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
       <c r="T204" s="36" t="s">
-        <v>1577</v>
+        <v>1563</v>
       </c>
       <c r="U204" s="49" t="s">
         <v>746</v>
@@ -24502,13 +24484,13 @@
         <v>1224</v>
       </c>
       <c r="X204" s="49" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="Y204" s="58" t="s">
         <v>1225</v>
       </c>
       <c r="Z204" s="36" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="205" spans="1:26" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -24560,31 +24542,31 @@
         <v>1221</v>
       </c>
       <c r="Q205" s="36" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="R205" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S205" s="36" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
       <c r="T205" s="36" t="s">
-        <v>1578</v>
+        <v>1564</v>
       </c>
       <c r="U205" s="49" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
       <c r="V205" s="49" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="W205" s="49" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="X205" s="49" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="Y205" s="58" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
       <c r="Z205" s="36"/>
     </row>
@@ -24634,32 +24616,32 @@
         <v>856</v>
       </c>
       <c r="P206" s="36" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="Q206" s="36" t="s">
-        <v>1570</v>
+        <v>1556</v>
       </c>
       <c r="R206" s="36" t="s">
-        <v>1572</v>
+        <v>1558</v>
       </c>
       <c r="S206" s="36" t="s">
-        <v>1569</v>
+        <v>1555</v>
       </c>
       <c r="T206" s="36" t="s">
-        <v>1578</v>
+        <v>1564</v>
       </c>
       <c r="U206" s="49" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
       <c r="V206" s="49" t="s">
-        <v>1574</v>
+        <v>1560</v>
       </c>
       <c r="W206" s="42" t="s">
         <v>1204</v>
       </c>
       <c r="X206" s="43"/>
       <c r="Y206" s="63" t="s">
-        <v>1575</v>
+        <v>1561</v>
       </c>
       <c r="Z206" s="36"/>
     </row>
@@ -24714,28 +24696,28 @@
         <v>1221</v>
       </c>
       <c r="Q207" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="R207" s="36" t="s">
         <v>1226</v>
       </c>
       <c r="S207" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="T207" s="36" t="s">
-        <v>1583</v>
+        <v>1569</v>
       </c>
       <c r="U207" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V207" s="35" t="s">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="W207" s="56" t="s">
         <v>806</v>
       </c>
       <c r="X207" s="65" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y207" s="45"/>
       <c r="Z207" s="36"/>
@@ -24786,22 +24768,22 @@
         <v>869</v>
       </c>
       <c r="P208" s="36" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="Q208" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="R208" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S208" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="T208" s="36" t="s">
-        <v>1584</v>
+        <v>1570</v>
       </c>
       <c r="U208" s="56" t="s">
-        <v>1586</v>
+        <v>1572</v>
       </c>
       <c r="V208" s="35" t="s">
         <v>560</v>
@@ -24861,32 +24843,32 @@
         <v>856</v>
       </c>
       <c r="P209" s="36" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="Q209" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="R209" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S209" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="T209" s="36" t="s">
-        <v>1587</v>
+        <v>1573</v>
       </c>
       <c r="U209" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V209" s="35" t="s">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="W209" s="42" t="s">
         <v>1204</v>
       </c>
       <c r="X209" s="67"/>
       <c r="Y209" s="66" t="s">
-        <v>1589</v>
+        <v>1575</v>
       </c>
       <c r="Z209" s="36"/>
     </row>
@@ -24936,22 +24918,22 @@
         <v>856</v>
       </c>
       <c r="P210" s="36" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="Q210" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="R210" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S210" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="T210" s="36" t="s">
-        <v>1587</v>
+        <v>1573</v>
       </c>
       <c r="U210" s="56" t="s">
-        <v>1586</v>
+        <v>1572</v>
       </c>
       <c r="V210" s="35" t="s">
         <v>560</v>
@@ -25011,31 +24993,31 @@
         <v>856</v>
       </c>
       <c r="P211" s="36" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="Q211" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="R211" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S211" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="T211" s="36" t="s">
-        <v>1588</v>
+        <v>1574</v>
       </c>
       <c r="U211" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V211" s="35" t="s">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="W211" s="56" t="s">
         <v>806</v>
       </c>
       <c r="X211" s="65" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y211" s="45"/>
       <c r="Z211" s="36"/>
@@ -25086,22 +25068,22 @@
         <v>856</v>
       </c>
       <c r="P212" s="36" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="Q212" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="R212" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S212" s="36" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="T212" s="36" t="s">
-        <v>1588</v>
+        <v>1574</v>
       </c>
       <c r="U212" s="56" t="s">
-        <v>1586</v>
+        <v>1572</v>
       </c>
       <c r="V212" s="35" t="s">
         <v>560</v>
@@ -25175,7 +25157,7 @@
         <v>759</v>
       </c>
       <c r="T213" s="36" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="U213" s="68" t="s">
         <v>1</v>
@@ -25187,7 +25169,7 @@
         <v>1103</v>
       </c>
       <c r="X213" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y213" s="69" t="s">
         <v>680</v>
@@ -25251,10 +25233,10 @@
         <v>853</v>
       </c>
       <c r="S214" s="36" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
       <c r="T214" s="36" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
       <c r="U214" s="37" t="s">
         <v>12</v>
@@ -25548,7 +25530,7 @@
         <v>11</v>
       </c>
       <c r="T218" s="36" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="U218" s="37" t="s">
         <v>768</v>
@@ -25560,7 +25542,7 @@
         <v>1192</v>
       </c>
       <c r="X218" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y218" s="39" t="s">
         <v>679</v>
@@ -25627,7 +25609,7 @@
         <v>67</v>
       </c>
       <c r="T219" s="36" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="U219" s="37" t="s">
         <v>1104</v>
@@ -25639,7 +25621,7 @@
         <v>1193</v>
       </c>
       <c r="X219" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y219" s="39" t="s">
         <v>668</v>
@@ -26166,7 +26148,7 @@
         <v>348</v>
       </c>
       <c r="X226" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y226" s="45" t="s">
         <v>1194</v>
@@ -26243,7 +26225,7 @@
         <v>349</v>
       </c>
       <c r="X227" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y227" s="39" t="s">
         <v>1195</v>
@@ -26320,7 +26302,7 @@
         <v>350</v>
       </c>
       <c r="X228" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y228" s="39" t="s">
         <v>1196</v>
@@ -26460,7 +26442,7 @@
         <v>78</v>
       </c>
       <c r="T230" s="36" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="U230" s="37" t="s">
         <v>12</v>
@@ -28299,7 +28281,7 @@
         <v>770</v>
       </c>
       <c r="Q254" s="36" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
       <c r="R254" s="36" t="s">
         <v>128</v>
@@ -28836,7 +28818,7 @@
         <v>770</v>
       </c>
       <c r="Q261" s="36" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="R261" s="36" t="s">
         <v>858</v>
@@ -28857,7 +28839,7 @@
         <v>1105</v>
       </c>
       <c r="X261" s="35" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y261" s="45" t="s">
         <v>663</v>
@@ -28934,7 +28916,7 @@
         <v>344</v>
       </c>
       <c r="X262" s="35" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y262" s="39" t="s">
         <v>664</v>
@@ -29011,7 +28993,7 @@
         <v>345</v>
       </c>
       <c r="X263" s="35" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y263" s="39" t="s">
         <v>665</v>
@@ -29088,7 +29070,7 @@
         <v>346</v>
       </c>
       <c r="X264" s="35" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y264" s="39" t="s">
         <v>666</v>
@@ -29165,7 +29147,7 @@
         <v>347</v>
       </c>
       <c r="X265" s="35" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y265" s="39" t="s">
         <v>667</v>
@@ -29220,10 +29202,10 @@
         <v>856</v>
       </c>
       <c r="P266" s="36" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="Q266" s="36" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
       <c r="R266" s="36" t="s">
         <v>162</v>
@@ -29232,7 +29214,7 @@
         <v>161</v>
       </c>
       <c r="T266" s="36" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="U266" s="37" t="s">
         <v>160</v>
@@ -29244,7 +29226,7 @@
         <v>1106</v>
       </c>
       <c r="X266" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y266" s="39" t="s">
         <v>681</v>
@@ -29311,7 +29293,7 @@
         <v>164</v>
       </c>
       <c r="T267" s="36" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="U267" s="37" t="s">
         <v>638</v>
@@ -29621,7 +29603,7 @@
         <v>168</v>
       </c>
       <c r="T271" s="36" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="U271" s="37" t="s">
         <v>166</v>
@@ -29633,7 +29615,7 @@
         <v>1197</v>
       </c>
       <c r="X271" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y271" s="39" t="s">
         <v>679</v>
@@ -29698,7 +29680,7 @@
         <v>168</v>
       </c>
       <c r="T272" s="36" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="U272" s="37" t="s">
         <v>166</v>
@@ -29710,7 +29692,7 @@
         <v>1197</v>
       </c>
       <c r="X272" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y272" s="39" t="s">
         <v>679</v>
@@ -29777,7 +29759,7 @@
         <v>175</v>
       </c>
       <c r="T273" s="36" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="U273" s="37" t="s">
         <v>817</v>
@@ -29789,7 +29771,7 @@
         <v>1107</v>
       </c>
       <c r="X273" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y273" s="39" t="s">
         <v>679</v>
@@ -29844,10 +29826,10 @@
         <v>856</v>
       </c>
       <c r="P274" s="36" t="s">
-        <v>1626</v>
+        <v>1611</v>
       </c>
       <c r="Q274" s="36" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="R274" s="36" t="s">
         <v>860</v>
@@ -29856,7 +29838,7 @@
         <v>178</v>
       </c>
       <c r="T274" s="36" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="U274" s="37" t="s">
         <v>176</v>
@@ -29868,7 +29850,7 @@
         <v>1108</v>
       </c>
       <c r="X274" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y274" s="39" t="s">
         <v>666</v>
@@ -30318,7 +30300,7 @@
         <v>181</v>
       </c>
       <c r="T280" s="36" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="U280" s="37" t="s">
         <v>179</v>
@@ -30330,7 +30312,7 @@
         <v>1199</v>
       </c>
       <c r="X280" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y280" s="39" t="s">
         <v>682</v>
@@ -30409,7 +30391,7 @@
         <v>377</v>
       </c>
       <c r="X281" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y281" s="39" t="s">
         <v>683</v>
@@ -30488,7 +30470,7 @@
         <v>378</v>
       </c>
       <c r="X282" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y282" s="39" t="s">
         <v>684</v>
@@ -30567,7 +30549,7 @@
         <v>379</v>
       </c>
       <c r="X283" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y283" s="39" t="s">
         <v>656</v>
@@ -30634,7 +30616,7 @@
         <v>34</v>
       </c>
       <c r="T284" s="36" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="U284" s="37" t="s">
         <v>32</v>
@@ -30646,10 +30628,10 @@
         <v>380</v>
       </c>
       <c r="X284" s="38" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="Y284" s="45" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="Z284" s="36"/>
     </row>
@@ -30723,7 +30705,7 @@
         <v>382</v>
       </c>
       <c r="X285" s="38" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="Y285" s="39" t="s">
         <v>686</v>
@@ -30800,7 +30782,7 @@
         <v>381</v>
       </c>
       <c r="X286" s="38" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="Y286" s="39" t="s">
         <v>687</v>
@@ -30877,7 +30859,7 @@
         <v>1109</v>
       </c>
       <c r="X287" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y287" s="39" t="s">
         <v>688</v>
@@ -30954,7 +30936,7 @@
         <v>383</v>
       </c>
       <c r="X288" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y288" s="39" t="s">
         <v>688</v>
@@ -31021,7 +31003,7 @@
         <v>172</v>
       </c>
       <c r="T289" s="36" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="U289" s="37" t="s">
         <v>170</v>
@@ -31033,10 +31015,10 @@
         <v>1202</v>
       </c>
       <c r="X289" s="68" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="Y289" s="39" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="Z289" s="36"/>
     </row>
@@ -31100,7 +31082,7 @@
         <v>14</v>
       </c>
       <c r="T290" s="36" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="U290" s="55" t="s">
         <v>17</v>
@@ -31177,7 +31159,7 @@
         <v>899</v>
       </c>
       <c r="T291" s="36" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="U291" s="55" t="s">
         <v>901</v>
@@ -31252,7 +31234,7 @@
         <v>906</v>
       </c>
       <c r="T292" s="36" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="U292" s="55" t="s">
         <v>907</v>
@@ -31487,7 +31469,7 @@
         <v>916</v>
       </c>
       <c r="T295" s="36" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
       <c r="U295" s="55" t="s">
         <v>917</v>
@@ -32755,7 +32737,7 @@
         <v>957</v>
       </c>
       <c r="Q312" s="36" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
       <c r="R312" s="36" t="s">
         <v>957</v>
@@ -32828,7 +32810,7 @@
         <v>957</v>
       </c>
       <c r="Q313" s="36" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
       <c r="R313" s="36" t="s">
         <v>957</v>
@@ -33122,7 +33104,7 @@
         <v>966</v>
       </c>
       <c r="Q317" s="36" t="s">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="R317" s="36" t="s">
         <v>968</v>
@@ -33131,7 +33113,7 @@
         <v>969</v>
       </c>
       <c r="T317" s="36" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
       <c r="U317" s="55" t="s">
         <v>970</v>
@@ -33288,13 +33270,13 @@
         <v>1000</v>
       </c>
       <c r="U319" s="55" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="V319" s="55" t="s">
-        <v>1621</v>
+        <v>1606</v>
       </c>
       <c r="W319" s="55" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
       <c r="X319" s="55" t="s">
         <v>1143</v>
@@ -33303,7 +33285,7 @@
         <v>1145</v>
       </c>
       <c r="Z319" s="36" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="320" spans="1:26" ht="27" x14ac:dyDescent="0.15">
@@ -33367,7 +33349,7 @@
         <v>1000</v>
       </c>
       <c r="U320" s="55" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="V320" s="55" t="s">
         <v>976</v>
@@ -33382,7 +33364,7 @@
         <v>1146</v>
       </c>
       <c r="Z320" s="36" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="321" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -33452,7 +33434,7 @@
         <v>979</v>
       </c>
       <c r="W321" s="55" t="s">
-        <v>1543</v>
+        <v>1531</v>
       </c>
       <c r="X321" s="55" t="s">
         <v>1143</v>
@@ -34433,7 +34415,7 @@
         <v>987</v>
       </c>
       <c r="W334" s="55" t="s">
-        <v>1544</v>
+        <v>1532</v>
       </c>
       <c r="X334" s="55" t="s">
         <v>1143</v>
@@ -34658,17 +34640,17 @@
         <v>1000</v>
       </c>
       <c r="U337" s="49" t="s">
-        <v>1545</v>
+        <v>1533</v>
       </c>
       <c r="V337" s="49" t="s">
-        <v>1547</v>
+        <v>1535</v>
       </c>
       <c r="W337" s="42" t="s">
         <v>1110</v>
       </c>
       <c r="X337" s="42"/>
       <c r="Y337" s="42" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="Z337" s="36"/>
     </row>
@@ -34809,7 +34791,7 @@
         <v>1004</v>
       </c>
       <c r="T339" s="36" t="s">
-        <v>1548</v>
+        <v>1536</v>
       </c>
       <c r="U339" s="55" t="s">
         <v>1005</v>
@@ -36160,10 +36142,10 @@
         <v>1009</v>
       </c>
       <c r="S357" s="36" t="s">
-        <v>1629</v>
+        <v>1614</v>
       </c>
       <c r="T357" s="36" t="s">
-        <v>1632</v>
+        <v>1617</v>
       </c>
       <c r="U357" s="55" t="s">
         <v>1010</v>
@@ -36233,7 +36215,7 @@
         <v>1019</v>
       </c>
       <c r="Q358" s="36" t="s">
-        <v>1550</v>
+        <v>1538</v>
       </c>
       <c r="R358" s="36" t="s">
         <v>1018</v>
@@ -36242,7 +36224,7 @@
         <v>1022</v>
       </c>
       <c r="T358" s="36" t="s">
-        <v>1549</v>
+        <v>1537</v>
       </c>
       <c r="U358" s="55" t="s">
         <v>1016</v>
@@ -36254,7 +36236,7 @@
         <v>1247</v>
       </c>
       <c r="X358" s="38" t="s">
-        <v>1408</v>
+        <v>1627</v>
       </c>
       <c r="Y358" s="39" t="s">
         <v>1248</v>
@@ -36331,7 +36313,7 @@
         <v>354</v>
       </c>
       <c r="X359" s="38" t="s">
-        <v>1408</v>
+        <v>1627</v>
       </c>
       <c r="Y359" s="39" t="s">
         <v>1248</v>
@@ -36396,7 +36378,7 @@
         <v>154</v>
       </c>
       <c r="T360" s="36" t="s">
-        <v>1551</v>
+        <v>1539</v>
       </c>
       <c r="U360" s="55" t="s">
         <v>40</v>
@@ -36551,7 +36533,7 @@
         <v>1086</v>
       </c>
       <c r="U362" s="42" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="V362" s="77" t="s">
         <v>1086</v>
@@ -36560,10 +36542,10 @@
         <v>1110</v>
       </c>
       <c r="X362" s="42" t="s">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="Y362" s="42" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Z362" s="36"/>
     </row>
@@ -36628,7 +36610,7 @@
         <v>1086</v>
       </c>
       <c r="U363" s="42" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="V363" s="77" t="s">
         <v>1086</v>
@@ -36637,10 +36619,10 @@
         <v>1110</v>
       </c>
       <c r="X363" s="42" t="s">
-        <v>1409</v>
+        <v>1629</v>
       </c>
       <c r="Y363" s="42" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Z363" s="36"/>
     </row>
@@ -36714,7 +36696,7 @@
         <v>1110</v>
       </c>
       <c r="X364" s="42" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Y364" s="42" t="s">
         <v>1267</v>
@@ -36782,7 +36764,7 @@
         <v>1086</v>
       </c>
       <c r="U365" s="55" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
       <c r="V365" s="75" t="s">
         <v>1086</v>
@@ -36791,10 +36773,10 @@
         <v>1110</v>
       </c>
       <c r="X365" s="42" t="s">
+        <v>1630</v>
+      </c>
+      <c r="Y365" s="42" t="s">
         <v>1268</v>
-      </c>
-      <c r="Y365" s="42" t="s">
-        <v>1269</v>
       </c>
       <c r="Z365" s="36"/>
     </row>
@@ -36859,7 +36841,7 @@
         <v>1086</v>
       </c>
       <c r="U366" s="55" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="V366" s="75" t="s">
         <v>1086</v>
@@ -36868,10 +36850,10 @@
         <v>1110</v>
       </c>
       <c r="X366" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y366" s="42" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Z366" s="36"/>
     </row>
@@ -36936,7 +36918,7 @@
         <v>1086</v>
       </c>
       <c r="U367" s="55" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="V367" s="75" t="s">
         <v>1086</v>
@@ -36945,10 +36927,10 @@
         <v>1110</v>
       </c>
       <c r="X367" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y367" s="42" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Z367" s="36"/>
     </row>
@@ -37013,7 +36995,7 @@
         <v>1086</v>
       </c>
       <c r="U368" s="55" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V368" s="75" t="s">
         <v>1086</v>
@@ -37022,10 +37004,10 @@
         <v>1110</v>
       </c>
       <c r="X368" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y368" s="42" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Z368" s="36"/>
     </row>
@@ -37090,7 +37072,7 @@
         <v>1086</v>
       </c>
       <c r="U369" s="55" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="V369" s="75" t="s">
         <v>1086</v>
@@ -37099,10 +37081,10 @@
         <v>1110</v>
       </c>
       <c r="X369" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y369" s="42" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Z369" s="36"/>
     </row>
@@ -37167,7 +37149,7 @@
         <v>1086</v>
       </c>
       <c r="U370" s="55" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="V370" s="75" t="s">
         <v>1086</v>
@@ -37176,10 +37158,10 @@
         <v>1110</v>
       </c>
       <c r="X370" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y370" s="42" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Z370" s="36"/>
     </row>
@@ -37244,7 +37226,7 @@
         <v>1086</v>
       </c>
       <c r="U371" s="55" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="V371" s="75" t="s">
         <v>1086</v>
@@ -37253,10 +37235,10 @@
         <v>1110</v>
       </c>
       <c r="X371" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y371" s="42" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Z371" s="36"/>
     </row>
@@ -37321,7 +37303,7 @@
         <v>1086</v>
       </c>
       <c r="U372" s="55" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="V372" s="75" t="s">
         <v>1086</v>
@@ -37330,10 +37312,10 @@
         <v>1110</v>
       </c>
       <c r="X372" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y372" s="42" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Z372" s="36"/>
     </row>
@@ -37398,7 +37380,7 @@
         <v>1086</v>
       </c>
       <c r="U373" s="55" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="V373" s="75" t="s">
         <v>1086</v>
@@ -37407,10 +37389,10 @@
         <v>1110</v>
       </c>
       <c r="X373" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y373" s="42" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Z373" s="36"/>
     </row>
@@ -37475,7 +37457,7 @@
         <v>1086</v>
       </c>
       <c r="U374" s="55" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="V374" s="75" t="s">
         <v>1086</v>
@@ -37484,10 +37466,10 @@
         <v>1110</v>
       </c>
       <c r="X374" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y374" s="42" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Z374" s="36"/>
     </row>
@@ -37552,7 +37534,7 @@
         <v>1086</v>
       </c>
       <c r="U375" s="55" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="V375" s="75" t="s">
         <v>1086</v>
@@ -37561,10 +37543,10 @@
         <v>1110</v>
       </c>
       <c r="X375" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y375" s="42" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Z375" s="36"/>
     </row>
@@ -37629,7 +37611,7 @@
         <v>1086</v>
       </c>
       <c r="U376" s="55" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="V376" s="75" t="s">
         <v>1086</v>
@@ -37638,10 +37620,10 @@
         <v>1110</v>
       </c>
       <c r="X376" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y376" s="42" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Z376" s="36"/>
     </row>
@@ -37706,7 +37688,7 @@
         <v>1086</v>
       </c>
       <c r="U377" s="55" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="V377" s="75" t="s">
         <v>1086</v>
@@ -37715,10 +37697,10 @@
         <v>1110</v>
       </c>
       <c r="X377" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y377" s="42" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="Z377" s="36"/>
     </row>
@@ -37783,7 +37765,7 @@
         <v>1086</v>
       </c>
       <c r="U378" s="55" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="V378" s="75" t="s">
         <v>1086</v>
@@ -37792,10 +37774,10 @@
         <v>1110</v>
       </c>
       <c r="X378" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y378" s="42" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Z378" s="36"/>
     </row>
@@ -37860,7 +37842,7 @@
         <v>1086</v>
       </c>
       <c r="U379" s="55" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="V379" s="75" t="s">
         <v>1086</v>
@@ -37869,10 +37851,10 @@
         <v>1110</v>
       </c>
       <c r="X379" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y379" s="42" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Z379" s="36"/>
     </row>
@@ -37937,7 +37919,7 @@
         <v>1086</v>
       </c>
       <c r="U380" s="55" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="V380" s="75" t="s">
         <v>1086</v>
@@ -37946,10 +37928,10 @@
         <v>1110</v>
       </c>
       <c r="X380" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y380" s="42" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Z380" s="36"/>
     </row>
@@ -38014,7 +37996,7 @@
         <v>1086</v>
       </c>
       <c r="U381" s="55" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="V381" s="75" t="s">
         <v>1086</v>
@@ -38023,10 +38005,10 @@
         <v>1110</v>
       </c>
       <c r="X381" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y381" s="42" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Z381" s="36"/>
     </row>
@@ -38091,7 +38073,7 @@
         <v>1086</v>
       </c>
       <c r="U382" s="55" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="V382" s="75" t="s">
         <v>1086</v>
@@ -38100,10 +38082,10 @@
         <v>1110</v>
       </c>
       <c r="X382" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y382" s="42" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="Z382" s="36"/>
     </row>
@@ -38168,7 +38150,7 @@
         <v>1086</v>
       </c>
       <c r="U383" s="55" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="V383" s="75" t="s">
         <v>1086</v>
@@ -38177,10 +38159,10 @@
         <v>1110</v>
       </c>
       <c r="X383" s="42" t="s">
-        <v>1268</v>
+        <v>1630</v>
       </c>
       <c r="Y383" s="42" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Z383" s="36"/>
     </row>
@@ -38245,7 +38227,7 @@
         <v>1086</v>
       </c>
       <c r="U384" s="55" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="V384" s="75" t="s">
         <v>1086</v>
@@ -38254,10 +38236,10 @@
         <v>1110</v>
       </c>
       <c r="X384" s="42" t="s">
-        <v>1314</v>
+        <v>1630</v>
       </c>
       <c r="Y384" s="42" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Z384" s="36"/>
     </row>
@@ -38322,7 +38304,7 @@
         <v>1086</v>
       </c>
       <c r="U385" s="55" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
       <c r="V385" s="75" t="s">
         <v>1086</v>
@@ -38331,10 +38313,10 @@
         <v>1110</v>
       </c>
       <c r="X385" s="42" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="Y385" s="42" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Z385" s="36"/>
     </row>
@@ -38399,7 +38381,7 @@
         <v>1086</v>
       </c>
       <c r="U386" s="55" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="V386" s="75" t="s">
         <v>1086</v>
@@ -38408,10 +38390,10 @@
         <v>1110</v>
       </c>
       <c r="X386" s="42" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="Y386" s="42" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="Z386" s="36"/>
     </row>
@@ -38476,7 +38458,7 @@
         <v>1086</v>
       </c>
       <c r="U387" s="55" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="V387" s="75" t="s">
         <v>1086</v>
@@ -38485,10 +38467,10 @@
         <v>1110</v>
       </c>
       <c r="X387" s="42" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="Y387" s="42" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="Z387" s="36"/>
     </row>
@@ -38553,7 +38535,7 @@
         <v>1086</v>
       </c>
       <c r="U388" s="55" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="V388" s="75" t="s">
         <v>1086</v>
@@ -38562,10 +38544,10 @@
         <v>1110</v>
       </c>
       <c r="X388" s="42" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="Y388" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="Z388" s="36"/>
     </row>
@@ -38615,26 +38597,26 @@
         <v>856</v>
       </c>
       <c r="P389" s="36" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Q389" s="36"/>
       <c r="R389" s="36"/>
       <c r="S389" s="36"/>
       <c r="T389" s="36"/>
       <c r="U389" s="55" t="s">
+        <v>1310</v>
+      </c>
+      <c r="V389" s="36" t="s">
         <v>1311</v>
-      </c>
-      <c r="V389" s="36" t="s">
-        <v>1312</v>
       </c>
       <c r="W389" s="42" t="s">
         <v>1110</v>
       </c>
       <c r="X389" s="42" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
       <c r="Y389" s="42" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Z389" s="36"/>
     </row>
@@ -38686,34 +38668,34 @@
         <v>856</v>
       </c>
       <c r="P390" s="36" t="s">
+        <v>1322</v>
+      </c>
+      <c r="Q390" s="36" t="s">
+        <v>1323</v>
+      </c>
+      <c r="R390" s="36" t="s">
         <v>1324</v>
       </c>
-      <c r="Q390" s="36" t="s">
+      <c r="S390" s="36" t="s">
         <v>1325</v>
       </c>
-      <c r="R390" s="36" t="s">
-        <v>1326</v>
-      </c>
-      <c r="S390" s="36" t="s">
-        <v>1327</v>
-      </c>
       <c r="T390" s="36" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="U390" s="55" t="s">
+        <v>1328</v>
+      </c>
+      <c r="V390" s="55" t="s">
+        <v>1356</v>
+      </c>
+      <c r="W390" s="55" t="s">
+        <v>1329</v>
+      </c>
+      <c r="X390" s="55" t="s">
         <v>1330</v>
       </c>
-      <c r="V390" s="55" t="s">
-        <v>1358</v>
-      </c>
-      <c r="W390" s="55" t="s">
+      <c r="Y390" s="73" t="s">
         <v>1331</v>
-      </c>
-      <c r="X390" s="55" t="s">
-        <v>1332</v>
-      </c>
-      <c r="Y390" s="73" t="s">
-        <v>1333</v>
       </c>
       <c r="Z390" s="36"/>
     </row>
@@ -38763,32 +38745,32 @@
         <v>856</v>
       </c>
       <c r="P391" s="36" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q391" s="36" t="s">
+        <v>1332</v>
+      </c>
+      <c r="R391" s="36" t="s">
+        <v>1333</v>
+      </c>
+      <c r="S391" s="36" t="s">
         <v>1334</v>
-      </c>
-      <c r="R391" s="36" t="s">
-        <v>1335</v>
-      </c>
-      <c r="S391" s="36" t="s">
-        <v>1336</v>
       </c>
       <c r="T391" s="36"/>
       <c r="U391" s="55" t="s">
+        <v>1328</v>
+      </c>
+      <c r="V391" s="55" t="s">
+        <v>1354</v>
+      </c>
+      <c r="W391" s="55" t="s">
+        <v>1335</v>
+      </c>
+      <c r="X391" s="55" t="s">
         <v>1330</v>
       </c>
-      <c r="V391" s="55" t="s">
-        <v>1356</v>
-      </c>
-      <c r="W391" s="55" t="s">
-        <v>1337</v>
-      </c>
-      <c r="X391" s="55" t="s">
-        <v>1332</v>
-      </c>
       <c r="Y391" s="73" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="Z391" s="36"/>
     </row>
@@ -38838,32 +38820,32 @@
         <v>856</v>
       </c>
       <c r="P392" s="36" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q392" s="36" t="s">
+        <v>1337</v>
+      </c>
+      <c r="R392" s="36" t="s">
+        <v>1338</v>
+      </c>
+      <c r="S392" s="36" t="s">
         <v>1339</v>
-      </c>
-      <c r="R392" s="36" t="s">
-        <v>1340</v>
-      </c>
-      <c r="S392" s="36" t="s">
-        <v>1341</v>
       </c>
       <c r="T392" s="36"/>
       <c r="U392" s="55" t="s">
+        <v>1340</v>
+      </c>
+      <c r="V392" s="55" t="s">
+        <v>1355</v>
+      </c>
+      <c r="W392" s="55" t="s">
+        <v>1341</v>
+      </c>
+      <c r="X392" s="55" t="s">
+        <v>1330</v>
+      </c>
+      <c r="Y392" s="73" t="s">
         <v>1342</v>
-      </c>
-      <c r="V392" s="55" t="s">
-        <v>1357</v>
-      </c>
-      <c r="W392" s="55" t="s">
-        <v>1343</v>
-      </c>
-      <c r="X392" s="55" t="s">
-        <v>1332</v>
-      </c>
-      <c r="Y392" s="73" t="s">
-        <v>1344</v>
       </c>
       <c r="Z392" s="36"/>
     </row>
@@ -38913,32 +38895,32 @@
         <v>856</v>
       </c>
       <c r="P393" s="36" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q393" s="36" t="s">
+        <v>1343</v>
+      </c>
+      <c r="R393" s="36" t="s">
         <v>1345</v>
       </c>
-      <c r="R393" s="36" t="s">
-        <v>1347</v>
-      </c>
       <c r="S393" s="36" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="T393" s="36"/>
       <c r="U393" s="55" t="s">
+        <v>1346</v>
+      </c>
+      <c r="V393" s="55" t="s">
+        <v>1347</v>
+      </c>
+      <c r="W393" s="55" t="s">
         <v>1348</v>
       </c>
-      <c r="V393" s="55" t="s">
+      <c r="X393" s="55" t="s">
+        <v>1330</v>
+      </c>
+      <c r="Y393" s="73" t="s">
         <v>1349</v>
-      </c>
-      <c r="W393" s="55" t="s">
-        <v>1350</v>
-      </c>
-      <c r="X393" s="55" t="s">
-        <v>1332</v>
-      </c>
-      <c r="Y393" s="73" t="s">
-        <v>1351</v>
       </c>
       <c r="Z393" s="36"/>
     </row>
@@ -38988,22 +38970,22 @@
         <v>856</v>
       </c>
       <c r="P394" s="36" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q394" s="36" t="s">
+        <v>1350</v>
+      </c>
+      <c r="R394" s="36" t="s">
         <v>1352</v>
       </c>
-      <c r="R394" s="36" t="s">
-        <v>1354</v>
-      </c>
       <c r="S394" s="36" t="s">
+        <v>1351</v>
+      </c>
+      <c r="T394" s="36" t="s">
+        <v>1327</v>
+      </c>
+      <c r="U394" s="55" t="s">
         <v>1353</v>
-      </c>
-      <c r="T394" s="36" t="s">
-        <v>1329</v>
-      </c>
-      <c r="U394" s="55" t="s">
-        <v>1355</v>
       </c>
       <c r="V394" s="55" t="s">
         <v>621</v>
@@ -39012,7 +38994,7 @@
         <v>371</v>
       </c>
       <c r="X394" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y394" s="54" t="s">
         <v>677</v>
@@ -39065,7 +39047,7 @@
         <v>856</v>
       </c>
       <c r="P395" s="36" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q395" s="36" t="s">
         <v>310</v>
@@ -39078,7 +39060,7 @@
       </c>
       <c r="T395" s="36"/>
       <c r="U395" s="37" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
       <c r="V395" s="38" t="s">
         <v>620</v>
@@ -39087,7 +39069,7 @@
         <v>370</v>
       </c>
       <c r="X395" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y395" s="80" t="s">
         <v>676</v>
@@ -39140,7 +39122,7 @@
         <v>856</v>
       </c>
       <c r="P396" s="36" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q396" s="36" t="s">
         <v>315</v>
@@ -39159,10 +39141,10 @@
         <v>622</v>
       </c>
       <c r="W396" s="37" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="X396" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y396" s="80" t="s">
         <v>678</v>
@@ -39215,7 +39197,7 @@
         <v>856</v>
       </c>
       <c r="P397" s="36" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q397" s="36" t="s">
         <v>315</v>
@@ -39237,7 +39219,7 @@
         <v>373</v>
       </c>
       <c r="X397" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y397" s="80" t="s">
         <v>392</v>
@@ -39290,7 +39272,7 @@
         <v>856</v>
       </c>
       <c r="P398" s="36" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q398" s="36" t="s">
         <v>315</v>
@@ -39312,7 +39294,7 @@
         <v>374</v>
       </c>
       <c r="X398" s="38" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="Y398" s="80" t="s">
         <v>654</v>
@@ -39325,7 +39307,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="81" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C399" s="82" t="s">
         <v>856</v>
@@ -39367,31 +39349,31 @@
         <v>856</v>
       </c>
       <c r="P399" s="36" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q399" s="36" t="s">
+        <v>1359</v>
+      </c>
+      <c r="R399" s="36" t="s">
         <v>1360</v>
       </c>
-      <c r="Q399" s="36" t="s">
+      <c r="S399" s="36" t="s">
         <v>1361</v>
       </c>
-      <c r="R399" s="36" t="s">
+      <c r="T399" s="36" t="s">
         <v>1362</v>
       </c>
-      <c r="S399" s="36" t="s">
+      <c r="U399" s="83" t="s">
+        <v>1544</v>
+      </c>
+      <c r="V399" s="83" t="s">
         <v>1363</v>
-      </c>
-      <c r="T399" s="36" t="s">
-        <v>1364</v>
-      </c>
-      <c r="U399" s="83" t="s">
-        <v>1556</v>
-      </c>
-      <c r="V399" s="83" t="s">
-        <v>1365</v>
       </c>
       <c r="W399" s="83" t="s">
         <v>971</v>
       </c>
       <c r="X399" s="83" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="Y399" s="84" t="s">
         <v>1140</v>
@@ -39444,34 +39426,34 @@
         <v>856</v>
       </c>
       <c r="P400" s="36" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q400" s="36" t="s">
+        <v>1359</v>
+      </c>
+      <c r="R400" s="36" t="s">
         <v>1360</v>
       </c>
-      <c r="Q400" s="36" t="s">
+      <c r="S400" s="36" t="s">
         <v>1361</v>
       </c>
-      <c r="R400" s="36" t="s">
+      <c r="T400" s="36" t="s">
         <v>1362</v>
       </c>
-      <c r="S400" s="36" t="s">
-        <v>1363</v>
-      </c>
-      <c r="T400" s="36" t="s">
+      <c r="U400" s="83" t="s">
+        <v>1365</v>
+      </c>
+      <c r="V400" s="83" t="s">
+        <v>1366</v>
+      </c>
+      <c r="W400" s="83" t="s">
+        <v>1367</v>
+      </c>
+      <c r="X400" s="83" t="s">
         <v>1364</v>
       </c>
-      <c r="U400" s="83" t="s">
-        <v>1367</v>
-      </c>
-      <c r="V400" s="83" t="s">
+      <c r="Y400" s="84" t="s">
         <v>1368</v>
-      </c>
-      <c r="W400" s="83" t="s">
-        <v>1369</v>
-      </c>
-      <c r="X400" s="83" t="s">
-        <v>1366</v>
-      </c>
-      <c r="Y400" s="84" t="s">
-        <v>1370</v>
       </c>
       <c r="Z400" s="36"/>
     </row>
@@ -39521,32 +39503,32 @@
         <v>856</v>
       </c>
       <c r="P401" s="36" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="Q401" s="36" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
       <c r="R401" s="36" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
       <c r="S401" s="36" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="T401" s="36" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="U401" s="82" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
       <c r="V401" s="82" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
       <c r="W401" s="87" t="s">
         <v>1204</v>
       </c>
       <c r="X401" s="87"/>
       <c r="Y401" s="88" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
       <c r="Z401" s="36"/>
     </row>
@@ -39556,7 +39538,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="81" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="C402" s="82" t="s">
         <v>856</v>
@@ -39598,7 +39580,7 @@
         <v>856</v>
       </c>
       <c r="P402" s="36" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="Q402" s="36" t="s">
         <v>856</v>
@@ -39613,19 +39595,19 @@
         <v>856</v>
       </c>
       <c r="U402" s="83" t="s">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="V402" s="83" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="W402" s="87" t="s">
         <v>1204</v>
       </c>
       <c r="X402" s="87" t="s">
-        <v>1439</v>
+        <v>1631</v>
       </c>
       <c r="Y402" s="88" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="Z402" s="36"/>
     </row>
@@ -39675,7 +39657,7 @@
         <v>856</v>
       </c>
       <c r="P403" s="36" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="Q403" s="36" t="s">
         <v>856</v>
@@ -39690,19 +39672,19 @@
         <v>856</v>
       </c>
       <c r="U403" s="83" t="s">
-        <v>1564</v>
+        <v>1552</v>
       </c>
       <c r="V403" s="83" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="W403" s="87" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="X403" s="87" t="s">
-        <v>1439</v>
+        <v>1631</v>
       </c>
       <c r="Y403" s="88" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="Z403" s="36"/>
     </row>
@@ -39752,7 +39734,7 @@
         <v>856</v>
       </c>
       <c r="P404" s="36" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="Q404" s="36" t="s">
         <v>856</v>
@@ -39767,13 +39749,13 @@
         <v>856</v>
       </c>
       <c r="U404" s="83" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="V404" s="83" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="W404" s="87" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="X404" s="87"/>
       <c r="Y404" s="88"/>
@@ -39825,7 +39807,7 @@
         <v>856</v>
       </c>
       <c r="P405" s="36" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="Q405" s="36" t="s">
         <v>856</v>
@@ -39840,13 +39822,13 @@
         <v>856</v>
       </c>
       <c r="U405" s="83" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
       <c r="V405" s="83" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="W405" s="87" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="X405" s="87"/>
       <c r="Y405" s="88"/>

--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3C72DD-70FD-4644-9CF4-89FCE8DAA314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E138822-2F27-4F88-AC43-3801C689E2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
     <sheet name="default-configurationプロパティ定義一覧" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'default-configurationプロパティ定義一覧'!$A$2:$AA$405</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'default-configurationプロパティ定義一覧'!$A$2:$AA$401</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'default-configurationプロパティ定義一覧'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9270" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9181" uniqueCount="1616">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -5790,57 +5790,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ETL</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ETL機能を使用するための環境設定</t>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>カンキョウセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>プレースホルダー無し</t>
-  </si>
-  <si>
-    <t>入力ファイルを配置するディレクトリのパス
-（ファイル入力を行う場合）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ctlファイルを配置するディレクトリのパス
-(Oracle SQL*Loaderを使用したデータのロード を行う場合)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実行ログを出力するディレクトリのパス
-(Oracle SQL*Loaderを使用したデータのロード を行う場合)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ETL機能を使用するための環境設定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ETL機能を使用するための環境設定</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>testdata/input</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>testdata/output</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロジェクトで使用するときは、プロジェクトの要件や環境に合わせた値に見直すこと。</t>
     <rPh sb="7" eb="9">
       <t>シヨウ</t>
@@ -5863,14 +5812,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出力ファイルを配置するディレクトリのパス
-(ファイル出力を行う場合）</t>
-    <rPh sb="26" eb="28">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>com.zaxxer.hikari.HikariDataSource</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6353,22 +6294,6 @@
   <si>
     <t>application/json</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>nablarch.etl.inputFileBasePath</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nablarch.etl.outputFileBasePath</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nablarch.etl.sqlLoaderControlFileBasePath</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nablarch.etl.sqlLoaderOutputFileBasePath</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>nablarch.fw.web.servlet.WebFrontController</t>
@@ -6789,9 +6714,6 @@
 RESTfulウェブサービスプロジェクト/main/resources/messages.properties
 Nablarchバッチプロジェクト/main/resources/messages.properties
 Jakarta Batchに準拠したバッチプロジェクト/main/resources/messages.properties</t>
-  </si>
-  <si>
-    <t>Jakarta Batchに準拠したバッチプロジェクト/env.properties</t>
   </si>
 </sst>
 </file>
@@ -7123,7 +7045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7389,9 +7311,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8632,7 +8551,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -8772,10 +8691,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z405"/>
+  <dimension ref="A1:Z401"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="17" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
       <selection pane="bottomRight"/>
@@ -8808,21 +8727,21 @@
       <c r="B1" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="89" t="s">
         <v>767</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="91"/>
       <c r="P1" s="4" t="s">
         <v>762</v>
       </c>
@@ -8876,7 +8795,7 @@
         <v>1097</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>1098</v>
@@ -8897,7 +8816,7 @@
         <v>1395</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>1616</v>
+        <v>1601</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="15"/>
@@ -8968,7 +8887,7 @@
         <v>6</v>
       </c>
       <c r="S3" s="36" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="T3" s="36" t="s">
         <v>1084</v>
@@ -8983,7 +8902,7 @@
         <v>865</v>
       </c>
       <c r="X3" s="38" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
       <c r="Y3" s="39" t="s">
         <v>657</v>
@@ -9062,7 +8981,7 @@
         <v>357</v>
       </c>
       <c r="X4" s="38" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
       <c r="Y4" s="39" t="s">
         <v>658</v>
@@ -9138,10 +9057,10 @@
         <v>7</v>
       </c>
       <c r="W5" s="37" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
       <c r="X5" s="38" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
       <c r="Y5" s="39" t="s">
         <v>685</v>
@@ -9300,7 +9219,7 @@
         <v>1401</v>
       </c>
       <c r="Y7" s="45" t="s">
-        <v>1440</v>
+        <v>1429</v>
       </c>
       <c r="Z7" s="36" t="s">
         <v>278</v>
@@ -9452,7 +9371,7 @@
         <v>610</v>
       </c>
       <c r="W9" s="37" t="s">
-        <v>1490</v>
+        <v>1479</v>
       </c>
       <c r="X9" s="38" t="s">
         <v>1401</v>
@@ -9674,10 +9593,10 @@
         <v>1050</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="U12" s="37" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="V12" s="38" t="s">
         <v>1054</v>
@@ -9749,20 +9668,20 @@
         <v>1050</v>
       </c>
       <c r="T13" s="36" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="U13" s="49" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>1592</v>
+        <v>1577</v>
       </c>
       <c r="W13" s="42" t="s">
         <v>1204</v>
       </c>
       <c r="X13" s="42"/>
       <c r="Y13" s="42" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
       <c r="Z13" s="36"/>
     </row>
@@ -9824,7 +9743,7 @@
         <v>1050</v>
       </c>
       <c r="T14" s="36" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="U14" s="37" t="s">
         <v>1049</v>
@@ -9899,7 +9818,7 @@
         <v>1050</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="U15" s="37" t="s">
         <v>1049</v>
@@ -9974,13 +9893,13 @@
         <v>1050</v>
       </c>
       <c r="T16" s="36" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="U16" s="37" t="s">
         <v>1049</v>
       </c>
       <c r="V16" s="38" t="s">
-        <v>1593</v>
+        <v>1578</v>
       </c>
       <c r="W16" s="42" t="s">
         <v>1110</v>
@@ -10042,7 +9961,7 @@
         <v>769</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
       <c r="R17" s="36" t="s">
         <v>21</v>
@@ -10051,7 +9970,7 @@
         <v>20</v>
       </c>
       <c r="T17" s="36" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
       <c r="U17" s="37" t="s">
         <v>12</v>
@@ -10282,10 +10201,10 @@
         <v>157</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
       <c r="U20" s="37" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
       <c r="V20" s="38" t="s">
         <v>572</v>
@@ -10355,7 +10274,7 @@
         <v>154</v>
       </c>
       <c r="T21" s="36" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
       <c r="U21" s="37" t="s">
         <v>40</v>
@@ -10421,16 +10340,16 @@
         <v>769</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
       <c r="R22" s="36" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="T22" s="36" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="U22" s="37" t="s">
         <v>12</v>
@@ -10663,7 +10582,7 @@
         <v>27</v>
       </c>
       <c r="T25" s="36" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="U25" s="37" t="s">
         <v>751</v>
@@ -10731,7 +10650,7 @@
         <v>801</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="R26" s="36" t="s">
         <v>855</v>
@@ -10903,7 +10822,7 @@
         <v>625</v>
       </c>
       <c r="W28" s="37" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="X28" s="51" t="s">
         <v>1402</v>
@@ -11061,7 +10980,7 @@
         <v>627</v>
       </c>
       <c r="W30" s="37" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="X30" s="51" t="s">
         <v>1402</v>
@@ -11213,7 +11132,7 @@
         <v>1320</v>
       </c>
       <c r="U32" s="37" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="V32" s="38" t="s">
         <v>629</v>
@@ -11291,7 +11210,7 @@
         <v>42</v>
       </c>
       <c r="T33" s="36" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="U33" s="37" t="s">
         <v>641</v>
@@ -11456,7 +11375,7 @@
         <v>643</v>
       </c>
       <c r="W35" s="37" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="X35" s="38" t="s">
         <v>1157</v>
@@ -11693,7 +11612,7 @@
         <v>649</v>
       </c>
       <c r="W38" s="37" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
       <c r="X38" s="38" t="s">
         <v>508</v>
@@ -12324,19 +12243,19 @@
         <v>1093</v>
       </c>
       <c r="V46" s="38" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="W46" s="37" t="s">
         <v>803</v>
       </c>
       <c r="X46" s="49" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="Y46" s="39" t="s">
         <v>654</v>
       </c>
       <c r="Z46" s="36" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12399,7 +12318,7 @@
         <v>56</v>
       </c>
       <c r="T47" s="36" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="U47" s="37" t="s">
         <v>54</v>
@@ -12474,7 +12393,7 @@
         <v>58</v>
       </c>
       <c r="T48" s="36" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="U48" s="37" t="s">
         <v>12</v>
@@ -12707,7 +12626,7 @@
         <v>63</v>
       </c>
       <c r="T51" s="36" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
       <c r="U51" s="37" t="s">
         <v>61</v>
@@ -12864,7 +12783,7 @@
         <v>706</v>
       </c>
       <c r="W53" s="37" t="s">
-        <v>1469</v>
+        <v>1458</v>
       </c>
       <c r="X53" s="38" t="s">
         <v>553</v>
@@ -14665,13 +14584,13 @@
         <v>775</v>
       </c>
       <c r="Q76" s="36" t="s">
-        <v>1471</v>
+        <v>1460</v>
       </c>
       <c r="R76" s="36" t="s">
         <v>155</v>
       </c>
       <c r="S76" s="36" t="s">
-        <v>1470</v>
+        <v>1459</v>
       </c>
       <c r="T76" s="36" t="s">
         <v>1082</v>
@@ -14751,7 +14670,7 @@
         <v>225</v>
       </c>
       <c r="T77" s="36" t="s">
-        <v>1472</v>
+        <v>1461</v>
       </c>
       <c r="U77" s="37" t="s">
         <v>223</v>
@@ -14763,7 +14682,7 @@
         <v>359</v>
       </c>
       <c r="X77" s="35" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="Y77" s="39" t="s">
         <v>659</v>
@@ -14821,7 +14740,7 @@
         <v>822</v>
       </c>
       <c r="Q78" s="36" t="s">
-        <v>1475</v>
+        <v>1464</v>
       </c>
       <c r="R78" s="36" t="s">
         <v>229</v>
@@ -14830,7 +14749,7 @@
         <v>228</v>
       </c>
       <c r="T78" s="36" t="s">
-        <v>1473</v>
+        <v>1462</v>
       </c>
       <c r="U78" s="37" t="s">
         <v>741</v>
@@ -14842,7 +14761,7 @@
         <v>1100</v>
       </c>
       <c r="X78" s="35" t="s">
-        <v>1621</v>
+        <v>1606</v>
       </c>
       <c r="Y78" s="39" t="s">
         <v>653</v>
@@ -14919,7 +14838,7 @@
         <v>1101</v>
       </c>
       <c r="X79" s="35" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="Y79" s="39" t="s">
         <v>660</v>
@@ -14981,7 +14900,7 @@
         <v>234</v>
       </c>
       <c r="S80" s="36" t="s">
-        <v>1476</v>
+        <v>1465</v>
       </c>
       <c r="T80" s="36" t="s">
         <v>839</v>
@@ -14993,10 +14912,10 @@
         <v>602</v>
       </c>
       <c r="W80" s="37" t="s">
-        <v>1474</v>
+        <v>1463</v>
       </c>
       <c r="X80" s="35" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="Y80" s="39" t="s">
         <v>662</v>
@@ -15138,7 +15057,7 @@
         <v>237</v>
       </c>
       <c r="T82" s="36" t="s">
-        <v>1477</v>
+        <v>1466</v>
       </c>
       <c r="U82" s="37" t="s">
         <v>235</v>
@@ -15150,7 +15069,7 @@
         <v>1158</v>
       </c>
       <c r="X82" s="38" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="Y82" s="39" t="s">
         <v>661</v>
@@ -15227,10 +15146,10 @@
         <v>1085</v>
       </c>
       <c r="X83" s="51" t="s">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="Y83" s="39" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
       <c r="Z83" s="36"/>
     </row>
@@ -15303,7 +15222,7 @@
         <v>186</v>
       </c>
       <c r="W84" s="37" t="s">
-        <v>1478</v>
+        <v>1467</v>
       </c>
       <c r="X84" s="38" t="s">
         <v>538</v>
@@ -15616,13 +15535,13 @@
         <v>1092</v>
       </c>
       <c r="X88" s="49" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="Y88" s="54" t="s">
         <v>898</v>
       </c>
       <c r="Z88" s="36" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="89" spans="1:26" s="23" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
@@ -15697,7 +15616,7 @@
         <v>1387</v>
       </c>
       <c r="X89" s="55" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="Y89" s="54" t="s">
         <v>1315</v>
@@ -15774,13 +15693,13 @@
         <v>1092</v>
       </c>
       <c r="X90" s="55" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="Y90" s="54" t="s">
         <v>898</v>
       </c>
       <c r="Z90" s="36" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15843,10 +15762,10 @@
         <v>195</v>
       </c>
       <c r="T91" s="36" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
       <c r="U91" s="37" t="s">
-        <v>1480</v>
+        <v>1469</v>
       </c>
       <c r="V91" s="38" t="s">
         <v>576</v>
@@ -15907,7 +15826,7 @@
         <v>785</v>
       </c>
       <c r="Q92" s="36" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="R92" s="36" t="s">
         <v>196</v>
@@ -16126,13 +16045,13 @@
         <v>785</v>
       </c>
       <c r="Q95" s="36" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="R95" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S95" s="36" t="s">
-        <v>1481</v>
+        <v>1470</v>
       </c>
       <c r="T95" s="36" t="s">
         <v>845</v>
@@ -16144,7 +16063,7 @@
         <v>577</v>
       </c>
       <c r="W95" s="56" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="X95" s="35"/>
       <c r="Y95" s="45"/>
@@ -16199,13 +16118,13 @@
         <v>785</v>
       </c>
       <c r="Q96" s="36" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="R96" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S96" s="36" t="s">
-        <v>1481</v>
+        <v>1470</v>
       </c>
       <c r="T96" s="36" t="s">
         <v>845</v>
@@ -16217,7 +16136,7 @@
         <v>578</v>
       </c>
       <c r="W96" s="56" t="s">
-        <v>1483</v>
+        <v>1472</v>
       </c>
       <c r="X96" s="35"/>
       <c r="Y96" s="45"/>
@@ -16272,13 +16191,13 @@
         <v>785</v>
       </c>
       <c r="Q97" s="36" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="R97" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S97" s="36" t="s">
-        <v>1481</v>
+        <v>1470</v>
       </c>
       <c r="T97" s="36" t="s">
         <v>845</v>
@@ -16290,7 +16209,7 @@
         <v>579</v>
       </c>
       <c r="W97" s="56" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="X97" s="35"/>
       <c r="Y97" s="45"/>
@@ -16573,7 +16492,7 @@
         <v>241</v>
       </c>
       <c r="T101" s="36" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
       <c r="U101" s="37" t="s">
         <v>193</v>
@@ -16582,7 +16501,7 @@
         <v>605</v>
       </c>
       <c r="W101" s="37" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
       <c r="X101" s="51" t="s">
         <v>1161</v>
@@ -16659,7 +16578,7 @@
         <v>606</v>
       </c>
       <c r="W102" s="37" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="X102" s="51" t="s">
         <v>1161</v>
@@ -16963,7 +16882,7 @@
         <v>248</v>
       </c>
       <c r="W106" s="37" t="s">
-        <v>1488</v>
+        <v>1477</v>
       </c>
       <c r="X106" s="38" t="s">
         <v>487</v>
@@ -18509,7 +18428,7 @@
         <v>487</v>
       </c>
       <c r="Y126" s="39" t="s">
-        <v>1499</v>
+        <v>1488</v>
       </c>
       <c r="Z126" s="36"/>
     </row>
@@ -18564,7 +18483,7 @@
         <v>786</v>
       </c>
       <c r="Q127" s="36" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="R127" s="36" t="s">
         <v>196</v>
@@ -18573,7 +18492,7 @@
         <v>205</v>
       </c>
       <c r="T127" s="36" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
       <c r="U127" s="37" t="s">
         <v>193</v>
@@ -18714,7 +18633,7 @@
         <v>787</v>
       </c>
       <c r="Q129" s="36" t="s">
-        <v>1439</v>
+        <v>1428</v>
       </c>
       <c r="R129" s="36" t="s">
         <v>196</v>
@@ -19618,7 +19537,7 @@
         <v>788</v>
       </c>
       <c r="Q141" s="36" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
       <c r="R141" s="36" t="s">
         <v>212</v>
@@ -19934,7 +19853,7 @@
         <v>596</v>
       </c>
       <c r="W145" s="37" t="s">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="X145" s="51"/>
       <c r="Y145" s="52"/>
@@ -20000,7 +19919,7 @@
         <v>220</v>
       </c>
       <c r="T146" s="36" t="s">
-        <v>1489</v>
+        <v>1478</v>
       </c>
       <c r="U146" s="37" t="s">
         <v>12</v>
@@ -20243,7 +20162,7 @@
         <v>1171</v>
       </c>
       <c r="X149" s="38" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="Y149" s="39" t="s">
         <v>655</v>
@@ -20298,7 +20217,7 @@
         <v>856</v>
       </c>
       <c r="P150" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q150" s="36" t="s">
         <v>324</v>
@@ -20307,10 +20226,10 @@
         <v>325</v>
       </c>
       <c r="S150" s="36" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
       <c r="T150" s="36" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="U150" s="55" t="s">
         <v>1175</v>
@@ -20322,7 +20241,7 @@
         <v>1176</v>
       </c>
       <c r="X150" s="38" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="Y150" s="54" t="s">
         <v>1177</v>
@@ -20375,7 +20294,7 @@
         <v>856</v>
       </c>
       <c r="P151" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q151" s="36" t="s">
         <v>324</v>
@@ -20387,7 +20306,7 @@
         <v>1406</v>
       </c>
       <c r="T151" s="36" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="U151" s="55" t="s">
         <v>1178</v>
@@ -20399,7 +20318,7 @@
         <v>1179</v>
       </c>
       <c r="X151" s="38" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="Y151" s="54" t="s">
         <v>1183</v>
@@ -20452,7 +20371,7 @@
         <v>856</v>
       </c>
       <c r="P152" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q152" s="36" t="s">
         <v>1174</v>
@@ -20464,7 +20383,7 @@
         <v>1406</v>
       </c>
       <c r="T152" s="36" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="U152" s="55" t="s">
         <v>1187</v>
@@ -20476,7 +20395,7 @@
         <v>1180</v>
       </c>
       <c r="X152" s="38" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="Y152" s="54" t="s">
         <v>1188</v>
@@ -20529,7 +20448,7 @@
         <v>856</v>
       </c>
       <c r="P153" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q153" s="36" t="s">
         <v>324</v>
@@ -20541,7 +20460,7 @@
         <v>1406</v>
       </c>
       <c r="T153" s="36" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="U153" s="55" t="s">
         <v>1186</v>
@@ -20553,7 +20472,7 @@
         <v>1185</v>
       </c>
       <c r="X153" s="38" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="Y153" s="54" t="s">
         <v>1182</v>
@@ -20606,7 +20525,7 @@
         <v>856</v>
       </c>
       <c r="P154" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q154" s="36" t="s">
         <v>324</v>
@@ -20618,7 +20537,7 @@
         <v>1406</v>
       </c>
       <c r="T154" s="36" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="U154" s="55" t="s">
         <v>1407</v>
@@ -20630,10 +20549,10 @@
         <v>1189</v>
       </c>
       <c r="X154" s="38" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="Y154" s="58" t="s">
-        <v>1626</v>
+        <v>1611</v>
       </c>
       <c r="Z154" s="36"/>
     </row>
@@ -20683,7 +20602,7 @@
         <v>856</v>
       </c>
       <c r="P155" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q155" s="36" t="s">
         <v>324</v>
@@ -20695,7 +20614,7 @@
         <v>1406</v>
       </c>
       <c r="T155" s="36" t="s">
-        <v>1580</v>
+        <v>1565</v>
       </c>
       <c r="U155" s="55" t="s">
         <v>1175</v>
@@ -20760,7 +20679,7 @@
         <v>856</v>
       </c>
       <c r="P156" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q156" s="36" t="s">
         <v>324</v>
@@ -20772,7 +20691,7 @@
         <v>1406</v>
       </c>
       <c r="T156" s="36" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="U156" s="55" t="s">
         <v>1178</v>
@@ -20837,7 +20756,7 @@
         <v>856</v>
       </c>
       <c r="P157" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q157" s="36" t="s">
         <v>1174</v>
@@ -20849,7 +20768,7 @@
         <v>1406</v>
       </c>
       <c r="T157" s="36" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="U157" s="55" t="s">
         <v>1187</v>
@@ -20914,7 +20833,7 @@
         <v>856</v>
       </c>
       <c r="P158" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q158" s="36" t="s">
         <v>324</v>
@@ -20926,7 +20845,7 @@
         <v>1406</v>
       </c>
       <c r="T158" s="36" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="U158" s="55" t="s">
         <v>1186</v>
@@ -20991,7 +20910,7 @@
         <v>856</v>
       </c>
       <c r="P159" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q159" s="36" t="s">
         <v>324</v>
@@ -21003,7 +20922,7 @@
         <v>1406</v>
       </c>
       <c r="T159" s="36" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="U159" s="55" t="s">
         <v>1407</v>
@@ -21068,7 +20987,7 @@
         <v>856</v>
       </c>
       <c r="P160" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q160" s="36" t="s">
         <v>324</v>
@@ -21080,13 +20999,13 @@
         <v>1406</v>
       </c>
       <c r="T160" s="36" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="U160" s="55" t="s">
         <v>1408</v>
       </c>
       <c r="V160" s="55" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="W160" s="55" t="s">
         <v>1412</v>
@@ -21145,7 +21064,7 @@
         <v>856</v>
       </c>
       <c r="P161" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q161" s="36" t="s">
         <v>324</v>
@@ -21157,13 +21076,13 @@
         <v>1406</v>
       </c>
       <c r="T161" s="36" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="U161" s="55" t="s">
         <v>1409</v>
       </c>
       <c r="V161" s="55" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
       <c r="W161" s="55" t="s">
         <v>1413</v>
@@ -21222,7 +21141,7 @@
         <v>856</v>
       </c>
       <c r="P162" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q162" s="36" t="s">
         <v>324</v>
@@ -21234,13 +21153,13 @@
         <v>1406</v>
       </c>
       <c r="T162" s="36" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="U162" s="55" t="s">
         <v>1417</v>
       </c>
       <c r="V162" s="55" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
       <c r="W162" s="55" t="s">
         <v>1414</v>
@@ -21299,7 +21218,7 @@
         <v>856</v>
       </c>
       <c r="P163" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q163" s="36" t="s">
         <v>324</v>
@@ -21311,13 +21230,13 @@
         <v>1406</v>
       </c>
       <c r="T163" s="36" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="U163" s="55" t="s">
         <v>1410</v>
       </c>
       <c r="V163" s="55" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
       <c r="W163" s="55" t="s">
         <v>1415</v>
@@ -21376,7 +21295,7 @@
         <v>856</v>
       </c>
       <c r="P164" s="36" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="Q164" s="36" t="s">
         <v>324</v>
@@ -21388,13 +21307,13 @@
         <v>1406</v>
       </c>
       <c r="T164" s="36" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="U164" s="55" t="s">
         <v>1411</v>
       </c>
       <c r="V164" s="55" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
       <c r="W164" s="55" t="s">
         <v>1416</v>
@@ -21413,7 +21332,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="C165" s="35" t="s">
         <v>869</v>
@@ -21455,7 +21374,7 @@
         <v>856</v>
       </c>
       <c r="P165" s="36" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="Q165" s="36" t="s">
         <v>1083</v>
@@ -21551,7 +21470,7 @@
         <v>1065</v>
       </c>
       <c r="U166" s="55" t="s">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="V166" s="55" t="s">
         <v>1066</v>
@@ -21564,7 +21483,7 @@
         <v>1077</v>
       </c>
       <c r="Z166" s="36" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21641,7 +21560,7 @@
         <v>1072</v>
       </c>
       <c r="Z167" s="36" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21718,7 +21637,7 @@
         <v>1073</v>
       </c>
       <c r="Z168" s="36" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21795,7 +21714,7 @@
         <v>1074</v>
       </c>
       <c r="Z169" s="36" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="170" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21859,7 +21778,7 @@
         <v>1065</v>
       </c>
       <c r="U170" s="55" t="s">
-        <v>1601</v>
+        <v>1586</v>
       </c>
       <c r="V170" s="55" t="s">
         <v>1070</v>
@@ -21872,7 +21791,7 @@
         <v>1075</v>
       </c>
       <c r="Z170" s="36" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21945,13 +21864,13 @@
         <v>1204</v>
       </c>
       <c r="X171" s="60" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
       <c r="Y171" s="61" t="s">
         <v>1076</v>
       </c>
       <c r="Z171" s="36" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="172" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -22014,7 +21933,7 @@
         <v>276</v>
       </c>
       <c r="T172" s="36" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="U172" s="37" t="s">
         <v>193</v>
@@ -22170,7 +22089,7 @@
         <v>281</v>
       </c>
       <c r="T174" s="36" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="U174" s="37" t="s">
         <v>1210</v>
@@ -22720,19 +22639,19 @@
         <v>850</v>
       </c>
       <c r="U181" s="37" t="s">
-        <v>1582</v>
+        <v>1567</v>
       </c>
       <c r="V181" s="38" t="s">
-        <v>1583</v>
+        <v>1568</v>
       </c>
       <c r="W181" s="37" t="s">
-        <v>1581</v>
+        <v>1566</v>
       </c>
       <c r="X181" s="38" t="s">
         <v>1400</v>
       </c>
       <c r="Y181" s="45" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="Z181" s="36"/>
     </row>
@@ -22797,7 +22716,7 @@
         <v>1234</v>
       </c>
       <c r="U182" s="37" t="s">
-        <v>1584</v>
+        <v>1569</v>
       </c>
       <c r="V182" s="38" t="s">
         <v>618</v>
@@ -22864,7 +22783,7 @@
         <v>1221</v>
       </c>
       <c r="Q183" s="36" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="R183" s="36" t="s">
         <v>1226</v>
@@ -22873,7 +22792,7 @@
         <v>1232</v>
       </c>
       <c r="T183" s="36" t="s">
-        <v>1565</v>
+        <v>1550</v>
       </c>
       <c r="U183" s="55" t="s">
         <v>1227</v>
@@ -22948,7 +22867,7 @@
         <v>1232</v>
       </c>
       <c r="T184" s="36" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="U184" s="55" t="s">
         <v>1235</v>
@@ -23021,7 +22940,7 @@
         <v>1232</v>
       </c>
       <c r="T185" s="36" t="s">
-        <v>1567</v>
+        <v>1552</v>
       </c>
       <c r="U185" s="55" t="s">
         <v>1238</v>
@@ -23098,7 +23017,7 @@
         <v>1232</v>
       </c>
       <c r="T186" s="36" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="U186" s="55" t="s">
         <v>1222</v>
@@ -23163,32 +23082,32 @@
         <v>856</v>
       </c>
       <c r="P187" s="36" t="s">
-        <v>1557</v>
+        <v>1542</v>
       </c>
       <c r="Q187" s="36" t="s">
-        <v>1556</v>
+        <v>1541</v>
       </c>
       <c r="R187" s="36" t="s">
-        <v>1558</v>
+        <v>1543</v>
       </c>
       <c r="S187" s="36" t="s">
-        <v>1555</v>
+        <v>1540</v>
       </c>
       <c r="T187" s="36" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="U187" s="49" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
       <c r="V187" s="49" t="s">
-        <v>1560</v>
+        <v>1545</v>
       </c>
       <c r="W187" s="42" t="s">
         <v>1204</v>
       </c>
       <c r="X187" s="43"/>
       <c r="Y187" s="63" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
       <c r="Z187" s="36"/>
     </row>
@@ -23243,13 +23162,13 @@
         <v>796</v>
       </c>
       <c r="Q188" s="36" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="R188" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S188" s="36" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="T188" s="36" t="s">
         <v>851</v>
@@ -23852,10 +23771,10 @@
         <v>310</v>
       </c>
       <c r="R196" s="36" t="s">
-        <v>1588</v>
+        <v>1573</v>
       </c>
       <c r="S196" s="36" t="s">
-        <v>1585</v>
+        <v>1570</v>
       </c>
       <c r="T196" s="36" t="s">
         <v>1326</v>
@@ -23926,10 +23845,10 @@
         <v>799</v>
       </c>
       <c r="Q197" s="36" t="s">
-        <v>1586</v>
+        <v>1571</v>
       </c>
       <c r="R197" s="36" t="s">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="S197" s="36" t="s">
         <v>312</v>
@@ -24003,13 +23922,13 @@
         <v>799</v>
       </c>
       <c r="Q198" s="36" t="s">
-        <v>1587</v>
+        <v>1572</v>
       </c>
       <c r="R198" s="36" t="s">
-        <v>1590</v>
+        <v>1575</v>
       </c>
       <c r="S198" s="36" t="s">
-        <v>1470</v>
+        <v>1459</v>
       </c>
       <c r="T198" s="36" t="s">
         <v>852</v>
@@ -24081,7 +24000,7 @@
         <v>1213</v>
       </c>
       <c r="R199" s="36" t="s">
-        <v>1591</v>
+        <v>1576</v>
       </c>
       <c r="S199" s="36" t="s">
         <v>1214</v>
@@ -24157,7 +24076,7 @@
         <v>800</v>
       </c>
       <c r="Q200" s="36" t="s">
-        <v>1595</v>
+        <v>1580</v>
       </c>
       <c r="R200" s="36" t="s">
         <v>856</v>
@@ -24252,7 +24171,7 @@
         <v>623</v>
       </c>
       <c r="W201" s="37" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="X201" s="38" t="s">
         <v>1400</v>
@@ -24329,7 +24248,7 @@
         <v>624</v>
       </c>
       <c r="W202" s="37" t="s">
-        <v>1498</v>
+        <v>1487</v>
       </c>
       <c r="X202" s="38" t="s">
         <v>1400</v>
@@ -24394,10 +24313,10 @@
         <v>306</v>
       </c>
       <c r="S203" s="36" t="s">
-        <v>1500</v>
+        <v>1489</v>
       </c>
       <c r="T203" s="36" t="s">
-        <v>1501</v>
+        <v>1490</v>
       </c>
       <c r="U203" s="37" t="s">
         <v>304</v>
@@ -24463,16 +24382,16 @@
         <v>1221</v>
       </c>
       <c r="Q204" s="36" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="R204" s="36" t="s">
         <v>1226</v>
       </c>
       <c r="S204" s="36" t="s">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="T204" s="36" t="s">
-        <v>1563</v>
+        <v>1548</v>
       </c>
       <c r="U204" s="49" t="s">
         <v>746</v>
@@ -24490,7 +24409,7 @@
         <v>1225</v>
       </c>
       <c r="Z204" s="36" t="s">
-        <v>1504</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="205" spans="1:26" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -24542,31 +24461,31 @@
         <v>1221</v>
       </c>
       <c r="Q205" s="36" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="R205" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S205" s="36" t="s">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="T205" s="36" t="s">
-        <v>1564</v>
+        <v>1549</v>
       </c>
       <c r="U205" s="49" t="s">
-        <v>1503</v>
+        <v>1492</v>
       </c>
       <c r="V205" s="49" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="W205" s="49" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="X205" s="49" t="s">
         <v>1399</v>
       </c>
       <c r="Y205" s="58" t="s">
-        <v>1506</v>
+        <v>1495</v>
       </c>
       <c r="Z205" s="36"/>
     </row>
@@ -24616,32 +24535,32 @@
         <v>856</v>
       </c>
       <c r="P206" s="36" t="s">
-        <v>1557</v>
+        <v>1542</v>
       </c>
       <c r="Q206" s="36" t="s">
-        <v>1556</v>
+        <v>1541</v>
       </c>
       <c r="R206" s="36" t="s">
-        <v>1558</v>
+        <v>1543</v>
       </c>
       <c r="S206" s="36" t="s">
-        <v>1555</v>
+        <v>1540</v>
       </c>
       <c r="T206" s="36" t="s">
-        <v>1564</v>
+        <v>1549</v>
       </c>
       <c r="U206" s="49" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
       <c r="V206" s="49" t="s">
-        <v>1560</v>
+        <v>1545</v>
       </c>
       <c r="W206" s="42" t="s">
         <v>1204</v>
       </c>
       <c r="X206" s="43"/>
       <c r="Y206" s="63" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
       <c r="Z206" s="36"/>
     </row>
@@ -24696,22 +24615,22 @@
         <v>1221</v>
       </c>
       <c r="Q207" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="R207" s="36" t="s">
         <v>1226</v>
       </c>
       <c r="S207" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="T207" s="36" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
       <c r="U207" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V207" s="35" t="s">
-        <v>1571</v>
+        <v>1556</v>
       </c>
       <c r="W207" s="56" t="s">
         <v>806</v>
@@ -24768,22 +24687,22 @@
         <v>869</v>
       </c>
       <c r="P208" s="36" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="Q208" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="R208" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S208" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="T208" s="36" t="s">
-        <v>1570</v>
+        <v>1555</v>
       </c>
       <c r="U208" s="56" t="s">
-        <v>1572</v>
+        <v>1557</v>
       </c>
       <c r="V208" s="35" t="s">
         <v>560</v>
@@ -24843,32 +24762,32 @@
         <v>856</v>
       </c>
       <c r="P209" s="36" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="Q209" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="R209" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S209" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="T209" s="36" t="s">
-        <v>1573</v>
+        <v>1558</v>
       </c>
       <c r="U209" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V209" s="35" t="s">
-        <v>1571</v>
+        <v>1556</v>
       </c>
       <c r="W209" s="42" t="s">
         <v>1204</v>
       </c>
       <c r="X209" s="67"/>
       <c r="Y209" s="66" t="s">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="Z209" s="36"/>
     </row>
@@ -24918,22 +24837,22 @@
         <v>856</v>
       </c>
       <c r="P210" s="36" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="Q210" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="R210" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S210" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="T210" s="36" t="s">
-        <v>1573</v>
+        <v>1558</v>
       </c>
       <c r="U210" s="56" t="s">
-        <v>1572</v>
+        <v>1557</v>
       </c>
       <c r="V210" s="35" t="s">
         <v>560</v>
@@ -24993,25 +24912,25 @@
         <v>856</v>
       </c>
       <c r="P211" s="36" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="Q211" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="R211" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S211" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="T211" s="36" t="s">
-        <v>1574</v>
+        <v>1559</v>
       </c>
       <c r="U211" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V211" s="35" t="s">
-        <v>1571</v>
+        <v>1556</v>
       </c>
       <c r="W211" s="56" t="s">
         <v>806</v>
@@ -25068,22 +24987,22 @@
         <v>856</v>
       </c>
       <c r="P212" s="36" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="Q212" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="R212" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S212" s="36" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="T212" s="36" t="s">
-        <v>1574</v>
+        <v>1559</v>
       </c>
       <c r="U212" s="56" t="s">
-        <v>1572</v>
+        <v>1557</v>
       </c>
       <c r="V212" s="35" t="s">
         <v>560</v>
@@ -25157,7 +25076,7 @@
         <v>759</v>
       </c>
       <c r="T213" s="36" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="U213" s="68" t="s">
         <v>1</v>
@@ -25233,10 +25152,10 @@
         <v>853</v>
       </c>
       <c r="S214" s="36" t="s">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="T214" s="36" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="U214" s="37" t="s">
         <v>12</v>
@@ -25530,7 +25449,7 @@
         <v>11</v>
       </c>
       <c r="T218" s="36" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
       <c r="U218" s="37" t="s">
         <v>768</v>
@@ -25609,7 +25528,7 @@
         <v>67</v>
       </c>
       <c r="T219" s="36" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
       <c r="U219" s="37" t="s">
         <v>1104</v>
@@ -26442,7 +26361,7 @@
         <v>78</v>
       </c>
       <c r="T230" s="36" t="s">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="U230" s="37" t="s">
         <v>12</v>
@@ -28281,7 +28200,7 @@
         <v>770</v>
       </c>
       <c r="Q254" s="36" t="s">
-        <v>1514</v>
+        <v>1503</v>
       </c>
       <c r="R254" s="36" t="s">
         <v>128</v>
@@ -28818,7 +28737,7 @@
         <v>770</v>
       </c>
       <c r="Q261" s="36" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="R261" s="36" t="s">
         <v>858</v>
@@ -29202,10 +29121,10 @@
         <v>856</v>
       </c>
       <c r="P266" s="36" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
       <c r="Q266" s="36" t="s">
-        <v>1515</v>
+        <v>1504</v>
       </c>
       <c r="R266" s="36" t="s">
         <v>162</v>
@@ -29214,7 +29133,7 @@
         <v>161</v>
       </c>
       <c r="T266" s="36" t="s">
-        <v>1516</v>
+        <v>1505</v>
       </c>
       <c r="U266" s="37" t="s">
         <v>160</v>
@@ -29293,7 +29212,7 @@
         <v>164</v>
       </c>
       <c r="T267" s="36" t="s">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="U267" s="37" t="s">
         <v>638</v>
@@ -29603,7 +29522,7 @@
         <v>168</v>
       </c>
       <c r="T271" s="36" t="s">
-        <v>1518</v>
+        <v>1507</v>
       </c>
       <c r="U271" s="37" t="s">
         <v>166</v>
@@ -29680,7 +29599,7 @@
         <v>168</v>
       </c>
       <c r="T272" s="36" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="U272" s="37" t="s">
         <v>166</v>
@@ -29759,7 +29678,7 @@
         <v>175</v>
       </c>
       <c r="T273" s="36" t="s">
-        <v>1519</v>
+        <v>1508</v>
       </c>
       <c r="U273" s="37" t="s">
         <v>817</v>
@@ -29826,10 +29745,10 @@
         <v>856</v>
       </c>
       <c r="P274" s="36" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="Q274" s="36" t="s">
-        <v>1520</v>
+        <v>1509</v>
       </c>
       <c r="R274" s="36" t="s">
         <v>860</v>
@@ -29838,7 +29757,7 @@
         <v>178</v>
       </c>
       <c r="T274" s="36" t="s">
-        <v>1521</v>
+        <v>1510</v>
       </c>
       <c r="U274" s="37" t="s">
         <v>176</v>
@@ -30300,7 +30219,7 @@
         <v>181</v>
       </c>
       <c r="T280" s="36" t="s">
-        <v>1522</v>
+        <v>1511</v>
       </c>
       <c r="U280" s="37" t="s">
         <v>179</v>
@@ -30616,7 +30535,7 @@
         <v>34</v>
       </c>
       <c r="T284" s="36" t="s">
-        <v>1523</v>
+        <v>1512</v>
       </c>
       <c r="U284" s="37" t="s">
         <v>32</v>
@@ -30631,7 +30550,7 @@
         <v>1397</v>
       </c>
       <c r="Y284" s="45" t="s">
-        <v>1441</v>
+        <v>1430</v>
       </c>
       <c r="Z284" s="36"/>
     </row>
@@ -31003,7 +30922,7 @@
         <v>172</v>
       </c>
       <c r="T289" s="36" t="s">
-        <v>1524</v>
+        <v>1513</v>
       </c>
       <c r="U289" s="37" t="s">
         <v>170</v>
@@ -31082,7 +31001,7 @@
         <v>14</v>
       </c>
       <c r="T290" s="36" t="s">
-        <v>1525</v>
+        <v>1514</v>
       </c>
       <c r="U290" s="55" t="s">
         <v>17</v>
@@ -31159,7 +31078,7 @@
         <v>899</v>
       </c>
       <c r="T291" s="36" t="s">
-        <v>1526</v>
+        <v>1515</v>
       </c>
       <c r="U291" s="55" t="s">
         <v>901</v>
@@ -31234,7 +31153,7 @@
         <v>906</v>
       </c>
       <c r="T292" s="36" t="s">
-        <v>1527</v>
+        <v>1516</v>
       </c>
       <c r="U292" s="55" t="s">
         <v>907</v>
@@ -31469,7 +31388,7 @@
         <v>916</v>
       </c>
       <c r="T295" s="36" t="s">
-        <v>1528</v>
+        <v>1517</v>
       </c>
       <c r="U295" s="55" t="s">
         <v>917</v>
@@ -32737,7 +32656,7 @@
         <v>957</v>
       </c>
       <c r="Q312" s="36" t="s">
-        <v>1529</v>
+        <v>1518</v>
       </c>
       <c r="R312" s="36" t="s">
         <v>957</v>
@@ -32810,7 +32729,7 @@
         <v>957</v>
       </c>
       <c r="Q313" s="36" t="s">
-        <v>1529</v>
+        <v>1518</v>
       </c>
       <c r="R313" s="36" t="s">
         <v>957</v>
@@ -33104,7 +33023,7 @@
         <v>966</v>
       </c>
       <c r="Q317" s="36" t="s">
-        <v>1607</v>
+        <v>1592</v>
       </c>
       <c r="R317" s="36" t="s">
         <v>968</v>
@@ -33113,7 +33032,7 @@
         <v>969</v>
       </c>
       <c r="T317" s="36" t="s">
-        <v>1530</v>
+        <v>1519</v>
       </c>
       <c r="U317" s="55" t="s">
         <v>970</v>
@@ -33270,13 +33189,13 @@
         <v>1000</v>
       </c>
       <c r="U319" s="55" t="s">
-        <v>1604</v>
+        <v>1589</v>
       </c>
       <c r="V319" s="55" t="s">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="W319" s="55" t="s">
-        <v>1603</v>
+        <v>1588</v>
       </c>
       <c r="X319" s="55" t="s">
         <v>1143</v>
@@ -33285,7 +33204,7 @@
         <v>1145</v>
       </c>
       <c r="Z319" s="36" t="s">
-        <v>1602</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="320" spans="1:26" ht="27" x14ac:dyDescent="0.15">
@@ -33349,7 +33268,7 @@
         <v>1000</v>
       </c>
       <c r="U320" s="55" t="s">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="V320" s="55" t="s">
         <v>976</v>
@@ -33364,7 +33283,7 @@
         <v>1146</v>
       </c>
       <c r="Z320" s="36" t="s">
-        <v>1602</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="321" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -33434,7 +33353,7 @@
         <v>979</v>
       </c>
       <c r="W321" s="55" t="s">
-        <v>1531</v>
+        <v>1520</v>
       </c>
       <c r="X321" s="55" t="s">
         <v>1143</v>
@@ -34415,7 +34334,7 @@
         <v>987</v>
       </c>
       <c r="W334" s="55" t="s">
-        <v>1532</v>
+        <v>1521</v>
       </c>
       <c r="X334" s="55" t="s">
         <v>1143</v>
@@ -34640,17 +34559,17 @@
         <v>1000</v>
       </c>
       <c r="U337" s="49" t="s">
-        <v>1533</v>
+        <v>1522</v>
       </c>
       <c r="V337" s="49" t="s">
-        <v>1535</v>
+        <v>1524</v>
       </c>
       <c r="W337" s="42" t="s">
         <v>1110</v>
       </c>
       <c r="X337" s="42"/>
       <c r="Y337" s="42" t="s">
-        <v>1534</v>
+        <v>1523</v>
       </c>
       <c r="Z337" s="36"/>
     </row>
@@ -34791,7 +34710,7 @@
         <v>1004</v>
       </c>
       <c r="T339" s="36" t="s">
-        <v>1536</v>
+        <v>1525</v>
       </c>
       <c r="U339" s="55" t="s">
         <v>1005</v>
@@ -36142,10 +36061,10 @@
         <v>1009</v>
       </c>
       <c r="S357" s="36" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
       <c r="T357" s="36" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
       <c r="U357" s="55" t="s">
         <v>1010</v>
@@ -36215,7 +36134,7 @@
         <v>1019</v>
       </c>
       <c r="Q358" s="36" t="s">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="R358" s="36" t="s">
         <v>1018</v>
@@ -36224,7 +36143,7 @@
         <v>1022</v>
       </c>
       <c r="T358" s="36" t="s">
-        <v>1537</v>
+        <v>1526</v>
       </c>
       <c r="U358" s="55" t="s">
         <v>1016</v>
@@ -36236,7 +36155,7 @@
         <v>1247</v>
       </c>
       <c r="X358" s="38" t="s">
-        <v>1627</v>
+        <v>1612</v>
       </c>
       <c r="Y358" s="39" t="s">
         <v>1248</v>
@@ -36313,7 +36232,7 @@
         <v>354</v>
       </c>
       <c r="X359" s="38" t="s">
-        <v>1627</v>
+        <v>1612</v>
       </c>
       <c r="Y359" s="39" t="s">
         <v>1248</v>
@@ -36378,7 +36297,7 @@
         <v>154</v>
       </c>
       <c r="T360" s="36" t="s">
-        <v>1539</v>
+        <v>1528</v>
       </c>
       <c r="U360" s="55" t="s">
         <v>40</v>
@@ -36542,7 +36461,7 @@
         <v>1110</v>
       </c>
       <c r="X362" s="42" t="s">
-        <v>1628</v>
+        <v>1613</v>
       </c>
       <c r="Y362" s="42" t="s">
         <v>1317</v>
@@ -36619,7 +36538,7 @@
         <v>1110</v>
       </c>
       <c r="X363" s="42" t="s">
-        <v>1629</v>
+        <v>1614</v>
       </c>
       <c r="Y363" s="42" t="s">
         <v>1317</v>
@@ -36628,7 +36547,7 @@
     </row>
     <row r="364" spans="1:26" ht="54" x14ac:dyDescent="0.15">
       <c r="A364" s="2">
-        <f t="shared" ref="A364:A405" si="6">ROW()-2</f>
+        <f t="shared" ref="A364:A401" si="6">ROW()-2</f>
         <v>362</v>
       </c>
       <c r="B364" s="41"/>
@@ -36764,7 +36683,7 @@
         <v>1086</v>
       </c>
       <c r="U365" s="55" t="s">
-        <v>1540</v>
+        <v>1529</v>
       </c>
       <c r="V365" s="75" t="s">
         <v>1086</v>
@@ -36773,7 +36692,7 @@
         <v>1110</v>
       </c>
       <c r="X365" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y365" s="42" t="s">
         <v>1268</v>
@@ -36850,7 +36769,7 @@
         <v>1110</v>
       </c>
       <c r="X366" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y366" s="42" t="s">
         <v>1270</v>
@@ -36927,7 +36846,7 @@
         <v>1110</v>
       </c>
       <c r="X367" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y367" s="42" t="s">
         <v>1272</v>
@@ -37004,7 +36923,7 @@
         <v>1110</v>
       </c>
       <c r="X368" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y368" s="42" t="s">
         <v>1274</v>
@@ -37081,7 +37000,7 @@
         <v>1110</v>
       </c>
       <c r="X369" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y369" s="42" t="s">
         <v>1276</v>
@@ -37158,7 +37077,7 @@
         <v>1110</v>
       </c>
       <c r="X370" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y370" s="42" t="s">
         <v>1278</v>
@@ -37235,7 +37154,7 @@
         <v>1110</v>
       </c>
       <c r="X371" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y371" s="42" t="s">
         <v>1280</v>
@@ -37312,7 +37231,7 @@
         <v>1110</v>
       </c>
       <c r="X372" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y372" s="42" t="s">
         <v>1280</v>
@@ -37389,7 +37308,7 @@
         <v>1110</v>
       </c>
       <c r="X373" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y373" s="42" t="s">
         <v>1280</v>
@@ -37466,7 +37385,7 @@
         <v>1110</v>
       </c>
       <c r="X374" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y374" s="42" t="s">
         <v>1284</v>
@@ -37543,7 +37462,7 @@
         <v>1110</v>
       </c>
       <c r="X375" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y375" s="42" t="s">
         <v>1286</v>
@@ -37620,7 +37539,7 @@
         <v>1110</v>
       </c>
       <c r="X376" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y376" s="42" t="s">
         <v>1288</v>
@@ -37697,7 +37616,7 @@
         <v>1110</v>
       </c>
       <c r="X377" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y377" s="42" t="s">
         <v>1290</v>
@@ -37774,7 +37693,7 @@
         <v>1110</v>
       </c>
       <c r="X378" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y378" s="42" t="s">
         <v>1274</v>
@@ -37851,7 +37770,7 @@
         <v>1110</v>
       </c>
       <c r="X379" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y379" s="42" t="s">
         <v>1276</v>
@@ -37928,7 +37847,7 @@
         <v>1110</v>
       </c>
       <c r="X380" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y380" s="42" t="s">
         <v>1278</v>
@@ -38005,7 +37924,7 @@
         <v>1110</v>
       </c>
       <c r="X381" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y381" s="42" t="s">
         <v>1295</v>
@@ -38082,7 +38001,7 @@
         <v>1110</v>
       </c>
       <c r="X382" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y382" s="42" t="s">
         <v>1297</v>
@@ -38159,7 +38078,7 @@
         <v>1110</v>
       </c>
       <c r="X383" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y383" s="42" t="s">
         <v>1299</v>
@@ -38236,7 +38155,7 @@
         <v>1110</v>
       </c>
       <c r="X384" s="42" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="Y384" s="42" t="s">
         <v>1301</v>
@@ -38304,7 +38223,7 @@
         <v>1086</v>
       </c>
       <c r="U385" s="55" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="V385" s="75" t="s">
         <v>1086</v>
@@ -38613,7 +38532,7 @@
         <v>1110</v>
       </c>
       <c r="X389" s="42" t="s">
-        <v>1608</v>
+        <v>1593</v>
       </c>
       <c r="Y389" s="42" t="s">
         <v>1312</v>
@@ -39060,7 +38979,7 @@
       </c>
       <c r="T395" s="36"/>
       <c r="U395" s="37" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="V395" s="38" t="s">
         <v>620</v>
@@ -39141,7 +39060,7 @@
         <v>622</v>
       </c>
       <c r="W396" s="37" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
       <c r="X396" s="38" t="s">
         <v>1400</v>
@@ -39364,7 +39283,7 @@
         <v>1362</v>
       </c>
       <c r="U399" s="83" t="s">
-        <v>1544</v>
+        <v>1533</v>
       </c>
       <c r="V399" s="83" t="s">
         <v>1363</v>
@@ -39506,346 +39425,44 @@
         <v>1358</v>
       </c>
       <c r="Q401" s="36" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="R401" s="36" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
       <c r="S401" s="36" t="s">
-        <v>1547</v>
+        <v>1536</v>
       </c>
       <c r="T401" s="36" t="s">
         <v>1362</v>
       </c>
       <c r="U401" s="82" t="s">
-        <v>1546</v>
+        <v>1535</v>
       </c>
       <c r="V401" s="82" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
       <c r="W401" s="87" t="s">
         <v>1204</v>
       </c>
       <c r="X401" s="87"/>
       <c r="Y401" s="88" t="s">
-        <v>1550</v>
+        <v>1539</v>
       </c>
       <c r="Z401" s="36"/>
     </row>
-    <row r="402" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A402" s="28">
-        <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-      <c r="B402" s="81" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="D402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="E402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="F402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="G402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="H402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="I402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="J402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="K402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="L402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="M402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="N402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="O402" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="P402" s="36" t="s">
-        <v>1423</v>
-      </c>
-      <c r="Q402" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="R402" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="S402" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="T402" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="U402" s="83" t="s">
-        <v>1551</v>
-      </c>
-      <c r="V402" s="83" t="s">
-        <v>1425</v>
-      </c>
-      <c r="W402" s="87" t="s">
-        <v>1204</v>
-      </c>
-      <c r="X402" s="87" t="s">
-        <v>1631</v>
-      </c>
-      <c r="Y402" s="88" t="s">
-        <v>1430</v>
-      </c>
-      <c r="Z402" s="36"/>
-    </row>
-    <row r="403" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A403" s="28">
-        <f t="shared" si="6"/>
-        <v>401</v>
-      </c>
-      <c r="B403" s="85"/>
-      <c r="C403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="D403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="E403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="F403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="G403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="H403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="I403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="J403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="K403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="L403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="M403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="N403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="O403" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="P403" s="36" t="s">
-        <v>1428</v>
-      </c>
-      <c r="Q403" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="R403" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="S403" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="T403" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="U403" s="83" t="s">
-        <v>1552</v>
-      </c>
-      <c r="V403" s="83" t="s">
-        <v>1433</v>
-      </c>
-      <c r="W403" s="87" t="s">
-        <v>1424</v>
-      </c>
-      <c r="X403" s="87" t="s">
-        <v>1631</v>
-      </c>
-      <c r="Y403" s="88" t="s">
-        <v>1431</v>
-      </c>
-      <c r="Z403" s="36"/>
-    </row>
-    <row r="404" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A404" s="28">
-        <f t="shared" si="6"/>
-        <v>402</v>
-      </c>
-      <c r="B404" s="85"/>
-      <c r="C404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="D404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="E404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="F404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="G404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="H404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="I404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="J404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="K404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="L404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="M404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="N404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="O404" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="P404" s="36" t="s">
-        <v>1428</v>
-      </c>
-      <c r="Q404" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="R404" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="S404" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="T404" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="U404" s="83" t="s">
-        <v>1553</v>
-      </c>
-      <c r="V404" s="83" t="s">
-        <v>1426</v>
-      </c>
-      <c r="W404" s="87" t="s">
-        <v>1424</v>
-      </c>
-      <c r="X404" s="87"/>
-      <c r="Y404" s="88"/>
-      <c r="Z404" s="36"/>
-    </row>
-    <row r="405" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A405" s="28">
-        <f t="shared" si="6"/>
-        <v>403</v>
-      </c>
-      <c r="B405" s="89"/>
-      <c r="C405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="D405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="E405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="F405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="G405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="H405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="I405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="J405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="K405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="L405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="M405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="N405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="O405" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="P405" s="36" t="s">
-        <v>1429</v>
-      </c>
-      <c r="Q405" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="R405" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="S405" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="T405" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="U405" s="83" t="s">
-        <v>1554</v>
-      </c>
-      <c r="V405" s="83" t="s">
-        <v>1427</v>
-      </c>
-      <c r="W405" s="87" t="s">
-        <v>1424</v>
-      </c>
-      <c r="X405" s="87"/>
-      <c r="Y405" s="88"/>
-      <c r="Z405" s="36"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA405" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:AA401" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P4 B4:B5 P6 P9:P11 P17:P271 P274:P405">
+  <conditionalFormatting sqref="P4 B4:B5 P6 P9:P11 P17:P271 P274:P401">
     <cfRule type="cellIs" dxfId="69" priority="817" operator="equal">
       <formula>$P3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4 Q11:T271 Q274:T405 Z4:Z271 Z274:Z405">
+  <conditionalFormatting sqref="Q4 Q11:T271 Z4:Z271 Q274:T401 Z274:Z401">
     <cfRule type="cellIs" dxfId="68" priority="816" operator="equal">
       <formula>Q3</formula>
     </cfRule>

--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{805BACAF-DA90-455F-8440-3DA3EE756B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F4231-6F9E-4733-BA7E-9DF53D07BC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9203" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9203" uniqueCount="1617">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -4970,15 +4970,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mailTemplateTablemailMultiProcessTransaction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マルチプロセス化したメール送信で使用するトランザクション定義</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nablarch.common.mail.MailTemplateTablenablarch.core.db.transaction.SimpleDbTransactionManager</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -8585,12 +8577,12 @@
         <v>1111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -8635,7 +8627,7 @@
         <v>1111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -8643,7 +8635,7 @@
         <v>1111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -8667,7 +8659,7 @@
         <v>1111</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.15">
@@ -8675,7 +8667,7 @@
         <v>1111</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.15">
@@ -8699,7 +8691,7 @@
         <v>1111</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.15">
@@ -8707,7 +8699,7 @@
         <v>1111</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.15">
@@ -8732,11 +8724,11 @@
   </sheetPr>
   <dimension ref="A1:Z402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="17" ySplit="2" topLeftCell="R252" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
-      <selection pane="bottomRight" activeCell="A261" sqref="A261"/>
+      <selection pane="bottomRight" activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -8834,28 +8826,28 @@
         <v>1094</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>1095</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>1387</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>1388</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>1389</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>1390</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>1391</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>1392</v>
-      </c>
       <c r="O2" s="14" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="15"/>
@@ -8896,7 +8888,7 @@
         <v>866</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>853</v>
@@ -8926,7 +8918,7 @@
         <v>6</v>
       </c>
       <c r="S3" s="36" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="T3" s="36" t="s">
         <v>1081</v>
@@ -8941,7 +8933,7 @@
         <v>862</v>
       </c>
       <c r="X3" s="38" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="Y3" s="39" t="s">
         <v>657</v>
@@ -9020,7 +9012,7 @@
         <v>357</v>
       </c>
       <c r="X4" s="38" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="Y4" s="39" t="s">
         <v>658</v>
@@ -9096,10 +9088,10 @@
         <v>7</v>
       </c>
       <c r="W5" s="37" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="X5" s="38" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="Y5" s="39" t="s">
         <v>685</v>
@@ -9243,7 +9235,7 @@
         <v>5</v>
       </c>
       <c r="T7" s="36" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="U7" s="37" t="s">
         <v>886</v>
@@ -9255,10 +9247,10 @@
         <v>356</v>
       </c>
       <c r="X7" s="38" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Y7" s="45" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="Z7" s="36" t="s">
         <v>278</v>
@@ -9334,7 +9326,7 @@
         <v>357</v>
       </c>
       <c r="X8" s="38" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Y8" s="45" t="s">
         <v>658</v>
@@ -9410,10 +9402,10 @@
         <v>610</v>
       </c>
       <c r="W9" s="37" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="X9" s="38" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Y9" s="45" t="s">
         <v>675</v>
@@ -9548,25 +9540,25 @@
         <v>792</v>
       </c>
       <c r="Q11" s="36" t="s">
+        <v>1365</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>1366</v>
+      </c>
+      <c r="S11" s="36" t="s">
         <v>1367</v>
       </c>
-      <c r="R11" s="36" t="s">
-        <v>1368</v>
-      </c>
-      <c r="S11" s="36" t="s">
+      <c r="T11" s="36" t="s">
         <v>1369</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="U11" s="37" t="s">
+        <v>1370</v>
+      </c>
+      <c r="V11" s="38" t="s">
         <v>1371</v>
       </c>
-      <c r="U11" s="37" t="s">
+      <c r="W11" s="37" t="s">
         <v>1372</v>
-      </c>
-      <c r="V11" s="38" t="s">
-        <v>1373</v>
-      </c>
-      <c r="W11" s="37" t="s">
-        <v>1374</v>
       </c>
       <c r="X11" s="38"/>
       <c r="Y11" s="45"/>
@@ -9581,7 +9573,7 @@
         <v>772</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>853</v>
@@ -9632,10 +9624,10 @@
         <v>1047</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="U12" s="37" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="V12" s="38" t="s">
         <v>1051</v>
@@ -9707,20 +9699,20 @@
         <v>1047</v>
       </c>
       <c r="T13" s="36" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="U13" s="49" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="W13" s="42" t="s">
         <v>1201</v>
       </c>
       <c r="X13" s="42"/>
       <c r="Y13" s="42" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="Z13" s="36"/>
     </row>
@@ -9782,7 +9774,7 @@
         <v>1047</v>
       </c>
       <c r="T14" s="36" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="U14" s="37" t="s">
         <v>1046</v>
@@ -9857,7 +9849,7 @@
         <v>1047</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="U15" s="37" t="s">
         <v>1046</v>
@@ -9932,13 +9924,13 @@
         <v>1047</v>
       </c>
       <c r="T16" s="36" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="U16" s="37" t="s">
         <v>1046</v>
       </c>
       <c r="V16" s="38" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="W16" s="42" t="s">
         <v>1107</v>
@@ -10000,7 +9992,7 @@
         <v>769</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="R17" s="36" t="s">
         <v>21</v>
@@ -10009,7 +10001,7 @@
         <v>20</v>
       </c>
       <c r="T17" s="36" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="U17" s="37" t="s">
         <v>12</v>
@@ -10240,10 +10232,10 @@
         <v>157</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="U20" s="37" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="V20" s="38" t="s">
         <v>572</v>
@@ -10313,7 +10305,7 @@
         <v>154</v>
       </c>
       <c r="T21" s="36" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="U21" s="37" t="s">
         <v>40</v>
@@ -10379,16 +10371,16 @@
         <v>769</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="R22" s="36" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="T22" s="36" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="U22" s="37" t="s">
         <v>12</v>
@@ -10621,7 +10613,7 @@
         <v>27</v>
       </c>
       <c r="T25" s="36" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="U25" s="37" t="s">
         <v>751</v>
@@ -10689,7 +10681,7 @@
         <v>800</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="R26" s="36" t="s">
         <v>852</v>
@@ -10727,7 +10719,7 @@
         <v>866</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>853</v>
@@ -10748,7 +10740,7 @@
         <v>866</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>853</v>
@@ -10775,7 +10767,7 @@
         <v>27</v>
       </c>
       <c r="T27" s="36" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="U27" s="37" t="s">
         <v>751</v>
@@ -10852,7 +10844,7 @@
         <v>27</v>
       </c>
       <c r="T28" s="36" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="U28" s="37" t="s">
         <v>320</v>
@@ -10861,13 +10853,13 @@
         <v>625</v>
       </c>
       <c r="W28" s="37" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="X28" s="51" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="Y28" s="52" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="Z28" s="36" t="s">
         <v>319</v>
@@ -10931,7 +10923,7 @@
         <v>27</v>
       </c>
       <c r="T29" s="36" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="U29" s="37" t="s">
         <v>29</v>
@@ -10943,10 +10935,10 @@
         <v>365</v>
       </c>
       <c r="X29" s="51" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="Y29" s="52" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="Z29" s="36" t="s">
         <v>869</v>
@@ -11010,7 +11002,7 @@
         <v>27</v>
       </c>
       <c r="T30" s="36" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="U30" s="37" t="s">
         <v>321</v>
@@ -11019,13 +11011,13 @@
         <v>627</v>
       </c>
       <c r="W30" s="37" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="X30" s="51" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="Y30" s="52" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="Z30" s="36" t="s">
         <v>869</v>
@@ -11089,7 +11081,7 @@
         <v>27</v>
       </c>
       <c r="T31" s="36" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="U31" s="37" t="s">
         <v>322</v>
@@ -11101,10 +11093,10 @@
         <v>366</v>
       </c>
       <c r="X31" s="51" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="Y31" s="52" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="Z31" s="36" t="s">
         <v>869</v>
@@ -11168,10 +11160,10 @@
         <v>27</v>
       </c>
       <c r="T32" s="36" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="U32" s="37" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="V32" s="38" t="s">
         <v>629</v>
@@ -11180,10 +11172,10 @@
         <v>367</v>
       </c>
       <c r="X32" s="51" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="Y32" s="52" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="Z32" s="36" t="s">
         <v>870</v>
@@ -11249,7 +11241,7 @@
         <v>42</v>
       </c>
       <c r="T33" s="36" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="U33" s="37" t="s">
         <v>641</v>
@@ -11414,7 +11406,7 @@
         <v>643</v>
       </c>
       <c r="W35" s="37" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="X35" s="38" t="s">
         <v>1154</v>
@@ -11651,7 +11643,7 @@
         <v>649</v>
       </c>
       <c r="W38" s="37" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="X38" s="38" t="s">
         <v>508</v>
@@ -12282,19 +12274,19 @@
         <v>1090</v>
       </c>
       <c r="V46" s="38" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="W46" s="37" t="s">
         <v>802</v>
       </c>
       <c r="X46" s="49" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="Y46" s="39" t="s">
         <v>654</v>
       </c>
       <c r="Z46" s="36" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12357,7 +12349,7 @@
         <v>56</v>
       </c>
       <c r="T47" s="36" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="U47" s="37" t="s">
         <v>54</v>
@@ -12432,7 +12424,7 @@
         <v>58</v>
       </c>
       <c r="T48" s="36" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="U48" s="37" t="s">
         <v>12</v>
@@ -12665,7 +12657,7 @@
         <v>63</v>
       </c>
       <c r="T51" s="36" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="U51" s="37" t="s">
         <v>61</v>
@@ -12822,7 +12814,7 @@
         <v>706</v>
       </c>
       <c r="W53" s="37" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="X53" s="38" t="s">
         <v>553</v>
@@ -14623,13 +14615,13 @@
         <v>775</v>
       </c>
       <c r="Q76" s="36" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="R76" s="36" t="s">
         <v>155</v>
       </c>
       <c r="S76" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="T76" s="36" t="s">
         <v>1079</v>
@@ -14709,7 +14701,7 @@
         <v>225</v>
       </c>
       <c r="T77" s="36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="U77" s="37" t="s">
         <v>223</v>
@@ -14721,7 +14713,7 @@
         <v>359</v>
       </c>
       <c r="X77" s="35" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="Y77" s="39" t="s">
         <v>659</v>
@@ -14779,7 +14771,7 @@
         <v>821</v>
       </c>
       <c r="Q78" s="36" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="R78" s="36" t="s">
         <v>229</v>
@@ -14788,7 +14780,7 @@
         <v>228</v>
       </c>
       <c r="T78" s="36" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="U78" s="37" t="s">
         <v>741</v>
@@ -14800,7 +14792,7 @@
         <v>1097</v>
       </c>
       <c r="X78" s="35" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="Y78" s="39" t="s">
         <v>653</v>
@@ -14877,7 +14869,7 @@
         <v>1098</v>
       </c>
       <c r="X79" s="35" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="Y79" s="39" t="s">
         <v>660</v>
@@ -14939,7 +14931,7 @@
         <v>234</v>
       </c>
       <c r="S80" s="36" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="T80" s="36" t="s">
         <v>836</v>
@@ -14951,10 +14943,10 @@
         <v>602</v>
       </c>
       <c r="W80" s="37" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="X80" s="35" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="Y80" s="39" t="s">
         <v>662</v>
@@ -15096,7 +15088,7 @@
         <v>237</v>
       </c>
       <c r="T82" s="36" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="U82" s="37" t="s">
         <v>235</v>
@@ -15108,7 +15100,7 @@
         <v>1155</v>
       </c>
       <c r="X82" s="38" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="Y82" s="39" t="s">
         <v>661</v>
@@ -15185,10 +15177,10 @@
         <v>1082</v>
       </c>
       <c r="X83" s="51" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="Y83" s="39" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="Z83" s="36"/>
     </row>
@@ -15261,7 +15253,7 @@
         <v>186</v>
       </c>
       <c r="W84" s="37" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="X84" s="38" t="s">
         <v>538</v>
@@ -15329,7 +15321,7 @@
         <v>188</v>
       </c>
       <c r="T85" s="36" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="U85" s="37" t="s">
         <v>44</v>
@@ -15574,13 +15566,13 @@
         <v>1089</v>
       </c>
       <c r="X88" s="49" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="Y88" s="54" t="s">
         <v>895</v>
       </c>
       <c r="Z88" s="36" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="89" spans="1:26" s="23" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
@@ -15631,34 +15623,34 @@
         <v>866</v>
       </c>
       <c r="P89" s="36" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="Q89" s="36" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="R89" s="36" t="s">
         <v>189</v>
       </c>
       <c r="S89" s="36" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="T89" s="36" t="s">
+        <v>1379</v>
+      </c>
+      <c r="U89" s="49" t="s">
+        <v>1380</v>
+      </c>
+      <c r="V89" s="49" t="s">
         <v>1381</v>
       </c>
-      <c r="U89" s="49" t="s">
+      <c r="W89" s="49" t="s">
         <v>1382</v>
       </c>
-      <c r="V89" s="49" t="s">
-        <v>1383</v>
-      </c>
-      <c r="W89" s="49" t="s">
-        <v>1384</v>
-      </c>
       <c r="X89" s="55" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="Y89" s="54" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="Z89" s="36"/>
     </row>
@@ -15732,13 +15724,13 @@
         <v>1089</v>
       </c>
       <c r="X90" s="55" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="Y90" s="54" t="s">
         <v>895</v>
       </c>
       <c r="Z90" s="36" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15801,10 +15793,10 @@
         <v>195</v>
       </c>
       <c r="T91" s="36" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="U91" s="37" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="V91" s="38" t="s">
         <v>576</v>
@@ -15865,7 +15857,7 @@
         <v>785</v>
       </c>
       <c r="Q92" s="36" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="R92" s="36" t="s">
         <v>196</v>
@@ -16084,13 +16076,13 @@
         <v>785</v>
       </c>
       <c r="Q95" s="36" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="R95" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S95" s="36" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="T95" s="36" t="s">
         <v>842</v>
@@ -16102,7 +16094,7 @@
         <v>577</v>
       </c>
       <c r="W95" s="56" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="X95" s="35"/>
       <c r="Y95" s="45"/>
@@ -16157,13 +16149,13 @@
         <v>785</v>
       </c>
       <c r="Q96" s="36" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="R96" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S96" s="36" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="T96" s="36" t="s">
         <v>842</v>
@@ -16175,7 +16167,7 @@
         <v>578</v>
       </c>
       <c r="W96" s="56" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="X96" s="35"/>
       <c r="Y96" s="45"/>
@@ -16230,13 +16222,13 @@
         <v>785</v>
       </c>
       <c r="Q97" s="36" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="R97" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S97" s="36" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="T97" s="36" t="s">
         <v>842</v>
@@ -16248,7 +16240,7 @@
         <v>579</v>
       </c>
       <c r="W97" s="56" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="X97" s="35"/>
       <c r="Y97" s="45"/>
@@ -16531,7 +16523,7 @@
         <v>241</v>
       </c>
       <c r="T101" s="36" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="U101" s="37" t="s">
         <v>193</v>
@@ -16540,7 +16532,7 @@
         <v>605</v>
       </c>
       <c r="W101" s="37" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="X101" s="51" t="s">
         <v>1158</v>
@@ -16617,7 +16609,7 @@
         <v>606</v>
       </c>
       <c r="W102" s="37" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="X102" s="51" t="s">
         <v>1158</v>
@@ -16921,7 +16913,7 @@
         <v>248</v>
       </c>
       <c r="W106" s="37" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="X106" s="38" t="s">
         <v>487</v>
@@ -18467,7 +18459,7 @@
         <v>487</v>
       </c>
       <c r="Y126" s="39" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="Z126" s="36"/>
     </row>
@@ -18522,7 +18514,7 @@
         <v>786</v>
       </c>
       <c r="Q127" s="36" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="R127" s="36" t="s">
         <v>196</v>
@@ -18531,7 +18523,7 @@
         <v>205</v>
       </c>
       <c r="T127" s="36" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="U127" s="37" t="s">
         <v>193</v>
@@ -18672,7 +18664,7 @@
         <v>787</v>
       </c>
       <c r="Q129" s="36" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="R129" s="36" t="s">
         <v>196</v>
@@ -19576,7 +19568,7 @@
         <v>788</v>
       </c>
       <c r="Q141" s="36" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="R141" s="36" t="s">
         <v>212</v>
@@ -19892,7 +19884,7 @@
         <v>596</v>
       </c>
       <c r="W145" s="37" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="X145" s="51"/>
       <c r="Y145" s="52"/>
@@ -19958,7 +19950,7 @@
         <v>220</v>
       </c>
       <c r="T146" s="36" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="U146" s="37" t="s">
         <v>12</v>
@@ -20201,7 +20193,7 @@
         <v>1168</v>
       </c>
       <c r="X149" s="38" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="Y149" s="39" t="s">
         <v>655</v>
@@ -20256,7 +20248,7 @@
         <v>853</v>
       </c>
       <c r="P150" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q150" s="36" t="s">
         <v>324</v>
@@ -20265,10 +20257,10 @@
         <v>325</v>
       </c>
       <c r="S150" s="36" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="T150" s="36" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="U150" s="55" t="s">
         <v>1172</v>
@@ -20280,7 +20272,7 @@
         <v>1173</v>
       </c>
       <c r="X150" s="38" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="Y150" s="54" t="s">
         <v>1174</v>
@@ -20333,7 +20325,7 @@
         <v>853</v>
       </c>
       <c r="P151" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q151" s="36" t="s">
         <v>324</v>
@@ -20342,10 +20334,10 @@
         <v>325</v>
       </c>
       <c r="S151" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T151" s="36" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="U151" s="55" t="s">
         <v>1175</v>
@@ -20357,7 +20349,7 @@
         <v>1176</v>
       </c>
       <c r="X151" s="38" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="Y151" s="54" t="s">
         <v>1180</v>
@@ -20410,7 +20402,7 @@
         <v>853</v>
       </c>
       <c r="P152" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q152" s="36" t="s">
         <v>1171</v>
@@ -20419,10 +20411,10 @@
         <v>325</v>
       </c>
       <c r="S152" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T152" s="36" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="U152" s="55" t="s">
         <v>1184</v>
@@ -20434,7 +20426,7 @@
         <v>1177</v>
       </c>
       <c r="X152" s="38" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="Y152" s="54" t="s">
         <v>1185</v>
@@ -20487,7 +20479,7 @@
         <v>853</v>
       </c>
       <c r="P153" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q153" s="36" t="s">
         <v>324</v>
@@ -20496,10 +20488,10 @@
         <v>325</v>
       </c>
       <c r="S153" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T153" s="36" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="U153" s="55" t="s">
         <v>1183</v>
@@ -20511,7 +20503,7 @@
         <v>1182</v>
       </c>
       <c r="X153" s="38" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="Y153" s="54" t="s">
         <v>1179</v>
@@ -20564,7 +20556,7 @@
         <v>853</v>
       </c>
       <c r="P154" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q154" s="36" t="s">
         <v>324</v>
@@ -20573,13 +20565,13 @@
         <v>325</v>
       </c>
       <c r="S154" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T154" s="36" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="U154" s="55" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="V154" s="55" t="s">
         <v>1099</v>
@@ -20588,10 +20580,10 @@
         <v>1186</v>
       </c>
       <c r="X154" s="38" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="Y154" s="58" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="Z154" s="36"/>
     </row>
@@ -20641,7 +20633,7 @@
         <v>853</v>
       </c>
       <c r="P155" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q155" s="36" t="s">
         <v>324</v>
@@ -20650,10 +20642,10 @@
         <v>325</v>
       </c>
       <c r="S155" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T155" s="36" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="U155" s="55" t="s">
         <v>1172</v>
@@ -20665,7 +20657,7 @@
         <v>1173</v>
       </c>
       <c r="X155" s="38" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Y155" s="54" t="s">
         <v>1174</v>
@@ -20718,7 +20710,7 @@
         <v>853</v>
       </c>
       <c r="P156" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q156" s="36" t="s">
         <v>324</v>
@@ -20727,10 +20719,10 @@
         <v>325</v>
       </c>
       <c r="S156" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T156" s="36" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="U156" s="55" t="s">
         <v>1175</v>
@@ -20742,7 +20734,7 @@
         <v>1176</v>
       </c>
       <c r="X156" s="38" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Y156" s="54" t="s">
         <v>1180</v>
@@ -20795,7 +20787,7 @@
         <v>853</v>
       </c>
       <c r="P157" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q157" s="36" t="s">
         <v>1171</v>
@@ -20804,10 +20796,10 @@
         <v>325</v>
       </c>
       <c r="S157" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T157" s="36" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="U157" s="55" t="s">
         <v>1184</v>
@@ -20819,7 +20811,7 @@
         <v>1177</v>
       </c>
       <c r="X157" s="38" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Y157" s="54" t="s">
         <v>1185</v>
@@ -20872,7 +20864,7 @@
         <v>853</v>
       </c>
       <c r="P158" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q158" s="36" t="s">
         <v>324</v>
@@ -20881,10 +20873,10 @@
         <v>325</v>
       </c>
       <c r="S158" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T158" s="36" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="U158" s="55" t="s">
         <v>1183</v>
@@ -20896,7 +20888,7 @@
         <v>1182</v>
       </c>
       <c r="X158" s="38" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Y158" s="54" t="s">
         <v>1179</v>
@@ -20949,7 +20941,7 @@
         <v>853</v>
       </c>
       <c r="P159" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q159" s="36" t="s">
         <v>324</v>
@@ -20958,13 +20950,13 @@
         <v>325</v>
       </c>
       <c r="S159" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T159" s="36" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="U159" s="55" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="V159" s="55" t="s">
         <v>1099</v>
@@ -20973,7 +20965,7 @@
         <v>1186</v>
       </c>
       <c r="X159" s="55" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Y159" s="54" t="s">
         <v>1239</v>
@@ -21026,7 +21018,7 @@
         <v>853</v>
       </c>
       <c r="P160" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q160" s="36" t="s">
         <v>324</v>
@@ -21035,22 +21027,22 @@
         <v>325</v>
       </c>
       <c r="S160" s="36" t="s">
+        <v>1401</v>
+      </c>
+      <c r="T160" s="36" t="s">
+        <v>1559</v>
+      </c>
+      <c r="U160" s="55" t="s">
         <v>1403</v>
       </c>
-      <c r="T160" s="36" t="s">
-        <v>1561</v>
-      </c>
-      <c r="U160" s="55" t="s">
-        <v>1405</v>
-      </c>
       <c r="V160" s="55" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="W160" s="55" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="X160" s="55" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Y160" s="54" t="s">
         <v>1239</v>
@@ -21103,7 +21095,7 @@
         <v>853</v>
       </c>
       <c r="P161" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q161" s="36" t="s">
         <v>324</v>
@@ -21112,25 +21104,25 @@
         <v>325</v>
       </c>
       <c r="S161" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T161" s="36" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="U161" s="55" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="V161" s="55" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="W161" s="55" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="X161" s="55" t="s">
+        <v>1413</v>
+      </c>
+      <c r="Y161" s="54" t="s">
         <v>1415</v>
-      </c>
-      <c r="Y161" s="54" t="s">
-        <v>1417</v>
       </c>
       <c r="Z161" s="36"/>
     </row>
@@ -21180,7 +21172,7 @@
         <v>853</v>
       </c>
       <c r="P162" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q162" s="36" t="s">
         <v>324</v>
@@ -21189,25 +21181,25 @@
         <v>325</v>
       </c>
       <c r="S162" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T162" s="36" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="U162" s="55" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="V162" s="55" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="W162" s="55" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="X162" s="55" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Y162" s="54" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="Z162" s="36"/>
     </row>
@@ -21257,7 +21249,7 @@
         <v>853</v>
       </c>
       <c r="P163" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q163" s="36" t="s">
         <v>324</v>
@@ -21266,25 +21258,25 @@
         <v>325</v>
       </c>
       <c r="S163" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T163" s="36" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="U163" s="55" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="V163" s="55" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="W163" s="55" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="X163" s="55" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="Y163" s="54" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="Z163" s="36"/>
     </row>
@@ -21334,7 +21326,7 @@
         <v>853</v>
       </c>
       <c r="P164" s="36" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q164" s="36" t="s">
         <v>324</v>
@@ -21343,25 +21335,25 @@
         <v>325</v>
       </c>
       <c r="S164" s="36" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="T164" s="36" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="U164" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="V164" s="55" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="W164" s="55" t="s">
+        <v>1411</v>
+      </c>
+      <c r="X164" s="55" t="s">
         <v>1413</v>
       </c>
-      <c r="X164" s="55" t="s">
-        <v>1415</v>
-      </c>
       <c r="Y164" s="54" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="Z164" s="36"/>
     </row>
@@ -21371,7 +21363,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C165" s="35" t="s">
         <v>866</v>
@@ -21413,7 +21405,7 @@
         <v>853</v>
       </c>
       <c r="P165" s="36" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="Q165" s="36" t="s">
         <v>1080</v>
@@ -21434,16 +21426,16 @@
         <v>598</v>
       </c>
       <c r="W165" s="37" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="X165" s="38" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Y165" s="54" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="Z165" s="36" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21509,7 +21501,7 @@
         <v>1062</v>
       </c>
       <c r="U166" s="55" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="V166" s="55" t="s">
         <v>1063</v>
@@ -21522,7 +21514,7 @@
         <v>1074</v>
       </c>
       <c r="Z166" s="36" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21599,7 +21591,7 @@
         <v>1069</v>
       </c>
       <c r="Z167" s="36" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21676,7 +21668,7 @@
         <v>1070</v>
       </c>
       <c r="Z168" s="36" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21753,7 +21745,7 @@
         <v>1071</v>
       </c>
       <c r="Z169" s="36" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="170" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21817,7 +21809,7 @@
         <v>1062</v>
       </c>
       <c r="U170" s="55" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="V170" s="55" t="s">
         <v>1067</v>
@@ -21830,7 +21822,7 @@
         <v>1072</v>
       </c>
       <c r="Z170" s="36" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21903,13 +21895,13 @@
         <v>1201</v>
       </c>
       <c r="X171" s="60" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="Y171" s="61" t="s">
         <v>1073</v>
       </c>
       <c r="Z171" s="36" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="172" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21960,7 +21952,7 @@
         <v>853</v>
       </c>
       <c r="P172" s="36" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="Q172" s="36" t="s">
         <v>753</v>
@@ -21972,7 +21964,7 @@
         <v>276</v>
       </c>
       <c r="T172" s="36" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="U172" s="37" t="s">
         <v>193</v>
@@ -21984,7 +21976,7 @@
         <v>368</v>
       </c>
       <c r="X172" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y172" s="39" t="s">
         <v>1206</v>
@@ -22037,7 +22029,7 @@
         <v>853</v>
       </c>
       <c r="P173" s="36" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="Q173" s="36" t="s">
         <v>753</v>
@@ -22061,7 +22053,7 @@
         <v>369</v>
       </c>
       <c r="X173" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y173" s="39" t="s">
         <v>674</v>
@@ -22128,7 +22120,7 @@
         <v>281</v>
       </c>
       <c r="T174" s="36" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="U174" s="37" t="s">
         <v>1207</v>
@@ -22140,7 +22132,7 @@
         <v>1208</v>
       </c>
       <c r="X174" s="38" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Y174" s="45" t="s">
         <v>654</v>
@@ -22219,7 +22211,7 @@
         <v>361</v>
       </c>
       <c r="X175" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y175" s="39" t="s">
         <v>669</v>
@@ -22276,7 +22268,7 @@
         <v>853</v>
       </c>
       <c r="P176" s="36" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="Q176" s="36" t="s">
         <v>285</v>
@@ -22300,7 +22292,7 @@
         <v>794</v>
       </c>
       <c r="X176" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y176" s="39" t="s">
         <v>670</v>
@@ -22353,7 +22345,7 @@
         <v>853</v>
       </c>
       <c r="P177" s="36" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="Q177" s="36" t="s">
         <v>285</v>
@@ -22377,7 +22369,7 @@
         <v>362</v>
       </c>
       <c r="X177" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y177" s="39" t="s">
         <v>671</v>
@@ -22432,7 +22424,7 @@
         <v>853</v>
       </c>
       <c r="P178" s="36" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="Q178" s="36" t="s">
         <v>1228</v>
@@ -22456,7 +22448,7 @@
         <v>363</v>
       </c>
       <c r="X178" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y178" s="39" t="s">
         <v>672</v>
@@ -22509,7 +22501,7 @@
         <v>853</v>
       </c>
       <c r="P179" s="36" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="Q179" s="36" t="s">
         <v>288</v>
@@ -22533,7 +22525,7 @@
         <v>360</v>
       </c>
       <c r="X179" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y179" s="39" t="s">
         <v>654</v>
@@ -22586,7 +22578,7 @@
         <v>853</v>
       </c>
       <c r="P180" s="36" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="Q180" s="36" t="s">
         <v>288</v>
@@ -22610,7 +22602,7 @@
         <v>364</v>
       </c>
       <c r="X180" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y180" s="39" t="s">
         <v>673</v>
@@ -22663,7 +22655,7 @@
         <v>853</v>
       </c>
       <c r="P181" s="36" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="Q181" s="36" t="s">
         <v>1228</v>
@@ -22678,19 +22670,19 @@
         <v>847</v>
       </c>
       <c r="U181" s="37" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="V181" s="38" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="W181" s="37" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="X181" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y181" s="45" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="Z181" s="36"/>
     </row>
@@ -22740,7 +22732,7 @@
         <v>853</v>
       </c>
       <c r="P182" s="36" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="Q182" s="36" t="s">
         <v>288</v>
@@ -22755,7 +22747,7 @@
         <v>1231</v>
       </c>
       <c r="U182" s="37" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="V182" s="38" t="s">
         <v>618</v>
@@ -22764,7 +22756,7 @@
         <v>1209</v>
       </c>
       <c r="X182" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y182" s="39" t="s">
         <v>656</v>
@@ -22822,7 +22814,7 @@
         <v>1218</v>
       </c>
       <c r="Q183" s="36" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="R183" s="36" t="s">
         <v>1223</v>
@@ -22831,7 +22823,7 @@
         <v>1229</v>
       </c>
       <c r="T183" s="36" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="U183" s="55" t="s">
         <v>1224</v>
@@ -22906,7 +22898,7 @@
         <v>1229</v>
       </c>
       <c r="T184" s="36" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="U184" s="55" t="s">
         <v>1232</v>
@@ -22979,7 +22971,7 @@
         <v>1229</v>
       </c>
       <c r="T185" s="36" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="U185" s="55" t="s">
         <v>1235</v>
@@ -22991,7 +22983,7 @@
         <v>1237</v>
       </c>
       <c r="X185" s="38" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Y185" s="58" t="s">
         <v>1239</v>
@@ -23056,7 +23048,7 @@
         <v>1229</v>
       </c>
       <c r="T186" s="36" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="U186" s="55" t="s">
         <v>1219</v>
@@ -23068,7 +23060,7 @@
         <v>805</v>
       </c>
       <c r="X186" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y186" s="64" t="s">
         <v>1222</v>
@@ -23121,32 +23113,32 @@
         <v>853</v>
       </c>
       <c r="P187" s="36" t="s">
+        <v>1537</v>
+      </c>
+      <c r="Q187" s="36" t="s">
+        <v>1536</v>
+      </c>
+      <c r="R187" s="36" t="s">
+        <v>1538</v>
+      </c>
+      <c r="S187" s="36" t="s">
+        <v>1535</v>
+      </c>
+      <c r="T187" s="36" t="s">
+        <v>1546</v>
+      </c>
+      <c r="U187" s="49" t="s">
         <v>1539</v>
       </c>
-      <c r="Q187" s="36" t="s">
-        <v>1538</v>
-      </c>
-      <c r="R187" s="36" t="s">
+      <c r="V187" s="49" t="s">
         <v>1540</v>
-      </c>
-      <c r="S187" s="36" t="s">
-        <v>1537</v>
-      </c>
-      <c r="T187" s="36" t="s">
-        <v>1548</v>
-      </c>
-      <c r="U187" s="49" t="s">
-        <v>1541</v>
-      </c>
-      <c r="V187" s="49" t="s">
-        <v>1542</v>
       </c>
       <c r="W187" s="42" t="s">
         <v>1201</v>
       </c>
       <c r="X187" s="43"/>
       <c r="Y187" s="63" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="Z187" s="36"/>
     </row>
@@ -23201,13 +23193,13 @@
         <v>795</v>
       </c>
       <c r="Q188" s="36" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="R188" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S188" s="36" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="T188" s="36" t="s">
         <v>848</v>
@@ -23297,7 +23289,7 @@
         <v>805</v>
       </c>
       <c r="X189" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y189" s="39" t="s">
         <v>1243</v>
@@ -23810,13 +23802,13 @@
         <v>310</v>
       </c>
       <c r="R196" s="36" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="S196" s="36" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="T196" s="36" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="U196" s="37" t="s">
         <v>307</v>
@@ -23828,7 +23820,7 @@
         <v>370</v>
       </c>
       <c r="X196" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y196" s="39" t="s">
         <v>676</v>
@@ -23884,10 +23876,10 @@
         <v>798</v>
       </c>
       <c r="Q197" s="36" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="R197" s="36" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="S197" s="36" t="s">
         <v>312</v>
@@ -23905,7 +23897,7 @@
         <v>371</v>
       </c>
       <c r="X197" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y197" s="39" t="s">
         <v>677</v>
@@ -23961,13 +23953,13 @@
         <v>798</v>
       </c>
       <c r="Q198" s="36" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="R198" s="36" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="S198" s="36" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="T198" s="36" t="s">
         <v>849</v>
@@ -24039,7 +24031,7 @@
         <v>1210</v>
       </c>
       <c r="R199" s="36" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="S199" s="36" t="s">
         <v>1211</v>
@@ -24057,7 +24049,7 @@
         <v>371</v>
       </c>
       <c r="X199" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y199" s="39" t="s">
         <v>677</v>
@@ -24115,7 +24107,7 @@
         <v>799</v>
       </c>
       <c r="Q200" s="36" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="R200" s="36" t="s">
         <v>853</v>
@@ -24136,7 +24128,7 @@
         <v>372</v>
       </c>
       <c r="X200" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y200" s="39" t="s">
         <v>678</v>
@@ -24210,10 +24202,10 @@
         <v>623</v>
       </c>
       <c r="W201" s="37" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="X201" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y201" s="39" t="s">
         <v>392</v>
@@ -24287,10 +24279,10 @@
         <v>624</v>
       </c>
       <c r="W202" s="37" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="X202" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y202" s="39" t="s">
         <v>654</v>
@@ -24352,10 +24344,10 @@
         <v>306</v>
       </c>
       <c r="S203" s="36" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="T203" s="36" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="U203" s="37" t="s">
         <v>304</v>
@@ -24421,16 +24413,16 @@
         <v>1218</v>
       </c>
       <c r="Q204" s="36" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="R204" s="36" t="s">
         <v>1223</v>
       </c>
       <c r="S204" s="36" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="T204" s="36" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="U204" s="49" t="s">
         <v>746</v>
@@ -24442,13 +24434,13 @@
         <v>1221</v>
       </c>
       <c r="X204" s="49" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="Y204" s="58" t="s">
         <v>1222</v>
       </c>
       <c r="Z204" s="36" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="205" spans="1:26" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -24500,31 +24492,31 @@
         <v>1218</v>
       </c>
       <c r="Q205" s="36" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="R205" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S205" s="36" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="T205" s="36" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="U205" s="49" t="s">
+        <v>1487</v>
+      </c>
+      <c r="V205" s="49" t="s">
+        <v>1492</v>
+      </c>
+      <c r="W205" s="49" t="s">
         <v>1489</v>
       </c>
-      <c r="V205" s="49" t="s">
-        <v>1494</v>
-      </c>
-      <c r="W205" s="49" t="s">
-        <v>1491</v>
-      </c>
       <c r="X205" s="49" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="Y205" s="58" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="Z205" s="36"/>
     </row>
@@ -24574,32 +24566,32 @@
         <v>853</v>
       </c>
       <c r="P206" s="36" t="s">
+        <v>1537</v>
+      </c>
+      <c r="Q206" s="36" t="s">
+        <v>1536</v>
+      </c>
+      <c r="R206" s="36" t="s">
+        <v>1538</v>
+      </c>
+      <c r="S206" s="36" t="s">
+        <v>1535</v>
+      </c>
+      <c r="T206" s="36" t="s">
+        <v>1544</v>
+      </c>
+      <c r="U206" s="49" t="s">
         <v>1539</v>
       </c>
-      <c r="Q206" s="36" t="s">
-        <v>1538</v>
-      </c>
-      <c r="R206" s="36" t="s">
+      <c r="V206" s="49" t="s">
         <v>1540</v>
-      </c>
-      <c r="S206" s="36" t="s">
-        <v>1537</v>
-      </c>
-      <c r="T206" s="36" t="s">
-        <v>1546</v>
-      </c>
-      <c r="U206" s="49" t="s">
-        <v>1541</v>
-      </c>
-      <c r="V206" s="49" t="s">
-        <v>1542</v>
       </c>
       <c r="W206" s="42" t="s">
         <v>1201</v>
       </c>
       <c r="X206" s="43"/>
       <c r="Y206" s="63" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="Z206" s="36"/>
     </row>
@@ -24618,7 +24610,7 @@
         <v>853</v>
       </c>
       <c r="E207" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F207" s="35" t="s">
         <v>853</v>
@@ -24627,7 +24619,7 @@
         <v>853</v>
       </c>
       <c r="H207" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I207" s="35" t="s">
         <v>853</v>
@@ -24639,7 +24631,7 @@
         <v>853</v>
       </c>
       <c r="L207" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M207" s="35" t="s">
         <v>853</v>
@@ -24654,28 +24646,28 @@
         <v>1218</v>
       </c>
       <c r="Q207" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R207" s="36" t="s">
         <v>1223</v>
       </c>
       <c r="S207" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="T207" s="36" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="U207" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V207" s="35" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="W207" s="56" t="s">
         <v>805</v>
       </c>
       <c r="X207" s="65" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y207" s="45"/>
       <c r="Z207" s="36"/>
@@ -24693,7 +24685,7 @@
         <v>853</v>
       </c>
       <c r="E208" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F208" s="35" t="s">
         <v>853</v>
@@ -24702,7 +24694,7 @@
         <v>853</v>
       </c>
       <c r="H208" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I208" s="49" t="s">
         <v>853</v>
@@ -24714,7 +24706,7 @@
         <v>853</v>
       </c>
       <c r="L208" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M208" s="35" t="s">
         <v>853</v>
@@ -24726,22 +24718,22 @@
         <v>866</v>
       </c>
       <c r="P208" s="36" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="Q208" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R208" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S208" s="36" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T208" s="36" t="s">
         <v>1550</v>
       </c>
-      <c r="T208" s="36" t="s">
+      <c r="U208" s="56" t="s">
         <v>1552</v>
-      </c>
-      <c r="U208" s="56" t="s">
-        <v>1554</v>
       </c>
       <c r="V208" s="35" t="s">
         <v>560</v>
@@ -24771,7 +24763,7 @@
         <v>853</v>
       </c>
       <c r="F209" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G209" s="35" t="s">
         <v>853</v>
@@ -24792,7 +24784,7 @@
         <v>853</v>
       </c>
       <c r="M209" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N209" s="35" t="s">
         <v>853</v>
@@ -24801,32 +24793,32 @@
         <v>853</v>
       </c>
       <c r="P209" s="36" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="Q209" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R209" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S209" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="T209" s="36" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="U209" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V209" s="35" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="W209" s="42" t="s">
         <v>1201</v>
       </c>
       <c r="X209" s="67"/>
       <c r="Y209" s="66" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="Z209" s="36"/>
     </row>
@@ -24846,7 +24838,7 @@
         <v>853</v>
       </c>
       <c r="F210" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G210" s="35" t="s">
         <v>853</v>
@@ -24867,7 +24859,7 @@
         <v>853</v>
       </c>
       <c r="M210" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N210" s="35" t="s">
         <v>853</v>
@@ -24876,22 +24868,22 @@
         <v>853</v>
       </c>
       <c r="P210" s="36" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="Q210" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R210" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S210" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="T210" s="36" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="U210" s="56" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="V210" s="35" t="s">
         <v>560</v>
@@ -24924,7 +24916,7 @@
         <v>853</v>
       </c>
       <c r="G211" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H211" s="35" t="s">
         <v>853</v>
@@ -24945,37 +24937,37 @@
         <v>853</v>
       </c>
       <c r="N211" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O211" s="35" t="s">
         <v>853</v>
       </c>
       <c r="P211" s="36" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="Q211" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R211" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S211" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="T211" s="36" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="U211" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V211" s="35" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="W211" s="56" t="s">
         <v>805</v>
       </c>
       <c r="X211" s="65" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y211" s="45"/>
       <c r="Z211" s="36"/>
@@ -24999,7 +24991,7 @@
         <v>853</v>
       </c>
       <c r="G212" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H212" s="49" t="s">
         <v>853</v>
@@ -25020,28 +25012,28 @@
         <v>853</v>
       </c>
       <c r="N212" s="35" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O212" s="35" t="s">
         <v>853</v>
       </c>
       <c r="P212" s="36" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="Q212" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R212" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S212" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="T212" s="36" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="U212" s="56" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="V212" s="35" t="s">
         <v>560</v>
@@ -25070,7 +25062,7 @@
         <v>853</v>
       </c>
       <c r="E213" s="65" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F213" s="65" t="s">
         <v>866</v>
@@ -25079,7 +25071,7 @@
         <v>866</v>
       </c>
       <c r="H213" s="65" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I213" s="65" t="s">
         <v>853</v>
@@ -25115,7 +25107,7 @@
         <v>759</v>
       </c>
       <c r="T213" s="36" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="U213" s="68" t="s">
         <v>1</v>
@@ -25127,7 +25119,7 @@
         <v>1100</v>
       </c>
       <c r="X213" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y213" s="69" t="s">
         <v>680</v>
@@ -25191,10 +25183,10 @@
         <v>850</v>
       </c>
       <c r="S214" s="36" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="T214" s="36" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="U214" s="37" t="s">
         <v>12</v>
@@ -25488,7 +25480,7 @@
         <v>11</v>
       </c>
       <c r="T218" s="36" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="U218" s="37" t="s">
         <v>768</v>
@@ -25500,7 +25492,7 @@
         <v>1189</v>
       </c>
       <c r="X218" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y218" s="39" t="s">
         <v>679</v>
@@ -25567,7 +25559,7 @@
         <v>67</v>
       </c>
       <c r="T219" s="36" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="U219" s="37" t="s">
         <v>1101</v>
@@ -25579,7 +25571,7 @@
         <v>1190</v>
       </c>
       <c r="X219" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y219" s="39" t="s">
         <v>668</v>
@@ -26106,7 +26098,7 @@
         <v>348</v>
       </c>
       <c r="X226" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y226" s="45" t="s">
         <v>1191</v>
@@ -26183,7 +26175,7 @@
         <v>349</v>
       </c>
       <c r="X227" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y227" s="39" t="s">
         <v>1192</v>
@@ -26260,7 +26252,7 @@
         <v>350</v>
       </c>
       <c r="X228" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y228" s="39" t="s">
         <v>1193</v>
@@ -26400,7 +26392,7 @@
         <v>78</v>
       </c>
       <c r="T230" s="36" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="U230" s="37" t="s">
         <v>12</v>
@@ -28239,7 +28231,7 @@
         <v>770</v>
       </c>
       <c r="Q254" s="36" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="R254" s="36" t="s">
         <v>128</v>
@@ -28701,29 +28693,29 @@
         <v>770</v>
       </c>
       <c r="Q260" s="36" t="s">
+        <v>1256</v>
+      </c>
+      <c r="R260" s="36" t="s">
         <v>1251</v>
       </c>
-      <c r="R260" s="36" t="s">
-        <v>1252</v>
-      </c>
       <c r="S260" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="T260" s="36" t="s">
         <v>1253</v>
       </c>
-      <c r="T260" s="36" t="s">
+      <c r="U260" s="37" t="s">
+        <v>1254</v>
+      </c>
+      <c r="V260" s="38" t="s">
         <v>1255</v>
-      </c>
-      <c r="U260" s="37" t="s">
-        <v>1256</v>
-      </c>
-      <c r="V260" s="38" t="s">
-        <v>1257</v>
       </c>
       <c r="W260" s="42" t="s">
         <v>1107</v>
       </c>
       <c r="X260" s="43"/>
       <c r="Y260" s="66" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Z260" s="36"/>
     </row>
@@ -28776,16 +28768,16 @@
         <v>770</v>
       </c>
       <c r="Q261" s="36" t="s">
+        <v>1614</v>
+      </c>
+      <c r="R261" s="36" t="s">
+        <v>1615</v>
+      </c>
+      <c r="S261" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="T261" s="36" t="s">
         <v>1616</v>
-      </c>
-      <c r="R261" s="36" t="s">
-        <v>1617</v>
-      </c>
-      <c r="S261" s="36" t="s">
-        <v>1456</v>
-      </c>
-      <c r="T261" s="36" t="s">
-        <v>1618</v>
       </c>
       <c r="U261" s="55" t="s">
         <v>641</v>
@@ -28798,7 +28790,7 @@
       </c>
       <c r="X261" s="42"/>
       <c r="Y261" s="63" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="Z261" s="36"/>
     </row>
@@ -28851,7 +28843,7 @@
         <v>770</v>
       </c>
       <c r="Q262" s="36" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R262" s="36" t="s">
         <v>855</v>
@@ -28860,7 +28852,7 @@
         <v>137</v>
       </c>
       <c r="T262" s="36" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="U262" s="37" t="s">
         <v>135</v>
@@ -28872,7 +28864,7 @@
         <v>1102</v>
       </c>
       <c r="X262" s="35" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y262" s="45" t="s">
         <v>663</v>
@@ -28949,7 +28941,7 @@
         <v>344</v>
       </c>
       <c r="X263" s="35" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y263" s="39" t="s">
         <v>664</v>
@@ -29026,7 +29018,7 @@
         <v>345</v>
       </c>
       <c r="X264" s="35" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y264" s="39" t="s">
         <v>665</v>
@@ -29103,7 +29095,7 @@
         <v>346</v>
       </c>
       <c r="X265" s="35" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y265" s="39" t="s">
         <v>666</v>
@@ -29180,7 +29172,7 @@
         <v>347</v>
       </c>
       <c r="X266" s="35" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y266" s="39" t="s">
         <v>667</v>
@@ -29235,10 +29227,10 @@
         <v>853</v>
       </c>
       <c r="P267" s="36" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Q267" s="36" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="R267" s="36" t="s">
         <v>162</v>
@@ -29247,7 +29239,7 @@
         <v>161</v>
       </c>
       <c r="T267" s="36" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="U267" s="37" t="s">
         <v>160</v>
@@ -29259,7 +29251,7 @@
         <v>1103</v>
       </c>
       <c r="X267" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y267" s="39" t="s">
         <v>681</v>
@@ -29326,7 +29318,7 @@
         <v>164</v>
       </c>
       <c r="T268" s="36" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="U268" s="37" t="s">
         <v>638</v>
@@ -29636,7 +29628,7 @@
         <v>168</v>
       </c>
       <c r="T272" s="36" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="U272" s="37" t="s">
         <v>166</v>
@@ -29648,7 +29640,7 @@
         <v>1194</v>
       </c>
       <c r="X272" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y272" s="39" t="s">
         <v>679</v>
@@ -29713,7 +29705,7 @@
         <v>168</v>
       </c>
       <c r="T273" s="36" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="U273" s="37" t="s">
         <v>166</v>
@@ -29725,7 +29717,7 @@
         <v>1194</v>
       </c>
       <c r="X273" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y273" s="39" t="s">
         <v>679</v>
@@ -29792,7 +29784,7 @@
         <v>175</v>
       </c>
       <c r="T274" s="36" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="U274" s="37" t="s">
         <v>816</v>
@@ -29804,7 +29796,7 @@
         <v>1104</v>
       </c>
       <c r="X274" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y274" s="39" t="s">
         <v>679</v>
@@ -29859,10 +29851,10 @@
         <v>853</v>
       </c>
       <c r="P275" s="36" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Q275" s="36" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="R275" s="36" t="s">
         <v>857</v>
@@ -29871,7 +29863,7 @@
         <v>178</v>
       </c>
       <c r="T275" s="36" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="U275" s="37" t="s">
         <v>176</v>
@@ -29883,7 +29875,7 @@
         <v>1105</v>
       </c>
       <c r="X275" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y275" s="39" t="s">
         <v>666</v>
@@ -30333,7 +30325,7 @@
         <v>181</v>
       </c>
       <c r="T281" s="36" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="U281" s="37" t="s">
         <v>179</v>
@@ -30345,7 +30337,7 @@
         <v>1196</v>
       </c>
       <c r="X281" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y281" s="39" t="s">
         <v>682</v>
@@ -30424,7 +30416,7 @@
         <v>377</v>
       </c>
       <c r="X282" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y282" s="39" t="s">
         <v>683</v>
@@ -30503,7 +30495,7 @@
         <v>378</v>
       </c>
       <c r="X283" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y283" s="39" t="s">
         <v>684</v>
@@ -30582,7 +30574,7 @@
         <v>379</v>
       </c>
       <c r="X284" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y284" s="39" t="s">
         <v>656</v>
@@ -30649,7 +30641,7 @@
         <v>34</v>
       </c>
       <c r="T285" s="36" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="U285" s="37" t="s">
         <v>32</v>
@@ -30661,10 +30653,10 @@
         <v>380</v>
       </c>
       <c r="X285" s="38" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="Y285" s="45" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Z285" s="36"/>
     </row>
@@ -30738,7 +30730,7 @@
         <v>382</v>
       </c>
       <c r="X286" s="38" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="Y286" s="39" t="s">
         <v>686</v>
@@ -30815,7 +30807,7 @@
         <v>381</v>
       </c>
       <c r="X287" s="38" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="Y287" s="39" t="s">
         <v>687</v>
@@ -30892,7 +30884,7 @@
         <v>1106</v>
       </c>
       <c r="X288" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y288" s="39" t="s">
         <v>688</v>
@@ -30969,7 +30961,7 @@
         <v>383</v>
       </c>
       <c r="X289" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y289" s="39" t="s">
         <v>688</v>
@@ -31036,7 +31028,7 @@
         <v>172</v>
       </c>
       <c r="T290" s="36" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="U290" s="37" t="s">
         <v>170</v>
@@ -31048,10 +31040,10 @@
         <v>1199</v>
       </c>
       <c r="X290" s="68" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Y290" s="39" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="Z290" s="36"/>
     </row>
@@ -31115,7 +31107,7 @@
         <v>14</v>
       </c>
       <c r="T291" s="36" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="U291" s="55" t="s">
         <v>17</v>
@@ -31192,7 +31184,7 @@
         <v>896</v>
       </c>
       <c r="T292" s="36" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="U292" s="55" t="s">
         <v>898</v>
@@ -31267,7 +31259,7 @@
         <v>903</v>
       </c>
       <c r="T293" s="36" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="U293" s="55" t="s">
         <v>904</v>
@@ -31502,7 +31494,7 @@
         <v>913</v>
       </c>
       <c r="T296" s="36" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="U296" s="55" t="s">
         <v>914</v>
@@ -32770,7 +32762,7 @@
         <v>954</v>
       </c>
       <c r="Q313" s="36" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="R313" s="36" t="s">
         <v>954</v>
@@ -32843,7 +32835,7 @@
         <v>954</v>
       </c>
       <c r="Q314" s="36" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="R314" s="36" t="s">
         <v>954</v>
@@ -33137,7 +33129,7 @@
         <v>963</v>
       </c>
       <c r="Q318" s="36" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="R318" s="36" t="s">
         <v>965</v>
@@ -33146,7 +33138,7 @@
         <v>966</v>
       </c>
       <c r="T318" s="36" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="U318" s="55" t="s">
         <v>967</v>
@@ -33303,13 +33295,13 @@
         <v>997</v>
       </c>
       <c r="U320" s="55" t="s">
+        <v>1584</v>
+      </c>
+      <c r="V320" s="55" t="s">
         <v>1586</v>
       </c>
-      <c r="V320" s="55" t="s">
-        <v>1588</v>
-      </c>
       <c r="W320" s="55" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="X320" s="55" t="s">
         <v>1140</v>
@@ -33318,7 +33310,7 @@
         <v>1142</v>
       </c>
       <c r="Z320" s="36" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="321" spans="1:26" ht="27" x14ac:dyDescent="0.15">
@@ -33382,7 +33374,7 @@
         <v>997</v>
       </c>
       <c r="U321" s="55" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="V321" s="55" t="s">
         <v>973</v>
@@ -33397,7 +33389,7 @@
         <v>1143</v>
       </c>
       <c r="Z321" s="36" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="322" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -33467,7 +33459,7 @@
         <v>976</v>
       </c>
       <c r="W322" s="55" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="X322" s="55" t="s">
         <v>1140</v>
@@ -34448,7 +34440,7 @@
         <v>984</v>
       </c>
       <c r="W335" s="55" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="X335" s="55" t="s">
         <v>1140</v>
@@ -34673,17 +34665,17 @@
         <v>997</v>
       </c>
       <c r="U338" s="49" t="s">
+        <v>1517</v>
+      </c>
+      <c r="V338" s="49" t="s">
         <v>1519</v>
-      </c>
-      <c r="V338" s="49" t="s">
-        <v>1521</v>
       </c>
       <c r="W338" s="42" t="s">
         <v>1107</v>
       </c>
       <c r="X338" s="42"/>
       <c r="Y338" s="42" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="Z338" s="36"/>
     </row>
@@ -34824,7 +34816,7 @@
         <v>1001</v>
       </c>
       <c r="T340" s="36" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="U340" s="55" t="s">
         <v>1002</v>
@@ -36175,10 +36167,10 @@
         <v>1006</v>
       </c>
       <c r="S358" s="36" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="T358" s="36" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="U358" s="55" t="s">
         <v>1007</v>
@@ -36248,7 +36240,7 @@
         <v>1016</v>
       </c>
       <c r="Q359" s="36" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="R359" s="36" t="s">
         <v>1015</v>
@@ -36257,7 +36249,7 @@
         <v>1019</v>
       </c>
       <c r="T359" s="36" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="U359" s="55" t="s">
         <v>1013</v>
@@ -36269,7 +36261,7 @@
         <v>1244</v>
       </c>
       <c r="X359" s="38" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="Y359" s="39" t="s">
         <v>1245</v>
@@ -36346,7 +36338,7 @@
         <v>354</v>
       </c>
       <c r="X360" s="38" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="Y360" s="39" t="s">
         <v>1245</v>
@@ -36411,7 +36403,7 @@
         <v>154</v>
       </c>
       <c r="T361" s="36" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="U361" s="55" t="s">
         <v>40</v>
@@ -36512,46 +36504,46 @@
         <v>772</v>
       </c>
       <c r="C363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N363" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O363" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P363" s="36" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="Q363" s="36" t="s">
         <v>1083</v>
@@ -36566,7 +36558,7 @@
         <v>1083</v>
       </c>
       <c r="U363" s="42" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="V363" s="77" t="s">
         <v>1083</v>
@@ -36575,10 +36567,10 @@
         <v>1107</v>
       </c>
       <c r="X363" s="42" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="Y363" s="42" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="Z363" s="36"/>
     </row>
@@ -36589,47 +36581,47 @@
       </c>
       <c r="B364" s="41"/>
       <c r="C364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="M364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N364" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="O364" s="49" t="s">
+        <v>866</v>
+      </c>
+      <c r="P364" s="36" t="s">
         <v>1259</v>
       </c>
-      <c r="D364" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E364" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F364" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G364" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="H364" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I364" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J364" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="K364" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="L364" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="M364" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="N364" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="O364" s="49" t="s">
-        <v>866</v>
-      </c>
-      <c r="P364" s="36" t="s">
-        <v>1261</v>
-      </c>
       <c r="Q364" s="36" t="s">
         <v>1083</v>
       </c>
@@ -36643,7 +36635,7 @@
         <v>1083</v>
       </c>
       <c r="U364" s="42" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="V364" s="77" t="s">
         <v>1083</v>
@@ -36652,10 +36644,10 @@
         <v>1107</v>
       </c>
       <c r="X364" s="42" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="Y364" s="42" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="Z364" s="36"/>
     </row>
@@ -36666,7 +36658,7 @@
       </c>
       <c r="B365" s="41"/>
       <c r="C365" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D365" s="49" t="s">
         <v>853</v>
@@ -36687,7 +36679,7 @@
         <v>853</v>
       </c>
       <c r="J365" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K365" s="49" t="s">
         <v>853</v>
@@ -36705,7 +36697,7 @@
         <v>853</v>
       </c>
       <c r="P365" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q365" s="36" t="s">
         <v>1083</v>
@@ -36720,7 +36712,7 @@
         <v>1083</v>
       </c>
       <c r="U365" s="55" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="V365" s="75" t="s">
         <v>1083</v>
@@ -36729,10 +36721,10 @@
         <v>1107</v>
       </c>
       <c r="X365" s="42" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="Y365" s="42" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="Z365" s="36"/>
     </row>
@@ -36743,46 +36735,46 @@
       </c>
       <c r="B366" s="41"/>
       <c r="C366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N366" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O366" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P366" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q366" s="36" t="s">
         <v>1083</v>
@@ -36797,7 +36789,7 @@
         <v>1083</v>
       </c>
       <c r="U366" s="55" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="V366" s="75" t="s">
         <v>1083</v>
@@ -36806,10 +36798,10 @@
         <v>1107</v>
       </c>
       <c r="X366" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y366" s="42" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="Z366" s="36"/>
     </row>
@@ -36820,46 +36812,46 @@
       </c>
       <c r="B367" s="41"/>
       <c r="C367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N367" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O367" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P367" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q367" s="36" t="s">
         <v>1083</v>
@@ -36874,7 +36866,7 @@
         <v>1083</v>
       </c>
       <c r="U367" s="55" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="V367" s="75" t="s">
         <v>1083</v>
@@ -36883,10 +36875,10 @@
         <v>1107</v>
       </c>
       <c r="X367" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y367" s="42" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="Z367" s="36"/>
     </row>
@@ -36897,46 +36889,46 @@
       </c>
       <c r="B368" s="41"/>
       <c r="C368" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D368" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E368" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F368" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G368" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H368" s="49" t="s">
         <v>853</v>
       </c>
       <c r="I368" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J368" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K368" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L368" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M368" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N368" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O368" s="49" t="s">
         <v>853</v>
       </c>
       <c r="P368" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q368" s="36" t="s">
         <v>1083</v>
@@ -36951,7 +36943,7 @@
         <v>1083</v>
       </c>
       <c r="U368" s="55" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="V368" s="75" t="s">
         <v>1083</v>
@@ -36960,10 +36952,10 @@
         <v>1107</v>
       </c>
       <c r="X368" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y368" s="42" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="Z368" s="36"/>
     </row>
@@ -36974,46 +36966,46 @@
       </c>
       <c r="B369" s="41"/>
       <c r="C369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N369" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O369" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P369" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q369" s="36" t="s">
         <v>1083</v>
@@ -37028,7 +37020,7 @@
         <v>1083</v>
       </c>
       <c r="U369" s="55" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="V369" s="75" t="s">
         <v>1083</v>
@@ -37037,10 +37029,10 @@
         <v>1107</v>
       </c>
       <c r="X369" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y369" s="42" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="Z369" s="36"/>
     </row>
@@ -37051,46 +37043,46 @@
       </c>
       <c r="B370" s="41"/>
       <c r="C370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N370" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O370" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P370" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q370" s="36" t="s">
         <v>1083</v>
@@ -37105,7 +37097,7 @@
         <v>1083</v>
       </c>
       <c r="U370" s="55" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="V370" s="75" t="s">
         <v>1083</v>
@@ -37114,10 +37106,10 @@
         <v>1107</v>
       </c>
       <c r="X370" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y370" s="42" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="Z370" s="36"/>
     </row>
@@ -37128,46 +37120,46 @@
       </c>
       <c r="B371" s="41"/>
       <c r="C371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N371" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O371" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P371" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q371" s="36" t="s">
         <v>1083</v>
@@ -37182,7 +37174,7 @@
         <v>1083</v>
       </c>
       <c r="U371" s="55" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="V371" s="75" t="s">
         <v>1083</v>
@@ -37191,10 +37183,10 @@
         <v>1107</v>
       </c>
       <c r="X371" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y371" s="42" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="Z371" s="36"/>
     </row>
@@ -37205,46 +37197,46 @@
       </c>
       <c r="B372" s="41"/>
       <c r="C372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N372" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O372" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P372" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q372" s="36" t="s">
         <v>1083</v>
@@ -37259,7 +37251,7 @@
         <v>1083</v>
       </c>
       <c r="U372" s="55" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="V372" s="75" t="s">
         <v>1083</v>
@@ -37268,10 +37260,10 @@
         <v>1107</v>
       </c>
       <c r="X372" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y372" s="42" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="Z372" s="36"/>
     </row>
@@ -37282,46 +37274,46 @@
       </c>
       <c r="B373" s="41"/>
       <c r="C373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N373" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O373" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P373" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q373" s="36" t="s">
         <v>1083</v>
@@ -37336,7 +37328,7 @@
         <v>1083</v>
       </c>
       <c r="U373" s="55" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="V373" s="75" t="s">
         <v>1083</v>
@@ -37345,10 +37337,10 @@
         <v>1107</v>
       </c>
       <c r="X373" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y373" s="42" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="Z373" s="36"/>
     </row>
@@ -37359,46 +37351,46 @@
       </c>
       <c r="B374" s="41"/>
       <c r="C374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N374" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O374" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P374" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q374" s="36" t="s">
         <v>1083</v>
@@ -37413,7 +37405,7 @@
         <v>1083</v>
       </c>
       <c r="U374" s="55" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="V374" s="75" t="s">
         <v>1083</v>
@@ -37422,10 +37414,10 @@
         <v>1107</v>
       </c>
       <c r="X374" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y374" s="42" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="Z374" s="36"/>
     </row>
@@ -37436,46 +37428,46 @@
       </c>
       <c r="B375" s="41"/>
       <c r="C375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N375" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O375" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P375" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q375" s="36" t="s">
         <v>1083</v>
@@ -37490,7 +37482,7 @@
         <v>1083</v>
       </c>
       <c r="U375" s="55" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="V375" s="75" t="s">
         <v>1083</v>
@@ -37499,10 +37491,10 @@
         <v>1107</v>
       </c>
       <c r="X375" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y375" s="42" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Z375" s="36"/>
     </row>
@@ -37513,46 +37505,46 @@
       </c>
       <c r="B376" s="41"/>
       <c r="C376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N376" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O376" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P376" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q376" s="36" t="s">
         <v>1083</v>
@@ -37567,7 +37559,7 @@
         <v>1083</v>
       </c>
       <c r="U376" s="55" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="V376" s="75" t="s">
         <v>1083</v>
@@ -37576,10 +37568,10 @@
         <v>1107</v>
       </c>
       <c r="X376" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y376" s="42" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="Z376" s="36"/>
     </row>
@@ -37590,46 +37582,46 @@
       </c>
       <c r="B377" s="41"/>
       <c r="C377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N377" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O377" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P377" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q377" s="36" t="s">
         <v>1083</v>
@@ -37644,7 +37636,7 @@
         <v>1083</v>
       </c>
       <c r="U377" s="55" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="V377" s="75" t="s">
         <v>1083</v>
@@ -37653,10 +37645,10 @@
         <v>1107</v>
       </c>
       <c r="X377" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y377" s="42" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="Z377" s="36"/>
     </row>
@@ -37667,46 +37659,46 @@
       </c>
       <c r="B378" s="41"/>
       <c r="C378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N378" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O378" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P378" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q378" s="36" t="s">
         <v>1083</v>
@@ -37721,7 +37713,7 @@
         <v>1083</v>
       </c>
       <c r="U378" s="55" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="V378" s="75" t="s">
         <v>1083</v>
@@ -37730,10 +37722,10 @@
         <v>1107</v>
       </c>
       <c r="X378" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y378" s="42" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="Z378" s="36"/>
     </row>
@@ -37744,46 +37736,46 @@
       </c>
       <c r="B379" s="41"/>
       <c r="C379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N379" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O379" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P379" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q379" s="36" t="s">
         <v>1083</v>
@@ -37798,7 +37790,7 @@
         <v>1083</v>
       </c>
       <c r="U379" s="55" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="V379" s="75" t="s">
         <v>1083</v>
@@ -37807,10 +37799,10 @@
         <v>1107</v>
       </c>
       <c r="X379" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y379" s="42" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="Z379" s="36"/>
     </row>
@@ -37821,46 +37813,46 @@
       </c>
       <c r="B380" s="41"/>
       <c r="C380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N380" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O380" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P380" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q380" s="36" t="s">
         <v>1083</v>
@@ -37875,7 +37867,7 @@
         <v>1083</v>
       </c>
       <c r="U380" s="55" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="V380" s="75" t="s">
         <v>1083</v>
@@ -37884,10 +37876,10 @@
         <v>1107</v>
       </c>
       <c r="X380" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y380" s="42" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="Z380" s="36"/>
     </row>
@@ -37898,46 +37890,46 @@
       </c>
       <c r="B381" s="41"/>
       <c r="C381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N381" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O381" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P381" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q381" s="36" t="s">
         <v>1083</v>
@@ -37952,7 +37944,7 @@
         <v>1083</v>
       </c>
       <c r="U381" s="55" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="V381" s="75" t="s">
         <v>1083</v>
@@ -37961,10 +37953,10 @@
         <v>1107</v>
       </c>
       <c r="X381" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y381" s="42" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="Z381" s="36"/>
     </row>
@@ -37975,46 +37967,46 @@
       </c>
       <c r="B382" s="41"/>
       <c r="C382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N382" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O382" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P382" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q382" s="36" t="s">
         <v>1083</v>
@@ -38029,7 +38021,7 @@
         <v>1083</v>
       </c>
       <c r="U382" s="55" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="V382" s="75" t="s">
         <v>1083</v>
@@ -38038,10 +38030,10 @@
         <v>1107</v>
       </c>
       <c r="X382" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y382" s="42" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="Z382" s="36"/>
     </row>
@@ -38052,46 +38044,46 @@
       </c>
       <c r="B383" s="41"/>
       <c r="C383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N383" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O383" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P383" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q383" s="36" t="s">
         <v>1083</v>
@@ -38106,7 +38098,7 @@
         <v>1083</v>
       </c>
       <c r="U383" s="55" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="V383" s="75" t="s">
         <v>1083</v>
@@ -38115,10 +38107,10 @@
         <v>1107</v>
       </c>
       <c r="X383" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y383" s="42" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="Z383" s="36"/>
     </row>
@@ -38129,46 +38121,46 @@
       </c>
       <c r="B384" s="41"/>
       <c r="C384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N384" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O384" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P384" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q384" s="36" t="s">
         <v>1083</v>
@@ -38183,7 +38175,7 @@
         <v>1083</v>
       </c>
       <c r="U384" s="55" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="V384" s="75" t="s">
         <v>1083</v>
@@ -38192,10 +38184,10 @@
         <v>1107</v>
       </c>
       <c r="X384" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y384" s="42" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="Z384" s="36"/>
     </row>
@@ -38206,46 +38198,46 @@
       </c>
       <c r="B385" s="41"/>
       <c r="C385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N385" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O385" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P385" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q385" s="36" t="s">
         <v>1083</v>
@@ -38260,7 +38252,7 @@
         <v>1083</v>
       </c>
       <c r="U385" s="55" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="V385" s="75" t="s">
         <v>1083</v>
@@ -38269,10 +38261,10 @@
         <v>1107</v>
       </c>
       <c r="X385" s="42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="Y385" s="42" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="Z385" s="36"/>
     </row>
@@ -38289,16 +38281,16 @@
         <v>853</v>
       </c>
       <c r="E386" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F386" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G386" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H386" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I386" s="49" t="s">
         <v>853</v>
@@ -38310,19 +38302,19 @@
         <v>853</v>
       </c>
       <c r="L386" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M386" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N386" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O386" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P386" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q386" s="36" t="s">
         <v>1083</v>
@@ -38337,7 +38329,7 @@
         <v>1083</v>
       </c>
       <c r="U386" s="55" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="V386" s="75" t="s">
         <v>1083</v>
@@ -38346,10 +38338,10 @@
         <v>1107</v>
       </c>
       <c r="X386" s="42" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="Y386" s="42" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="Z386" s="36"/>
     </row>
@@ -38366,16 +38358,16 @@
         <v>853</v>
       </c>
       <c r="E387" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F387" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G387" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H387" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I387" s="49" t="s">
         <v>853</v>
@@ -38387,19 +38379,19 @@
         <v>853</v>
       </c>
       <c r="L387" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M387" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N387" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O387" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P387" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q387" s="36" t="s">
         <v>1083</v>
@@ -38414,7 +38406,7 @@
         <v>1083</v>
       </c>
       <c r="U387" s="55" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="V387" s="75" t="s">
         <v>1083</v>
@@ -38423,10 +38415,10 @@
         <v>1107</v>
       </c>
       <c r="X387" s="42" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="Y387" s="42" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Z387" s="36"/>
     </row>
@@ -38443,13 +38435,13 @@
         <v>853</v>
       </c>
       <c r="E388" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F388" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G388" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H388" s="49" t="s">
         <v>853</v>
@@ -38464,19 +38456,19 @@
         <v>853</v>
       </c>
       <c r="L388" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M388" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N388" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O388" s="49" t="s">
         <v>853</v>
       </c>
       <c r="P388" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q388" s="36" t="s">
         <v>1083</v>
@@ -38491,7 +38483,7 @@
         <v>1083</v>
       </c>
       <c r="U388" s="55" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="V388" s="75" t="s">
         <v>1083</v>
@@ -38500,10 +38492,10 @@
         <v>1107</v>
       </c>
       <c r="X388" s="42" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="Y388" s="42" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="Z388" s="36"/>
     </row>
@@ -38520,13 +38512,13 @@
         <v>853</v>
       </c>
       <c r="E389" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F389" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G389" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H389" s="49" t="s">
         <v>853</v>
@@ -38541,19 +38533,19 @@
         <v>853</v>
       </c>
       <c r="L389" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="M389" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N389" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O389" s="49" t="s">
         <v>853</v>
       </c>
       <c r="P389" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q389" s="36" t="s">
         <v>1083</v>
@@ -38568,7 +38560,7 @@
         <v>1083</v>
       </c>
       <c r="U389" s="55" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="V389" s="75" t="s">
         <v>1083</v>
@@ -38577,10 +38569,10 @@
         <v>1107</v>
       </c>
       <c r="X389" s="42" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="Y389" s="42" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="Z389" s="36"/>
     </row>
@@ -38591,7 +38583,7 @@
       </c>
       <c r="B390" s="46"/>
       <c r="C390" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D390" s="49" t="s">
         <v>853</v>
@@ -38612,7 +38604,7 @@
         <v>853</v>
       </c>
       <c r="J390" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K390" s="49" t="s">
         <v>853</v>
@@ -38630,26 +38622,26 @@
         <v>853</v>
       </c>
       <c r="P390" s="36" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="Q390" s="36"/>
       <c r="R390" s="36"/>
       <c r="S390" s="36"/>
       <c r="T390" s="36"/>
       <c r="U390" s="55" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="V390" s="36" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="W390" s="42" t="s">
         <v>1107</v>
       </c>
       <c r="X390" s="42" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="Y390" s="42" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="Z390" s="36"/>
     </row>
@@ -38701,34 +38693,34 @@
         <v>853</v>
       </c>
       <c r="P391" s="36" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Q391" s="36" t="s">
+        <v>1318</v>
+      </c>
+      <c r="R391" s="36" t="s">
         <v>1319</v>
       </c>
-      <c r="Q391" s="36" t="s">
+      <c r="S391" s="36" t="s">
         <v>1320</v>
       </c>
-      <c r="R391" s="36" t="s">
-        <v>1321</v>
-      </c>
-      <c r="S391" s="36" t="s">
-        <v>1322</v>
-      </c>
       <c r="T391" s="36" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="U391" s="55" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V391" s="55" t="s">
+        <v>1351</v>
+      </c>
+      <c r="W391" s="55" t="s">
+        <v>1324</v>
+      </c>
+      <c r="X391" s="55" t="s">
         <v>1325</v>
       </c>
-      <c r="V391" s="55" t="s">
-        <v>1353</v>
-      </c>
-      <c r="W391" s="55" t="s">
+      <c r="Y391" s="73" t="s">
         <v>1326</v>
-      </c>
-      <c r="X391" s="55" t="s">
-        <v>1327</v>
-      </c>
-      <c r="Y391" s="73" t="s">
-        <v>1328</v>
       </c>
       <c r="Z391" s="36"/>
     </row>
@@ -38778,32 +38770,32 @@
         <v>853</v>
       </c>
       <c r="P392" s="36" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q392" s="36" t="s">
+        <v>1327</v>
+      </c>
+      <c r="R392" s="36" t="s">
+        <v>1328</v>
+      </c>
+      <c r="S392" s="36" t="s">
         <v>1329</v>
-      </c>
-      <c r="R392" s="36" t="s">
-        <v>1330</v>
-      </c>
-      <c r="S392" s="36" t="s">
-        <v>1331</v>
       </c>
       <c r="T392" s="36"/>
       <c r="U392" s="55" t="s">
+        <v>1323</v>
+      </c>
+      <c r="V392" s="55" t="s">
+        <v>1349</v>
+      </c>
+      <c r="W392" s="55" t="s">
+        <v>1330</v>
+      </c>
+      <c r="X392" s="55" t="s">
         <v>1325</v>
       </c>
-      <c r="V392" s="55" t="s">
-        <v>1351</v>
-      </c>
-      <c r="W392" s="55" t="s">
-        <v>1332</v>
-      </c>
-      <c r="X392" s="55" t="s">
-        <v>1327</v>
-      </c>
       <c r="Y392" s="73" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="Z392" s="36"/>
     </row>
@@ -38853,32 +38845,32 @@
         <v>853</v>
       </c>
       <c r="P393" s="36" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q393" s="36" t="s">
+        <v>1332</v>
+      </c>
+      <c r="R393" s="36" t="s">
+        <v>1333</v>
+      </c>
+      <c r="S393" s="36" t="s">
         <v>1334</v>
-      </c>
-      <c r="R393" s="36" t="s">
-        <v>1335</v>
-      </c>
-      <c r="S393" s="36" t="s">
-        <v>1336</v>
       </c>
       <c r="T393" s="36"/>
       <c r="U393" s="55" t="s">
+        <v>1335</v>
+      </c>
+      <c r="V393" s="55" t="s">
+        <v>1350</v>
+      </c>
+      <c r="W393" s="55" t="s">
+        <v>1336</v>
+      </c>
+      <c r="X393" s="55" t="s">
+        <v>1325</v>
+      </c>
+      <c r="Y393" s="73" t="s">
         <v>1337</v>
-      </c>
-      <c r="V393" s="55" t="s">
-        <v>1352</v>
-      </c>
-      <c r="W393" s="55" t="s">
-        <v>1338</v>
-      </c>
-      <c r="X393" s="55" t="s">
-        <v>1327</v>
-      </c>
-      <c r="Y393" s="73" t="s">
-        <v>1339</v>
       </c>
       <c r="Z393" s="36"/>
     </row>
@@ -38928,32 +38920,32 @@
         <v>853</v>
       </c>
       <c r="P394" s="36" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q394" s="36" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R394" s="36" t="s">
         <v>1340</v>
       </c>
-      <c r="R394" s="36" t="s">
-        <v>1342</v>
-      </c>
       <c r="S394" s="36" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="T394" s="36"/>
       <c r="U394" s="55" t="s">
+        <v>1341</v>
+      </c>
+      <c r="V394" s="55" t="s">
+        <v>1342</v>
+      </c>
+      <c r="W394" s="55" t="s">
         <v>1343</v>
       </c>
-      <c r="V394" s="55" t="s">
+      <c r="X394" s="55" t="s">
+        <v>1325</v>
+      </c>
+      <c r="Y394" s="73" t="s">
         <v>1344</v>
-      </c>
-      <c r="W394" s="55" t="s">
-        <v>1345</v>
-      </c>
-      <c r="X394" s="55" t="s">
-        <v>1327</v>
-      </c>
-      <c r="Y394" s="73" t="s">
-        <v>1346</v>
       </c>
       <c r="Z394" s="36"/>
     </row>
@@ -39003,22 +38995,22 @@
         <v>853</v>
       </c>
       <c r="P395" s="36" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q395" s="36" t="s">
+        <v>1345</v>
+      </c>
+      <c r="R395" s="36" t="s">
         <v>1347</v>
       </c>
-      <c r="R395" s="36" t="s">
-        <v>1349</v>
-      </c>
       <c r="S395" s="36" t="s">
+        <v>1346</v>
+      </c>
+      <c r="T395" s="36" t="s">
+        <v>1322</v>
+      </c>
+      <c r="U395" s="55" t="s">
         <v>1348</v>
-      </c>
-      <c r="T395" s="36" t="s">
-        <v>1324</v>
-      </c>
-      <c r="U395" s="55" t="s">
-        <v>1350</v>
       </c>
       <c r="V395" s="55" t="s">
         <v>621</v>
@@ -39027,7 +39019,7 @@
         <v>371</v>
       </c>
       <c r="X395" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y395" s="54" t="s">
         <v>677</v>
@@ -39080,7 +39072,7 @@
         <v>853</v>
       </c>
       <c r="P396" s="36" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q396" s="36" t="s">
         <v>310</v>
@@ -39093,7 +39085,7 @@
       </c>
       <c r="T396" s="36"/>
       <c r="U396" s="37" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="V396" s="38" t="s">
         <v>620</v>
@@ -39102,7 +39094,7 @@
         <v>370</v>
       </c>
       <c r="X396" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y396" s="80" t="s">
         <v>676</v>
@@ -39155,7 +39147,7 @@
         <v>853</v>
       </c>
       <c r="P397" s="36" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q397" s="36" t="s">
         <v>315</v>
@@ -39174,10 +39166,10 @@
         <v>622</v>
       </c>
       <c r="W397" s="37" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="X397" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y397" s="80" t="s">
         <v>678</v>
@@ -39230,7 +39222,7 @@
         <v>853</v>
       </c>
       <c r="P398" s="36" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q398" s="36" t="s">
         <v>315</v>
@@ -39252,7 +39244,7 @@
         <v>373</v>
       </c>
       <c r="X398" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y398" s="80" t="s">
         <v>392</v>
@@ -39305,7 +39297,7 @@
         <v>853</v>
       </c>
       <c r="P399" s="36" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q399" s="36" t="s">
         <v>315</v>
@@ -39327,7 +39319,7 @@
         <v>374</v>
       </c>
       <c r="X399" s="38" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Y399" s="80" t="s">
         <v>654</v>
@@ -39340,73 +39332,73 @@
         <v>398</v>
       </c>
       <c r="B400" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="D400" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="F400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="G400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="H400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="I400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="J400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="K400" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="M400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="N400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="O400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="P400" s="36" t="s">
+        <v>1353</v>
+      </c>
+      <c r="Q400" s="36" t="s">
         <v>1354</v>
       </c>
-      <c r="C400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="D400" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="F400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="G400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="H400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="I400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="J400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="K400" s="49" t="s">
-        <v>1259</v>
-      </c>
-      <c r="L400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="M400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="N400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="O400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="P400" s="36" t="s">
+      <c r="R400" s="36" t="s">
         <v>1355</v>
       </c>
-      <c r="Q400" s="36" t="s">
+      <c r="S400" s="36" t="s">
         <v>1356</v>
       </c>
-      <c r="R400" s="36" t="s">
+      <c r="T400" s="36" t="s">
         <v>1357</v>
       </c>
-      <c r="S400" s="36" t="s">
+      <c r="U400" s="83" t="s">
+        <v>1528</v>
+      </c>
+      <c r="V400" s="83" t="s">
         <v>1358</v>
-      </c>
-      <c r="T400" s="36" t="s">
-        <v>1359</v>
-      </c>
-      <c r="U400" s="83" t="s">
-        <v>1530</v>
-      </c>
-      <c r="V400" s="83" t="s">
-        <v>1360</v>
       </c>
       <c r="W400" s="83" t="s">
         <v>968</v>
       </c>
       <c r="X400" s="83" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="Y400" s="84" t="s">
         <v>1137</v>
@@ -39423,7 +39415,7 @@
         <v>853</v>
       </c>
       <c r="D401" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E401" s="82" t="s">
         <v>853</v>
@@ -39444,7 +39436,7 @@
         <v>853</v>
       </c>
       <c r="K401" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L401" s="82" t="s">
         <v>853</v>
@@ -39459,34 +39451,34 @@
         <v>853</v>
       </c>
       <c r="P401" s="36" t="s">
+        <v>1353</v>
+      </c>
+      <c r="Q401" s="36" t="s">
+        <v>1354</v>
+      </c>
+      <c r="R401" s="36" t="s">
         <v>1355</v>
       </c>
-      <c r="Q401" s="36" t="s">
+      <c r="S401" s="36" t="s">
         <v>1356</v>
       </c>
-      <c r="R401" s="36" t="s">
+      <c r="T401" s="36" t="s">
         <v>1357</v>
       </c>
-      <c r="S401" s="36" t="s">
-        <v>1358</v>
-      </c>
-      <c r="T401" s="36" t="s">
+      <c r="U401" s="83" t="s">
+        <v>1360</v>
+      </c>
+      <c r="V401" s="83" t="s">
+        <v>1361</v>
+      </c>
+      <c r="W401" s="83" t="s">
+        <v>1362</v>
+      </c>
+      <c r="X401" s="83" t="s">
         <v>1359</v>
       </c>
-      <c r="U401" s="83" t="s">
-        <v>1362</v>
-      </c>
-      <c r="V401" s="83" t="s">
+      <c r="Y401" s="84" t="s">
         <v>1363</v>
-      </c>
-      <c r="W401" s="83" t="s">
-        <v>1364</v>
-      </c>
-      <c r="X401" s="83" t="s">
-        <v>1361</v>
-      </c>
-      <c r="Y401" s="84" t="s">
-        <v>1365</v>
       </c>
       <c r="Z401" s="36"/>
     </row>
@@ -39500,7 +39492,7 @@
         <v>853</v>
       </c>
       <c r="D402" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E402" s="82" t="s">
         <v>853</v>
@@ -39521,7 +39513,7 @@
         <v>853</v>
       </c>
       <c r="K402" s="49" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L402" s="82" t="s">
         <v>853</v>
@@ -39536,32 +39528,32 @@
         <v>853</v>
       </c>
       <c r="P402" s="36" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="Q402" s="36" t="s">
+        <v>1529</v>
+      </c>
+      <c r="R402" s="36" t="s">
+        <v>1532</v>
+      </c>
+      <c r="S402" s="36" t="s">
         <v>1531</v>
       </c>
-      <c r="R402" s="36" t="s">
-        <v>1534</v>
-      </c>
-      <c r="S402" s="36" t="s">
+      <c r="T402" s="36" t="s">
+        <v>1357</v>
+      </c>
+      <c r="U402" s="82" t="s">
+        <v>1530</v>
+      </c>
+      <c r="V402" s="82" t="s">
         <v>1533</v>
-      </c>
-      <c r="T402" s="36" t="s">
-        <v>1359</v>
-      </c>
-      <c r="U402" s="82" t="s">
-        <v>1532</v>
-      </c>
-      <c r="V402" s="82" t="s">
-        <v>1535</v>
       </c>
       <c r="W402" s="87" t="s">
         <v>1201</v>
       </c>
       <c r="X402" s="87"/>
       <c r="Y402" s="88" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="Z402" s="36"/>
     </row>

--- a/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
+++ b/ja/application_framework/application_framework/configuration/デフォルト設定一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F4231-6F9E-4733-BA7E-9DF53D07BC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD875C72-F26E-4432-95D7-5EDB6BE32CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当資料の使い方" sheetId="26" r:id="rId1"/>
@@ -4538,9 +4538,6 @@
     <t>UTF-8</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>nablarch/test/master-data-restorer.config</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6720,6 +6717,10 @@
   </si>
   <si>
     <t>nablarch-default-configuration\nablarch-main-default-configuration\src\main\resources\nablarch\common\mail\mail-status-update-transaction.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target/tmp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8577,12 +8578,12 @@
         <v>1111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -8627,7 +8628,7 @@
         <v>1111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -8635,7 +8636,7 @@
         <v>1111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -8659,7 +8660,7 @@
         <v>1111</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.15">
@@ -8667,7 +8668,7 @@
         <v>1111</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.15">
@@ -8691,7 +8692,7 @@
         <v>1111</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.15">
@@ -8699,7 +8700,7 @@
         <v>1111</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.15">
@@ -8725,10 +8726,10 @@
   <dimension ref="A1:Z402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="17" ySplit="2" topLeftCell="R252" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
-      <selection pane="bottomRight" activeCell="A260" sqref="A260"/>
+      <selection pane="bottomRight" activeCell="Y339" sqref="Y339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -8814,7 +8815,7 @@
         <v>1091</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1092</v>
@@ -8826,28 +8827,28 @@
         <v>1094</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>1095</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>1386</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>1387</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>1388</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>1389</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>1390</v>
-      </c>
       <c r="O2" s="14" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="15"/>
@@ -8888,7 +8889,7 @@
         <v>866</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>853</v>
@@ -8918,7 +8919,7 @@
         <v>6</v>
       </c>
       <c r="S3" s="36" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="T3" s="36" t="s">
         <v>1081</v>
@@ -8933,7 +8934,7 @@
         <v>862</v>
       </c>
       <c r="X3" s="38" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="Y3" s="39" t="s">
         <v>657</v>
@@ -9012,7 +9013,7 @@
         <v>357</v>
       </c>
       <c r="X4" s="38" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="Y4" s="39" t="s">
         <v>658</v>
@@ -9088,10 +9089,10 @@
         <v>7</v>
       </c>
       <c r="W5" s="37" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="X5" s="38" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="Y5" s="39" t="s">
         <v>685</v>
@@ -9235,7 +9236,7 @@
         <v>5</v>
       </c>
       <c r="T7" s="36" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="U7" s="37" t="s">
         <v>886</v>
@@ -9247,10 +9248,10 @@
         <v>356</v>
       </c>
       <c r="X7" s="38" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="Y7" s="45" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Z7" s="36" t="s">
         <v>278</v>
@@ -9326,7 +9327,7 @@
         <v>357</v>
       </c>
       <c r="X8" s="38" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="Y8" s="45" t="s">
         <v>658</v>
@@ -9402,10 +9403,10 @@
         <v>610</v>
       </c>
       <c r="W9" s="37" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="X9" s="38" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="Y9" s="45" t="s">
         <v>675</v>
@@ -9540,25 +9541,25 @@
         <v>792</v>
       </c>
       <c r="Q11" s="36" t="s">
+        <v>1364</v>
+      </c>
+      <c r="R11" s="36" t="s">
         <v>1365</v>
       </c>
-      <c r="R11" s="36" t="s">
+      <c r="S11" s="36" t="s">
         <v>1366</v>
       </c>
-      <c r="S11" s="36" t="s">
-        <v>1367</v>
-      </c>
       <c r="T11" s="36" t="s">
+        <v>1368</v>
+      </c>
+      <c r="U11" s="37" t="s">
         <v>1369</v>
       </c>
-      <c r="U11" s="37" t="s">
+      <c r="V11" s="38" t="s">
         <v>1370</v>
       </c>
-      <c r="V11" s="38" t="s">
+      <c r="W11" s="37" t="s">
         <v>1371</v>
-      </c>
-      <c r="W11" s="37" t="s">
-        <v>1372</v>
       </c>
       <c r="X11" s="38"/>
       <c r="Y11" s="45"/>
@@ -9573,7 +9574,7 @@
         <v>772</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>853</v>
@@ -9624,10 +9625,10 @@
         <v>1047</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="U12" s="37" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="V12" s="38" t="s">
         <v>1051</v>
@@ -9699,20 +9700,20 @@
         <v>1047</v>
       </c>
       <c r="T13" s="36" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="U13" s="49" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="W13" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X13" s="42"/>
       <c r="Y13" s="42" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Z13" s="36"/>
     </row>
@@ -9774,7 +9775,7 @@
         <v>1047</v>
       </c>
       <c r="T14" s="36" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="U14" s="37" t="s">
         <v>1046</v>
@@ -9849,7 +9850,7 @@
         <v>1047</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="U15" s="37" t="s">
         <v>1046</v>
@@ -9924,13 +9925,13 @@
         <v>1047</v>
       </c>
       <c r="T16" s="36" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="U16" s="37" t="s">
         <v>1046</v>
       </c>
       <c r="V16" s="38" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="W16" s="42" t="s">
         <v>1107</v>
@@ -9992,7 +9993,7 @@
         <v>769</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="R17" s="36" t="s">
         <v>21</v>
@@ -10001,7 +10002,7 @@
         <v>20</v>
       </c>
       <c r="T17" s="36" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="U17" s="37" t="s">
         <v>12</v>
@@ -10013,7 +10014,7 @@
         <v>722</v>
       </c>
       <c r="X17" s="38" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Y17" s="39" t="s">
         <v>493</v>
@@ -10090,7 +10091,7 @@
         <v>395</v>
       </c>
       <c r="X18" s="38" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Y18" s="39" t="s">
         <v>494</v>
@@ -10167,7 +10168,7 @@
         <v>396</v>
       </c>
       <c r="X19" s="38" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Y19" s="39" t="s">
         <v>495</v>
@@ -10232,10 +10233,10 @@
         <v>157</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="U20" s="37" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="V20" s="38" t="s">
         <v>572</v>
@@ -10305,7 +10306,7 @@
         <v>154</v>
       </c>
       <c r="T21" s="36" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="U21" s="37" t="s">
         <v>40</v>
@@ -10371,16 +10372,16 @@
         <v>769</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="R22" s="36" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="T22" s="36" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="U22" s="37" t="s">
         <v>12</v>
@@ -10613,7 +10614,7 @@
         <v>27</v>
       </c>
       <c r="T25" s="36" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="U25" s="37" t="s">
         <v>751</v>
@@ -10681,7 +10682,7 @@
         <v>800</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="R26" s="36" t="s">
         <v>852</v>
@@ -10719,7 +10720,7 @@
         <v>866</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>853</v>
@@ -10740,7 +10741,7 @@
         <v>866</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>853</v>
@@ -10767,7 +10768,7 @@
         <v>27</v>
       </c>
       <c r="T27" s="36" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="U27" s="37" t="s">
         <v>751</v>
@@ -10844,7 +10845,7 @@
         <v>27</v>
       </c>
       <c r="T28" s="36" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="U28" s="37" t="s">
         <v>320</v>
@@ -10853,13 +10854,13 @@
         <v>625</v>
       </c>
       <c r="W28" s="37" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="X28" s="51" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="Y28" s="52" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="Z28" s="36" t="s">
         <v>319</v>
@@ -10923,7 +10924,7 @@
         <v>27</v>
       </c>
       <c r="T29" s="36" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="U29" s="37" t="s">
         <v>29</v>
@@ -10935,10 +10936,10 @@
         <v>365</v>
       </c>
       <c r="X29" s="51" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="Y29" s="52" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Z29" s="36" t="s">
         <v>869</v>
@@ -11002,7 +11003,7 @@
         <v>27</v>
       </c>
       <c r="T30" s="36" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="U30" s="37" t="s">
         <v>321</v>
@@ -11011,13 +11012,13 @@
         <v>627</v>
       </c>
       <c r="W30" s="37" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="X30" s="51" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="Y30" s="52" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Z30" s="36" t="s">
         <v>869</v>
@@ -11081,7 +11082,7 @@
         <v>27</v>
       </c>
       <c r="T31" s="36" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="U31" s="37" t="s">
         <v>322</v>
@@ -11093,10 +11094,10 @@
         <v>366</v>
       </c>
       <c r="X31" s="51" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="Y31" s="52" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="Z31" s="36" t="s">
         <v>869</v>
@@ -11160,10 +11161,10 @@
         <v>27</v>
       </c>
       <c r="T32" s="36" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="U32" s="37" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="V32" s="38" t="s">
         <v>629</v>
@@ -11172,10 +11173,10 @@
         <v>367</v>
       </c>
       <c r="X32" s="51" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="Y32" s="52" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="Z32" s="36" t="s">
         <v>870</v>
@@ -11241,7 +11242,7 @@
         <v>42</v>
       </c>
       <c r="T33" s="36" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="U33" s="37" t="s">
         <v>641</v>
@@ -11330,7 +11331,7 @@
         <v>637</v>
       </c>
       <c r="X34" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Y34" s="39" t="s">
         <v>499</v>
@@ -11406,10 +11407,10 @@
         <v>643</v>
       </c>
       <c r="W35" s="37" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="X35" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Y35" s="39" t="s">
         <v>500</v>
@@ -11643,7 +11644,7 @@
         <v>649</v>
       </c>
       <c r="W38" s="37" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="X38" s="38" t="s">
         <v>508</v>
@@ -12199,7 +12200,7 @@
         <v>405</v>
       </c>
       <c r="X45" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Y45" s="39" t="s">
         <v>507</v>
@@ -12274,19 +12275,19 @@
         <v>1090</v>
       </c>
       <c r="V46" s="38" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="W46" s="37" t="s">
         <v>802</v>
       </c>
       <c r="X46" s="49" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="Y46" s="39" t="s">
         <v>654</v>
       </c>
       <c r="Z46" s="36" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12340,7 +12341,7 @@
         <v>819</v>
       </c>
       <c r="Q47" s="36" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="R47" s="36" t="s">
         <v>853</v>
@@ -12349,7 +12350,7 @@
         <v>56</v>
       </c>
       <c r="T47" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="U47" s="37" t="s">
         <v>54</v>
@@ -12358,7 +12359,7 @@
         <v>326</v>
       </c>
       <c r="W47" s="37" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="X47" s="51"/>
       <c r="Y47" s="45"/>
@@ -12424,7 +12425,7 @@
         <v>58</v>
       </c>
       <c r="T48" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="U48" s="37" t="s">
         <v>12</v>
@@ -12657,7 +12658,7 @@
         <v>63</v>
       </c>
       <c r="T51" s="36" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="U51" s="37" t="s">
         <v>61</v>
@@ -12814,7 +12815,7 @@
         <v>706</v>
       </c>
       <c r="W53" s="37" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="X53" s="38" t="s">
         <v>553</v>
@@ -14615,13 +14616,13 @@
         <v>775</v>
       </c>
       <c r="Q76" s="36" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="R76" s="36" t="s">
         <v>155</v>
       </c>
       <c r="S76" s="36" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="T76" s="36" t="s">
         <v>1079</v>
@@ -14701,7 +14702,7 @@
         <v>225</v>
       </c>
       <c r="T77" s="36" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="U77" s="37" t="s">
         <v>223</v>
@@ -14713,7 +14714,7 @@
         <v>359</v>
       </c>
       <c r="X77" s="35" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="Y77" s="39" t="s">
         <v>659</v>
@@ -14771,7 +14772,7 @@
         <v>821</v>
       </c>
       <c r="Q78" s="36" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="R78" s="36" t="s">
         <v>229</v>
@@ -14780,7 +14781,7 @@
         <v>228</v>
       </c>
       <c r="T78" s="36" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="U78" s="37" t="s">
         <v>741</v>
@@ -14792,7 +14793,7 @@
         <v>1097</v>
       </c>
       <c r="X78" s="35" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="Y78" s="39" t="s">
         <v>653</v>
@@ -14869,7 +14870,7 @@
         <v>1098</v>
       </c>
       <c r="X79" s="35" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="Y79" s="39" t="s">
         <v>660</v>
@@ -14931,7 +14932,7 @@
         <v>234</v>
       </c>
       <c r="S80" s="36" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="T80" s="36" t="s">
         <v>836</v>
@@ -14943,10 +14944,10 @@
         <v>602</v>
       </c>
       <c r="W80" s="37" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="X80" s="35" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="Y80" s="39" t="s">
         <v>662</v>
@@ -15088,7 +15089,7 @@
         <v>237</v>
       </c>
       <c r="T82" s="36" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="U82" s="37" t="s">
         <v>235</v>
@@ -15097,10 +15098,10 @@
         <v>603</v>
       </c>
       <c r="W82" s="37" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X82" s="38" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="Y82" s="39" t="s">
         <v>661</v>
@@ -15177,10 +15178,10 @@
         <v>1082</v>
       </c>
       <c r="X83" s="51" t="s">
+        <v>1601</v>
+      </c>
+      <c r="Y83" s="39" t="s">
         <v>1602</v>
-      </c>
-      <c r="Y83" s="39" t="s">
-        <v>1603</v>
       </c>
       <c r="Z83" s="36"/>
     </row>
@@ -15253,7 +15254,7 @@
         <v>186</v>
       </c>
       <c r="W84" s="37" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="X84" s="38" t="s">
         <v>538</v>
@@ -15321,7 +15322,7 @@
         <v>188</v>
       </c>
       <c r="T85" s="36" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="U85" s="37" t="s">
         <v>44</v>
@@ -15560,19 +15561,19 @@
         <v>1088</v>
       </c>
       <c r="V88" s="38" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="W88" s="37" t="s">
         <v>1089</v>
       </c>
       <c r="X88" s="49" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="Y88" s="54" t="s">
         <v>895</v>
       </c>
       <c r="Z88" s="36" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="89" spans="1:26" s="23" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
@@ -15623,34 +15624,34 @@
         <v>866</v>
       </c>
       <c r="P89" s="36" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q89" s="36" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="R89" s="36" t="s">
         <v>189</v>
       </c>
       <c r="S89" s="36" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="T89" s="36" t="s">
+        <v>1378</v>
+      </c>
+      <c r="U89" s="49" t="s">
         <v>1379</v>
       </c>
-      <c r="U89" s="49" t="s">
+      <c r="V89" s="49" t="s">
         <v>1380</v>
       </c>
-      <c r="V89" s="49" t="s">
+      <c r="W89" s="49" t="s">
         <v>1381</v>
       </c>
-      <c r="W89" s="49" t="s">
-        <v>1382</v>
-      </c>
       <c r="X89" s="55" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="Y89" s="54" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Z89" s="36"/>
     </row>
@@ -15718,19 +15719,19 @@
         <v>1088</v>
       </c>
       <c r="V90" s="35" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="W90" s="56" t="s">
         <v>1089</v>
       </c>
       <c r="X90" s="55" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="Y90" s="54" t="s">
         <v>895</v>
       </c>
       <c r="Z90" s="36" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15793,16 +15794,16 @@
         <v>195</v>
       </c>
       <c r="T91" s="36" t="s">
+        <v>1462</v>
+      </c>
+      <c r="U91" s="37" t="s">
         <v>1463</v>
-      </c>
-      <c r="U91" s="37" t="s">
-        <v>1464</v>
       </c>
       <c r="V91" s="38" t="s">
         <v>576</v>
       </c>
       <c r="W91" s="37" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="X91" s="51"/>
       <c r="Y91" s="52"/>
@@ -15857,7 +15858,7 @@
         <v>785</v>
       </c>
       <c r="Q92" s="36" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="R92" s="36" t="s">
         <v>196</v>
@@ -15875,7 +15876,7 @@
         <v>577</v>
       </c>
       <c r="W92" s="37" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="X92" s="51"/>
       <c r="Y92" s="52"/>
@@ -16076,13 +16077,13 @@
         <v>785</v>
       </c>
       <c r="Q95" s="36" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="R95" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S95" s="36" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="T95" s="36" t="s">
         <v>842</v>
@@ -16094,7 +16095,7 @@
         <v>577</v>
       </c>
       <c r="W95" s="56" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="X95" s="35"/>
       <c r="Y95" s="45"/>
@@ -16149,13 +16150,13 @@
         <v>785</v>
       </c>
       <c r="Q96" s="36" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="R96" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S96" s="36" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="T96" s="36" t="s">
         <v>842</v>
@@ -16167,7 +16168,7 @@
         <v>578</v>
       </c>
       <c r="W96" s="56" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="X96" s="35"/>
       <c r="Y96" s="45"/>
@@ -16222,13 +16223,13 @@
         <v>785</v>
       </c>
       <c r="Q97" s="36" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="R97" s="36" t="s">
         <v>196</v>
       </c>
       <c r="S97" s="36" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="T97" s="36" t="s">
         <v>842</v>
@@ -16240,7 +16241,7 @@
         <v>579</v>
       </c>
       <c r="W97" s="56" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="X97" s="35"/>
       <c r="Y97" s="45"/>
@@ -16523,7 +16524,7 @@
         <v>241</v>
       </c>
       <c r="T101" s="36" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="U101" s="37" t="s">
         <v>193</v>
@@ -16532,13 +16533,13 @@
         <v>605</v>
       </c>
       <c r="W101" s="37" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="X101" s="51" t="s">
+        <v>1157</v>
+      </c>
+      <c r="Y101" s="52" t="s">
         <v>1158</v>
-      </c>
-      <c r="Y101" s="52" t="s">
-        <v>1159</v>
       </c>
       <c r="Z101" s="36"/>
     </row>
@@ -16609,13 +16610,13 @@
         <v>606</v>
       </c>
       <c r="W102" s="37" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="X102" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Y102" s="52" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="Z102" s="36"/>
     </row>
@@ -16689,10 +16690,10 @@
         <v>328</v>
       </c>
       <c r="X103" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Y103" s="52" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Z103" s="36"/>
     </row>
@@ -16913,7 +16914,7 @@
         <v>248</v>
       </c>
       <c r="W106" s="37" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="X106" s="38" t="s">
         <v>487</v>
@@ -16993,10 +16994,10 @@
         <v>1115</v>
       </c>
       <c r="X107" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Y107" s="52" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Z107" s="36"/>
     </row>
@@ -17147,10 +17148,10 @@
         <v>1114</v>
       </c>
       <c r="X109" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Y109" s="52" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="Z109" s="36"/>
     </row>
@@ -18459,7 +18460,7 @@
         <v>487</v>
       </c>
       <c r="Y126" s="39" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="Z126" s="36"/>
     </row>
@@ -18514,7 +18515,7 @@
         <v>786</v>
       </c>
       <c r="Q127" s="36" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="R127" s="36" t="s">
         <v>196</v>
@@ -18523,7 +18524,7 @@
         <v>205</v>
       </c>
       <c r="T127" s="36" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="U127" s="37" t="s">
         <v>193</v>
@@ -18532,7 +18533,7 @@
         <v>583</v>
       </c>
       <c r="W127" s="37" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="X127" s="51"/>
       <c r="Y127" s="52"/>
@@ -18607,7 +18608,7 @@
         <v>584</v>
       </c>
       <c r="W128" s="37" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="X128" s="51"/>
       <c r="Y128" s="52"/>
@@ -18664,7 +18665,7 @@
         <v>787</v>
       </c>
       <c r="Q129" s="36" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="R129" s="36" t="s">
         <v>196</v>
@@ -18685,7 +18686,7 @@
         <v>803</v>
       </c>
       <c r="X129" s="35" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Y129" s="39"/>
       <c r="Z129" s="36" t="s">
@@ -18761,7 +18762,7 @@
         <v>585</v>
       </c>
       <c r="W130" s="37" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="X130" s="51"/>
       <c r="Y130" s="52"/>
@@ -19568,7 +19569,7 @@
         <v>788</v>
       </c>
       <c r="Q141" s="36" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="R141" s="36" t="s">
         <v>212</v>
@@ -19884,7 +19885,7 @@
         <v>596</v>
       </c>
       <c r="W145" s="37" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="X145" s="51"/>
       <c r="Y145" s="52"/>
@@ -19950,7 +19951,7 @@
         <v>220</v>
       </c>
       <c r="T146" s="36" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="U146" s="37" t="s">
         <v>12</v>
@@ -20190,10 +20191,10 @@
         <v>597</v>
       </c>
       <c r="W149" s="37" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="X149" s="38" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="Y149" s="39" t="s">
         <v>655</v>
@@ -20248,7 +20249,7 @@
         <v>853</v>
       </c>
       <c r="P150" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q150" s="36" t="s">
         <v>324</v>
@@ -20257,25 +20258,25 @@
         <v>325</v>
       </c>
       <c r="S150" s="36" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="T150" s="36" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="U150" s="55" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="V150" s="55" t="s">
         <v>1055</v>
       </c>
       <c r="W150" s="55" t="s">
+        <v>1172</v>
+      </c>
+      <c r="X150" s="38" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Y150" s="54" t="s">
         <v>1173</v>
-      </c>
-      <c r="X150" s="38" t="s">
-        <v>1605</v>
-      </c>
-      <c r="Y150" s="54" t="s">
-        <v>1174</v>
       </c>
       <c r="Z150" s="36"/>
     </row>
@@ -20325,7 +20326,7 @@
         <v>853</v>
       </c>
       <c r="P151" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q151" s="36" t="s">
         <v>324</v>
@@ -20334,25 +20335,25 @@
         <v>325</v>
       </c>
       <c r="S151" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T151" s="36" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="U151" s="55" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="V151" s="55" t="s">
         <v>630</v>
       </c>
       <c r="W151" s="55" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="X151" s="38" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="Y151" s="54" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z151" s="36"/>
     </row>
@@ -20402,34 +20403,34 @@
         <v>853</v>
       </c>
       <c r="P152" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q152" s="36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="R152" s="36" t="s">
         <v>325</v>
       </c>
       <c r="S152" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T152" s="36" t="s">
+        <v>1603</v>
+      </c>
+      <c r="U152" s="55" t="s">
+        <v>1183</v>
+      </c>
+      <c r="V152" s="55" t="s">
+        <v>1177</v>
+      </c>
+      <c r="W152" s="55" t="s">
+        <v>1176</v>
+      </c>
+      <c r="X152" s="38" t="s">
         <v>1604</v>
       </c>
-      <c r="U152" s="55" t="s">
+      <c r="Y152" s="54" t="s">
         <v>1184</v>
-      </c>
-      <c r="V152" s="55" t="s">
-        <v>1178</v>
-      </c>
-      <c r="W152" s="55" t="s">
-        <v>1177</v>
-      </c>
-      <c r="X152" s="38" t="s">
-        <v>1605</v>
-      </c>
-      <c r="Y152" s="54" t="s">
-        <v>1185</v>
       </c>
       <c r="Z152" s="36"/>
     </row>
@@ -20479,7 +20480,7 @@
         <v>853</v>
       </c>
       <c r="P153" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q153" s="36" t="s">
         <v>324</v>
@@ -20488,25 +20489,25 @@
         <v>325</v>
       </c>
       <c r="S153" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T153" s="36" t="s">
+        <v>1603</v>
+      </c>
+      <c r="U153" s="55" t="s">
+        <v>1182</v>
+      </c>
+      <c r="V153" s="55" t="s">
+        <v>1180</v>
+      </c>
+      <c r="W153" s="55" t="s">
+        <v>1181</v>
+      </c>
+      <c r="X153" s="38" t="s">
         <v>1604</v>
       </c>
-      <c r="U153" s="55" t="s">
-        <v>1183</v>
-      </c>
-      <c r="V153" s="55" t="s">
-        <v>1181</v>
-      </c>
-      <c r="W153" s="55" t="s">
-        <v>1182</v>
-      </c>
-      <c r="X153" s="38" t="s">
-        <v>1605</v>
-      </c>
       <c r="Y153" s="54" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z153" s="36"/>
     </row>
@@ -20556,7 +20557,7 @@
         <v>853</v>
       </c>
       <c r="P154" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q154" s="36" t="s">
         <v>324</v>
@@ -20565,25 +20566,25 @@
         <v>325</v>
       </c>
       <c r="S154" s="36" t="s">
+        <v>1400</v>
+      </c>
+      <c r="T154" s="36" t="s">
+        <v>1603</v>
+      </c>
+      <c r="U154" s="55" t="s">
         <v>1401</v>
-      </c>
-      <c r="T154" s="36" t="s">
-        <v>1604</v>
-      </c>
-      <c r="U154" s="55" t="s">
-        <v>1402</v>
       </c>
       <c r="V154" s="55" t="s">
         <v>1099</v>
       </c>
       <c r="W154" s="55" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="X154" s="38" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Y154" s="58" t="s">
         <v>1605</v>
-      </c>
-      <c r="Y154" s="58" t="s">
-        <v>1606</v>
       </c>
       <c r="Z154" s="36"/>
     </row>
@@ -20633,7 +20634,7 @@
         <v>853</v>
       </c>
       <c r="P155" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q155" s="36" t="s">
         <v>324</v>
@@ -20642,25 +20643,25 @@
         <v>325</v>
       </c>
       <c r="S155" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T155" s="36" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="U155" s="55" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="V155" s="55" t="s">
         <v>1055</v>
       </c>
       <c r="W155" s="55" t="s">
+        <v>1172</v>
+      </c>
+      <c r="X155" s="38" t="s">
+        <v>1412</v>
+      </c>
+      <c r="Y155" s="54" t="s">
         <v>1173</v>
-      </c>
-      <c r="X155" s="38" t="s">
-        <v>1413</v>
-      </c>
-      <c r="Y155" s="54" t="s">
-        <v>1174</v>
       </c>
       <c r="Z155" s="36"/>
     </row>
@@ -20710,7 +20711,7 @@
         <v>853</v>
       </c>
       <c r="P156" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q156" s="36" t="s">
         <v>324</v>
@@ -20719,25 +20720,25 @@
         <v>325</v>
       </c>
       <c r="S156" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T156" s="36" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="U156" s="55" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="V156" s="55" t="s">
         <v>630</v>
       </c>
       <c r="W156" s="55" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="X156" s="38" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="Y156" s="54" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z156" s="36"/>
     </row>
@@ -20787,34 +20788,34 @@
         <v>853</v>
       </c>
       <c r="P157" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q157" s="36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="R157" s="36" t="s">
         <v>325</v>
       </c>
       <c r="S157" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T157" s="36" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="U157" s="55" t="s">
+        <v>1183</v>
+      </c>
+      <c r="V157" s="55" t="s">
+        <v>1177</v>
+      </c>
+      <c r="W157" s="55" t="s">
+        <v>1176</v>
+      </c>
+      <c r="X157" s="38" t="s">
+        <v>1412</v>
+      </c>
+      <c r="Y157" s="54" t="s">
         <v>1184</v>
-      </c>
-      <c r="V157" s="55" t="s">
-        <v>1178</v>
-      </c>
-      <c r="W157" s="55" t="s">
-        <v>1177</v>
-      </c>
-      <c r="X157" s="38" t="s">
-        <v>1413</v>
-      </c>
-      <c r="Y157" s="54" t="s">
-        <v>1185</v>
       </c>
       <c r="Z157" s="36"/>
     </row>
@@ -20864,7 +20865,7 @@
         <v>853</v>
       </c>
       <c r="P158" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q158" s="36" t="s">
         <v>324</v>
@@ -20873,25 +20874,25 @@
         <v>325</v>
       </c>
       <c r="S158" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T158" s="36" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="U158" s="55" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="V158" s="55" t="s">
+        <v>1180</v>
+      </c>
+      <c r="W158" s="55" t="s">
         <v>1181</v>
       </c>
-      <c r="W158" s="55" t="s">
-        <v>1182</v>
-      </c>
       <c r="X158" s="38" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="Y158" s="54" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z158" s="36"/>
     </row>
@@ -20941,7 +20942,7 @@
         <v>853</v>
       </c>
       <c r="P159" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q159" s="36" t="s">
         <v>324</v>
@@ -20950,25 +20951,25 @@
         <v>325</v>
       </c>
       <c r="S159" s="36" t="s">
+        <v>1400</v>
+      </c>
+      <c r="T159" s="36" t="s">
+        <v>1558</v>
+      </c>
+      <c r="U159" s="55" t="s">
         <v>1401</v>
-      </c>
-      <c r="T159" s="36" t="s">
-        <v>1559</v>
-      </c>
-      <c r="U159" s="55" t="s">
-        <v>1402</v>
       </c>
       <c r="V159" s="55" t="s">
         <v>1099</v>
       </c>
       <c r="W159" s="55" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="X159" s="55" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="Y159" s="54" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="Z159" s="36"/>
     </row>
@@ -21018,7 +21019,7 @@
         <v>853</v>
       </c>
       <c r="P160" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q160" s="36" t="s">
         <v>324</v>
@@ -21027,25 +21028,25 @@
         <v>325</v>
       </c>
       <c r="S160" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T160" s="36" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="U160" s="55" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="V160" s="55" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="W160" s="55" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="X160" s="55" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="Y160" s="54" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="Z160" s="36"/>
     </row>
@@ -21095,7 +21096,7 @@
         <v>853</v>
       </c>
       <c r="P161" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q161" s="36" t="s">
         <v>324</v>
@@ -21104,25 +21105,25 @@
         <v>325</v>
       </c>
       <c r="S161" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T161" s="36" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="U161" s="55" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="V161" s="55" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="W161" s="55" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="X161" s="55" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="Y161" s="54" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="Z161" s="36"/>
     </row>
@@ -21172,7 +21173,7 @@
         <v>853</v>
       </c>
       <c r="P162" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q162" s="36" t="s">
         <v>324</v>
@@ -21181,25 +21182,25 @@
         <v>325</v>
       </c>
       <c r="S162" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T162" s="36" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="U162" s="55" t="s">
+        <v>1411</v>
+      </c>
+      <c r="V162" s="55" t="s">
+        <v>1427</v>
+      </c>
+      <c r="W162" s="55" t="s">
+        <v>1408</v>
+      </c>
+      <c r="X162" s="55" t="s">
         <v>1412</v>
       </c>
-      <c r="V162" s="55" t="s">
-        <v>1428</v>
-      </c>
-      <c r="W162" s="55" t="s">
-        <v>1409</v>
-      </c>
-      <c r="X162" s="55" t="s">
-        <v>1413</v>
-      </c>
       <c r="Y162" s="54" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="Z162" s="36"/>
     </row>
@@ -21249,7 +21250,7 @@
         <v>853</v>
       </c>
       <c r="P163" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q163" s="36" t="s">
         <v>324</v>
@@ -21258,25 +21259,25 @@
         <v>325</v>
       </c>
       <c r="S163" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T163" s="36" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="U163" s="55" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="V163" s="55" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="W163" s="55" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="X163" s="55" t="s">
+        <v>1412</v>
+      </c>
+      <c r="Y163" s="54" t="s">
         <v>1413</v>
-      </c>
-      <c r="Y163" s="54" t="s">
-        <v>1414</v>
       </c>
       <c r="Z163" s="36"/>
     </row>
@@ -21326,7 +21327,7 @@
         <v>853</v>
       </c>
       <c r="P164" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q164" s="36" t="s">
         <v>324</v>
@@ -21335,25 +21336,25 @@
         <v>325</v>
       </c>
       <c r="S164" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T164" s="36" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="U164" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="V164" s="55" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="W164" s="55" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="X164" s="55" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="Y164" s="54" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="Z164" s="36"/>
     </row>
@@ -21363,7 +21364,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C165" s="35" t="s">
         <v>866</v>
@@ -21405,7 +21406,7 @@
         <v>853</v>
       </c>
       <c r="P165" s="36" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="Q165" s="36" t="s">
         <v>1080</v>
@@ -21426,16 +21427,16 @@
         <v>598</v>
       </c>
       <c r="W165" s="37" t="s">
+        <v>1375</v>
+      </c>
+      <c r="X165" s="38" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Y165" s="54" t="s">
+        <v>1399</v>
+      </c>
+      <c r="Z165" s="36" t="s">
         <v>1376</v>
-      </c>
-      <c r="X165" s="38" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Y165" s="54" t="s">
-        <v>1400</v>
-      </c>
-      <c r="Z165" s="36" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21489,32 +21490,32 @@
         <v>1056</v>
       </c>
       <c r="Q166" s="36" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="R166" s="36" t="s">
         <v>1057</v>
       </c>
       <c r="S166" s="36" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="T166" s="36" t="s">
         <v>1062</v>
       </c>
       <c r="U166" s="55" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="V166" s="55" t="s">
         <v>1063</v>
       </c>
       <c r="W166" s="59" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="X166" s="60"/>
       <c r="Y166" s="61" t="s">
         <v>1074</v>
       </c>
       <c r="Z166" s="36" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21566,13 +21567,13 @@
         <v>1058</v>
       </c>
       <c r="Q167" s="36" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R167" s="36" t="s">
         <v>1060</v>
       </c>
       <c r="S167" s="36" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="T167" s="36" t="s">
         <v>1062</v>
@@ -21584,14 +21585,14 @@
         <v>1064</v>
       </c>
       <c r="W167" s="59" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X167" s="60"/>
       <c r="Y167" s="61" t="s">
         <v>1069</v>
       </c>
       <c r="Z167" s="36" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21643,7 +21644,7 @@
         <v>1058</v>
       </c>
       <c r="Q168" s="36" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R168" s="36" t="s">
         <v>1060</v>
@@ -21661,14 +21662,14 @@
         <v>1065</v>
       </c>
       <c r="W168" s="59" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X168" s="60"/>
       <c r="Y168" s="61" t="s">
         <v>1070</v>
       </c>
       <c r="Z168" s="36" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21720,7 +21721,7 @@
         <v>1058</v>
       </c>
       <c r="Q169" s="36" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R169" s="36" t="s">
         <v>1060</v>
@@ -21738,14 +21739,14 @@
         <v>1066</v>
       </c>
       <c r="W169" s="59" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X169" s="60"/>
       <c r="Y169" s="61" t="s">
         <v>1071</v>
       </c>
       <c r="Z169" s="36" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="170" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21797,7 +21798,7 @@
         <v>1059</v>
       </c>
       <c r="Q170" s="36" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R170" s="36" t="s">
         <v>1060</v>
@@ -21809,20 +21810,20 @@
         <v>1062</v>
       </c>
       <c r="U170" s="55" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="V170" s="55" t="s">
         <v>1067</v>
       </c>
       <c r="W170" s="59" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X170" s="60"/>
       <c r="Y170" s="61" t="s">
         <v>1072</v>
       </c>
       <c r="Z170" s="36" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -21874,7 +21875,7 @@
         <v>1058</v>
       </c>
       <c r="Q171" s="36" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="R171" s="36" t="s">
         <v>1060</v>
@@ -21892,16 +21893,16 @@
         <v>1068</v>
       </c>
       <c r="W171" s="59" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X171" s="60" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="Y171" s="61" t="s">
         <v>1073</v>
       </c>
       <c r="Z171" s="36" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="172" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21952,7 +21953,7 @@
         <v>853</v>
       </c>
       <c r="P172" s="36" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="Q172" s="36" t="s">
         <v>753</v>
@@ -21964,7 +21965,7 @@
         <v>276</v>
       </c>
       <c r="T172" s="36" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="U172" s="37" t="s">
         <v>193</v>
@@ -21976,10 +21977,10 @@
         <v>368</v>
       </c>
       <c r="X172" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y172" s="39" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Z172" s="36"/>
     </row>
@@ -22029,7 +22030,7 @@
         <v>853</v>
       </c>
       <c r="P173" s="36" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="Q173" s="36" t="s">
         <v>753</v>
@@ -22053,7 +22054,7 @@
         <v>369</v>
       </c>
       <c r="X173" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y173" s="39" t="s">
         <v>674</v>
@@ -22120,19 +22121,19 @@
         <v>281</v>
       </c>
       <c r="T174" s="36" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="U174" s="37" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V174" s="38" t="s">
         <v>611</v>
       </c>
       <c r="W174" s="37" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="X174" s="38" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="Y174" s="45" t="s">
         <v>654</v>
@@ -22211,7 +22212,7 @@
         <v>361</v>
       </c>
       <c r="X175" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y175" s="39" t="s">
         <v>669</v>
@@ -22268,7 +22269,7 @@
         <v>853</v>
       </c>
       <c r="P176" s="36" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="Q176" s="36" t="s">
         <v>285</v>
@@ -22280,7 +22281,7 @@
         <v>286</v>
       </c>
       <c r="T176" s="36" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="U176" s="37" t="s">
         <v>284</v>
@@ -22292,7 +22293,7 @@
         <v>794</v>
       </c>
       <c r="X176" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y176" s="39" t="s">
         <v>670</v>
@@ -22345,7 +22346,7 @@
         <v>853</v>
       </c>
       <c r="P177" s="36" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="Q177" s="36" t="s">
         <v>285</v>
@@ -22369,7 +22370,7 @@
         <v>362</v>
       </c>
       <c r="X177" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y177" s="39" t="s">
         <v>671</v>
@@ -22424,10 +22425,10 @@
         <v>853</v>
       </c>
       <c r="P178" s="36" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="Q178" s="36" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="R178" s="36" t="s">
         <v>290</v>
@@ -22448,7 +22449,7 @@
         <v>363</v>
       </c>
       <c r="X178" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y178" s="39" t="s">
         <v>672</v>
@@ -22501,7 +22502,7 @@
         <v>853</v>
       </c>
       <c r="P179" s="36" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="Q179" s="36" t="s">
         <v>288</v>
@@ -22525,7 +22526,7 @@
         <v>360</v>
       </c>
       <c r="X179" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y179" s="39" t="s">
         <v>654</v>
@@ -22578,7 +22579,7 @@
         <v>853</v>
       </c>
       <c r="P180" s="36" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="Q180" s="36" t="s">
         <v>288</v>
@@ -22602,7 +22603,7 @@
         <v>364</v>
       </c>
       <c r="X180" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y180" s="39" t="s">
         <v>673</v>
@@ -22655,34 +22656,34 @@
         <v>853</v>
       </c>
       <c r="P181" s="36" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="Q181" s="36" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="R181" s="36" t="s">
         <v>290</v>
       </c>
       <c r="S181" s="36" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="T181" s="36" t="s">
         <v>847</v>
       </c>
       <c r="U181" s="37" t="s">
+        <v>1561</v>
+      </c>
+      <c r="V181" s="38" t="s">
         <v>1562</v>
       </c>
-      <c r="V181" s="38" t="s">
-        <v>1563</v>
-      </c>
       <c r="W181" s="37" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="X181" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y181" s="45" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="Z181" s="36"/>
     </row>
@@ -22732,7 +22733,7 @@
         <v>853</v>
       </c>
       <c r="P182" s="36" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="Q182" s="36" t="s">
         <v>288</v>
@@ -22744,19 +22745,19 @@
         <v>289</v>
       </c>
       <c r="T182" s="36" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="U182" s="37" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="V182" s="38" t="s">
         <v>618</v>
       </c>
       <c r="W182" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="X182" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y182" s="39" t="s">
         <v>656</v>
@@ -22811,32 +22812,32 @@
         <v>853</v>
       </c>
       <c r="P183" s="36" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Q183" s="36" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="R183" s="36" t="s">
+        <v>1222</v>
+      </c>
+      <c r="S183" s="36" t="s">
+        <v>1228</v>
+      </c>
+      <c r="T183" s="36" t="s">
+        <v>1544</v>
+      </c>
+      <c r="U183" s="55" t="s">
         <v>1223</v>
       </c>
-      <c r="S183" s="36" t="s">
-        <v>1229</v>
-      </c>
-      <c r="T183" s="36" t="s">
-        <v>1545</v>
-      </c>
-      <c r="U183" s="55" t="s">
+      <c r="V183" s="55" t="s">
         <v>1224</v>
       </c>
-      <c r="V183" s="55" t="s">
+      <c r="W183" s="42" t="s">
         <v>1225</v>
-      </c>
-      <c r="W183" s="42" t="s">
-        <v>1226</v>
       </c>
       <c r="X183" s="42"/>
       <c r="Y183" s="63" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="Z183" s="36"/>
     </row>
@@ -22886,28 +22887,28 @@
         <v>853</v>
       </c>
       <c r="P184" s="36" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Q184" s="36" t="s">
         <v>294</v>
       </c>
       <c r="R184" s="36" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="S184" s="36" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="T184" s="36" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U184" s="55" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="V184" s="55" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W184" s="42" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="X184" s="42"/>
       <c r="Y184" s="63"/>
@@ -22959,34 +22960,34 @@
         <v>853</v>
       </c>
       <c r="P185" s="36" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q185" s="36" t="s">
         <v>294</v>
       </c>
       <c r="R185" s="36" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="S185" s="36" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="T185" s="36" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="U185" s="55" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="V185" s="55" t="s">
+        <v>1237</v>
+      </c>
+      <c r="W185" s="55" t="s">
+        <v>1236</v>
+      </c>
+      <c r="X185" s="38" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Y185" s="58" t="s">
         <v>1238</v>
-      </c>
-      <c r="W185" s="55" t="s">
-        <v>1237</v>
-      </c>
-      <c r="X185" s="38" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Y185" s="58" t="s">
-        <v>1239</v>
       </c>
       <c r="Z185" s="36"/>
     </row>
@@ -23036,34 +23037,34 @@
         <v>853</v>
       </c>
       <c r="P186" s="36" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Q186" s="36" t="s">
         <v>294</v>
       </c>
       <c r="R186" s="36" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="S186" s="36" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="T186" s="36" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U186" s="55" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="V186" s="55" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="W186" s="55" t="s">
         <v>805</v>
       </c>
       <c r="X186" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y186" s="64" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Z186" s="36"/>
     </row>
@@ -23113,32 +23114,32 @@
         <v>853</v>
       </c>
       <c r="P187" s="36" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Q187" s="36" t="s">
+        <v>1535</v>
+      </c>
+      <c r="R187" s="36" t="s">
         <v>1537</v>
       </c>
-      <c r="Q187" s="36" t="s">
-        <v>1536</v>
-      </c>
-      <c r="R187" s="36" t="s">
+      <c r="S187" s="36" t="s">
+        <v>1534</v>
+      </c>
+      <c r="T187" s="36" t="s">
+        <v>1545</v>
+      </c>
+      <c r="U187" s="49" t="s">
         <v>1538</v>
       </c>
-      <c r="S187" s="36" t="s">
-        <v>1535</v>
-      </c>
-      <c r="T187" s="36" t="s">
-        <v>1546</v>
-      </c>
-      <c r="U187" s="49" t="s">
+      <c r="V187" s="49" t="s">
         <v>1539</v>
       </c>
-      <c r="V187" s="49" t="s">
-        <v>1540</v>
-      </c>
       <c r="W187" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X187" s="43"/>
       <c r="Y187" s="63" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="Z187" s="36"/>
     </row>
@@ -23193,13 +23194,13 @@
         <v>795</v>
       </c>
       <c r="Q188" s="36" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="R188" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S188" s="36" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="T188" s="36" t="s">
         <v>848</v>
@@ -23289,10 +23290,10 @@
         <v>805</v>
       </c>
       <c r="X189" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y189" s="39" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="Z189" s="36"/>
     </row>
@@ -23362,7 +23363,7 @@
         <v>293</v>
       </c>
       <c r="V190" s="38" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W190" s="42" t="s">
         <v>1107</v>
@@ -23802,13 +23803,13 @@
         <v>310</v>
       </c>
       <c r="R196" s="36" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="S196" s="36" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="T196" s="36" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="U196" s="37" t="s">
         <v>307</v>
@@ -23820,7 +23821,7 @@
         <v>370</v>
       </c>
       <c r="X196" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y196" s="39" t="s">
         <v>676</v>
@@ -23876,10 +23877,10 @@
         <v>798</v>
       </c>
       <c r="Q197" s="36" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="R197" s="36" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="S197" s="36" t="s">
         <v>312</v>
@@ -23897,7 +23898,7 @@
         <v>371</v>
       </c>
       <c r="X197" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y197" s="39" t="s">
         <v>677</v>
@@ -23953,13 +23954,13 @@
         <v>798</v>
       </c>
       <c r="Q198" s="36" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="R198" s="36" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="S198" s="36" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="T198" s="36" t="s">
         <v>849</v>
@@ -24028,13 +24029,13 @@
         <v>798</v>
       </c>
       <c r="Q199" s="36" t="s">
+        <v>1209</v>
+      </c>
+      <c r="R199" s="36" t="s">
+        <v>1570</v>
+      </c>
+      <c r="S199" s="36" t="s">
         <v>1210</v>
-      </c>
-      <c r="R199" s="36" t="s">
-        <v>1571</v>
-      </c>
-      <c r="S199" s="36" t="s">
-        <v>1211</v>
       </c>
       <c r="T199" s="36" t="s">
         <v>849</v>
@@ -24049,7 +24050,7 @@
         <v>371</v>
       </c>
       <c r="X199" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y199" s="39" t="s">
         <v>677</v>
@@ -24107,7 +24108,7 @@
         <v>799</v>
       </c>
       <c r="Q200" s="36" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="R200" s="36" t="s">
         <v>853</v>
@@ -24128,7 +24129,7 @@
         <v>372</v>
       </c>
       <c r="X200" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y200" s="39" t="s">
         <v>678</v>
@@ -24202,10 +24203,10 @@
         <v>623</v>
       </c>
       <c r="W201" s="37" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="X201" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y201" s="39" t="s">
         <v>392</v>
@@ -24279,10 +24280,10 @@
         <v>624</v>
       </c>
       <c r="W202" s="37" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="X202" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y202" s="39" t="s">
         <v>654</v>
@@ -24344,10 +24345,10 @@
         <v>306</v>
       </c>
       <c r="S203" s="36" t="s">
+        <v>1483</v>
+      </c>
+      <c r="T203" s="36" t="s">
         <v>1484</v>
-      </c>
-      <c r="T203" s="36" t="s">
-        <v>1485</v>
       </c>
       <c r="U203" s="37" t="s">
         <v>304</v>
@@ -24356,7 +24357,7 @@
         <v>619</v>
       </c>
       <c r="W203" s="37" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="X203" s="51"/>
       <c r="Y203" s="52"/>
@@ -24368,79 +24369,79 @@
         <v>202</v>
       </c>
       <c r="B204" s="47" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C204" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="D204" s="65" t="s">
+        <v>866</v>
+      </c>
+      <c r="E204" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="F204" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="G204" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="H204" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="I204" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="J204" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="K204" s="65" t="s">
+        <v>866</v>
+      </c>
+      <c r="L204" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="M204" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="N204" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="O204" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="P204" s="36" t="s">
         <v>1217</v>
       </c>
-      <c r="C204" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="D204" s="65" t="s">
-        <v>866</v>
-      </c>
-      <c r="E204" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="F204" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="G204" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="H204" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="I204" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="J204" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="K204" s="65" t="s">
-        <v>866</v>
-      </c>
-      <c r="L204" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="M204" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="N204" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="O204" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="P204" s="36" t="s">
-        <v>1218</v>
-      </c>
       <c r="Q204" s="36" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="R204" s="36" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="S204" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="T204" s="36" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="U204" s="49" t="s">
         <v>746</v>
       </c>
       <c r="V204" s="49" t="s">
+        <v>1219</v>
+      </c>
+      <c r="W204" s="49" t="s">
         <v>1220</v>
       </c>
-      <c r="W204" s="49" t="s">
+      <c r="X204" s="49" t="s">
+        <v>1393</v>
+      </c>
+      <c r="Y204" s="58" t="s">
         <v>1221</v>
       </c>
-      <c r="X204" s="49" t="s">
-        <v>1394</v>
-      </c>
-      <c r="Y204" s="58" t="s">
-        <v>1222</v>
-      </c>
       <c r="Z204" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="205" spans="1:26" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -24489,34 +24490,34 @@
         <v>853</v>
       </c>
       <c r="P205" s="36" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Q205" s="36" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="R205" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S205" s="36" t="s">
+        <v>1485</v>
+      </c>
+      <c r="T205" s="36" t="s">
+        <v>1543</v>
+      </c>
+      <c r="U205" s="49" t="s">
         <v>1486</v>
       </c>
-      <c r="T205" s="36" t="s">
-        <v>1544</v>
-      </c>
-      <c r="U205" s="49" t="s">
-        <v>1487</v>
-      </c>
       <c r="V205" s="49" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="W205" s="49" t="s">
+        <v>1488</v>
+      </c>
+      <c r="X205" s="49" t="s">
+        <v>1393</v>
+      </c>
+      <c r="Y205" s="58" t="s">
         <v>1489</v>
-      </c>
-      <c r="X205" s="49" t="s">
-        <v>1394</v>
-      </c>
-      <c r="Y205" s="58" t="s">
-        <v>1490</v>
       </c>
       <c r="Z205" s="36"/>
     </row>
@@ -24566,32 +24567,32 @@
         <v>853</v>
       </c>
       <c r="P206" s="36" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Q206" s="36" t="s">
+        <v>1535</v>
+      </c>
+      <c r="R206" s="36" t="s">
         <v>1537</v>
       </c>
-      <c r="Q206" s="36" t="s">
-        <v>1536</v>
-      </c>
-      <c r="R206" s="36" t="s">
+      <c r="S206" s="36" t="s">
+        <v>1534</v>
+      </c>
+      <c r="T206" s="36" t="s">
+        <v>1543</v>
+      </c>
+      <c r="U206" s="49" t="s">
         <v>1538</v>
       </c>
-      <c r="S206" s="36" t="s">
-        <v>1535</v>
-      </c>
-      <c r="T206" s="36" t="s">
-        <v>1544</v>
-      </c>
-      <c r="U206" s="49" t="s">
+      <c r="V206" s="49" t="s">
         <v>1539</v>
       </c>
-      <c r="V206" s="49" t="s">
-        <v>1540</v>
-      </c>
       <c r="W206" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X206" s="43"/>
       <c r="Y206" s="63" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="Z206" s="36"/>
     </row>
@@ -24601,7 +24602,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="47" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C207" s="35" t="s">
         <v>853</v>
@@ -24610,7 +24611,7 @@
         <v>853</v>
       </c>
       <c r="E207" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F207" s="35" t="s">
         <v>853</v>
@@ -24619,7 +24620,7 @@
         <v>853</v>
       </c>
       <c r="H207" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I207" s="35" t="s">
         <v>853</v>
@@ -24631,7 +24632,7 @@
         <v>853</v>
       </c>
       <c r="L207" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M207" s="35" t="s">
         <v>853</v>
@@ -24643,31 +24644,31 @@
         <v>866</v>
       </c>
       <c r="P207" s="36" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Q207" s="36" t="s">
+        <v>1547</v>
+      </c>
+      <c r="R207" s="36" t="s">
+        <v>1222</v>
+      </c>
+      <c r="S207" s="36" t="s">
+        <v>1547</v>
+      </c>
+      <c r="T207" s="36" t="s">
         <v>1548</v>
-      </c>
-      <c r="R207" s="36" t="s">
-        <v>1223</v>
-      </c>
-      <c r="S207" s="36" t="s">
-        <v>1548</v>
-      </c>
-      <c r="T207" s="36" t="s">
-        <v>1549</v>
       </c>
       <c r="U207" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V207" s="35" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="W207" s="56" t="s">
         <v>805</v>
       </c>
       <c r="X207" s="65" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y207" s="45"/>
       <c r="Z207" s="36"/>
@@ -24685,7 +24686,7 @@
         <v>853</v>
       </c>
       <c r="E208" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F208" s="35" t="s">
         <v>853</v>
@@ -24694,7 +24695,7 @@
         <v>853</v>
       </c>
       <c r="H208" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I208" s="49" t="s">
         <v>853</v>
@@ -24706,7 +24707,7 @@
         <v>853</v>
       </c>
       <c r="L208" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M208" s="35" t="s">
         <v>853</v>
@@ -24718,28 +24719,28 @@
         <v>866</v>
       </c>
       <c r="P208" s="36" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="Q208" s="36" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="R208" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S208" s="36" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T208" s="36" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="U208" s="56" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="V208" s="35" t="s">
         <v>560</v>
       </c>
       <c r="W208" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X208" s="43"/>
       <c r="Y208" s="66" t="s">
@@ -24763,7 +24764,7 @@
         <v>853</v>
       </c>
       <c r="F209" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G209" s="35" t="s">
         <v>853</v>
@@ -24784,7 +24785,7 @@
         <v>853</v>
       </c>
       <c r="M209" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N209" s="35" t="s">
         <v>853</v>
@@ -24793,32 +24794,32 @@
         <v>853</v>
       </c>
       <c r="P209" s="36" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="Q209" s="36" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="R209" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S209" s="36" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T209" s="36" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="U209" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V209" s="35" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="W209" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X209" s="67"/>
       <c r="Y209" s="66" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="Z209" s="36"/>
     </row>
@@ -24838,7 +24839,7 @@
         <v>853</v>
       </c>
       <c r="F210" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G210" s="35" t="s">
         <v>853</v>
@@ -24859,7 +24860,7 @@
         <v>853</v>
       </c>
       <c r="M210" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N210" s="35" t="s">
         <v>853</v>
@@ -24868,28 +24869,28 @@
         <v>853</v>
       </c>
       <c r="P210" s="36" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="Q210" s="36" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="R210" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S210" s="36" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T210" s="36" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="U210" s="56" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="V210" s="35" t="s">
         <v>560</v>
       </c>
       <c r="W210" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X210" s="43"/>
       <c r="Y210" s="66" t="s">
@@ -24916,7 +24917,7 @@
         <v>853</v>
       </c>
       <c r="G211" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H211" s="35" t="s">
         <v>853</v>
@@ -24937,37 +24938,37 @@
         <v>853</v>
       </c>
       <c r="N211" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O211" s="35" t="s">
         <v>853</v>
       </c>
       <c r="P211" s="36" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="Q211" s="36" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="R211" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S211" s="36" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T211" s="36" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="U211" s="56" t="s">
         <v>746</v>
       </c>
       <c r="V211" s="35" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="W211" s="56" t="s">
         <v>805</v>
       </c>
       <c r="X211" s="65" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y211" s="45"/>
       <c r="Z211" s="36"/>
@@ -24991,7 +24992,7 @@
         <v>853</v>
       </c>
       <c r="G212" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H212" s="49" t="s">
         <v>853</v>
@@ -25012,34 +25013,34 @@
         <v>853</v>
       </c>
       <c r="N212" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O212" s="35" t="s">
         <v>853</v>
       </c>
       <c r="P212" s="36" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="Q212" s="36" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="R212" s="36" t="s">
         <v>296</v>
       </c>
       <c r="S212" s="36" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T212" s="36" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="U212" s="56" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="V212" s="35" t="s">
         <v>560</v>
       </c>
       <c r="W212" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X212" s="43"/>
       <c r="Y212" s="66" t="s">
@@ -25053,7 +25054,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="46" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C213" s="65" t="s">
         <v>853</v>
@@ -25062,7 +25063,7 @@
         <v>853</v>
       </c>
       <c r="E213" s="65" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F213" s="65" t="s">
         <v>866</v>
@@ -25071,7 +25072,7 @@
         <v>866</v>
       </c>
       <c r="H213" s="65" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I213" s="65" t="s">
         <v>853</v>
@@ -25107,7 +25108,7 @@
         <v>759</v>
       </c>
       <c r="T213" s="36" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="U213" s="68" t="s">
         <v>1</v>
@@ -25119,7 +25120,7 @@
         <v>1100</v>
       </c>
       <c r="X213" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y213" s="69" t="s">
         <v>680</v>
@@ -25132,7 +25133,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="34" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C214" s="35" t="s">
         <v>853</v>
@@ -25183,10 +25184,10 @@
         <v>850</v>
       </c>
       <c r="S214" s="36" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="T214" s="36" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="U214" s="37" t="s">
         <v>12</v>
@@ -25195,7 +25196,7 @@
         <v>559</v>
       </c>
       <c r="W214" s="37" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="X214" s="70"/>
       <c r="Y214" s="52"/>
@@ -25268,7 +25269,7 @@
         <v>560</v>
       </c>
       <c r="W215" s="37" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="X215" s="51"/>
       <c r="Y215" s="52"/>
@@ -25426,7 +25427,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="53" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C218" s="35" t="s">
         <v>853</v>
@@ -25480,7 +25481,7 @@
         <v>11</v>
       </c>
       <c r="T218" s="36" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="U218" s="37" t="s">
         <v>768</v>
@@ -25489,10 +25490,10 @@
         <v>558</v>
       </c>
       <c r="W218" s="37" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="X218" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y218" s="39" t="s">
         <v>679</v>
@@ -25505,7 +25506,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C219" s="35" t="s">
         <v>853</v>
@@ -25559,7 +25560,7 @@
         <v>67</v>
       </c>
       <c r="T219" s="36" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="U219" s="37" t="s">
         <v>1101</v>
@@ -25568,10 +25569,10 @@
         <v>567</v>
       </c>
       <c r="W219" s="37" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="X219" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y219" s="39" t="s">
         <v>668</v>
@@ -26098,10 +26099,10 @@
         <v>348</v>
       </c>
       <c r="X226" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y226" s="45" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Z226" s="36"/>
     </row>
@@ -26175,10 +26176,10 @@
         <v>349</v>
       </c>
       <c r="X227" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y227" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Z227" s="36"/>
     </row>
@@ -26252,10 +26253,10 @@
         <v>350</v>
       </c>
       <c r="X228" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y228" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Z228" s="36"/>
     </row>
@@ -26392,7 +26393,7 @@
         <v>78</v>
       </c>
       <c r="T230" s="36" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="U230" s="37" t="s">
         <v>12</v>
@@ -27319,19 +27320,19 @@
         <v>834</v>
       </c>
       <c r="U242" s="37" t="s">
+        <v>1247</v>
+      </c>
+      <c r="V242" s="38" t="s">
         <v>1248</v>
       </c>
-      <c r="V242" s="38" t="s">
-        <v>1249</v>
-      </c>
       <c r="W242" s="37" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="X242" s="38" t="s">
         <v>535</v>
       </c>
       <c r="Y242" s="39" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="Z242" s="36"/>
     </row>
@@ -28231,7 +28232,7 @@
         <v>770</v>
       </c>
       <c r="Q254" s="36" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="R254" s="36" t="s">
         <v>128</v>
@@ -28693,29 +28694,29 @@
         <v>770</v>
       </c>
       <c r="Q260" s="36" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="R260" s="36" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="S260" s="36" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="T260" s="36" t="s">
+        <v>1252</v>
+      </c>
+      <c r="U260" s="37" t="s">
         <v>1253</v>
       </c>
-      <c r="U260" s="37" t="s">
+      <c r="V260" s="38" t="s">
         <v>1254</v>
-      </c>
-      <c r="V260" s="38" t="s">
-        <v>1255</v>
       </c>
       <c r="W260" s="42" t="s">
         <v>1107</v>
       </c>
       <c r="X260" s="43"/>
       <c r="Y260" s="66" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="Z260" s="36"/>
     </row>
@@ -28768,16 +28769,16 @@
         <v>770</v>
       </c>
       <c r="Q261" s="36" t="s">
+        <v>1613</v>
+      </c>
+      <c r="R261" s="36" t="s">
         <v>1614</v>
       </c>
-      <c r="R261" s="36" t="s">
+      <c r="S261" s="36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="T261" s="36" t="s">
         <v>1615</v>
-      </c>
-      <c r="S261" s="36" t="s">
-        <v>1454</v>
-      </c>
-      <c r="T261" s="36" t="s">
-        <v>1616</v>
       </c>
       <c r="U261" s="55" t="s">
         <v>641</v>
@@ -28790,7 +28791,7 @@
       </c>
       <c r="X261" s="42"/>
       <c r="Y261" s="63" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="Z261" s="36"/>
     </row>
@@ -28843,7 +28844,7 @@
         <v>770</v>
       </c>
       <c r="Q262" s="36" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="R262" s="36" t="s">
         <v>855</v>
@@ -28852,7 +28853,7 @@
         <v>137</v>
       </c>
       <c r="T262" s="36" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="U262" s="37" t="s">
         <v>135</v>
@@ -28864,7 +28865,7 @@
         <v>1102</v>
       </c>
       <c r="X262" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y262" s="45" t="s">
         <v>663</v>
@@ -28941,7 +28942,7 @@
         <v>344</v>
       </c>
       <c r="X263" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y263" s="39" t="s">
         <v>664</v>
@@ -29018,7 +29019,7 @@
         <v>345</v>
       </c>
       <c r="X264" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y264" s="39" t="s">
         <v>665</v>
@@ -29095,7 +29096,7 @@
         <v>346</v>
       </c>
       <c r="X265" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y265" s="39" t="s">
         <v>666</v>
@@ -29172,7 +29173,7 @@
         <v>347</v>
       </c>
       <c r="X266" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y266" s="39" t="s">
         <v>667</v>
@@ -29185,7 +29186,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="53" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C267" s="35" t="s">
         <v>853</v>
@@ -29227,10 +29228,10 @@
         <v>853</v>
       </c>
       <c r="P267" s="36" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="Q267" s="36" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="R267" s="36" t="s">
         <v>162</v>
@@ -29239,7 +29240,7 @@
         <v>161</v>
       </c>
       <c r="T267" s="36" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="U267" s="37" t="s">
         <v>160</v>
@@ -29251,7 +29252,7 @@
         <v>1103</v>
       </c>
       <c r="X267" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y267" s="39" t="s">
         <v>681</v>
@@ -29264,7 +29265,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="34" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C268" s="35" t="s">
         <v>853</v>
@@ -29318,7 +29319,7 @@
         <v>164</v>
       </c>
       <c r="T268" s="36" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="U268" s="37" t="s">
         <v>638</v>
@@ -29574,7 +29575,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C272" s="35" t="s">
         <v>853</v>
@@ -29628,7 +29629,7 @@
         <v>168</v>
       </c>
       <c r="T272" s="36" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="U272" s="37" t="s">
         <v>166</v>
@@ -29637,10 +29638,10 @@
         <v>574</v>
       </c>
       <c r="W272" s="37" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="X272" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y272" s="39" t="s">
         <v>679</v>
@@ -29705,7 +29706,7 @@
         <v>168</v>
       </c>
       <c r="T273" s="36" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="U273" s="37" t="s">
         <v>166</v>
@@ -29714,10 +29715,10 @@
         <v>574</v>
       </c>
       <c r="W273" s="37" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="X273" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y273" s="39" t="s">
         <v>679</v>
@@ -29730,7 +29731,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="53" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C274" s="35" t="s">
         <v>853</v>
@@ -29784,19 +29785,19 @@
         <v>175</v>
       </c>
       <c r="T274" s="36" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="U274" s="37" t="s">
         <v>816</v>
       </c>
       <c r="V274" s="38" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="W274" s="37" t="s">
         <v>1104</v>
       </c>
       <c r="X274" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y274" s="39" t="s">
         <v>679</v>
@@ -29809,7 +29810,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="34" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C275" s="35" t="s">
         <v>853</v>
@@ -29851,10 +29852,10 @@
         <v>853</v>
       </c>
       <c r="P275" s="36" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="Q275" s="36" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="R275" s="36" t="s">
         <v>857</v>
@@ -29863,7 +29864,7 @@
         <v>178</v>
       </c>
       <c r="T275" s="36" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="U275" s="37" t="s">
         <v>176</v>
@@ -29875,7 +29876,7 @@
         <v>1105</v>
       </c>
       <c r="X275" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y275" s="39" t="s">
         <v>666</v>
@@ -30271,7 +30272,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="34" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C281" s="35" t="s">
         <v>853</v>
@@ -30325,7 +30326,7 @@
         <v>181</v>
       </c>
       <c r="T281" s="36" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="U281" s="37" t="s">
         <v>179</v>
@@ -30334,10 +30335,10 @@
         <v>351</v>
       </c>
       <c r="W281" s="37" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="X281" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y281" s="39" t="s">
         <v>682</v>
@@ -30416,7 +30417,7 @@
         <v>377</v>
       </c>
       <c r="X282" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y282" s="39" t="s">
         <v>683</v>
@@ -30495,7 +30496,7 @@
         <v>378</v>
       </c>
       <c r="X283" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y283" s="39" t="s">
         <v>684</v>
@@ -30574,7 +30575,7 @@
         <v>379</v>
       </c>
       <c r="X284" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y284" s="39" t="s">
         <v>656</v>
@@ -30641,22 +30642,22 @@
         <v>34</v>
       </c>
       <c r="T285" s="36" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="U285" s="37" t="s">
         <v>32</v>
       </c>
       <c r="V285" s="38" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="W285" s="37" t="s">
         <v>380</v>
       </c>
       <c r="X285" s="38" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="Y285" s="45" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="Z285" s="36"/>
     </row>
@@ -30724,13 +30725,13 @@
         <v>36</v>
       </c>
       <c r="V286" s="38" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="W286" s="37" t="s">
         <v>382</v>
       </c>
       <c r="X286" s="38" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="Y286" s="39" t="s">
         <v>686</v>
@@ -30807,7 +30808,7 @@
         <v>381</v>
       </c>
       <c r="X287" s="38" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="Y287" s="39" t="s">
         <v>687</v>
@@ -30884,7 +30885,7 @@
         <v>1106</v>
       </c>
       <c r="X288" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y288" s="39" t="s">
         <v>688</v>
@@ -30961,7 +30962,7 @@
         <v>383</v>
       </c>
       <c r="X289" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y289" s="39" t="s">
         <v>688</v>
@@ -31028,22 +31029,22 @@
         <v>172</v>
       </c>
       <c r="T290" s="36" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="U290" s="37" t="s">
         <v>170</v>
       </c>
       <c r="V290" s="38" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="W290" s="37" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="X290" s="68" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Y290" s="39" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="Z290" s="36"/>
     </row>
@@ -31107,7 +31108,7 @@
         <v>14</v>
       </c>
       <c r="T291" s="36" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="U291" s="55" t="s">
         <v>17</v>
@@ -31184,7 +31185,7 @@
         <v>896</v>
       </c>
       <c r="T292" s="36" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="U292" s="55" t="s">
         <v>898</v>
@@ -31193,7 +31194,7 @@
         <v>1025</v>
       </c>
       <c r="W292" s="55" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="X292" s="51"/>
       <c r="Y292" s="72"/>
@@ -31259,7 +31260,7 @@
         <v>903</v>
       </c>
       <c r="T293" s="36" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="U293" s="55" t="s">
         <v>904</v>
@@ -31494,7 +31495,7 @@
         <v>913</v>
       </c>
       <c r="T296" s="36" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="U296" s="55" t="s">
         <v>914</v>
@@ -32762,7 +32763,7 @@
         <v>954</v>
       </c>
       <c r="Q313" s="36" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="R313" s="36" t="s">
         <v>954</v>
@@ -32771,7 +32772,7 @@
         <v>953</v>
       </c>
       <c r="T313" s="36" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="U313" s="55" t="s">
         <v>197</v>
@@ -32780,7 +32781,7 @@
         <v>957</v>
       </c>
       <c r="W313" s="55" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="X313" s="51"/>
       <c r="Y313" s="72"/>
@@ -32835,7 +32836,7 @@
         <v>954</v>
       </c>
       <c r="Q314" s="36" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="R314" s="36" t="s">
         <v>954</v>
@@ -32853,7 +32854,7 @@
         <v>958</v>
       </c>
       <c r="W314" s="55" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="X314" s="51"/>
       <c r="Y314" s="72"/>
@@ -32999,7 +33000,7 @@
         <v>960</v>
       </c>
       <c r="W316" s="55" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="X316" s="51"/>
       <c r="Y316" s="72"/>
@@ -33129,7 +33130,7 @@
         <v>963</v>
       </c>
       <c r="Q318" s="36" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="R318" s="36" t="s">
         <v>965</v>
@@ -33138,7 +33139,7 @@
         <v>966</v>
       </c>
       <c r="T318" s="36" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="U318" s="55" t="s">
         <v>967</v>
@@ -33295,13 +33296,13 @@
         <v>997</v>
       </c>
       <c r="U320" s="55" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="V320" s="55" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="W320" s="55" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="X320" s="55" t="s">
         <v>1140</v>
@@ -33310,7 +33311,7 @@
         <v>1142</v>
       </c>
       <c r="Z320" s="36" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="321" spans="1:26" ht="27" x14ac:dyDescent="0.15">
@@ -33374,7 +33375,7 @@
         <v>997</v>
       </c>
       <c r="U321" s="55" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="V321" s="55" t="s">
         <v>973</v>
@@ -33389,7 +33390,7 @@
         <v>1143</v>
       </c>
       <c r="Z321" s="36" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="322" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -33459,7 +33460,7 @@
         <v>976</v>
       </c>
       <c r="W322" s="55" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="X322" s="55" t="s">
         <v>1140</v>
@@ -34440,7 +34441,7 @@
         <v>984</v>
       </c>
       <c r="W335" s="55" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="X335" s="55" t="s">
         <v>1140</v>
@@ -34665,17 +34666,17 @@
         <v>997</v>
       </c>
       <c r="U338" s="49" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="V338" s="49" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="W338" s="42" t="s">
         <v>1107</v>
       </c>
       <c r="X338" s="42"/>
       <c r="Y338" s="42" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="Z338" s="36"/>
     </row>
@@ -34752,7 +34753,7 @@
         <v>1140</v>
       </c>
       <c r="Y339" s="73" t="s">
-        <v>1147</v>
+        <v>1616</v>
       </c>
       <c r="Z339" s="36"/>
     </row>
@@ -34816,7 +34817,7 @@
         <v>1001</v>
       </c>
       <c r="T340" s="36" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="U340" s="55" t="s">
         <v>1002</v>
@@ -34828,10 +34829,10 @@
         <v>1003</v>
       </c>
       <c r="X340" s="55" t="s">
+        <v>1147</v>
+      </c>
+      <c r="Y340" s="73" t="s">
         <v>1148</v>
-      </c>
-      <c r="Y340" s="73" t="s">
-        <v>1149</v>
       </c>
       <c r="Z340" s="36"/>
     </row>
@@ -36167,10 +36168,10 @@
         <v>1006</v>
       </c>
       <c r="S358" s="36" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="T358" s="36" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="U358" s="55" t="s">
         <v>1007</v>
@@ -36182,10 +36183,10 @@
         <v>1009</v>
       </c>
       <c r="X358" s="55" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Y358" s="73" t="s">
         <v>1150</v>
-      </c>
-      <c r="Y358" s="73" t="s">
-        <v>1151</v>
       </c>
       <c r="Z358" s="36"/>
     </row>
@@ -36240,7 +36241,7 @@
         <v>1016</v>
       </c>
       <c r="Q359" s="36" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="R359" s="36" t="s">
         <v>1015</v>
@@ -36249,7 +36250,7 @@
         <v>1019</v>
       </c>
       <c r="T359" s="36" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="U359" s="55" t="s">
         <v>1013</v>
@@ -36258,13 +36259,13 @@
         <v>1014</v>
       </c>
       <c r="W359" s="55" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X359" s="38" t="s">
+        <v>1606</v>
+      </c>
+      <c r="Y359" s="39" t="s">
         <v>1244</v>
-      </c>
-      <c r="X359" s="38" t="s">
-        <v>1607</v>
-      </c>
-      <c r="Y359" s="39" t="s">
-        <v>1245</v>
       </c>
       <c r="Z359" s="36"/>
     </row>
@@ -36338,10 +36339,10 @@
         <v>354</v>
       </c>
       <c r="X360" s="38" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="Y360" s="39" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Z360" s="36"/>
     </row>
@@ -36403,7 +36404,7 @@
         <v>154</v>
       </c>
       <c r="T361" s="36" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="U361" s="55" t="s">
         <v>40</v>
@@ -36504,47 +36505,47 @@
         <v>772</v>
       </c>
       <c r="C363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="N363" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="O363" s="49" t="s">
+        <v>866</v>
+      </c>
+      <c r="P363" s="36" t="s">
         <v>1257</v>
       </c>
-      <c r="D363" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E363" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F363" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G363" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="H363" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="I363" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="J363" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="K363" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="L363" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="M363" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="N363" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="O363" s="49" t="s">
-        <v>866</v>
-      </c>
-      <c r="P363" s="36" t="s">
-        <v>1258</v>
-      </c>
       <c r="Q363" s="36" t="s">
         <v>1083</v>
       </c>
@@ -36558,7 +36559,7 @@
         <v>1083</v>
       </c>
       <c r="U363" s="42" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="V363" s="77" t="s">
         <v>1083</v>
@@ -36567,10 +36568,10 @@
         <v>1107</v>
       </c>
       <c r="X363" s="42" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="Y363" s="42" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="Z363" s="36"/>
     </row>
@@ -36581,46 +36582,46 @@
       </c>
       <c r="B364" s="41"/>
       <c r="C364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N364" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O364" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P364" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Q364" s="36" t="s">
         <v>1083</v>
@@ -36635,7 +36636,7 @@
         <v>1083</v>
       </c>
       <c r="U364" s="42" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="V364" s="77" t="s">
         <v>1083</v>
@@ -36644,10 +36645,10 @@
         <v>1107</v>
       </c>
       <c r="X364" s="42" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="Y364" s="42" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="Z364" s="36"/>
     </row>
@@ -36658,7 +36659,7 @@
       </c>
       <c r="B365" s="41"/>
       <c r="C365" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D365" s="49" t="s">
         <v>853</v>
@@ -36679,7 +36680,7 @@
         <v>853</v>
       </c>
       <c r="J365" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K365" s="49" t="s">
         <v>853</v>
@@ -36697,22 +36698,22 @@
         <v>853</v>
       </c>
       <c r="P365" s="36" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Q365" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R365" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="S365" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="T365" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="U365" s="55" t="s">
         <v>1260</v>
-      </c>
-      <c r="Q365" s="36" t="s">
-        <v>1083</v>
-      </c>
-      <c r="R365" s="36" t="s">
-        <v>1083</v>
-      </c>
-      <c r="S365" s="36" t="s">
-        <v>1083</v>
-      </c>
-      <c r="T365" s="36" t="s">
-        <v>1083</v>
-      </c>
-      <c r="U365" s="55" t="s">
-        <v>1261</v>
       </c>
       <c r="V365" s="75" t="s">
         <v>1083</v>
@@ -36721,10 +36722,10 @@
         <v>1107</v>
       </c>
       <c r="X365" s="42" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="Y365" s="42" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Z365" s="36"/>
     </row>
@@ -36735,46 +36736,46 @@
       </c>
       <c r="B366" s="41"/>
       <c r="C366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N366" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O366" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P366" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q366" s="36" t="s">
         <v>1083</v>
@@ -36789,7 +36790,7 @@
         <v>1083</v>
       </c>
       <c r="U366" s="55" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="V366" s="75" t="s">
         <v>1083</v>
@@ -36798,10 +36799,10 @@
         <v>1107</v>
       </c>
       <c r="X366" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y366" s="42" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Z366" s="36"/>
     </row>
@@ -36812,46 +36813,46 @@
       </c>
       <c r="B367" s="41"/>
       <c r="C367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N367" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O367" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P367" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q367" s="36" t="s">
         <v>1083</v>
@@ -36866,7 +36867,7 @@
         <v>1083</v>
       </c>
       <c r="U367" s="55" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V367" s="75" t="s">
         <v>1083</v>
@@ -36875,10 +36876,10 @@
         <v>1107</v>
       </c>
       <c r="X367" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y367" s="42" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Z367" s="36"/>
     </row>
@@ -36889,46 +36890,46 @@
       </c>
       <c r="B368" s="41"/>
       <c r="C368" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D368" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E368" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F368" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G368" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H368" s="49" t="s">
         <v>853</v>
       </c>
       <c r="I368" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J368" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K368" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L368" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M368" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N368" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O368" s="49" t="s">
         <v>853</v>
       </c>
       <c r="P368" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q368" s="36" t="s">
         <v>1083</v>
@@ -36943,7 +36944,7 @@
         <v>1083</v>
       </c>
       <c r="U368" s="55" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="V368" s="75" t="s">
         <v>1083</v>
@@ -36952,10 +36953,10 @@
         <v>1107</v>
       </c>
       <c r="X368" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y368" s="42" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Z368" s="36"/>
     </row>
@@ -36966,46 +36967,46 @@
       </c>
       <c r="B369" s="41"/>
       <c r="C369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N369" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O369" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P369" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q369" s="36" t="s">
         <v>1083</v>
@@ -37020,7 +37021,7 @@
         <v>1083</v>
       </c>
       <c r="U369" s="55" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="V369" s="75" t="s">
         <v>1083</v>
@@ -37029,10 +37030,10 @@
         <v>1107</v>
       </c>
       <c r="X369" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y369" s="42" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Z369" s="36"/>
     </row>
@@ -37043,46 +37044,46 @@
       </c>
       <c r="B370" s="41"/>
       <c r="C370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N370" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O370" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P370" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q370" s="36" t="s">
         <v>1083</v>
@@ -37097,7 +37098,7 @@
         <v>1083</v>
       </c>
       <c r="U370" s="55" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="V370" s="75" t="s">
         <v>1083</v>
@@ -37106,10 +37107,10 @@
         <v>1107</v>
       </c>
       <c r="X370" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y370" s="42" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Z370" s="36"/>
     </row>
@@ -37120,46 +37121,46 @@
       </c>
       <c r="B371" s="41"/>
       <c r="C371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N371" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O371" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P371" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q371" s="36" t="s">
         <v>1083</v>
@@ -37174,7 +37175,7 @@
         <v>1083</v>
       </c>
       <c r="U371" s="55" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="V371" s="75" t="s">
         <v>1083</v>
@@ -37183,10 +37184,10 @@
         <v>1107</v>
       </c>
       <c r="X371" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y371" s="42" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Z371" s="36"/>
     </row>
@@ -37197,46 +37198,46 @@
       </c>
       <c r="B372" s="41"/>
       <c r="C372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N372" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O372" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P372" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q372" s="36" t="s">
         <v>1083</v>
@@ -37251,7 +37252,7 @@
         <v>1083</v>
       </c>
       <c r="U372" s="55" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V372" s="75" t="s">
         <v>1083</v>
@@ -37260,10 +37261,10 @@
         <v>1107</v>
       </c>
       <c r="X372" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y372" s="42" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Z372" s="36"/>
     </row>
@@ -37274,46 +37275,46 @@
       </c>
       <c r="B373" s="41"/>
       <c r="C373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N373" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O373" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P373" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q373" s="36" t="s">
         <v>1083</v>
@@ -37328,7 +37329,7 @@
         <v>1083</v>
       </c>
       <c r="U373" s="55" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="V373" s="75" t="s">
         <v>1083</v>
@@ -37337,10 +37338,10 @@
         <v>1107</v>
       </c>
       <c r="X373" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y373" s="42" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Z373" s="36"/>
     </row>
@@ -37351,46 +37352,46 @@
       </c>
       <c r="B374" s="41"/>
       <c r="C374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N374" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O374" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P374" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q374" s="36" t="s">
         <v>1083</v>
@@ -37405,7 +37406,7 @@
         <v>1083</v>
       </c>
       <c r="U374" s="55" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="V374" s="75" t="s">
         <v>1083</v>
@@ -37414,10 +37415,10 @@
         <v>1107</v>
       </c>
       <c r="X374" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y374" s="42" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Z374" s="36"/>
     </row>
@@ -37428,46 +37429,46 @@
       </c>
       <c r="B375" s="41"/>
       <c r="C375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N375" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O375" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P375" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q375" s="36" t="s">
         <v>1083</v>
@@ -37482,7 +37483,7 @@
         <v>1083</v>
       </c>
       <c r="U375" s="55" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="V375" s="75" t="s">
         <v>1083</v>
@@ -37491,10 +37492,10 @@
         <v>1107</v>
       </c>
       <c r="X375" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y375" s="42" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Z375" s="36"/>
     </row>
@@ -37505,46 +37506,46 @@
       </c>
       <c r="B376" s="41"/>
       <c r="C376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N376" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O376" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P376" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q376" s="36" t="s">
         <v>1083</v>
@@ -37559,7 +37560,7 @@
         <v>1083</v>
       </c>
       <c r="U376" s="55" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="V376" s="75" t="s">
         <v>1083</v>
@@ -37568,10 +37569,10 @@
         <v>1107</v>
       </c>
       <c r="X376" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y376" s="42" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Z376" s="36"/>
     </row>
@@ -37582,46 +37583,46 @@
       </c>
       <c r="B377" s="41"/>
       <c r="C377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N377" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O377" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P377" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q377" s="36" t="s">
         <v>1083</v>
@@ -37636,7 +37637,7 @@
         <v>1083</v>
       </c>
       <c r="U377" s="55" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="V377" s="75" t="s">
         <v>1083</v>
@@ -37645,10 +37646,10 @@
         <v>1107</v>
       </c>
       <c r="X377" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y377" s="42" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Z377" s="36"/>
     </row>
@@ -37659,46 +37660,46 @@
       </c>
       <c r="B378" s="41"/>
       <c r="C378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N378" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O378" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P378" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q378" s="36" t="s">
         <v>1083</v>
@@ -37713,7 +37714,7 @@
         <v>1083</v>
       </c>
       <c r="U378" s="55" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="V378" s="75" t="s">
         <v>1083</v>
@@ -37722,10 +37723,10 @@
         <v>1107</v>
       </c>
       <c r="X378" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y378" s="42" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Z378" s="36"/>
     </row>
@@ -37736,46 +37737,46 @@
       </c>
       <c r="B379" s="41"/>
       <c r="C379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N379" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O379" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P379" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q379" s="36" t="s">
         <v>1083</v>
@@ -37790,7 +37791,7 @@
         <v>1083</v>
       </c>
       <c r="U379" s="55" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="V379" s="75" t="s">
         <v>1083</v>
@@ -37799,10 +37800,10 @@
         <v>1107</v>
       </c>
       <c r="X379" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y379" s="42" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Z379" s="36"/>
     </row>
@@ -37813,46 +37814,46 @@
       </c>
       <c r="B380" s="41"/>
       <c r="C380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N380" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O380" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P380" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q380" s="36" t="s">
         <v>1083</v>
@@ -37867,7 +37868,7 @@
         <v>1083</v>
       </c>
       <c r="U380" s="55" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="V380" s="75" t="s">
         <v>1083</v>
@@ -37876,10 +37877,10 @@
         <v>1107</v>
       </c>
       <c r="X380" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y380" s="42" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Z380" s="36"/>
     </row>
@@ -37890,46 +37891,46 @@
       </c>
       <c r="B381" s="41"/>
       <c r="C381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N381" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O381" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P381" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q381" s="36" t="s">
         <v>1083</v>
@@ -37944,7 +37945,7 @@
         <v>1083</v>
       </c>
       <c r="U381" s="55" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="V381" s="75" t="s">
         <v>1083</v>
@@ -37953,10 +37954,10 @@
         <v>1107</v>
       </c>
       <c r="X381" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y381" s="42" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Z381" s="36"/>
     </row>
@@ -37967,46 +37968,46 @@
       </c>
       <c r="B382" s="41"/>
       <c r="C382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N382" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O382" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P382" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q382" s="36" t="s">
         <v>1083</v>
@@ -38021,7 +38022,7 @@
         <v>1083</v>
       </c>
       <c r="U382" s="55" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="V382" s="75" t="s">
         <v>1083</v>
@@ -38030,10 +38031,10 @@
         <v>1107</v>
       </c>
       <c r="X382" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y382" s="42" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Z382" s="36"/>
     </row>
@@ -38044,46 +38045,46 @@
       </c>
       <c r="B383" s="41"/>
       <c r="C383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N383" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O383" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P383" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q383" s="36" t="s">
         <v>1083</v>
@@ -38098,7 +38099,7 @@
         <v>1083</v>
       </c>
       <c r="U383" s="55" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="V383" s="75" t="s">
         <v>1083</v>
@@ -38107,10 +38108,10 @@
         <v>1107</v>
       </c>
       <c r="X383" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y383" s="42" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Z383" s="36"/>
     </row>
@@ -38121,46 +38122,46 @@
       </c>
       <c r="B384" s="41"/>
       <c r="C384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N384" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O384" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P384" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q384" s="36" t="s">
         <v>1083</v>
@@ -38175,7 +38176,7 @@
         <v>1083</v>
       </c>
       <c r="U384" s="55" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="V384" s="75" t="s">
         <v>1083</v>
@@ -38184,10 +38185,10 @@
         <v>1107</v>
       </c>
       <c r="X384" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y384" s="42" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Z384" s="36"/>
     </row>
@@ -38198,46 +38199,46 @@
       </c>
       <c r="B385" s="41"/>
       <c r="C385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N385" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O385" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P385" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q385" s="36" t="s">
         <v>1083</v>
@@ -38252,7 +38253,7 @@
         <v>1083</v>
       </c>
       <c r="U385" s="55" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="V385" s="75" t="s">
         <v>1083</v>
@@ -38261,10 +38262,10 @@
         <v>1107</v>
       </c>
       <c r="X385" s="42" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="Y385" s="42" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Z385" s="36"/>
     </row>
@@ -38281,16 +38282,16 @@
         <v>853</v>
       </c>
       <c r="E386" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F386" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G386" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H386" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I386" s="49" t="s">
         <v>853</v>
@@ -38302,19 +38303,19 @@
         <v>853</v>
       </c>
       <c r="L386" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M386" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N386" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O386" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P386" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q386" s="36" t="s">
         <v>1083</v>
@@ -38329,7 +38330,7 @@
         <v>1083</v>
       </c>
       <c r="U386" s="55" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="V386" s="75" t="s">
         <v>1083</v>
@@ -38338,10 +38339,10 @@
         <v>1107</v>
       </c>
       <c r="X386" s="42" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Y386" s="42" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="Z386" s="36"/>
     </row>
@@ -38358,16 +38359,16 @@
         <v>853</v>
       </c>
       <c r="E387" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F387" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G387" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H387" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I387" s="49" t="s">
         <v>853</v>
@@ -38379,19 +38380,19 @@
         <v>853</v>
       </c>
       <c r="L387" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M387" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N387" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O387" s="49" t="s">
         <v>866</v>
       </c>
       <c r="P387" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q387" s="36" t="s">
         <v>1083</v>
@@ -38406,7 +38407,7 @@
         <v>1083</v>
       </c>
       <c r="U387" s="55" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="V387" s="75" t="s">
         <v>1083</v>
@@ -38415,10 +38416,10 @@
         <v>1107</v>
       </c>
       <c r="X387" s="42" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Y387" s="42" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Z387" s="36"/>
     </row>
@@ -38435,13 +38436,13 @@
         <v>853</v>
       </c>
       <c r="E388" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F388" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G388" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H388" s="49" t="s">
         <v>853</v>
@@ -38456,19 +38457,19 @@
         <v>853</v>
       </c>
       <c r="L388" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M388" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N388" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O388" s="49" t="s">
         <v>853</v>
       </c>
       <c r="P388" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q388" s="36" t="s">
         <v>1083</v>
@@ -38483,7 +38484,7 @@
         <v>1083</v>
       </c>
       <c r="U388" s="55" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="V388" s="75" t="s">
         <v>1083</v>
@@ -38492,10 +38493,10 @@
         <v>1107</v>
       </c>
       <c r="X388" s="42" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Y388" s="42" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Z388" s="36"/>
     </row>
@@ -38512,13 +38513,13 @@
         <v>853</v>
       </c>
       <c r="E389" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F389" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G389" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H389" s="49" t="s">
         <v>853</v>
@@ -38533,19 +38534,19 @@
         <v>853</v>
       </c>
       <c r="L389" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M389" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N389" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O389" s="49" t="s">
         <v>853</v>
       </c>
       <c r="P389" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q389" s="36" t="s">
         <v>1083</v>
@@ -38560,7 +38561,7 @@
         <v>1083</v>
       </c>
       <c r="U389" s="55" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="V389" s="75" t="s">
         <v>1083</v>
@@ -38569,10 +38570,10 @@
         <v>1107</v>
       </c>
       <c r="X389" s="42" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Y389" s="42" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Z389" s="36"/>
     </row>
@@ -38583,7 +38584,7 @@
       </c>
       <c r="B390" s="46"/>
       <c r="C390" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D390" s="49" t="s">
         <v>853</v>
@@ -38604,7 +38605,7 @@
         <v>853</v>
       </c>
       <c r="J390" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K390" s="49" t="s">
         <v>853</v>
@@ -38622,26 +38623,26 @@
         <v>853</v>
       </c>
       <c r="P390" s="36" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Q390" s="36"/>
       <c r="R390" s="36"/>
       <c r="S390" s="36"/>
       <c r="T390" s="36"/>
       <c r="U390" s="55" t="s">
+        <v>1304</v>
+      </c>
+      <c r="V390" s="36" t="s">
         <v>1305</v>
-      </c>
-      <c r="V390" s="36" t="s">
-        <v>1306</v>
       </c>
       <c r="W390" s="42" t="s">
         <v>1107</v>
       </c>
       <c r="X390" s="42" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="Y390" s="42" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="Z390" s="36"/>
     </row>
@@ -38693,34 +38694,34 @@
         <v>853</v>
       </c>
       <c r="P391" s="36" t="s">
+        <v>1316</v>
+      </c>
+      <c r="Q391" s="36" t="s">
         <v>1317</v>
       </c>
-      <c r="Q391" s="36" t="s">
+      <c r="R391" s="36" t="s">
         <v>1318</v>
       </c>
-      <c r="R391" s="36" t="s">
+      <c r="S391" s="36" t="s">
         <v>1319</v>
       </c>
-      <c r="S391" s="36" t="s">
-        <v>1320</v>
-      </c>
       <c r="T391" s="36" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="U391" s="55" t="s">
+        <v>1322</v>
+      </c>
+      <c r="V391" s="55" t="s">
+        <v>1350</v>
+      </c>
+      <c r="W391" s="55" t="s">
         <v>1323</v>
       </c>
-      <c r="V391" s="55" t="s">
-        <v>1351</v>
-      </c>
-      <c r="W391" s="55" t="s">
+      <c r="X391" s="55" t="s">
         <v>1324</v>
       </c>
-      <c r="X391" s="55" t="s">
+      <c r="Y391" s="73" t="s">
         <v>1325</v>
-      </c>
-      <c r="Y391" s="73" t="s">
-        <v>1326</v>
       </c>
       <c r="Z391" s="36"/>
     </row>
@@ -38770,32 +38771,32 @@
         <v>853</v>
       </c>
       <c r="P392" s="36" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q392" s="36" t="s">
+        <v>1326</v>
+      </c>
+      <c r="R392" s="36" t="s">
         <v>1327</v>
       </c>
-      <c r="R392" s="36" t="s">
+      <c r="S392" s="36" t="s">
         <v>1328</v>
-      </c>
-      <c r="S392" s="36" t="s">
-        <v>1329</v>
       </c>
       <c r="T392" s="36"/>
       <c r="U392" s="55" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="V392" s="55" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="W392" s="55" t="s">
+        <v>1329</v>
+      </c>
+      <c r="X392" s="55" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Y392" s="73" t="s">
         <v>1330</v>
-      </c>
-      <c r="X392" s="55" t="s">
-        <v>1325</v>
-      </c>
-      <c r="Y392" s="73" t="s">
-        <v>1331</v>
       </c>
       <c r="Z392" s="36"/>
     </row>
@@ -38845,32 +38846,32 @@
         <v>853</v>
       </c>
       <c r="P393" s="36" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q393" s="36" t="s">
+        <v>1331</v>
+      </c>
+      <c r="R393" s="36" t="s">
         <v>1332</v>
       </c>
-      <c r="R393" s="36" t="s">
+      <c r="S393" s="36" t="s">
         <v>1333</v>
-      </c>
-      <c r="S393" s="36" t="s">
-        <v>1334</v>
       </c>
       <c r="T393" s="36"/>
       <c r="U393" s="55" t="s">
+        <v>1334</v>
+      </c>
+      <c r="V393" s="55" t="s">
+        <v>1349</v>
+      </c>
+      <c r="W393" s="55" t="s">
         <v>1335</v>
       </c>
-      <c r="V393" s="55" t="s">
-        <v>1350</v>
-      </c>
-      <c r="W393" s="55" t="s">
+      <c r="X393" s="55" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Y393" s="73" t="s">
         <v>1336</v>
-      </c>
-      <c r="X393" s="55" t="s">
-        <v>1325</v>
-      </c>
-      <c r="Y393" s="73" t="s">
-        <v>1337</v>
       </c>
       <c r="Z393" s="36"/>
     </row>
@@ -38920,32 +38921,32 @@
         <v>853</v>
       </c>
       <c r="P394" s="36" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q394" s="36" t="s">
+        <v>1337</v>
+      </c>
+      <c r="R394" s="36" t="s">
+        <v>1339</v>
+      </c>
+      <c r="S394" s="36" t="s">
         <v>1338</v>
-      </c>
-      <c r="R394" s="36" t="s">
-        <v>1340</v>
-      </c>
-      <c r="S394" s="36" t="s">
-        <v>1339</v>
       </c>
       <c r="T394" s="36"/>
       <c r="U394" s="55" t="s">
+        <v>1340</v>
+      </c>
+      <c r="V394" s="55" t="s">
         <v>1341</v>
       </c>
-      <c r="V394" s="55" t="s">
+      <c r="W394" s="55" t="s">
         <v>1342</v>
       </c>
-      <c r="W394" s="55" t="s">
+      <c r="X394" s="55" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Y394" s="73" t="s">
         <v>1343</v>
-      </c>
-      <c r="X394" s="55" t="s">
-        <v>1325</v>
-      </c>
-      <c r="Y394" s="73" t="s">
-        <v>1344</v>
       </c>
       <c r="Z394" s="36"/>
     </row>
@@ -38995,22 +38996,22 @@
         <v>853</v>
       </c>
       <c r="P395" s="36" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q395" s="36" t="s">
+        <v>1344</v>
+      </c>
+      <c r="R395" s="36" t="s">
+        <v>1346</v>
+      </c>
+      <c r="S395" s="36" t="s">
         <v>1345</v>
       </c>
-      <c r="R395" s="36" t="s">
+      <c r="T395" s="36" t="s">
+        <v>1321</v>
+      </c>
+      <c r="U395" s="55" t="s">
         <v>1347</v>
-      </c>
-      <c r="S395" s="36" t="s">
-        <v>1346</v>
-      </c>
-      <c r="T395" s="36" t="s">
-        <v>1322</v>
-      </c>
-      <c r="U395" s="55" t="s">
-        <v>1348</v>
       </c>
       <c r="V395" s="55" t="s">
         <v>621</v>
@@ -39019,7 +39020,7 @@
         <v>371</v>
       </c>
       <c r="X395" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y395" s="54" t="s">
         <v>677</v>
@@ -39072,7 +39073,7 @@
         <v>853</v>
       </c>
       <c r="P396" s="36" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q396" s="36" t="s">
         <v>310</v>
@@ -39085,7 +39086,7 @@
       </c>
       <c r="T396" s="36"/>
       <c r="U396" s="37" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="V396" s="38" t="s">
         <v>620</v>
@@ -39094,7 +39095,7 @@
         <v>370</v>
       </c>
       <c r="X396" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y396" s="80" t="s">
         <v>676</v>
@@ -39147,7 +39148,7 @@
         <v>853</v>
       </c>
       <c r="P397" s="36" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q397" s="36" t="s">
         <v>315</v>
@@ -39166,10 +39167,10 @@
         <v>622</v>
       </c>
       <c r="W397" s="37" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="X397" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y397" s="80" t="s">
         <v>678</v>
@@ -39222,7 +39223,7 @@
         <v>853</v>
       </c>
       <c r="P398" s="36" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q398" s="36" t="s">
         <v>315</v>
@@ -39244,7 +39245,7 @@
         <v>373</v>
       </c>
       <c r="X398" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y398" s="80" t="s">
         <v>392</v>
@@ -39297,7 +39298,7 @@
         <v>853</v>
       </c>
       <c r="P399" s="36" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q399" s="36" t="s">
         <v>315</v>
@@ -39319,7 +39320,7 @@
         <v>374</v>
       </c>
       <c r="X399" s="38" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Y399" s="80" t="s">
         <v>654</v>
@@ -39332,73 +39333,73 @@
         <v>398</v>
       </c>
       <c r="B400" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="D400" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="F400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="G400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="H400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="I400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="J400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="K400" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="M400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="N400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="O400" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="P400" s="36" t="s">
         <v>1352</v>
       </c>
-      <c r="C400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="D400" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="F400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="G400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="H400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="I400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="J400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="K400" s="49" t="s">
-        <v>1257</v>
-      </c>
-      <c r="L400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="M400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="N400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="O400" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="P400" s="36" t="s">
+      <c r="Q400" s="36" t="s">
         <v>1353</v>
       </c>
-      <c r="Q400" s="36" t="s">
+      <c r="R400" s="36" t="s">
         <v>1354</v>
       </c>
-      <c r="R400" s="36" t="s">
+      <c r="S400" s="36" t="s">
         <v>1355</v>
       </c>
-      <c r="S400" s="36" t="s">
+      <c r="T400" s="36" t="s">
         <v>1356</v>
       </c>
-      <c r="T400" s="36" t="s">
+      <c r="U400" s="83" t="s">
+        <v>1527</v>
+      </c>
+      <c r="V400" s="83" t="s">
         <v>1357</v>
-      </c>
-      <c r="U400" s="83" t="s">
-        <v>1528</v>
-      </c>
-      <c r="V400" s="83" t="s">
-        <v>1358</v>
       </c>
       <c r="W400" s="83" t="s">
         <v>968</v>
       </c>
       <c r="X400" s="83" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="Y400" s="84" t="s">
         <v>1137</v>
@@ -39415,7 +39416,7 @@
         <v>853</v>
       </c>
       <c r="D401" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E401" s="82" t="s">
         <v>853</v>
@@ -39436,7 +39437,7 @@
         <v>853</v>
       </c>
       <c r="K401" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L401" s="82" t="s">
         <v>853</v>
@@ -39451,34 +39452,34 @@
         <v>853</v>
       </c>
       <c r="P401" s="36" t="s">
+        <v>1352</v>
+      </c>
+      <c r="Q401" s="36" t="s">
         <v>1353</v>
       </c>
-      <c r="Q401" s="36" t="s">
+      <c r="R401" s="36" t="s">
         <v>1354</v>
       </c>
-      <c r="R401" s="36" t="s">
+      <c r="S401" s="36" t="s">
         <v>1355</v>
       </c>
-      <c r="S401" s="36" t="s">
+      <c r="T401" s="36" t="s">
         <v>1356</v>
       </c>
-      <c r="T401" s="36" t="s">
-        <v>1357</v>
-      </c>
       <c r="U401" s="83" t="s">
+        <v>1359</v>
+      </c>
+      <c r="V401" s="83" t="s">
         <v>1360</v>
       </c>
-      <c r="V401" s="83" t="s">
+      <c r="W401" s="83" t="s">
         <v>1361</v>
       </c>
-      <c r="W401" s="83" t="s">
+      <c r="X401" s="83" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Y401" s="84" t="s">
         <v>1362</v>
-      </c>
-      <c r="X401" s="83" t="s">
-        <v>1359</v>
-      </c>
-      <c r="Y401" s="84" t="s">
-        <v>1363</v>
       </c>
       <c r="Z401" s="36"/>
     </row>
@@ -39492,7 +39493,7 @@
         <v>853</v>
       </c>
       <c r="D402" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E402" s="82" t="s">
         <v>853</v>
@@ -39513,7 +39514,7 @@
         <v>853</v>
       </c>
       <c r="K402" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L402" s="82" t="s">
         <v>853</v>
@@ -39528,32 +39529,32 @@
         <v>853</v>
       </c>
       <c r="P402" s="36" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Q402" s="36" t="s">
+        <v>1528</v>
+      </c>
+      <c r="R402" s="36" t="s">
+        <v>1531</v>
+      </c>
+      <c r="S402" s="36" t="s">
+        <v>1530</v>
+      </c>
+      <c r="T402" s="36" t="s">
+        <v>1356</v>
+      </c>
+      <c r="U402" s="82" t="s">
         <v>1529</v>
       </c>
-      <c r="R402" s="36" t="s">
+      <c r="V402" s="82" t="s">
         <v>1532</v>
       </c>
-      <c r="S402" s="36" t="s">
-        <v>1531</v>
-      </c>
-      <c r="T402" s="36" t="s">
-        <v>1357</v>
-      </c>
-      <c r="U402" s="82" t="s">
-        <v>1530</v>
-      </c>
-      <c r="V402" s="82" t="s">
-        <v>1533</v>
-      </c>
       <c r="W402" s="87" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="X402" s="87"/>
       <c r="Y402" s="88" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="Z402" s="36"/>
     </row>
